--- a/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>SSDOY</t>
   </si>
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10285800</v>
+        <v>10512100</v>
       </c>
       <c r="E8" s="3">
-        <v>9952000</v>
+        <v>10170900</v>
       </c>
       <c r="F8" s="3">
-        <v>9136000</v>
+        <v>9337000</v>
       </c>
       <c r="G8" s="3">
-        <v>7729300</v>
+        <v>7899300</v>
       </c>
       <c r="H8" s="3">
-        <v>6936200</v>
+        <v>7088800</v>
       </c>
       <c r="I8" s="3">
-        <v>7069200</v>
+        <v>7224700</v>
       </c>
       <c r="J8" s="3">
-        <v>6927000</v>
+        <v>7079400</v>
       </c>
       <c r="K8" s="3">
         <v>6126700</v>
@@ -751,25 +751,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2316500</v>
+        <v>2367500</v>
       </c>
       <c r="E9" s="3">
-        <v>2108200</v>
+        <v>2154600</v>
       </c>
       <c r="F9" s="3">
-        <v>2102800</v>
+        <v>2149000</v>
       </c>
       <c r="G9" s="3">
-        <v>1886700</v>
+        <v>1928200</v>
       </c>
       <c r="H9" s="3">
-        <v>1781700</v>
+        <v>1820900</v>
       </c>
       <c r="I9" s="3">
-        <v>1785600</v>
+        <v>1824900</v>
       </c>
       <c r="J9" s="3">
-        <v>1723100</v>
+        <v>1761000</v>
       </c>
       <c r="K9" s="3">
         <v>1507700</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7969200</v>
+        <v>8144600</v>
       </c>
       <c r="E10" s="3">
-        <v>7843700</v>
+        <v>8016300</v>
       </c>
       <c r="F10" s="3">
-        <v>7033300</v>
+        <v>7188000</v>
       </c>
       <c r="G10" s="3">
-        <v>5842600</v>
+        <v>5971200</v>
       </c>
       <c r="H10" s="3">
-        <v>5154500</v>
+        <v>5267900</v>
       </c>
       <c r="I10" s="3">
-        <v>5283600</v>
+        <v>5399800</v>
       </c>
       <c r="J10" s="3">
-        <v>5203900</v>
+        <v>5318400</v>
       </c>
       <c r="K10" s="3">
         <v>4618900</v>
@@ -831,26 +831,26 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>91</v>
+      <c r="D12" s="3">
+        <v>294500</v>
       </c>
       <c r="E12" s="3">
-        <v>264800</v>
+        <v>270600</v>
       </c>
       <c r="F12" s="3">
-        <v>220300</v>
+        <v>225100</v>
       </c>
       <c r="G12" s="3">
-        <v>166000</v>
+        <v>169700</v>
       </c>
       <c r="H12" s="3">
-        <v>102700</v>
+        <v>105000</v>
       </c>
       <c r="I12" s="3">
-        <v>129300</v>
+        <v>132200</v>
       </c>
       <c r="J12" s="3">
-        <v>123100</v>
+        <v>125800</v>
       </c>
       <c r="K12" s="3">
         <v>123500</v>
@@ -898,25 +898,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>32900</v>
+        <v>33600</v>
       </c>
       <c r="E14" s="3">
-        <v>82900</v>
+        <v>84700</v>
       </c>
       <c r="F14" s="3">
-        <v>717200</v>
+        <v>733000</v>
       </c>
       <c r="G14" s="3">
-        <v>43500</v>
+        <v>44500</v>
       </c>
       <c r="H14" s="3">
-        <v>22300</v>
+        <v>22800</v>
       </c>
       <c r="I14" s="3">
-        <v>53900</v>
+        <v>55100</v>
       </c>
       <c r="J14" s="3">
-        <v>60000</v>
+        <v>61300</v>
       </c>
       <c r="K14" s="3">
         <v>315400</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9283900</v>
+        <v>9488200</v>
       </c>
       <c r="E17" s="3">
-        <v>9050000</v>
+        <v>9249100</v>
       </c>
       <c r="F17" s="3">
-        <v>9122100</v>
+        <v>9322800</v>
       </c>
       <c r="G17" s="3">
-        <v>7438400</v>
+        <v>7602100</v>
       </c>
       <c r="H17" s="3">
-        <v>6616200</v>
+        <v>6761800</v>
       </c>
       <c r="I17" s="3">
-        <v>6872100</v>
+        <v>7023300</v>
       </c>
       <c r="J17" s="3">
-        <v>6535700</v>
+        <v>6679500</v>
       </c>
       <c r="K17" s="3">
         <v>6206600</v>
@@ -1009,25 +1009,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1001800</v>
+        <v>1023900</v>
       </c>
       <c r="E18" s="3">
-        <v>902000</v>
+        <v>921800</v>
       </c>
       <c r="F18" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="G18" s="3">
-        <v>290800</v>
+        <v>297200</v>
       </c>
       <c r="H18" s="3">
-        <v>320000</v>
+        <v>327000</v>
       </c>
       <c r="I18" s="3">
-        <v>197100</v>
+        <v>201400</v>
       </c>
       <c r="J18" s="3">
-        <v>391300</v>
+        <v>399900</v>
       </c>
       <c r="K18" s="3">
         <v>-79900</v>
@@ -1057,25 +1057,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-4900</v>
+        <v>-5100</v>
       </c>
       <c r="E20" s="3">
-        <v>53200</v>
+        <v>54400</v>
       </c>
       <c r="F20" s="3">
-        <v>345500</v>
+        <v>353100</v>
       </c>
       <c r="G20" s="3">
-        <v>169800</v>
+        <v>173600</v>
       </c>
       <c r="H20" s="3">
-        <v>77300</v>
+        <v>79000</v>
       </c>
       <c r="I20" s="3">
-        <v>259600</v>
+        <v>265400</v>
       </c>
       <c r="J20" s="3">
-        <v>82900</v>
+        <v>84700</v>
       </c>
       <c r="K20" s="3">
         <v>37800</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1529000</v>
+        <v>1560900</v>
       </c>
       <c r="E21" s="3">
-        <v>1354600</v>
+        <v>1383100</v>
       </c>
       <c r="F21" s="3">
-        <v>758900</v>
+        <v>774300</v>
       </c>
       <c r="G21" s="3">
-        <v>819600</v>
+        <v>836400</v>
       </c>
       <c r="H21" s="3">
-        <v>733700</v>
+        <v>748700</v>
       </c>
       <c r="I21" s="3">
-        <v>803600</v>
+        <v>820100</v>
       </c>
       <c r="J21" s="3">
-        <v>822000</v>
+        <v>838900</v>
       </c>
       <c r="K21" s="3">
         <v>297600</v>
@@ -1123,25 +1123,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>20800</v>
+        <v>21300</v>
       </c>
       <c r="E22" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="F22" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="G22" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="H22" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="I22" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="J22" s="3">
-        <v>15700</v>
+        <v>16100</v>
       </c>
       <c r="K22" s="3">
         <v>16100</v>
@@ -1156,25 +1156,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>976100</v>
+        <v>997500</v>
       </c>
       <c r="E23" s="3">
-        <v>948200</v>
+        <v>969000</v>
       </c>
       <c r="F23" s="3">
-        <v>350500</v>
+        <v>358200</v>
       </c>
       <c r="G23" s="3">
-        <v>453300</v>
+        <v>463300</v>
       </c>
       <c r="H23" s="3">
-        <v>389900</v>
+        <v>398500</v>
       </c>
       <c r="I23" s="3">
-        <v>445800</v>
+        <v>455600</v>
       </c>
       <c r="J23" s="3">
-        <v>458400</v>
+        <v>468500</v>
       </c>
       <c r="K23" s="3">
         <v>-58200</v>
@@ -1189,25 +1189,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>273400</v>
+        <v>279400</v>
       </c>
       <c r="E24" s="3">
-        <v>358200</v>
+        <v>366100</v>
       </c>
       <c r="F24" s="3">
-        <v>120000</v>
+        <v>122600</v>
       </c>
       <c r="G24" s="3">
-        <v>144900</v>
+        <v>148100</v>
       </c>
       <c r="H24" s="3">
-        <v>157200</v>
+        <v>160600</v>
       </c>
       <c r="I24" s="3">
-        <v>116500</v>
+        <v>119000</v>
       </c>
       <c r="J24" s="3">
-        <v>197200</v>
+        <v>201500</v>
       </c>
       <c r="K24" s="3">
         <v>56700</v>
@@ -1255,25 +1255,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>702700</v>
+        <v>718100</v>
       </c>
       <c r="E26" s="3">
-        <v>590000</v>
+        <v>603000</v>
       </c>
       <c r="F26" s="3">
-        <v>230500</v>
+        <v>235500</v>
       </c>
       <c r="G26" s="3">
-        <v>308400</v>
+        <v>315200</v>
       </c>
       <c r="H26" s="3">
-        <v>232700</v>
+        <v>237800</v>
       </c>
       <c r="I26" s="3">
-        <v>329300</v>
+        <v>336500</v>
       </c>
       <c r="J26" s="3">
-        <v>261200</v>
+        <v>267000</v>
       </c>
       <c r="K26" s="3">
         <v>-114900</v>
@@ -1288,25 +1288,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>668700</v>
+        <v>683400</v>
       </c>
       <c r="E27" s="3">
-        <v>558200</v>
+        <v>570400</v>
       </c>
       <c r="F27" s="3">
-        <v>206800</v>
+        <v>211300</v>
       </c>
       <c r="G27" s="3">
-        <v>291800</v>
+        <v>298200</v>
       </c>
       <c r="H27" s="3">
-        <v>211000</v>
+        <v>215600</v>
       </c>
       <c r="I27" s="3">
-        <v>306000</v>
+        <v>312800</v>
       </c>
       <c r="J27" s="3">
-        <v>237700</v>
+        <v>242900</v>
       </c>
       <c r="K27" s="3">
         <v>-132800</v>
@@ -1453,25 +1453,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="E32" s="3">
-        <v>-53200</v>
+        <v>-54400</v>
       </c>
       <c r="F32" s="3">
-        <v>-345500</v>
+        <v>-353100</v>
       </c>
       <c r="G32" s="3">
-        <v>-169800</v>
+        <v>-173600</v>
       </c>
       <c r="H32" s="3">
-        <v>-77300</v>
+        <v>-79000</v>
       </c>
       <c r="I32" s="3">
-        <v>-259600</v>
+        <v>-265400</v>
       </c>
       <c r="J32" s="3">
-        <v>-82900</v>
+        <v>-84700</v>
       </c>
       <c r="K32" s="3">
         <v>-37800</v>
@@ -1486,25 +1486,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>668700</v>
+        <v>683400</v>
       </c>
       <c r="E33" s="3">
-        <v>558200</v>
+        <v>570400</v>
       </c>
       <c r="F33" s="3">
-        <v>206800</v>
+        <v>211300</v>
       </c>
       <c r="G33" s="3">
-        <v>291800</v>
+        <v>298200</v>
       </c>
       <c r="H33" s="3">
-        <v>211000</v>
+        <v>215600</v>
       </c>
       <c r="I33" s="3">
-        <v>306000</v>
+        <v>312800</v>
       </c>
       <c r="J33" s="3">
-        <v>237700</v>
+        <v>242900</v>
       </c>
       <c r="K33" s="3">
         <v>-132800</v>
@@ -1552,25 +1552,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>668700</v>
+        <v>683400</v>
       </c>
       <c r="E35" s="3">
-        <v>558200</v>
+        <v>570400</v>
       </c>
       <c r="F35" s="3">
-        <v>206800</v>
+        <v>211300</v>
       </c>
       <c r="G35" s="3">
-        <v>291800</v>
+        <v>298200</v>
       </c>
       <c r="H35" s="3">
-        <v>211000</v>
+        <v>215600</v>
       </c>
       <c r="I35" s="3">
-        <v>306000</v>
+        <v>312800</v>
       </c>
       <c r="J35" s="3">
-        <v>237700</v>
+        <v>242900</v>
       </c>
       <c r="K35" s="3">
         <v>-132800</v>
@@ -1653,25 +1653,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1003000</v>
+        <v>1024000</v>
       </c>
       <c r="E41" s="3">
-        <v>1144300</v>
+        <v>1168300</v>
       </c>
       <c r="F41" s="3">
-        <v>1515300</v>
+        <v>1547000</v>
       </c>
       <c r="G41" s="3">
-        <v>1091900</v>
+        <v>1114800</v>
       </c>
       <c r="H41" s="3">
-        <v>1061400</v>
+        <v>1083600</v>
       </c>
       <c r="I41" s="3">
-        <v>941800</v>
+        <v>961400</v>
       </c>
       <c r="J41" s="3">
-        <v>870600</v>
+        <v>888800</v>
       </c>
       <c r="K41" s="3">
         <v>536300</v>
@@ -1692,19 +1692,19 @@
         <v>91</v>
       </c>
       <c r="F42" s="3">
-        <v>70700</v>
+        <v>72200</v>
       </c>
       <c r="G42" s="3">
-        <v>71900</v>
+        <v>73400</v>
       </c>
       <c r="H42" s="3">
-        <v>69900</v>
+        <v>71300</v>
       </c>
       <c r="I42" s="3">
-        <v>166000</v>
+        <v>169500</v>
       </c>
       <c r="J42" s="3">
-        <v>301100</v>
+        <v>307400</v>
       </c>
       <c r="K42" s="3">
         <v>288700</v>
@@ -1719,25 +1719,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1546800</v>
+        <v>1579100</v>
       </c>
       <c r="E43" s="3">
-        <v>1495300</v>
+        <v>1526600</v>
       </c>
       <c r="F43" s="3">
-        <v>1457400</v>
+        <v>1487900</v>
       </c>
       <c r="G43" s="3">
-        <v>1225700</v>
+        <v>1251300</v>
       </c>
       <c r="H43" s="3">
-        <v>1140200</v>
+        <v>1164000</v>
       </c>
       <c r="I43" s="3">
-        <v>1183700</v>
+        <v>1208400</v>
       </c>
       <c r="J43" s="3">
-        <v>1243500</v>
+        <v>1269500</v>
       </c>
       <c r="K43" s="3">
         <v>1059600</v>
@@ -1752,25 +1752,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1646200</v>
+        <v>1680600</v>
       </c>
       <c r="E44" s="3">
-        <v>1361600</v>
+        <v>1390000</v>
       </c>
       <c r="F44" s="3">
-        <v>1181300</v>
+        <v>1206000</v>
       </c>
       <c r="G44" s="3">
-        <v>2102900</v>
+        <v>2146900</v>
       </c>
       <c r="H44" s="3">
-        <v>962900</v>
+        <v>983000</v>
       </c>
       <c r="I44" s="3">
-        <v>969900</v>
+        <v>990100</v>
       </c>
       <c r="J44" s="3">
-        <v>820300</v>
+        <v>837500</v>
       </c>
       <c r="K44" s="3">
         <v>1528700</v>
@@ -1785,25 +1785,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>645500</v>
+        <v>659000</v>
       </c>
       <c r="E45" s="3">
-        <v>659100</v>
+        <v>672800</v>
       </c>
       <c r="F45" s="3">
-        <v>558900</v>
+        <v>570500</v>
       </c>
       <c r="G45" s="3">
-        <v>485100</v>
+        <v>495200</v>
       </c>
       <c r="H45" s="3">
-        <v>498600</v>
+        <v>509000</v>
       </c>
       <c r="I45" s="3">
-        <v>511600</v>
+        <v>522300</v>
       </c>
       <c r="J45" s="3">
-        <v>424000</v>
+        <v>432900</v>
       </c>
       <c r="K45" s="3">
         <v>358500</v>
@@ -1818,25 +1818,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4841500</v>
+        <v>4942700</v>
       </c>
       <c r="E46" s="3">
-        <v>4390400</v>
+        <v>4482200</v>
       </c>
       <c r="F46" s="3">
-        <v>4783600</v>
+        <v>4883600</v>
       </c>
       <c r="G46" s="3">
-        <v>3926000</v>
+        <v>4008100</v>
       </c>
       <c r="H46" s="3">
-        <v>3733000</v>
+        <v>3811000</v>
       </c>
       <c r="I46" s="3">
-        <v>3773000</v>
+        <v>3851800</v>
       </c>
       <c r="J46" s="3">
-        <v>3659500</v>
+        <v>3736000</v>
       </c>
       <c r="K46" s="3">
         <v>3007400</v>
@@ -1851,25 +1851,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>126200</v>
+        <v>128800</v>
       </c>
       <c r="E47" s="3">
-        <v>418000</v>
+        <v>426800</v>
       </c>
       <c r="F47" s="3">
-        <v>237500</v>
+        <v>242500</v>
       </c>
       <c r="G47" s="3">
-        <v>454500</v>
+        <v>464000</v>
       </c>
       <c r="H47" s="3">
-        <v>252600</v>
+        <v>257800</v>
       </c>
       <c r="I47" s="3">
-        <v>265200</v>
+        <v>270700</v>
       </c>
       <c r="J47" s="3">
-        <v>243900</v>
+        <v>249000</v>
       </c>
       <c r="K47" s="3">
         <v>551200</v>
@@ -1884,25 +1884,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2861100</v>
+        <v>2920900</v>
       </c>
       <c r="E48" s="3">
-        <v>2137800</v>
+        <v>2182500</v>
       </c>
       <c r="F48" s="3">
-        <v>1442400</v>
+        <v>1472600</v>
       </c>
       <c r="G48" s="3">
-        <v>1419800</v>
+        <v>1449500</v>
       </c>
       <c r="H48" s="3">
-        <v>1220600</v>
+        <v>1246100</v>
       </c>
       <c r="I48" s="3">
-        <v>1245200</v>
+        <v>1271200</v>
       </c>
       <c r="J48" s="3">
-        <v>1226100</v>
+        <v>1251700</v>
       </c>
       <c r="K48" s="3">
         <v>1155400</v>
@@ -1917,25 +1917,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2265300</v>
+        <v>2312700</v>
       </c>
       <c r="E49" s="3">
-        <v>1503500</v>
+        <v>1535000</v>
       </c>
       <c r="F49" s="3">
-        <v>1532400</v>
+        <v>1564500</v>
       </c>
       <c r="G49" s="3">
-        <v>2239200</v>
+        <v>2286000</v>
       </c>
       <c r="H49" s="3">
-        <v>1467200</v>
+        <v>1497800</v>
       </c>
       <c r="I49" s="3">
-        <v>1519100</v>
+        <v>1550900</v>
       </c>
       <c r="J49" s="3">
-        <v>1515600</v>
+        <v>1547300</v>
       </c>
       <c r="K49" s="3">
         <v>1362300</v>
@@ -2016,25 +2016,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>984600</v>
+        <v>1005200</v>
       </c>
       <c r="E52" s="3">
-        <v>937000</v>
+        <v>956500</v>
       </c>
       <c r="F52" s="3">
-        <v>634300</v>
+        <v>647600</v>
       </c>
       <c r="G52" s="3">
-        <v>682300</v>
+        <v>696500</v>
       </c>
       <c r="H52" s="3">
-        <v>676400</v>
+        <v>690500</v>
       </c>
       <c r="I52" s="3">
-        <v>684400</v>
+        <v>698700</v>
       </c>
       <c r="J52" s="3">
-        <v>639200</v>
+        <v>652500</v>
       </c>
       <c r="K52" s="3">
         <v>668600</v>
@@ -2082,25 +2082,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>11078800</v>
+        <v>11310400</v>
       </c>
       <c r="E54" s="3">
-        <v>9177400</v>
+        <v>9369300</v>
       </c>
       <c r="F54" s="3">
-        <v>8630300</v>
+        <v>8810700</v>
       </c>
       <c r="G54" s="3">
-        <v>8495400</v>
+        <v>8673000</v>
       </c>
       <c r="H54" s="3">
-        <v>7349700</v>
+        <v>7503300</v>
       </c>
       <c r="I54" s="3">
-        <v>7486900</v>
+        <v>7643300</v>
       </c>
       <c r="J54" s="3">
-        <v>7284200</v>
+        <v>7436500</v>
       </c>
       <c r="K54" s="3">
         <v>6469000</v>
@@ -2145,25 +2145,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>881200</v>
+        <v>899600</v>
       </c>
       <c r="E57" s="3">
-        <v>929800</v>
+        <v>949300</v>
       </c>
       <c r="F57" s="3">
-        <v>791100</v>
+        <v>807700</v>
       </c>
       <c r="G57" s="3">
-        <v>758000</v>
+        <v>773900</v>
       </c>
       <c r="H57" s="3">
-        <v>566400</v>
+        <v>578300</v>
       </c>
       <c r="I57" s="3">
-        <v>549400</v>
+        <v>560900</v>
       </c>
       <c r="J57" s="3">
-        <v>463100</v>
+        <v>472800</v>
       </c>
       <c r="K57" s="3">
         <v>393600</v>
@@ -2178,25 +2178,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1317600</v>
+        <v>1345100</v>
       </c>
       <c r="E58" s="3">
-        <v>138200</v>
+        <v>141100</v>
       </c>
       <c r="F58" s="3">
-        <v>96900</v>
+        <v>98900</v>
       </c>
       <c r="G58" s="3">
-        <v>150500</v>
+        <v>153600</v>
       </c>
       <c r="H58" s="3">
-        <v>172700</v>
+        <v>176300</v>
       </c>
       <c r="I58" s="3">
-        <v>687300</v>
+        <v>701700</v>
       </c>
       <c r="J58" s="3">
-        <v>582200</v>
+        <v>594400</v>
       </c>
       <c r="K58" s="3">
         <v>356100</v>
@@ -2211,25 +2211,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2021500</v>
+        <v>2063800</v>
       </c>
       <c r="E59" s="3">
-        <v>2022000</v>
+        <v>2064300</v>
       </c>
       <c r="F59" s="3">
-        <v>1760600</v>
+        <v>1797400</v>
       </c>
       <c r="G59" s="3">
-        <v>1333900</v>
+        <v>1361700</v>
       </c>
       <c r="H59" s="3">
-        <v>1140600</v>
+        <v>1164400</v>
       </c>
       <c r="I59" s="3">
-        <v>1175600</v>
+        <v>1200200</v>
       </c>
       <c r="J59" s="3">
-        <v>1225200</v>
+        <v>1250800</v>
       </c>
       <c r="K59" s="3">
         <v>942800</v>
@@ -2244,25 +2244,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>4220200</v>
+        <v>4308500</v>
       </c>
       <c r="E60" s="3">
-        <v>3090100</v>
+        <v>3154600</v>
       </c>
       <c r="F60" s="3">
-        <v>2648600</v>
+        <v>2704000</v>
       </c>
       <c r="G60" s="3">
-        <v>2242400</v>
+        <v>2289300</v>
       </c>
       <c r="H60" s="3">
-        <v>1879700</v>
+        <v>1919000</v>
       </c>
       <c r="I60" s="3">
-        <v>2412300</v>
+        <v>2462700</v>
       </c>
       <c r="J60" s="3">
-        <v>2270500</v>
+        <v>2318000</v>
       </c>
       <c r="K60" s="3">
         <v>1692500</v>
@@ -2277,25 +2277,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>937700</v>
+        <v>957300</v>
       </c>
       <c r="E61" s="3">
-        <v>550600</v>
+        <v>1064800</v>
       </c>
       <c r="F61" s="3">
-        <v>1181300</v>
+        <v>1206000</v>
       </c>
       <c r="G61" s="3">
-        <v>945600</v>
+        <v>965300</v>
       </c>
       <c r="H61" s="3">
-        <v>614600</v>
+        <v>627500</v>
       </c>
       <c r="I61" s="3">
-        <v>284300</v>
+        <v>290300</v>
       </c>
       <c r="J61" s="3">
-        <v>835000</v>
+        <v>852500</v>
       </c>
       <c r="K61" s="3">
         <v>1313300</v>
@@ -2310,25 +2310,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1213600</v>
+        <v>1238900</v>
       </c>
       <c r="E62" s="3">
-        <v>1282800</v>
+        <v>1309600</v>
       </c>
       <c r="F62" s="3">
-        <v>747400</v>
+        <v>763000</v>
       </c>
       <c r="G62" s="3">
-        <v>1545400</v>
+        <v>1577700</v>
       </c>
       <c r="H62" s="3">
-        <v>1098200</v>
+        <v>1121100</v>
       </c>
       <c r="I62" s="3">
-        <v>1069000</v>
+        <v>1091400</v>
       </c>
       <c r="J62" s="3">
-        <v>918000</v>
+        <v>937200</v>
       </c>
       <c r="K62" s="3">
         <v>722700</v>
@@ -2442,25 +2442,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6554700</v>
+        <v>6691800</v>
       </c>
       <c r="E66" s="3">
-        <v>5091200</v>
+        <v>5197600</v>
       </c>
       <c r="F66" s="3">
-        <v>4773200</v>
+        <v>4873000</v>
       </c>
       <c r="G66" s="3">
-        <v>4915900</v>
+        <v>5018700</v>
       </c>
       <c r="H66" s="3">
-        <v>3781600</v>
+        <v>3860700</v>
       </c>
       <c r="I66" s="3">
-        <v>3960800</v>
+        <v>4043600</v>
       </c>
       <c r="J66" s="3">
-        <v>4198200</v>
+        <v>4285900</v>
       </c>
       <c r="K66" s="3">
         <v>3866200</v>
@@ -2622,25 +2622,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>3387800</v>
+        <v>3458600</v>
       </c>
       <c r="E72" s="3">
-        <v>2908400</v>
+        <v>2969200</v>
       </c>
       <c r="F72" s="3">
-        <v>2477500</v>
+        <v>2529300</v>
       </c>
       <c r="G72" s="3">
-        <v>2352700</v>
+        <v>2401900</v>
       </c>
       <c r="H72" s="3">
-        <v>2134300</v>
+        <v>2178900</v>
       </c>
       <c r="I72" s="3">
-        <v>1998000</v>
+        <v>2039700</v>
       </c>
       <c r="J72" s="3">
-        <v>1857900</v>
+        <v>1896800</v>
       </c>
       <c r="K72" s="3">
         <v>1738600</v>
@@ -2754,25 +2754,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>4524100</v>
+        <v>4618700</v>
       </c>
       <c r="E76" s="3">
-        <v>4086300</v>
+        <v>4171700</v>
       </c>
       <c r="F76" s="3">
-        <v>3857100</v>
+        <v>3937700</v>
       </c>
       <c r="G76" s="3">
-        <v>3579500</v>
+        <v>3654300</v>
       </c>
       <c r="H76" s="3">
-        <v>3568100</v>
+        <v>3642700</v>
       </c>
       <c r="I76" s="3">
-        <v>3526000</v>
+        <v>3599700</v>
       </c>
       <c r="J76" s="3">
-        <v>3086100</v>
+        <v>3150600</v>
       </c>
       <c r="K76" s="3">
         <v>2602800</v>
@@ -2858,25 +2858,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>668700</v>
+        <v>683400</v>
       </c>
       <c r="E81" s="3">
-        <v>558200</v>
+        <v>570400</v>
       </c>
       <c r="F81" s="3">
-        <v>206800</v>
+        <v>211300</v>
       </c>
       <c r="G81" s="3">
-        <v>291800</v>
+        <v>298200</v>
       </c>
       <c r="H81" s="3">
-        <v>211000</v>
+        <v>215600</v>
       </c>
       <c r="I81" s="3">
-        <v>306000</v>
+        <v>312800</v>
       </c>
       <c r="J81" s="3">
-        <v>237700</v>
+        <v>242900</v>
       </c>
       <c r="K81" s="3">
         <v>-132800</v>
@@ -2906,25 +2906,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>530900</v>
+        <v>542600</v>
       </c>
       <c r="E83" s="3">
-        <v>398600</v>
+        <v>407300</v>
       </c>
       <c r="F83" s="3">
-        <v>398600</v>
+        <v>407400</v>
       </c>
       <c r="G83" s="3">
-        <v>358100</v>
+        <v>366000</v>
       </c>
       <c r="H83" s="3">
-        <v>335700</v>
+        <v>343100</v>
       </c>
       <c r="I83" s="3">
-        <v>346100</v>
+        <v>353800</v>
       </c>
       <c r="J83" s="3">
-        <v>347100</v>
+        <v>354800</v>
       </c>
       <c r="K83" s="3">
         <v>339300</v>
@@ -3104,25 +3104,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>686600</v>
+        <v>701700</v>
       </c>
       <c r="E89" s="3">
-        <v>841500</v>
+        <v>860000</v>
       </c>
       <c r="F89" s="3">
-        <v>867100</v>
+        <v>886200</v>
       </c>
       <c r="G89" s="3">
-        <v>537500</v>
+        <v>549300</v>
       </c>
       <c r="H89" s="3">
-        <v>550200</v>
+        <v>562300</v>
       </c>
       <c r="I89" s="3">
-        <v>297300</v>
+        <v>303800</v>
       </c>
       <c r="J89" s="3">
-        <v>766500</v>
+        <v>783300</v>
       </c>
       <c r="K89" s="3">
         <v>380100</v>
@@ -3152,25 +3152,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-838100</v>
+        <v>-856600</v>
       </c>
       <c r="E91" s="3">
-        <v>-732600</v>
+        <v>-748700</v>
       </c>
       <c r="F91" s="3">
-        <v>-327400</v>
+        <v>-334600</v>
       </c>
       <c r="G91" s="3">
-        <v>-285100</v>
+        <v>-291400</v>
       </c>
       <c r="H91" s="3">
-        <v>-154000</v>
+        <v>-157400</v>
       </c>
       <c r="I91" s="3">
-        <v>-141900</v>
+        <v>-145000</v>
       </c>
       <c r="J91" s="3">
-        <v>-163300</v>
+        <v>-166900</v>
       </c>
       <c r="K91" s="3">
         <v>-169600</v>
@@ -3251,25 +3251,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1843700</v>
+        <v>-1884200</v>
       </c>
       <c r="E94" s="3">
-        <v>-937300</v>
+        <v>-957900</v>
       </c>
       <c r="F94" s="3">
-        <v>-9600</v>
+        <v>-9900</v>
       </c>
       <c r="G94" s="3">
-        <v>-642100</v>
+        <v>-656200</v>
       </c>
       <c r="H94" s="3">
-        <v>-210300</v>
+        <v>-214900</v>
       </c>
       <c r="I94" s="3">
-        <v>104900</v>
+        <v>107200</v>
       </c>
       <c r="J94" s="3">
-        <v>-152700</v>
+        <v>-156100</v>
       </c>
       <c r="K94" s="3">
         <v>-230800</v>
@@ -3299,25 +3299,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-200200</v>
+        <v>-204600</v>
       </c>
       <c r="E96" s="3">
-        <v>-126700</v>
+        <v>-129500</v>
       </c>
       <c r="F96" s="3">
-        <v>-81600</v>
+        <v>-83400</v>
       </c>
       <c r="G96" s="3">
-        <v>-74700</v>
+        <v>-76300</v>
       </c>
       <c r="H96" s="3">
-        <v>-70100</v>
+        <v>-71600</v>
       </c>
       <c r="I96" s="3">
-        <v>-72600</v>
+        <v>-74200</v>
       </c>
       <c r="J96" s="3">
-        <v>-126800</v>
+        <v>-129600</v>
       </c>
       <c r="K96" s="3">
         <v>-179900</v>
@@ -3431,25 +3431,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>1033300</v>
+        <v>1056100</v>
       </c>
       <c r="E100" s="3">
-        <v>-270200</v>
+        <v>-276100</v>
       </c>
       <c r="F100" s="3">
-        <v>-482800</v>
+        <v>-493500</v>
       </c>
       <c r="G100" s="3">
-        <v>203400</v>
+        <v>207900</v>
       </c>
       <c r="H100" s="3">
-        <v>-274100</v>
+        <v>-280100</v>
       </c>
       <c r="I100" s="3">
-        <v>-531000</v>
+        <v>-542700</v>
       </c>
       <c r="J100" s="3">
-        <v>-431400</v>
+        <v>-440900</v>
       </c>
       <c r="K100" s="3">
         <v>-223700</v>
@@ -3464,25 +3464,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="E101" s="3">
-        <v>-43700</v>
+        <v>-44700</v>
       </c>
       <c r="F101" s="3">
-        <v>22700</v>
+        <v>23200</v>
       </c>
       <c r="G101" s="3">
-        <v>-24300</v>
+        <v>-24800</v>
       </c>
       <c r="H101" s="3">
-        <v>-28400</v>
+        <v>-29000</v>
       </c>
       <c r="I101" s="3">
-        <v>43800</v>
+        <v>44800</v>
       </c>
       <c r="J101" s="3">
-        <v>89600</v>
+        <v>91500</v>
       </c>
       <c r="K101" s="3">
         <v>49900</v>
@@ -3497,25 +3497,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-130000</v>
+        <v>-132800</v>
       </c>
       <c r="E102" s="3">
-        <v>-409600</v>
+        <v>-418700</v>
       </c>
       <c r="F102" s="3">
-        <v>397300</v>
+        <v>406100</v>
       </c>
       <c r="G102" s="3">
-        <v>74500</v>
+        <v>76100</v>
       </c>
       <c r="H102" s="3">
-        <v>37500</v>
+        <v>38300</v>
       </c>
       <c r="I102" s="3">
-        <v>-85100</v>
+        <v>-86900</v>
       </c>
       <c r="J102" s="3">
-        <v>271900</v>
+        <v>277900</v>
       </c>
       <c r="K102" s="3">
         <v>-24600</v>

--- a/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10512100</v>
+        <v>10681800</v>
       </c>
       <c r="E8" s="3">
-        <v>10170900</v>
+        <v>10335100</v>
       </c>
       <c r="F8" s="3">
-        <v>9337000</v>
+        <v>9487800</v>
       </c>
       <c r="G8" s="3">
-        <v>7899300</v>
+        <v>8026900</v>
       </c>
       <c r="H8" s="3">
-        <v>7088800</v>
+        <v>7203300</v>
       </c>
       <c r="I8" s="3">
-        <v>7224700</v>
+        <v>7341400</v>
       </c>
       <c r="J8" s="3">
-        <v>7079400</v>
+        <v>7193700</v>
       </c>
       <c r="K8" s="3">
         <v>6126700</v>
@@ -751,25 +751,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2367500</v>
+        <v>2405700</v>
       </c>
       <c r="E9" s="3">
-        <v>2154600</v>
+        <v>2189400</v>
       </c>
       <c r="F9" s="3">
-        <v>2149000</v>
+        <v>2183700</v>
       </c>
       <c r="G9" s="3">
-        <v>1928200</v>
+        <v>1959300</v>
       </c>
       <c r="H9" s="3">
-        <v>1820900</v>
+        <v>1850300</v>
       </c>
       <c r="I9" s="3">
-        <v>1824900</v>
+        <v>1854300</v>
       </c>
       <c r="J9" s="3">
-        <v>1761000</v>
+        <v>1789400</v>
       </c>
       <c r="K9" s="3">
         <v>1507700</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8144600</v>
+        <v>8276100</v>
       </c>
       <c r="E10" s="3">
-        <v>8016300</v>
+        <v>8145700</v>
       </c>
       <c r="F10" s="3">
-        <v>7188000</v>
+        <v>7304100</v>
       </c>
       <c r="G10" s="3">
-        <v>5971200</v>
+        <v>6067600</v>
       </c>
       <c r="H10" s="3">
-        <v>5267900</v>
+        <v>5352900</v>
       </c>
       <c r="I10" s="3">
-        <v>5399800</v>
+        <v>5487000</v>
       </c>
       <c r="J10" s="3">
-        <v>5318400</v>
+        <v>5404300</v>
       </c>
       <c r="K10" s="3">
         <v>4618900</v>
@@ -832,25 +832,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>294500</v>
+        <v>299200</v>
       </c>
       <c r="E12" s="3">
-        <v>270600</v>
+        <v>275000</v>
       </c>
       <c r="F12" s="3">
-        <v>225100</v>
+        <v>228700</v>
       </c>
       <c r="G12" s="3">
-        <v>169700</v>
+        <v>172400</v>
       </c>
       <c r="H12" s="3">
-        <v>105000</v>
+        <v>106700</v>
       </c>
       <c r="I12" s="3">
-        <v>132200</v>
+        <v>134300</v>
       </c>
       <c r="J12" s="3">
-        <v>125800</v>
+        <v>127800</v>
       </c>
       <c r="K12" s="3">
         <v>123500</v>
@@ -898,25 +898,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>33600</v>
+        <v>34100</v>
       </c>
       <c r="E14" s="3">
-        <v>84700</v>
+        <v>86100</v>
       </c>
       <c r="F14" s="3">
-        <v>733000</v>
+        <v>744800</v>
       </c>
       <c r="G14" s="3">
-        <v>44500</v>
+        <v>45200</v>
       </c>
       <c r="H14" s="3">
-        <v>22800</v>
+        <v>23200</v>
       </c>
       <c r="I14" s="3">
-        <v>55100</v>
+        <v>56000</v>
       </c>
       <c r="J14" s="3">
-        <v>61300</v>
+        <v>62300</v>
       </c>
       <c r="K14" s="3">
         <v>315400</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9488200</v>
+        <v>9641400</v>
       </c>
       <c r="E17" s="3">
-        <v>9249100</v>
+        <v>9398400</v>
       </c>
       <c r="F17" s="3">
-        <v>9322800</v>
+        <v>9473300</v>
       </c>
       <c r="G17" s="3">
-        <v>7602100</v>
+        <v>7724900</v>
       </c>
       <c r="H17" s="3">
-        <v>6761800</v>
+        <v>6871000</v>
       </c>
       <c r="I17" s="3">
-        <v>7023300</v>
+        <v>7136700</v>
       </c>
       <c r="J17" s="3">
-        <v>6679500</v>
+        <v>6787400</v>
       </c>
       <c r="K17" s="3">
         <v>6206600</v>
@@ -1009,25 +1009,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1023900</v>
+        <v>1040400</v>
       </c>
       <c r="E18" s="3">
-        <v>921800</v>
+        <v>936700</v>
       </c>
       <c r="F18" s="3">
-        <v>14300</v>
+        <v>14500</v>
       </c>
       <c r="G18" s="3">
-        <v>297200</v>
+        <v>302000</v>
       </c>
       <c r="H18" s="3">
-        <v>327000</v>
+        <v>332300</v>
       </c>
       <c r="I18" s="3">
-        <v>201400</v>
+        <v>204700</v>
       </c>
       <c r="J18" s="3">
-        <v>399900</v>
+        <v>406300</v>
       </c>
       <c r="K18" s="3">
         <v>-79900</v>
@@ -1060,22 +1060,22 @@
         <v>-5100</v>
       </c>
       <c r="E20" s="3">
-        <v>54400</v>
+        <v>55200</v>
       </c>
       <c r="F20" s="3">
-        <v>353100</v>
+        <v>358800</v>
       </c>
       <c r="G20" s="3">
-        <v>173600</v>
+        <v>176400</v>
       </c>
       <c r="H20" s="3">
-        <v>79000</v>
+        <v>80200</v>
       </c>
       <c r="I20" s="3">
-        <v>265400</v>
+        <v>269600</v>
       </c>
       <c r="J20" s="3">
-        <v>84700</v>
+        <v>86000</v>
       </c>
       <c r="K20" s="3">
         <v>37800</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1560900</v>
+        <v>1584300</v>
       </c>
       <c r="E21" s="3">
-        <v>1383100</v>
+        <v>1404100</v>
       </c>
       <c r="F21" s="3">
-        <v>774300</v>
+        <v>785500</v>
       </c>
       <c r="G21" s="3">
-        <v>836400</v>
+        <v>848700</v>
       </c>
       <c r="H21" s="3">
-        <v>748700</v>
+        <v>759700</v>
       </c>
       <c r="I21" s="3">
-        <v>820100</v>
+        <v>832300</v>
       </c>
       <c r="J21" s="3">
-        <v>838900</v>
+        <v>851300</v>
       </c>
       <c r="K21" s="3">
         <v>297600</v>
@@ -1123,25 +1123,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>21300</v>
+        <v>21600</v>
       </c>
       <c r="E22" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="F22" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="G22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H22" s="3">
         <v>7600</v>
       </c>
-      <c r="H22" s="3">
-        <v>7500</v>
-      </c>
       <c r="I22" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="J22" s="3">
-        <v>16100</v>
+        <v>16300</v>
       </c>
       <c r="K22" s="3">
         <v>16100</v>
@@ -1156,25 +1156,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>997500</v>
+        <v>1013600</v>
       </c>
       <c r="E23" s="3">
-        <v>969000</v>
+        <v>984700</v>
       </c>
       <c r="F23" s="3">
-        <v>358200</v>
+        <v>364000</v>
       </c>
       <c r="G23" s="3">
-        <v>463300</v>
+        <v>470700</v>
       </c>
       <c r="H23" s="3">
-        <v>398500</v>
+        <v>404900</v>
       </c>
       <c r="I23" s="3">
-        <v>455600</v>
+        <v>462900</v>
       </c>
       <c r="J23" s="3">
-        <v>468500</v>
+        <v>476000</v>
       </c>
       <c r="K23" s="3">
         <v>-58200</v>
@@ -1189,25 +1189,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>279400</v>
+        <v>283900</v>
       </c>
       <c r="E24" s="3">
-        <v>366100</v>
+        <v>372000</v>
       </c>
       <c r="F24" s="3">
-        <v>122600</v>
+        <v>124600</v>
       </c>
       <c r="G24" s="3">
-        <v>148100</v>
+        <v>150500</v>
       </c>
       <c r="H24" s="3">
-        <v>160600</v>
+        <v>163200</v>
       </c>
       <c r="I24" s="3">
-        <v>119000</v>
+        <v>120900</v>
       </c>
       <c r="J24" s="3">
-        <v>201500</v>
+        <v>204800</v>
       </c>
       <c r="K24" s="3">
         <v>56700</v>
@@ -1255,25 +1255,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>718100</v>
+        <v>729700</v>
       </c>
       <c r="E26" s="3">
-        <v>603000</v>
+        <v>612700</v>
       </c>
       <c r="F26" s="3">
-        <v>235500</v>
+        <v>239400</v>
       </c>
       <c r="G26" s="3">
-        <v>315200</v>
+        <v>320300</v>
       </c>
       <c r="H26" s="3">
-        <v>237800</v>
+        <v>241700</v>
       </c>
       <c r="I26" s="3">
-        <v>336500</v>
+        <v>342000</v>
       </c>
       <c r="J26" s="3">
-        <v>267000</v>
+        <v>271300</v>
       </c>
       <c r="K26" s="3">
         <v>-114900</v>
@@ -1288,25 +1288,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>683400</v>
+        <v>694400</v>
       </c>
       <c r="E27" s="3">
-        <v>570400</v>
+        <v>579600</v>
       </c>
       <c r="F27" s="3">
-        <v>211300</v>
+        <v>214800</v>
       </c>
       <c r="G27" s="3">
-        <v>298200</v>
+        <v>303000</v>
       </c>
       <c r="H27" s="3">
-        <v>215600</v>
+        <v>219100</v>
       </c>
       <c r="I27" s="3">
-        <v>312800</v>
+        <v>317800</v>
       </c>
       <c r="J27" s="3">
-        <v>242900</v>
+        <v>246800</v>
       </c>
       <c r="K27" s="3">
         <v>-132800</v>
@@ -1456,22 +1456,22 @@
         <v>5100</v>
       </c>
       <c r="E32" s="3">
-        <v>-54400</v>
+        <v>-55200</v>
       </c>
       <c r="F32" s="3">
-        <v>-353100</v>
+        <v>-358800</v>
       </c>
       <c r="G32" s="3">
-        <v>-173600</v>
+        <v>-176400</v>
       </c>
       <c r="H32" s="3">
-        <v>-79000</v>
+        <v>-80200</v>
       </c>
       <c r="I32" s="3">
-        <v>-265400</v>
+        <v>-269600</v>
       </c>
       <c r="J32" s="3">
-        <v>-84700</v>
+        <v>-86000</v>
       </c>
       <c r="K32" s="3">
         <v>-37800</v>
@@ -1486,25 +1486,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>683400</v>
+        <v>694400</v>
       </c>
       <c r="E33" s="3">
-        <v>570400</v>
+        <v>579600</v>
       </c>
       <c r="F33" s="3">
-        <v>211300</v>
+        <v>214800</v>
       </c>
       <c r="G33" s="3">
-        <v>298200</v>
+        <v>303000</v>
       </c>
       <c r="H33" s="3">
-        <v>215600</v>
+        <v>219100</v>
       </c>
       <c r="I33" s="3">
-        <v>312800</v>
+        <v>317800</v>
       </c>
       <c r="J33" s="3">
-        <v>242900</v>
+        <v>246800</v>
       </c>
       <c r="K33" s="3">
         <v>-132800</v>
@@ -1552,25 +1552,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>683400</v>
+        <v>694400</v>
       </c>
       <c r="E35" s="3">
-        <v>570400</v>
+        <v>579600</v>
       </c>
       <c r="F35" s="3">
-        <v>211300</v>
+        <v>214800</v>
       </c>
       <c r="G35" s="3">
-        <v>298200</v>
+        <v>303000</v>
       </c>
       <c r="H35" s="3">
-        <v>215600</v>
+        <v>219100</v>
       </c>
       <c r="I35" s="3">
-        <v>312800</v>
+        <v>317800</v>
       </c>
       <c r="J35" s="3">
-        <v>242900</v>
+        <v>246800</v>
       </c>
       <c r="K35" s="3">
         <v>-132800</v>
@@ -1653,25 +1653,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1024000</v>
+        <v>1041600</v>
       </c>
       <c r="E41" s="3">
-        <v>1168300</v>
+        <v>1188400</v>
       </c>
       <c r="F41" s="3">
-        <v>1547000</v>
+        <v>1573600</v>
       </c>
       <c r="G41" s="3">
-        <v>1114800</v>
+        <v>1134000</v>
       </c>
       <c r="H41" s="3">
-        <v>1083600</v>
+        <v>1102300</v>
       </c>
       <c r="I41" s="3">
-        <v>961400</v>
+        <v>978000</v>
       </c>
       <c r="J41" s="3">
-        <v>888800</v>
+        <v>904100</v>
       </c>
       <c r="K41" s="3">
         <v>536300</v>
@@ -1692,19 +1692,19 @@
         <v>91</v>
       </c>
       <c r="F42" s="3">
-        <v>72200</v>
+        <v>73500</v>
       </c>
       <c r="G42" s="3">
-        <v>73400</v>
+        <v>74600</v>
       </c>
       <c r="H42" s="3">
-        <v>71300</v>
+        <v>72500</v>
       </c>
       <c r="I42" s="3">
-        <v>169500</v>
+        <v>172400</v>
       </c>
       <c r="J42" s="3">
-        <v>307400</v>
+        <v>312700</v>
       </c>
       <c r="K42" s="3">
         <v>288700</v>
@@ -1719,25 +1719,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1579100</v>
+        <v>1606300</v>
       </c>
       <c r="E43" s="3">
-        <v>1526600</v>
+        <v>1552900</v>
       </c>
       <c r="F43" s="3">
-        <v>1487900</v>
+        <v>1513500</v>
       </c>
       <c r="G43" s="3">
-        <v>1251300</v>
+        <v>1272800</v>
       </c>
       <c r="H43" s="3">
-        <v>1164000</v>
+        <v>1184100</v>
       </c>
       <c r="I43" s="3">
-        <v>1208400</v>
+        <v>1229300</v>
       </c>
       <c r="J43" s="3">
-        <v>1269500</v>
+        <v>1291300</v>
       </c>
       <c r="K43" s="3">
         <v>1059600</v>
@@ -1752,25 +1752,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1680600</v>
+        <v>1709600</v>
       </c>
       <c r="E44" s="3">
-        <v>1390000</v>
+        <v>1414000</v>
       </c>
       <c r="F44" s="3">
-        <v>1206000</v>
+        <v>1226800</v>
       </c>
       <c r="G44" s="3">
-        <v>2146900</v>
+        <v>2183900</v>
       </c>
       <c r="H44" s="3">
-        <v>983000</v>
+        <v>1000000</v>
       </c>
       <c r="I44" s="3">
-        <v>990100</v>
+        <v>1007200</v>
       </c>
       <c r="J44" s="3">
-        <v>837500</v>
+        <v>851900</v>
       </c>
       <c r="K44" s="3">
         <v>1528700</v>
@@ -1785,25 +1785,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>659000</v>
+        <v>670400</v>
       </c>
       <c r="E45" s="3">
-        <v>672800</v>
+        <v>684400</v>
       </c>
       <c r="F45" s="3">
-        <v>570500</v>
+        <v>580400</v>
       </c>
       <c r="G45" s="3">
-        <v>495200</v>
+        <v>503800</v>
       </c>
       <c r="H45" s="3">
-        <v>509000</v>
+        <v>517800</v>
       </c>
       <c r="I45" s="3">
-        <v>522300</v>
+        <v>531300</v>
       </c>
       <c r="J45" s="3">
-        <v>432900</v>
+        <v>440300</v>
       </c>
       <c r="K45" s="3">
         <v>358500</v>
@@ -1818,25 +1818,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4942700</v>
+        <v>5028000</v>
       </c>
       <c r="E46" s="3">
-        <v>4482200</v>
+        <v>4559500</v>
       </c>
       <c r="F46" s="3">
-        <v>4883600</v>
+        <v>4967800</v>
       </c>
       <c r="G46" s="3">
-        <v>4008100</v>
+        <v>4077200</v>
       </c>
       <c r="H46" s="3">
-        <v>3811000</v>
+        <v>3876800</v>
       </c>
       <c r="I46" s="3">
-        <v>3851800</v>
+        <v>3918300</v>
       </c>
       <c r="J46" s="3">
-        <v>3736000</v>
+        <v>3800400</v>
       </c>
       <c r="K46" s="3">
         <v>3007400</v>
@@ -1851,25 +1851,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>128800</v>
+        <v>131100</v>
       </c>
       <c r="E47" s="3">
-        <v>426800</v>
+        <v>434100</v>
       </c>
       <c r="F47" s="3">
-        <v>242500</v>
+        <v>246700</v>
       </c>
       <c r="G47" s="3">
-        <v>464000</v>
+        <v>472000</v>
       </c>
       <c r="H47" s="3">
-        <v>257800</v>
+        <v>262300</v>
       </c>
       <c r="I47" s="3">
-        <v>270700</v>
+        <v>275400</v>
       </c>
       <c r="J47" s="3">
-        <v>249000</v>
+        <v>253300</v>
       </c>
       <c r="K47" s="3">
         <v>551200</v>
@@ -1884,25 +1884,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2920900</v>
+        <v>2971300</v>
       </c>
       <c r="E48" s="3">
-        <v>2182500</v>
+        <v>2220100</v>
       </c>
       <c r="F48" s="3">
-        <v>1472600</v>
+        <v>1497900</v>
       </c>
       <c r="G48" s="3">
-        <v>1449500</v>
+        <v>1474500</v>
       </c>
       <c r="H48" s="3">
-        <v>1246100</v>
+        <v>1267600</v>
       </c>
       <c r="I48" s="3">
-        <v>1271200</v>
+        <v>1293100</v>
       </c>
       <c r="J48" s="3">
-        <v>1251700</v>
+        <v>1273300</v>
       </c>
       <c r="K48" s="3">
         <v>1155400</v>
@@ -1917,25 +1917,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2312700</v>
+        <v>2352500</v>
       </c>
       <c r="E49" s="3">
-        <v>1535000</v>
+        <v>1561400</v>
       </c>
       <c r="F49" s="3">
-        <v>1564500</v>
+        <v>1591500</v>
       </c>
       <c r="G49" s="3">
-        <v>2286000</v>
+        <v>2325400</v>
       </c>
       <c r="H49" s="3">
-        <v>1497800</v>
+        <v>1523600</v>
       </c>
       <c r="I49" s="3">
-        <v>1550900</v>
+        <v>1577600</v>
       </c>
       <c r="J49" s="3">
-        <v>1547300</v>
+        <v>1574000</v>
       </c>
       <c r="K49" s="3">
         <v>1362300</v>
@@ -2016,25 +2016,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1005200</v>
+        <v>1022600</v>
       </c>
       <c r="E52" s="3">
-        <v>956500</v>
+        <v>973000</v>
       </c>
       <c r="F52" s="3">
-        <v>647600</v>
+        <v>658800</v>
       </c>
       <c r="G52" s="3">
-        <v>696500</v>
+        <v>708500</v>
       </c>
       <c r="H52" s="3">
-        <v>690500</v>
+        <v>702400</v>
       </c>
       <c r="I52" s="3">
-        <v>698700</v>
+        <v>710700</v>
       </c>
       <c r="J52" s="3">
-        <v>652500</v>
+        <v>663800</v>
       </c>
       <c r="K52" s="3">
         <v>668600</v>
@@ -2082,25 +2082,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>11310400</v>
+        <v>11505400</v>
       </c>
       <c r="E54" s="3">
-        <v>9369300</v>
+        <v>9530800</v>
       </c>
       <c r="F54" s="3">
-        <v>8810700</v>
+        <v>8962600</v>
       </c>
       <c r="G54" s="3">
-        <v>8673000</v>
+        <v>8822500</v>
       </c>
       <c r="H54" s="3">
-        <v>7503300</v>
+        <v>7632700</v>
       </c>
       <c r="I54" s="3">
-        <v>7643300</v>
+        <v>7775100</v>
       </c>
       <c r="J54" s="3">
-        <v>7436500</v>
+        <v>7564700</v>
       </c>
       <c r="K54" s="3">
         <v>6469000</v>
@@ -2145,25 +2145,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>899600</v>
+        <v>915100</v>
       </c>
       <c r="E57" s="3">
-        <v>949300</v>
+        <v>965600</v>
       </c>
       <c r="F57" s="3">
-        <v>807700</v>
+        <v>821600</v>
       </c>
       <c r="G57" s="3">
-        <v>773900</v>
+        <v>787200</v>
       </c>
       <c r="H57" s="3">
-        <v>578300</v>
+        <v>588300</v>
       </c>
       <c r="I57" s="3">
-        <v>560900</v>
+        <v>570600</v>
       </c>
       <c r="J57" s="3">
-        <v>472800</v>
+        <v>480900</v>
       </c>
       <c r="K57" s="3">
         <v>393600</v>
@@ -2178,25 +2178,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1345100</v>
+        <v>1368300</v>
       </c>
       <c r="E58" s="3">
-        <v>141100</v>
+        <v>143500</v>
       </c>
       <c r="F58" s="3">
-        <v>98900</v>
+        <v>100600</v>
       </c>
       <c r="G58" s="3">
-        <v>153600</v>
+        <v>156300</v>
       </c>
       <c r="H58" s="3">
-        <v>176300</v>
+        <v>179300</v>
       </c>
       <c r="I58" s="3">
-        <v>701700</v>
+        <v>713800</v>
       </c>
       <c r="J58" s="3">
-        <v>594400</v>
+        <v>604700</v>
       </c>
       <c r="K58" s="3">
         <v>356100</v>
@@ -2211,25 +2211,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2063800</v>
+        <v>2099300</v>
       </c>
       <c r="E59" s="3">
-        <v>2064300</v>
+        <v>2099900</v>
       </c>
       <c r="F59" s="3">
-        <v>1797400</v>
+        <v>1828400</v>
       </c>
       <c r="G59" s="3">
-        <v>1361700</v>
+        <v>1385200</v>
       </c>
       <c r="H59" s="3">
-        <v>1164400</v>
+        <v>1184500</v>
       </c>
       <c r="I59" s="3">
-        <v>1200200</v>
+        <v>1220800</v>
       </c>
       <c r="J59" s="3">
-        <v>1250800</v>
+        <v>1272400</v>
       </c>
       <c r="K59" s="3">
         <v>942800</v>
@@ -2244,25 +2244,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>4308500</v>
+        <v>4382700</v>
       </c>
       <c r="E60" s="3">
-        <v>3154600</v>
+        <v>3209000</v>
       </c>
       <c r="F60" s="3">
-        <v>2704000</v>
+        <v>2750600</v>
       </c>
       <c r="G60" s="3">
-        <v>2289300</v>
+        <v>2328700</v>
       </c>
       <c r="H60" s="3">
-        <v>1919000</v>
+        <v>1952000</v>
       </c>
       <c r="I60" s="3">
-        <v>2462700</v>
+        <v>2505200</v>
       </c>
       <c r="J60" s="3">
-        <v>2318000</v>
+        <v>2358000</v>
       </c>
       <c r="K60" s="3">
         <v>1692500</v>
@@ -2277,25 +2277,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>957300</v>
+        <v>973800</v>
       </c>
       <c r="E61" s="3">
-        <v>1064800</v>
+        <v>1083100</v>
       </c>
       <c r="F61" s="3">
-        <v>1206000</v>
+        <v>1226700</v>
       </c>
       <c r="G61" s="3">
-        <v>965300</v>
+        <v>982000</v>
       </c>
       <c r="H61" s="3">
-        <v>627500</v>
+        <v>638300</v>
       </c>
       <c r="I61" s="3">
-        <v>290300</v>
+        <v>295300</v>
       </c>
       <c r="J61" s="3">
-        <v>852500</v>
+        <v>867200</v>
       </c>
       <c r="K61" s="3">
         <v>1313300</v>
@@ -2310,25 +2310,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1238900</v>
+        <v>1260300</v>
       </c>
       <c r="E62" s="3">
-        <v>1309600</v>
+        <v>1332200</v>
       </c>
       <c r="F62" s="3">
-        <v>763000</v>
+        <v>776200</v>
       </c>
       <c r="G62" s="3">
-        <v>1577700</v>
+        <v>1604900</v>
       </c>
       <c r="H62" s="3">
-        <v>1121100</v>
+        <v>1140500</v>
       </c>
       <c r="I62" s="3">
-        <v>1091400</v>
+        <v>1110200</v>
       </c>
       <c r="J62" s="3">
-        <v>937200</v>
+        <v>953400</v>
       </c>
       <c r="K62" s="3">
         <v>722700</v>
@@ -2442,25 +2442,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6691800</v>
+        <v>6807100</v>
       </c>
       <c r="E66" s="3">
-        <v>5197600</v>
+        <v>5287200</v>
       </c>
       <c r="F66" s="3">
-        <v>4873000</v>
+        <v>4957000</v>
       </c>
       <c r="G66" s="3">
-        <v>5018700</v>
+        <v>5105200</v>
       </c>
       <c r="H66" s="3">
-        <v>3860700</v>
+        <v>3927200</v>
       </c>
       <c r="I66" s="3">
-        <v>4043600</v>
+        <v>4113300</v>
       </c>
       <c r="J66" s="3">
-        <v>4285900</v>
+        <v>4359800</v>
       </c>
       <c r="K66" s="3">
         <v>3866200</v>
@@ -2622,25 +2622,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>3458600</v>
+        <v>3518300</v>
       </c>
       <c r="E72" s="3">
-        <v>2969200</v>
+        <v>3020400</v>
       </c>
       <c r="F72" s="3">
-        <v>2529300</v>
+        <v>2572900</v>
       </c>
       <c r="G72" s="3">
-        <v>2401900</v>
+        <v>2443300</v>
       </c>
       <c r="H72" s="3">
-        <v>2178900</v>
+        <v>2216500</v>
       </c>
       <c r="I72" s="3">
-        <v>2039700</v>
+        <v>2074900</v>
       </c>
       <c r="J72" s="3">
-        <v>1896800</v>
+        <v>1929500</v>
       </c>
       <c r="K72" s="3">
         <v>1738600</v>
@@ -2754,25 +2754,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>4618700</v>
+        <v>4698300</v>
       </c>
       <c r="E76" s="3">
-        <v>4171700</v>
+        <v>4243600</v>
       </c>
       <c r="F76" s="3">
-        <v>3937700</v>
+        <v>4005600</v>
       </c>
       <c r="G76" s="3">
-        <v>3654300</v>
+        <v>3717300</v>
       </c>
       <c r="H76" s="3">
-        <v>3642700</v>
+        <v>3705500</v>
       </c>
       <c r="I76" s="3">
-        <v>3599700</v>
+        <v>3661800</v>
       </c>
       <c r="J76" s="3">
-        <v>3150600</v>
+        <v>3204900</v>
       </c>
       <c r="K76" s="3">
         <v>2602800</v>
@@ -2858,25 +2858,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>683400</v>
+        <v>694400</v>
       </c>
       <c r="E81" s="3">
-        <v>570400</v>
+        <v>579600</v>
       </c>
       <c r="F81" s="3">
-        <v>211300</v>
+        <v>214800</v>
       </c>
       <c r="G81" s="3">
-        <v>298200</v>
+        <v>303000</v>
       </c>
       <c r="H81" s="3">
-        <v>215600</v>
+        <v>219100</v>
       </c>
       <c r="I81" s="3">
-        <v>312800</v>
+        <v>317800</v>
       </c>
       <c r="J81" s="3">
-        <v>242900</v>
+        <v>246800</v>
       </c>
       <c r="K81" s="3">
         <v>-132800</v>
@@ -2906,25 +2906,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>542600</v>
+        <v>551400</v>
       </c>
       <c r="E83" s="3">
-        <v>407300</v>
+        <v>413900</v>
       </c>
       <c r="F83" s="3">
-        <v>407400</v>
+        <v>413900</v>
       </c>
       <c r="G83" s="3">
-        <v>366000</v>
+        <v>371900</v>
       </c>
       <c r="H83" s="3">
-        <v>343100</v>
+        <v>348600</v>
       </c>
       <c r="I83" s="3">
-        <v>353800</v>
+        <v>359500</v>
       </c>
       <c r="J83" s="3">
-        <v>354800</v>
+        <v>360500</v>
       </c>
       <c r="K83" s="3">
         <v>339300</v>
@@ -3104,25 +3104,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>701700</v>
+        <v>713100</v>
       </c>
       <c r="E89" s="3">
-        <v>860000</v>
+        <v>873900</v>
       </c>
       <c r="F89" s="3">
-        <v>886200</v>
+        <v>900500</v>
       </c>
       <c r="G89" s="3">
-        <v>549300</v>
+        <v>558200</v>
       </c>
       <c r="H89" s="3">
-        <v>562300</v>
+        <v>571400</v>
       </c>
       <c r="I89" s="3">
-        <v>303800</v>
+        <v>308700</v>
       </c>
       <c r="J89" s="3">
-        <v>783300</v>
+        <v>796000</v>
       </c>
       <c r="K89" s="3">
         <v>380100</v>
@@ -3152,25 +3152,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-856600</v>
+        <v>-870400</v>
       </c>
       <c r="E91" s="3">
-        <v>-748700</v>
+        <v>-760800</v>
       </c>
       <c r="F91" s="3">
-        <v>-334600</v>
+        <v>-340000</v>
       </c>
       <c r="G91" s="3">
-        <v>-291400</v>
+        <v>-296100</v>
       </c>
       <c r="H91" s="3">
-        <v>-157400</v>
+        <v>-159900</v>
       </c>
       <c r="I91" s="3">
-        <v>-145000</v>
+        <v>-147400</v>
       </c>
       <c r="J91" s="3">
-        <v>-166900</v>
+        <v>-169600</v>
       </c>
       <c r="K91" s="3">
         <v>-169600</v>
@@ -3251,25 +3251,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1884200</v>
+        <v>-1914600</v>
       </c>
       <c r="E94" s="3">
-        <v>-957900</v>
+        <v>-973400</v>
       </c>
       <c r="F94" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="G94" s="3">
-        <v>-656200</v>
+        <v>-666800</v>
       </c>
       <c r="H94" s="3">
-        <v>-214900</v>
+        <v>-218400</v>
       </c>
       <c r="I94" s="3">
-        <v>107200</v>
+        <v>108900</v>
       </c>
       <c r="J94" s="3">
-        <v>-156100</v>
+        <v>-158600</v>
       </c>
       <c r="K94" s="3">
         <v>-230800</v>
@@ -3299,25 +3299,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-204600</v>
+        <v>-207900</v>
       </c>
       <c r="E96" s="3">
-        <v>-129500</v>
+        <v>-131600</v>
       </c>
       <c r="F96" s="3">
-        <v>-83400</v>
+        <v>-84700</v>
       </c>
       <c r="G96" s="3">
-        <v>-76300</v>
+        <v>-77500</v>
       </c>
       <c r="H96" s="3">
-        <v>-71600</v>
+        <v>-72800</v>
       </c>
       <c r="I96" s="3">
-        <v>-74200</v>
+        <v>-75400</v>
       </c>
       <c r="J96" s="3">
-        <v>-129600</v>
+        <v>-131700</v>
       </c>
       <c r="K96" s="3">
         <v>-179900</v>
@@ -3431,25 +3431,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>1056100</v>
+        <v>1073100</v>
       </c>
       <c r="E100" s="3">
-        <v>-276100</v>
+        <v>-280600</v>
       </c>
       <c r="F100" s="3">
-        <v>-493500</v>
+        <v>-501400</v>
       </c>
       <c r="G100" s="3">
-        <v>207900</v>
+        <v>211200</v>
       </c>
       <c r="H100" s="3">
-        <v>-280100</v>
+        <v>-284600</v>
       </c>
       <c r="I100" s="3">
-        <v>-542700</v>
+        <v>-551500</v>
       </c>
       <c r="J100" s="3">
-        <v>-440900</v>
+        <v>-448000</v>
       </c>
       <c r="K100" s="3">
         <v>-223700</v>
@@ -3464,25 +3464,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="E101" s="3">
-        <v>-44700</v>
+        <v>-45400</v>
       </c>
       <c r="F101" s="3">
-        <v>23200</v>
+        <v>23600</v>
       </c>
       <c r="G101" s="3">
-        <v>-24800</v>
+        <v>-25200</v>
       </c>
       <c r="H101" s="3">
-        <v>-29000</v>
+        <v>-29500</v>
       </c>
       <c r="I101" s="3">
-        <v>44800</v>
+        <v>45500</v>
       </c>
       <c r="J101" s="3">
-        <v>91500</v>
+        <v>93000</v>
       </c>
       <c r="K101" s="3">
         <v>49900</v>
@@ -3497,25 +3497,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-132800</v>
+        <v>-135000</v>
       </c>
       <c r="E102" s="3">
-        <v>-418700</v>
+        <v>-425400</v>
       </c>
       <c r="F102" s="3">
-        <v>406100</v>
+        <v>412600</v>
       </c>
       <c r="G102" s="3">
-        <v>76100</v>
+        <v>77400</v>
       </c>
       <c r="H102" s="3">
-        <v>38300</v>
+        <v>38900</v>
       </c>
       <c r="I102" s="3">
-        <v>-86900</v>
+        <v>-88300</v>
       </c>
       <c r="J102" s="3">
-        <v>277900</v>
+        <v>282400</v>
       </c>
       <c r="K102" s="3">
         <v>-24600</v>

--- a/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10681800</v>
+        <v>10874200</v>
       </c>
       <c r="E8" s="3">
-        <v>10335100</v>
+        <v>10521300</v>
       </c>
       <c r="F8" s="3">
-        <v>9487800</v>
+        <v>9658600</v>
       </c>
       <c r="G8" s="3">
-        <v>8026900</v>
+        <v>8171400</v>
       </c>
       <c r="H8" s="3">
-        <v>7203300</v>
+        <v>7333000</v>
       </c>
       <c r="I8" s="3">
-        <v>7341400</v>
+        <v>7473600</v>
       </c>
       <c r="J8" s="3">
-        <v>7193700</v>
+        <v>7323300</v>
       </c>
       <c r="K8" s="3">
         <v>6126700</v>
@@ -751,25 +751,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2405700</v>
+        <v>2449100</v>
       </c>
       <c r="E9" s="3">
-        <v>2189400</v>
+        <v>2228800</v>
       </c>
       <c r="F9" s="3">
-        <v>2183700</v>
+        <v>2223100</v>
       </c>
       <c r="G9" s="3">
-        <v>1959300</v>
+        <v>1994600</v>
       </c>
       <c r="H9" s="3">
-        <v>1850300</v>
+        <v>1883600</v>
       </c>
       <c r="I9" s="3">
-        <v>1854300</v>
+        <v>1887700</v>
       </c>
       <c r="J9" s="3">
-        <v>1789400</v>
+        <v>1821700</v>
       </c>
       <c r="K9" s="3">
         <v>1507700</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8276100</v>
+        <v>8425100</v>
       </c>
       <c r="E10" s="3">
-        <v>8145700</v>
+        <v>8292400</v>
       </c>
       <c r="F10" s="3">
-        <v>7304100</v>
+        <v>7435600</v>
       </c>
       <c r="G10" s="3">
-        <v>6067600</v>
+        <v>6176900</v>
       </c>
       <c r="H10" s="3">
-        <v>5352900</v>
+        <v>5449300</v>
       </c>
       <c r="I10" s="3">
-        <v>5487000</v>
+        <v>5585900</v>
       </c>
       <c r="J10" s="3">
-        <v>5404300</v>
+        <v>5501600</v>
       </c>
       <c r="K10" s="3">
         <v>4618900</v>
@@ -832,25 +832,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>299200</v>
+        <v>304600</v>
       </c>
       <c r="E12" s="3">
-        <v>275000</v>
+        <v>279900</v>
       </c>
       <c r="F12" s="3">
-        <v>228700</v>
+        <v>232900</v>
       </c>
       <c r="G12" s="3">
-        <v>172400</v>
+        <v>175500</v>
       </c>
       <c r="H12" s="3">
-        <v>106700</v>
+        <v>108600</v>
       </c>
       <c r="I12" s="3">
-        <v>134300</v>
+        <v>136700</v>
       </c>
       <c r="J12" s="3">
-        <v>127800</v>
+        <v>130100</v>
       </c>
       <c r="K12" s="3">
         <v>123500</v>
@@ -898,25 +898,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>34100</v>
+        <v>34800</v>
       </c>
       <c r="E14" s="3">
-        <v>86100</v>
+        <v>87700</v>
       </c>
       <c r="F14" s="3">
-        <v>744800</v>
+        <v>758200</v>
       </c>
       <c r="G14" s="3">
-        <v>45200</v>
+        <v>46000</v>
       </c>
       <c r="H14" s="3">
-        <v>23200</v>
+        <v>23600</v>
       </c>
       <c r="I14" s="3">
-        <v>56000</v>
+        <v>57000</v>
       </c>
       <c r="J14" s="3">
-        <v>62300</v>
+        <v>63400</v>
       </c>
       <c r="K14" s="3">
         <v>315400</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9641400</v>
+        <v>9815000</v>
       </c>
       <c r="E17" s="3">
-        <v>9398400</v>
+        <v>9567700</v>
       </c>
       <c r="F17" s="3">
-        <v>9473300</v>
+        <v>9643900</v>
       </c>
       <c r="G17" s="3">
-        <v>7724900</v>
+        <v>7864000</v>
       </c>
       <c r="H17" s="3">
-        <v>6871000</v>
+        <v>6994700</v>
       </c>
       <c r="I17" s="3">
-        <v>7136700</v>
+        <v>7265200</v>
       </c>
       <c r="J17" s="3">
-        <v>6787400</v>
+        <v>6909600</v>
       </c>
       <c r="K17" s="3">
         <v>6206600</v>
@@ -1009,25 +1009,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1040400</v>
+        <v>1059200</v>
       </c>
       <c r="E18" s="3">
-        <v>936700</v>
+        <v>953600</v>
       </c>
       <c r="F18" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="G18" s="3">
-        <v>302000</v>
+        <v>307500</v>
       </c>
       <c r="H18" s="3">
-        <v>332300</v>
+        <v>338300</v>
       </c>
       <c r="I18" s="3">
-        <v>204700</v>
+        <v>208400</v>
       </c>
       <c r="J18" s="3">
-        <v>406300</v>
+        <v>413600</v>
       </c>
       <c r="K18" s="3">
         <v>-79900</v>
@@ -1057,25 +1057,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="E20" s="3">
-        <v>55200</v>
+        <v>56200</v>
       </c>
       <c r="F20" s="3">
-        <v>358800</v>
+        <v>365300</v>
       </c>
       <c r="G20" s="3">
-        <v>176400</v>
+        <v>179600</v>
       </c>
       <c r="H20" s="3">
-        <v>80200</v>
+        <v>81700</v>
       </c>
       <c r="I20" s="3">
-        <v>269600</v>
+        <v>274500</v>
       </c>
       <c r="J20" s="3">
-        <v>86000</v>
+        <v>87600</v>
       </c>
       <c r="K20" s="3">
         <v>37800</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1584300</v>
+        <v>1614100</v>
       </c>
       <c r="E21" s="3">
-        <v>1404100</v>
+        <v>1430300</v>
       </c>
       <c r="F21" s="3">
-        <v>785500</v>
+        <v>800500</v>
       </c>
       <c r="G21" s="3">
-        <v>848700</v>
+        <v>864800</v>
       </c>
       <c r="H21" s="3">
-        <v>759700</v>
+        <v>774200</v>
       </c>
       <c r="I21" s="3">
-        <v>832300</v>
+        <v>848000</v>
       </c>
       <c r="J21" s="3">
-        <v>851300</v>
+        <v>867500</v>
       </c>
       <c r="K21" s="3">
         <v>297600</v>
@@ -1123,25 +1123,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>21600</v>
+        <v>22000</v>
       </c>
       <c r="E22" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="F22" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="G22" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="H22" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="I22" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="J22" s="3">
-        <v>16300</v>
+        <v>16600</v>
       </c>
       <c r="K22" s="3">
         <v>16100</v>
@@ -1156,25 +1156,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1013600</v>
+        <v>1031900</v>
       </c>
       <c r="E23" s="3">
-        <v>984700</v>
+        <v>1002400</v>
       </c>
       <c r="F23" s="3">
-        <v>364000</v>
+        <v>370500</v>
       </c>
       <c r="G23" s="3">
-        <v>470700</v>
+        <v>479200</v>
       </c>
       <c r="H23" s="3">
-        <v>404900</v>
+        <v>412200</v>
       </c>
       <c r="I23" s="3">
-        <v>462900</v>
+        <v>471300</v>
       </c>
       <c r="J23" s="3">
-        <v>476000</v>
+        <v>484600</v>
       </c>
       <c r="K23" s="3">
         <v>-58200</v>
@@ -1189,25 +1189,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>283900</v>
+        <v>289000</v>
       </c>
       <c r="E24" s="3">
-        <v>372000</v>
+        <v>378700</v>
       </c>
       <c r="F24" s="3">
-        <v>124600</v>
+        <v>126900</v>
       </c>
       <c r="G24" s="3">
-        <v>150500</v>
+        <v>153200</v>
       </c>
       <c r="H24" s="3">
-        <v>163200</v>
+        <v>166200</v>
       </c>
       <c r="I24" s="3">
-        <v>120900</v>
+        <v>123100</v>
       </c>
       <c r="J24" s="3">
-        <v>204800</v>
+        <v>208400</v>
       </c>
       <c r="K24" s="3">
         <v>56700</v>
@@ -1255,25 +1255,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>729700</v>
+        <v>742900</v>
       </c>
       <c r="E26" s="3">
-        <v>612700</v>
+        <v>623700</v>
       </c>
       <c r="F26" s="3">
-        <v>239400</v>
+        <v>243700</v>
       </c>
       <c r="G26" s="3">
-        <v>320300</v>
+        <v>326000</v>
       </c>
       <c r="H26" s="3">
-        <v>241700</v>
+        <v>246000</v>
       </c>
       <c r="I26" s="3">
-        <v>342000</v>
+        <v>348100</v>
       </c>
       <c r="J26" s="3">
-        <v>271300</v>
+        <v>276200</v>
       </c>
       <c r="K26" s="3">
         <v>-114900</v>
@@ -1288,25 +1288,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>694400</v>
+        <v>706900</v>
       </c>
       <c r="E27" s="3">
-        <v>579600</v>
+        <v>590100</v>
       </c>
       <c r="F27" s="3">
-        <v>214800</v>
+        <v>218600</v>
       </c>
       <c r="G27" s="3">
-        <v>303000</v>
+        <v>308500</v>
       </c>
       <c r="H27" s="3">
-        <v>219100</v>
+        <v>223000</v>
       </c>
       <c r="I27" s="3">
-        <v>317800</v>
+        <v>323500</v>
       </c>
       <c r="J27" s="3">
-        <v>246800</v>
+        <v>251300</v>
       </c>
       <c r="K27" s="3">
         <v>-132800</v>
@@ -1453,25 +1453,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E32" s="3">
-        <v>-55200</v>
+        <v>-56200</v>
       </c>
       <c r="F32" s="3">
-        <v>-358800</v>
+        <v>-365300</v>
       </c>
       <c r="G32" s="3">
-        <v>-176400</v>
+        <v>-179600</v>
       </c>
       <c r="H32" s="3">
-        <v>-80200</v>
+        <v>-81700</v>
       </c>
       <c r="I32" s="3">
-        <v>-269600</v>
+        <v>-274500</v>
       </c>
       <c r="J32" s="3">
-        <v>-86000</v>
+        <v>-87600</v>
       </c>
       <c r="K32" s="3">
         <v>-37800</v>
@@ -1486,25 +1486,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>694400</v>
+        <v>706900</v>
       </c>
       <c r="E33" s="3">
-        <v>579600</v>
+        <v>590100</v>
       </c>
       <c r="F33" s="3">
-        <v>214800</v>
+        <v>218600</v>
       </c>
       <c r="G33" s="3">
-        <v>303000</v>
+        <v>308500</v>
       </c>
       <c r="H33" s="3">
-        <v>219100</v>
+        <v>223000</v>
       </c>
       <c r="I33" s="3">
-        <v>317800</v>
+        <v>323500</v>
       </c>
       <c r="J33" s="3">
-        <v>246800</v>
+        <v>251300</v>
       </c>
       <c r="K33" s="3">
         <v>-132800</v>
@@ -1552,25 +1552,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>694400</v>
+        <v>706900</v>
       </c>
       <c r="E35" s="3">
-        <v>579600</v>
+        <v>590100</v>
       </c>
       <c r="F35" s="3">
-        <v>214800</v>
+        <v>218600</v>
       </c>
       <c r="G35" s="3">
-        <v>303000</v>
+        <v>308500</v>
       </c>
       <c r="H35" s="3">
-        <v>219100</v>
+        <v>223000</v>
       </c>
       <c r="I35" s="3">
-        <v>317800</v>
+        <v>323500</v>
       </c>
       <c r="J35" s="3">
-        <v>246800</v>
+        <v>251300</v>
       </c>
       <c r="K35" s="3">
         <v>-132800</v>
@@ -1653,25 +1653,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1041600</v>
+        <v>1060400</v>
       </c>
       <c r="E41" s="3">
-        <v>1188400</v>
+        <v>1209800</v>
       </c>
       <c r="F41" s="3">
-        <v>1573600</v>
+        <v>1602000</v>
       </c>
       <c r="G41" s="3">
-        <v>1134000</v>
+        <v>1154400</v>
       </c>
       <c r="H41" s="3">
-        <v>1102300</v>
+        <v>1122200</v>
       </c>
       <c r="I41" s="3">
-        <v>978000</v>
+        <v>995600</v>
       </c>
       <c r="J41" s="3">
-        <v>904100</v>
+        <v>920400</v>
       </c>
       <c r="K41" s="3">
         <v>536300</v>
@@ -1692,19 +1692,19 @@
         <v>91</v>
       </c>
       <c r="F42" s="3">
-        <v>73500</v>
+        <v>74800</v>
       </c>
       <c r="G42" s="3">
-        <v>74600</v>
+        <v>76000</v>
       </c>
       <c r="H42" s="3">
-        <v>72500</v>
+        <v>73900</v>
       </c>
       <c r="I42" s="3">
-        <v>172400</v>
+        <v>175500</v>
       </c>
       <c r="J42" s="3">
-        <v>312700</v>
+        <v>318400</v>
       </c>
       <c r="K42" s="3">
         <v>288700</v>
@@ -1719,25 +1719,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1606300</v>
+        <v>1635300</v>
       </c>
       <c r="E43" s="3">
-        <v>1552900</v>
+        <v>1580900</v>
       </c>
       <c r="F43" s="3">
-        <v>1513500</v>
+        <v>1540800</v>
       </c>
       <c r="G43" s="3">
-        <v>1272800</v>
+        <v>1295800</v>
       </c>
       <c r="H43" s="3">
-        <v>1184100</v>
+        <v>1205400</v>
       </c>
       <c r="I43" s="3">
-        <v>1229300</v>
+        <v>1251400</v>
       </c>
       <c r="J43" s="3">
-        <v>1291300</v>
+        <v>1314600</v>
       </c>
       <c r="K43" s="3">
         <v>1059600</v>
@@ -1752,25 +1752,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1709600</v>
+        <v>1740400</v>
       </c>
       <c r="E44" s="3">
-        <v>1414000</v>
+        <v>1439500</v>
       </c>
       <c r="F44" s="3">
-        <v>1226800</v>
+        <v>1248900</v>
       </c>
       <c r="G44" s="3">
-        <v>2183900</v>
+        <v>2223200</v>
       </c>
       <c r="H44" s="3">
-        <v>1000000</v>
+        <v>1018000</v>
       </c>
       <c r="I44" s="3">
-        <v>1007200</v>
+        <v>1025300</v>
       </c>
       <c r="J44" s="3">
-        <v>851900</v>
+        <v>867200</v>
       </c>
       <c r="K44" s="3">
         <v>1528700</v>
@@ -1785,25 +1785,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>670400</v>
+        <v>682400</v>
       </c>
       <c r="E45" s="3">
-        <v>684400</v>
+        <v>696800</v>
       </c>
       <c r="F45" s="3">
-        <v>580400</v>
+        <v>590800</v>
       </c>
       <c r="G45" s="3">
-        <v>503800</v>
+        <v>512800</v>
       </c>
       <c r="H45" s="3">
-        <v>517800</v>
+        <v>527100</v>
       </c>
       <c r="I45" s="3">
-        <v>531300</v>
+        <v>540900</v>
       </c>
       <c r="J45" s="3">
-        <v>440300</v>
+        <v>448300</v>
       </c>
       <c r="K45" s="3">
         <v>358500</v>
@@ -1818,25 +1818,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5028000</v>
+        <v>5118500</v>
       </c>
       <c r="E46" s="3">
-        <v>4559500</v>
+        <v>4641600</v>
       </c>
       <c r="F46" s="3">
-        <v>4967800</v>
+        <v>5057200</v>
       </c>
       <c r="G46" s="3">
-        <v>4077200</v>
+        <v>4150600</v>
       </c>
       <c r="H46" s="3">
-        <v>3876800</v>
+        <v>3946600</v>
       </c>
       <c r="I46" s="3">
-        <v>3918300</v>
+        <v>3988800</v>
       </c>
       <c r="J46" s="3">
-        <v>3800400</v>
+        <v>3868900</v>
       </c>
       <c r="K46" s="3">
         <v>3007400</v>
@@ -1851,25 +1851,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>131100</v>
+        <v>133400</v>
       </c>
       <c r="E47" s="3">
-        <v>434100</v>
+        <v>441900</v>
       </c>
       <c r="F47" s="3">
-        <v>246700</v>
+        <v>251100</v>
       </c>
       <c r="G47" s="3">
-        <v>472000</v>
+        <v>480500</v>
       </c>
       <c r="H47" s="3">
-        <v>262300</v>
+        <v>267000</v>
       </c>
       <c r="I47" s="3">
-        <v>275400</v>
+        <v>280300</v>
       </c>
       <c r="J47" s="3">
-        <v>253300</v>
+        <v>257900</v>
       </c>
       <c r="K47" s="3">
         <v>551200</v>
@@ -1884,25 +1884,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2971300</v>
+        <v>3024800</v>
       </c>
       <c r="E48" s="3">
-        <v>2220100</v>
+        <v>2260100</v>
       </c>
       <c r="F48" s="3">
-        <v>1497900</v>
+        <v>1524900</v>
       </c>
       <c r="G48" s="3">
-        <v>1474500</v>
+        <v>1501000</v>
       </c>
       <c r="H48" s="3">
-        <v>1267600</v>
+        <v>1290400</v>
       </c>
       <c r="I48" s="3">
-        <v>1293100</v>
+        <v>1316400</v>
       </c>
       <c r="J48" s="3">
-        <v>1273300</v>
+        <v>1296200</v>
       </c>
       <c r="K48" s="3">
         <v>1155400</v>
@@ -1917,25 +1917,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2352500</v>
+        <v>2394900</v>
       </c>
       <c r="E49" s="3">
-        <v>1561400</v>
+        <v>1589600</v>
       </c>
       <c r="F49" s="3">
-        <v>1591500</v>
+        <v>1620100</v>
       </c>
       <c r="G49" s="3">
-        <v>2325400</v>
+        <v>2367300</v>
       </c>
       <c r="H49" s="3">
-        <v>1523600</v>
+        <v>1551100</v>
       </c>
       <c r="I49" s="3">
-        <v>1577600</v>
+        <v>1606000</v>
       </c>
       <c r="J49" s="3">
-        <v>1574000</v>
+        <v>1602300</v>
       </c>
       <c r="K49" s="3">
         <v>1362300</v>
@@ -2016,25 +2016,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1022600</v>
+        <v>1041000</v>
       </c>
       <c r="E52" s="3">
-        <v>973000</v>
+        <v>990600</v>
       </c>
       <c r="F52" s="3">
-        <v>658800</v>
+        <v>670600</v>
       </c>
       <c r="G52" s="3">
-        <v>708500</v>
+        <v>721300</v>
       </c>
       <c r="H52" s="3">
-        <v>702400</v>
+        <v>715000</v>
       </c>
       <c r="I52" s="3">
-        <v>710700</v>
+        <v>723500</v>
       </c>
       <c r="J52" s="3">
-        <v>663800</v>
+        <v>675700</v>
       </c>
       <c r="K52" s="3">
         <v>668600</v>
@@ -2082,25 +2082,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>11505400</v>
+        <v>11712600</v>
       </c>
       <c r="E54" s="3">
-        <v>9530800</v>
+        <v>9702400</v>
       </c>
       <c r="F54" s="3">
-        <v>8962600</v>
+        <v>9124000</v>
       </c>
       <c r="G54" s="3">
-        <v>8822500</v>
+        <v>8981400</v>
       </c>
       <c r="H54" s="3">
-        <v>7632700</v>
+        <v>7770100</v>
       </c>
       <c r="I54" s="3">
-        <v>7775100</v>
+        <v>7915100</v>
       </c>
       <c r="J54" s="3">
-        <v>7564700</v>
+        <v>7700900</v>
       </c>
       <c r="K54" s="3">
         <v>6469000</v>
@@ -2145,25 +2145,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>915100</v>
+        <v>931600</v>
       </c>
       <c r="E57" s="3">
-        <v>965600</v>
+        <v>983000</v>
       </c>
       <c r="F57" s="3">
-        <v>821600</v>
+        <v>836400</v>
       </c>
       <c r="G57" s="3">
-        <v>787200</v>
+        <v>801400</v>
       </c>
       <c r="H57" s="3">
-        <v>588300</v>
+        <v>598800</v>
       </c>
       <c r="I57" s="3">
-        <v>570600</v>
+        <v>580800</v>
       </c>
       <c r="J57" s="3">
-        <v>480900</v>
+        <v>489600</v>
       </c>
       <c r="K57" s="3">
         <v>393600</v>
@@ -2178,25 +2178,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1368300</v>
+        <v>1393000</v>
       </c>
       <c r="E58" s="3">
-        <v>143500</v>
+        <v>146100</v>
       </c>
       <c r="F58" s="3">
-        <v>100600</v>
+        <v>102500</v>
       </c>
       <c r="G58" s="3">
-        <v>156300</v>
+        <v>159100</v>
       </c>
       <c r="H58" s="3">
-        <v>179300</v>
+        <v>182500</v>
       </c>
       <c r="I58" s="3">
-        <v>713800</v>
+        <v>726700</v>
       </c>
       <c r="J58" s="3">
-        <v>604700</v>
+        <v>615500</v>
       </c>
       <c r="K58" s="3">
         <v>356100</v>
@@ -2211,25 +2211,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2099300</v>
+        <v>2137100</v>
       </c>
       <c r="E59" s="3">
-        <v>2099900</v>
+        <v>2137700</v>
       </c>
       <c r="F59" s="3">
-        <v>1828400</v>
+        <v>1861300</v>
       </c>
       <c r="G59" s="3">
-        <v>1385200</v>
+        <v>1410200</v>
       </c>
       <c r="H59" s="3">
-        <v>1184500</v>
+        <v>1205800</v>
       </c>
       <c r="I59" s="3">
-        <v>1220800</v>
+        <v>1242800</v>
       </c>
       <c r="J59" s="3">
-        <v>1272400</v>
+        <v>1295300</v>
       </c>
       <c r="K59" s="3">
         <v>942800</v>
@@ -2244,25 +2244,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>4382700</v>
+        <v>4461700</v>
       </c>
       <c r="E60" s="3">
-        <v>3209000</v>
+        <v>3266800</v>
       </c>
       <c r="F60" s="3">
-        <v>2750600</v>
+        <v>2800200</v>
       </c>
       <c r="G60" s="3">
-        <v>2328700</v>
+        <v>2370700</v>
       </c>
       <c r="H60" s="3">
-        <v>1952000</v>
+        <v>1987200</v>
       </c>
       <c r="I60" s="3">
-        <v>2505200</v>
+        <v>2550300</v>
       </c>
       <c r="J60" s="3">
-        <v>2358000</v>
+        <v>2400400</v>
       </c>
       <c r="K60" s="3">
         <v>1692500</v>
@@ -2277,25 +2277,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>973800</v>
+        <v>991400</v>
       </c>
       <c r="E61" s="3">
-        <v>1083100</v>
+        <v>1102600</v>
       </c>
       <c r="F61" s="3">
-        <v>1226700</v>
+        <v>1248800</v>
       </c>
       <c r="G61" s="3">
-        <v>982000</v>
+        <v>999700</v>
       </c>
       <c r="H61" s="3">
-        <v>638300</v>
+        <v>649800</v>
       </c>
       <c r="I61" s="3">
-        <v>295300</v>
+        <v>300600</v>
       </c>
       <c r="J61" s="3">
-        <v>867200</v>
+        <v>882800</v>
       </c>
       <c r="K61" s="3">
         <v>1313300</v>
@@ -2310,25 +2310,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1260300</v>
+        <v>1283000</v>
       </c>
       <c r="E62" s="3">
-        <v>1332200</v>
+        <v>1356200</v>
       </c>
       <c r="F62" s="3">
-        <v>776200</v>
+        <v>790200</v>
       </c>
       <c r="G62" s="3">
-        <v>1604900</v>
+        <v>1633800</v>
       </c>
       <c r="H62" s="3">
-        <v>1140500</v>
+        <v>1161000</v>
       </c>
       <c r="I62" s="3">
-        <v>1110200</v>
+        <v>1130200</v>
       </c>
       <c r="J62" s="3">
-        <v>953400</v>
+        <v>970500</v>
       </c>
       <c r="K62" s="3">
         <v>722700</v>
@@ -2442,25 +2442,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6807100</v>
+        <v>6929700</v>
       </c>
       <c r="E66" s="3">
-        <v>5287200</v>
+        <v>5382400</v>
       </c>
       <c r="F66" s="3">
-        <v>4957000</v>
+        <v>5046200</v>
       </c>
       <c r="G66" s="3">
-        <v>5105200</v>
+        <v>5197200</v>
       </c>
       <c r="H66" s="3">
-        <v>3927200</v>
+        <v>3997900</v>
       </c>
       <c r="I66" s="3">
-        <v>4113300</v>
+        <v>4187400</v>
       </c>
       <c r="J66" s="3">
-        <v>4359800</v>
+        <v>4438300</v>
       </c>
       <c r="K66" s="3">
         <v>3866200</v>
@@ -2622,25 +2622,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>3518300</v>
+        <v>3581600</v>
       </c>
       <c r="E72" s="3">
-        <v>3020400</v>
+        <v>3074700</v>
       </c>
       <c r="F72" s="3">
-        <v>2572900</v>
+        <v>2619300</v>
       </c>
       <c r="G72" s="3">
-        <v>2443300</v>
+        <v>2487300</v>
       </c>
       <c r="H72" s="3">
-        <v>2216500</v>
+        <v>2256400</v>
       </c>
       <c r="I72" s="3">
-        <v>2074900</v>
+        <v>2112300</v>
       </c>
       <c r="J72" s="3">
-        <v>1929500</v>
+        <v>1964200</v>
       </c>
       <c r="K72" s="3">
         <v>1738600</v>
@@ -2754,25 +2754,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>4698300</v>
+        <v>4782900</v>
       </c>
       <c r="E76" s="3">
-        <v>4243600</v>
+        <v>4320000</v>
       </c>
       <c r="F76" s="3">
-        <v>4005600</v>
+        <v>4077700</v>
       </c>
       <c r="G76" s="3">
-        <v>3717300</v>
+        <v>3784300</v>
       </c>
       <c r="H76" s="3">
-        <v>3705500</v>
+        <v>3772200</v>
       </c>
       <c r="I76" s="3">
-        <v>3661800</v>
+        <v>3727800</v>
       </c>
       <c r="J76" s="3">
-        <v>3204900</v>
+        <v>3262600</v>
       </c>
       <c r="K76" s="3">
         <v>2602800</v>
@@ -2858,25 +2858,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>694400</v>
+        <v>706900</v>
       </c>
       <c r="E81" s="3">
-        <v>579600</v>
+        <v>590100</v>
       </c>
       <c r="F81" s="3">
-        <v>214800</v>
+        <v>218600</v>
       </c>
       <c r="G81" s="3">
-        <v>303000</v>
+        <v>308500</v>
       </c>
       <c r="H81" s="3">
-        <v>219100</v>
+        <v>223000</v>
       </c>
       <c r="I81" s="3">
-        <v>317800</v>
+        <v>323500</v>
       </c>
       <c r="J81" s="3">
-        <v>246800</v>
+        <v>251300</v>
       </c>
       <c r="K81" s="3">
         <v>-132800</v>
@@ -2906,25 +2906,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>551400</v>
+        <v>561300</v>
       </c>
       <c r="E83" s="3">
-        <v>413900</v>
+        <v>421400</v>
       </c>
       <c r="F83" s="3">
-        <v>413900</v>
+        <v>421400</v>
       </c>
       <c r="G83" s="3">
-        <v>371900</v>
+        <v>378600</v>
       </c>
       <c r="H83" s="3">
-        <v>348600</v>
+        <v>354900</v>
       </c>
       <c r="I83" s="3">
-        <v>359500</v>
+        <v>365900</v>
       </c>
       <c r="J83" s="3">
-        <v>360500</v>
+        <v>367000</v>
       </c>
       <c r="K83" s="3">
         <v>339300</v>
@@ -3104,25 +3104,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>713100</v>
+        <v>725900</v>
       </c>
       <c r="E89" s="3">
-        <v>873900</v>
+        <v>889700</v>
       </c>
       <c r="F89" s="3">
-        <v>900500</v>
+        <v>916700</v>
       </c>
       <c r="G89" s="3">
-        <v>558200</v>
+        <v>568200</v>
       </c>
       <c r="H89" s="3">
-        <v>571400</v>
+        <v>581700</v>
       </c>
       <c r="I89" s="3">
-        <v>308700</v>
+        <v>314300</v>
       </c>
       <c r="J89" s="3">
-        <v>796000</v>
+        <v>810300</v>
       </c>
       <c r="K89" s="3">
         <v>380100</v>
@@ -3152,25 +3152,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-870400</v>
+        <v>-886100</v>
       </c>
       <c r="E91" s="3">
-        <v>-760800</v>
+        <v>-774500</v>
       </c>
       <c r="F91" s="3">
-        <v>-340000</v>
+        <v>-346100</v>
       </c>
       <c r="G91" s="3">
-        <v>-296100</v>
+        <v>-301400</v>
       </c>
       <c r="H91" s="3">
-        <v>-159900</v>
+        <v>-162800</v>
       </c>
       <c r="I91" s="3">
-        <v>-147400</v>
+        <v>-150000</v>
       </c>
       <c r="J91" s="3">
-        <v>-169600</v>
+        <v>-172600</v>
       </c>
       <c r="K91" s="3">
         <v>-169600</v>
@@ -3251,25 +3251,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1914600</v>
+        <v>-1949100</v>
       </c>
       <c r="E94" s="3">
-        <v>-973400</v>
+        <v>-990900</v>
       </c>
       <c r="F94" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="G94" s="3">
-        <v>-666800</v>
+        <v>-678900</v>
       </c>
       <c r="H94" s="3">
-        <v>-218400</v>
+        <v>-222300</v>
       </c>
       <c r="I94" s="3">
-        <v>108900</v>
+        <v>110900</v>
       </c>
       <c r="J94" s="3">
-        <v>-158600</v>
+        <v>-161400</v>
       </c>
       <c r="K94" s="3">
         <v>-230800</v>
@@ -3299,25 +3299,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-207900</v>
+        <v>-211700</v>
       </c>
       <c r="E96" s="3">
-        <v>-131600</v>
+        <v>-134000</v>
       </c>
       <c r="F96" s="3">
-        <v>-84700</v>
+        <v>-86300</v>
       </c>
       <c r="G96" s="3">
-        <v>-77500</v>
+        <v>-78900</v>
       </c>
       <c r="H96" s="3">
-        <v>-72800</v>
+        <v>-74100</v>
       </c>
       <c r="I96" s="3">
-        <v>-75400</v>
+        <v>-76800</v>
       </c>
       <c r="J96" s="3">
-        <v>-131700</v>
+        <v>-134000</v>
       </c>
       <c r="K96" s="3">
         <v>-179900</v>
@@ -3431,25 +3431,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>1073100</v>
+        <v>1092400</v>
       </c>
       <c r="E100" s="3">
-        <v>-280600</v>
+        <v>-285600</v>
       </c>
       <c r="F100" s="3">
-        <v>-501400</v>
+        <v>-510500</v>
       </c>
       <c r="G100" s="3">
-        <v>211200</v>
+        <v>215100</v>
       </c>
       <c r="H100" s="3">
-        <v>-284600</v>
+        <v>-289800</v>
       </c>
       <c r="I100" s="3">
-        <v>-551500</v>
+        <v>-561400</v>
       </c>
       <c r="J100" s="3">
-        <v>-448000</v>
+        <v>-456100</v>
       </c>
       <c r="K100" s="3">
         <v>-223700</v>
@@ -3464,25 +3464,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-6500</v>
+        <v>-6700</v>
       </c>
       <c r="E101" s="3">
-        <v>-45400</v>
+        <v>-46200</v>
       </c>
       <c r="F101" s="3">
-        <v>23600</v>
+        <v>24000</v>
       </c>
       <c r="G101" s="3">
-        <v>-25200</v>
+        <v>-25700</v>
       </c>
       <c r="H101" s="3">
-        <v>-29500</v>
+        <v>-30000</v>
       </c>
       <c r="I101" s="3">
-        <v>45500</v>
+        <v>46300</v>
       </c>
       <c r="J101" s="3">
-        <v>93000</v>
+        <v>94700</v>
       </c>
       <c r="K101" s="3">
         <v>49900</v>
@@ -3497,25 +3497,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-135000</v>
+        <v>-137400</v>
       </c>
       <c r="E102" s="3">
-        <v>-425400</v>
+        <v>-433100</v>
       </c>
       <c r="F102" s="3">
-        <v>412600</v>
+        <v>420100</v>
       </c>
       <c r="G102" s="3">
-        <v>77400</v>
+        <v>78800</v>
       </c>
       <c r="H102" s="3">
-        <v>38900</v>
+        <v>39600</v>
       </c>
       <c r="I102" s="3">
-        <v>-88300</v>
+        <v>-89900</v>
       </c>
       <c r="J102" s="3">
-        <v>282400</v>
+        <v>287400</v>
       </c>
       <c r="K102" s="3">
         <v>-24600</v>

--- a/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,166 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10874200</v>
+        <v>8435300</v>
       </c>
       <c r="E8" s="3">
-        <v>10521300</v>
+        <v>10365000</v>
       </c>
       <c r="F8" s="3">
-        <v>9658600</v>
+        <v>10028600</v>
       </c>
       <c r="G8" s="3">
-        <v>8171400</v>
+        <v>9206400</v>
       </c>
       <c r="H8" s="3">
-        <v>7333000</v>
+        <v>7788800</v>
       </c>
       <c r="I8" s="3">
-        <v>7473600</v>
+        <v>6989600</v>
       </c>
       <c r="J8" s="3">
+        <v>7123600</v>
+      </c>
+      <c r="K8" s="3">
         <v>7323300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6126700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6052800</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2449100</v>
+        <v>2183800</v>
       </c>
       <c r="E9" s="3">
-        <v>2228800</v>
+        <v>2334400</v>
       </c>
       <c r="F9" s="3">
-        <v>2223100</v>
+        <v>2124500</v>
       </c>
       <c r="G9" s="3">
-        <v>1994600</v>
+        <v>2119000</v>
       </c>
       <c r="H9" s="3">
-        <v>1883600</v>
+        <v>1901200</v>
       </c>
       <c r="I9" s="3">
-        <v>1887700</v>
+        <v>1795400</v>
       </c>
       <c r="J9" s="3">
+        <v>1799300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1821700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1507700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1445700</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8425100</v>
+        <v>6251600</v>
       </c>
       <c r="E10" s="3">
-        <v>8292400</v>
+        <v>8030600</v>
       </c>
       <c r="F10" s="3">
-        <v>7435600</v>
+        <v>7904100</v>
       </c>
       <c r="G10" s="3">
-        <v>6176900</v>
+        <v>7087400</v>
       </c>
       <c r="H10" s="3">
-        <v>5449300</v>
+        <v>5887600</v>
       </c>
       <c r="I10" s="3">
-        <v>5585900</v>
+        <v>5194200</v>
       </c>
       <c r="J10" s="3">
+        <v>5324300</v>
+      </c>
+      <c r="K10" s="3">
         <v>5501600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4618900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4607000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,41 +838,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>304600</v>
+        <v>247200</v>
       </c>
       <c r="E12" s="3">
-        <v>279900</v>
+        <v>290300</v>
       </c>
       <c r="F12" s="3">
-        <v>232900</v>
+        <v>266800</v>
       </c>
       <c r="G12" s="3">
-        <v>175500</v>
+        <v>221900</v>
       </c>
       <c r="H12" s="3">
-        <v>108600</v>
+        <v>167300</v>
       </c>
       <c r="I12" s="3">
-        <v>136700</v>
+        <v>103500</v>
       </c>
       <c r="J12" s="3">
+        <v>130300</v>
+      </c>
+      <c r="K12" s="3">
         <v>130100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>123500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>130100</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,42 +907,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>34800</v>
+        <v>169900</v>
       </c>
       <c r="E14" s="3">
-        <v>87700</v>
+        <v>33100</v>
       </c>
       <c r="F14" s="3">
-        <v>758200</v>
+        <v>83600</v>
       </c>
       <c r="G14" s="3">
-        <v>46000</v>
+        <v>722700</v>
       </c>
       <c r="H14" s="3">
-        <v>23600</v>
+        <v>43800</v>
       </c>
       <c r="I14" s="3">
-        <v>57000</v>
+        <v>22500</v>
       </c>
       <c r="J14" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K14" s="3">
         <v>63400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>315400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9815000</v>
+        <v>8468200</v>
       </c>
       <c r="E17" s="3">
-        <v>9567700</v>
+        <v>9355400</v>
       </c>
       <c r="F17" s="3">
-        <v>9643900</v>
+        <v>9119700</v>
       </c>
       <c r="G17" s="3">
-        <v>7864000</v>
+        <v>9192300</v>
       </c>
       <c r="H17" s="3">
-        <v>6994700</v>
+        <v>7495700</v>
       </c>
       <c r="I17" s="3">
-        <v>7265200</v>
+        <v>6667200</v>
       </c>
       <c r="J17" s="3">
+        <v>6925000</v>
+      </c>
+      <c r="K17" s="3">
         <v>6909600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6206600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5707100</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1059200</v>
+        <v>-32800</v>
       </c>
       <c r="E18" s="3">
-        <v>953600</v>
+        <v>1009600</v>
       </c>
       <c r="F18" s="3">
-        <v>14800</v>
+        <v>908900</v>
       </c>
       <c r="G18" s="3">
-        <v>307500</v>
+        <v>14100</v>
       </c>
       <c r="H18" s="3">
-        <v>338300</v>
+        <v>293100</v>
       </c>
       <c r="I18" s="3">
-        <v>208400</v>
+        <v>322500</v>
       </c>
       <c r="J18" s="3">
+        <v>198600</v>
+      </c>
+      <c r="K18" s="3">
         <v>413600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-79900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>345600</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1051,173 +1083,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-5200</v>
+        <v>34500</v>
       </c>
       <c r="E20" s="3">
-        <v>56200</v>
+        <v>-5000</v>
       </c>
       <c r="F20" s="3">
-        <v>365300</v>
+        <v>53600</v>
       </c>
       <c r="G20" s="3">
-        <v>179600</v>
+        <v>348200</v>
       </c>
       <c r="H20" s="3">
-        <v>81700</v>
+        <v>171200</v>
       </c>
       <c r="I20" s="3">
-        <v>274500</v>
+        <v>77900</v>
       </c>
       <c r="J20" s="3">
+        <v>261600</v>
+      </c>
+      <c r="K20" s="3">
         <v>87600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>37800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1614100</v>
+        <v>622200</v>
       </c>
       <c r="E21" s="3">
-        <v>1430300</v>
+        <v>1541900</v>
       </c>
       <c r="F21" s="3">
-        <v>800500</v>
+        <v>1365900</v>
       </c>
       <c r="G21" s="3">
-        <v>864800</v>
+        <v>765700</v>
       </c>
       <c r="H21" s="3">
-        <v>774200</v>
+        <v>826700</v>
       </c>
       <c r="I21" s="3">
-        <v>848000</v>
+        <v>740100</v>
       </c>
       <c r="J21" s="3">
+        <v>810600</v>
+      </c>
+      <c r="K21" s="3">
         <v>867500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>297600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>682800</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>22000</v>
+        <v>20400</v>
       </c>
       <c r="E22" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I22" s="3">
         <v>7400</v>
       </c>
-      <c r="F22" s="3">
-        <v>9500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>7800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>7800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>11600</v>
-      </c>
       <c r="J22" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K22" s="3">
         <v>16600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16200</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1031900</v>
+        <v>-18700</v>
       </c>
       <c r="E23" s="3">
-        <v>1002400</v>
+        <v>983600</v>
       </c>
       <c r="F23" s="3">
-        <v>370500</v>
+        <v>955500</v>
       </c>
       <c r="G23" s="3">
-        <v>479200</v>
+        <v>353200</v>
       </c>
       <c r="H23" s="3">
-        <v>412200</v>
+        <v>456800</v>
       </c>
       <c r="I23" s="3">
-        <v>471300</v>
+        <v>392900</v>
       </c>
       <c r="J23" s="3">
+        <v>449200</v>
+      </c>
+      <c r="K23" s="3">
         <v>484600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-58200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>345500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>289000</v>
+        <v>64800</v>
       </c>
       <c r="E24" s="3">
-        <v>378700</v>
+        <v>275500</v>
       </c>
       <c r="F24" s="3">
-        <v>126900</v>
+        <v>360900</v>
       </c>
       <c r="G24" s="3">
-        <v>153200</v>
+        <v>120900</v>
       </c>
       <c r="H24" s="3">
-        <v>166200</v>
+        <v>146000</v>
       </c>
       <c r="I24" s="3">
-        <v>123100</v>
+        <v>158400</v>
       </c>
       <c r="J24" s="3">
+        <v>117300</v>
+      </c>
+      <c r="K24" s="3">
         <v>208400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>56700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>194100</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>742900</v>
+        <v>-83500</v>
       </c>
       <c r="E26" s="3">
-        <v>623700</v>
+        <v>708100</v>
       </c>
       <c r="F26" s="3">
-        <v>243700</v>
+        <v>594500</v>
       </c>
       <c r="G26" s="3">
-        <v>326000</v>
+        <v>232300</v>
       </c>
       <c r="H26" s="3">
-        <v>246000</v>
+        <v>310800</v>
       </c>
       <c r="I26" s="3">
-        <v>348100</v>
+        <v>234500</v>
       </c>
       <c r="J26" s="3">
+        <v>331800</v>
+      </c>
+      <c r="K26" s="3">
         <v>276200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-114900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>151300</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>706900</v>
+        <v>-106800</v>
       </c>
       <c r="E27" s="3">
-        <v>590100</v>
+        <v>673800</v>
       </c>
       <c r="F27" s="3">
-        <v>218600</v>
+        <v>562500</v>
       </c>
       <c r="G27" s="3">
-        <v>308500</v>
+        <v>208400</v>
       </c>
       <c r="H27" s="3">
-        <v>223000</v>
+        <v>294000</v>
       </c>
       <c r="I27" s="3">
-        <v>323500</v>
+        <v>212600</v>
       </c>
       <c r="J27" s="3">
+        <v>308400</v>
+      </c>
+      <c r="K27" s="3">
         <v>251300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-132800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>128700</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1446,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>5200</v>
+        <v>-34500</v>
       </c>
       <c r="E32" s="3">
-        <v>-56200</v>
+        <v>5000</v>
       </c>
       <c r="F32" s="3">
-        <v>-365300</v>
+        <v>-53600</v>
       </c>
       <c r="G32" s="3">
-        <v>-179600</v>
+        <v>-348200</v>
       </c>
       <c r="H32" s="3">
-        <v>-81700</v>
+        <v>-171200</v>
       </c>
       <c r="I32" s="3">
-        <v>-274500</v>
+        <v>-77900</v>
       </c>
       <c r="J32" s="3">
+        <v>-261600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-87600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-37800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>706900</v>
+        <v>-106800</v>
       </c>
       <c r="E33" s="3">
-        <v>590100</v>
+        <v>673800</v>
       </c>
       <c r="F33" s="3">
-        <v>218600</v>
+        <v>562500</v>
       </c>
       <c r="G33" s="3">
-        <v>308500</v>
+        <v>208400</v>
       </c>
       <c r="H33" s="3">
-        <v>223000</v>
+        <v>294000</v>
       </c>
       <c r="I33" s="3">
-        <v>323500</v>
+        <v>212600</v>
       </c>
       <c r="J33" s="3">
+        <v>308400</v>
+      </c>
+      <c r="K33" s="3">
         <v>251300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-132800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>128700</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>706900</v>
+        <v>-106800</v>
       </c>
       <c r="E35" s="3">
-        <v>590100</v>
+        <v>673800</v>
       </c>
       <c r="F35" s="3">
-        <v>218600</v>
+        <v>562500</v>
       </c>
       <c r="G35" s="3">
-        <v>308500</v>
+        <v>208400</v>
       </c>
       <c r="H35" s="3">
-        <v>223000</v>
+        <v>294000</v>
       </c>
       <c r="I35" s="3">
-        <v>323500</v>
+        <v>212600</v>
       </c>
       <c r="J35" s="3">
+        <v>308400</v>
+      </c>
+      <c r="K35" s="3">
         <v>251300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-132800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>128700</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1647,305 +1732,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1060400</v>
+        <v>1190900</v>
       </c>
       <c r="E41" s="3">
-        <v>1209800</v>
+        <v>1010700</v>
       </c>
       <c r="F41" s="3">
-        <v>1602000</v>
+        <v>1153200</v>
       </c>
       <c r="G41" s="3">
-        <v>1154400</v>
+        <v>1527000</v>
       </c>
       <c r="H41" s="3">
-        <v>1122200</v>
+        <v>1100400</v>
       </c>
       <c r="I41" s="3">
-        <v>995600</v>
+        <v>1069600</v>
       </c>
       <c r="J41" s="3">
+        <v>949000</v>
+      </c>
+      <c r="K41" s="3">
         <v>920400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>536300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>595400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>91</v>
+      <c r="D42" s="3">
+        <v>192400</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="3">
-        <v>74800</v>
+      <c r="F42" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G42" s="3">
-        <v>76000</v>
+        <v>71300</v>
       </c>
       <c r="H42" s="3">
-        <v>73900</v>
+        <v>72400</v>
       </c>
       <c r="I42" s="3">
-        <v>175500</v>
+        <v>70400</v>
       </c>
       <c r="J42" s="3">
+        <v>167300</v>
+      </c>
+      <c r="K42" s="3">
         <v>318400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>288700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>237000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1635300</v>
+        <v>1292300</v>
       </c>
       <c r="E43" s="3">
-        <v>1580900</v>
+        <v>1558700</v>
       </c>
       <c r="F43" s="3">
-        <v>1540800</v>
+        <v>1506800</v>
       </c>
       <c r="G43" s="3">
-        <v>1295800</v>
+        <v>1468600</v>
       </c>
       <c r="H43" s="3">
-        <v>1205400</v>
+        <v>1235100</v>
       </c>
       <c r="I43" s="3">
-        <v>1251400</v>
+        <v>1149000</v>
       </c>
       <c r="J43" s="3">
+        <v>1192800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1314600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1059600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>992900</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1740400</v>
+        <v>1557500</v>
       </c>
       <c r="E44" s="3">
-        <v>1439500</v>
+        <v>1658900</v>
       </c>
       <c r="F44" s="3">
-        <v>1248900</v>
+        <v>1372100</v>
       </c>
       <c r="G44" s="3">
-        <v>2223200</v>
+        <v>1190400</v>
       </c>
       <c r="H44" s="3">
-        <v>1018000</v>
+        <v>2119100</v>
       </c>
       <c r="I44" s="3">
-        <v>1025300</v>
+        <v>970300</v>
       </c>
       <c r="J44" s="3">
+        <v>977300</v>
+      </c>
+      <c r="K44" s="3">
         <v>867200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1528700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>637800</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>682400</v>
+        <v>482100</v>
       </c>
       <c r="E45" s="3">
-        <v>696800</v>
+        <v>650500</v>
       </c>
       <c r="F45" s="3">
-        <v>590800</v>
+        <v>664100</v>
       </c>
       <c r="G45" s="3">
-        <v>512800</v>
+        <v>563200</v>
       </c>
       <c r="H45" s="3">
-        <v>527100</v>
+        <v>488800</v>
       </c>
       <c r="I45" s="3">
-        <v>540900</v>
+        <v>502500</v>
       </c>
       <c r="J45" s="3">
+        <v>515600</v>
+      </c>
+      <c r="K45" s="3">
         <v>448300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>358500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>333100</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5118500</v>
+        <v>4715200</v>
       </c>
       <c r="E46" s="3">
-        <v>4641600</v>
+        <v>4878800</v>
       </c>
       <c r="F46" s="3">
-        <v>5057200</v>
+        <v>4424200</v>
       </c>
       <c r="G46" s="3">
-        <v>4150600</v>
+        <v>4820400</v>
       </c>
       <c r="H46" s="3">
-        <v>3946600</v>
+        <v>3956200</v>
       </c>
       <c r="I46" s="3">
-        <v>3988800</v>
+        <v>3761800</v>
       </c>
       <c r="J46" s="3">
+        <v>3802000</v>
+      </c>
+      <c r="K46" s="3">
         <v>3868900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3007400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2796000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>133400</v>
+        <v>122600</v>
       </c>
       <c r="E47" s="3">
-        <v>441900</v>
+        <v>127200</v>
       </c>
       <c r="F47" s="3">
-        <v>251100</v>
+        <v>421200</v>
       </c>
       <c r="G47" s="3">
-        <v>480500</v>
+        <v>239300</v>
       </c>
       <c r="H47" s="3">
-        <v>267000</v>
+        <v>458000</v>
       </c>
       <c r="I47" s="3">
-        <v>280300</v>
+        <v>254500</v>
       </c>
       <c r="J47" s="3">
+        <v>267200</v>
+      </c>
+      <c r="K47" s="3">
         <v>257900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>551200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>243000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>3024800</v>
+        <v>3124000</v>
       </c>
       <c r="E48" s="3">
-        <v>2260100</v>
+        <v>2883200</v>
       </c>
       <c r="F48" s="3">
-        <v>1524900</v>
+        <v>2154300</v>
       </c>
       <c r="G48" s="3">
-        <v>1501000</v>
+        <v>1453500</v>
       </c>
       <c r="H48" s="3">
-        <v>1290400</v>
+        <v>1430700</v>
       </c>
       <c r="I48" s="3">
-        <v>1316400</v>
+        <v>1230000</v>
       </c>
       <c r="J48" s="3">
+        <v>1254800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1296200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1155400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1151300</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2394900</v>
+        <v>2211200</v>
       </c>
       <c r="E49" s="3">
-        <v>1589600</v>
+        <v>2282800</v>
       </c>
       <c r="F49" s="3">
-        <v>1620100</v>
+        <v>1515100</v>
       </c>
       <c r="G49" s="3">
-        <v>2367300</v>
+        <v>1544200</v>
       </c>
       <c r="H49" s="3">
-        <v>1551100</v>
+        <v>2256400</v>
       </c>
       <c r="I49" s="3">
-        <v>1606000</v>
+        <v>1478500</v>
       </c>
       <c r="J49" s="3">
+        <v>1530800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1602300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1362300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1540200</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2009,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1041000</v>
+        <v>857800</v>
       </c>
       <c r="E52" s="3">
-        <v>990600</v>
+        <v>992200</v>
       </c>
       <c r="F52" s="3">
-        <v>670600</v>
+        <v>944200</v>
       </c>
       <c r="G52" s="3">
-        <v>721300</v>
+        <v>639200</v>
       </c>
       <c r="H52" s="3">
-        <v>715000</v>
+        <v>687500</v>
       </c>
       <c r="I52" s="3">
-        <v>723500</v>
+        <v>681600</v>
       </c>
       <c r="J52" s="3">
+        <v>689600</v>
+      </c>
+      <c r="K52" s="3">
         <v>675700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>668600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>662000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>11712600</v>
+        <v>11030700</v>
       </c>
       <c r="E54" s="3">
-        <v>9702400</v>
+        <v>11164200</v>
       </c>
       <c r="F54" s="3">
-        <v>9124000</v>
+        <v>9248100</v>
       </c>
       <c r="G54" s="3">
-        <v>8981400</v>
+        <v>8696700</v>
       </c>
       <c r="H54" s="3">
-        <v>7770100</v>
+        <v>8560800</v>
       </c>
       <c r="I54" s="3">
-        <v>7915100</v>
+        <v>7406300</v>
       </c>
       <c r="J54" s="3">
+        <v>7544500</v>
+      </c>
+      <c r="K54" s="3">
         <v>7700900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6469000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6392600</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2139,206 +2268,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>931600</v>
+        <v>704700</v>
       </c>
       <c r="E57" s="3">
-        <v>983000</v>
+        <v>887900</v>
       </c>
       <c r="F57" s="3">
-        <v>836400</v>
+        <v>937000</v>
       </c>
       <c r="G57" s="3">
-        <v>801400</v>
+        <v>797200</v>
       </c>
       <c r="H57" s="3">
-        <v>598800</v>
+        <v>763900</v>
       </c>
       <c r="I57" s="3">
-        <v>580800</v>
+        <v>570800</v>
       </c>
       <c r="J57" s="3">
+        <v>553600</v>
+      </c>
+      <c r="K57" s="3">
         <v>489600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>393600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>428500</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1393000</v>
+        <v>715200</v>
       </c>
       <c r="E58" s="3">
-        <v>146100</v>
+        <v>1345900</v>
       </c>
       <c r="F58" s="3">
-        <v>102500</v>
+        <v>139200</v>
       </c>
       <c r="G58" s="3">
-        <v>159100</v>
+        <v>97700</v>
       </c>
       <c r="H58" s="3">
-        <v>182500</v>
+        <v>151700</v>
       </c>
       <c r="I58" s="3">
-        <v>726700</v>
+        <v>174000</v>
       </c>
       <c r="J58" s="3">
+        <v>692600</v>
+      </c>
+      <c r="K58" s="3">
         <v>615500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>356100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>86300</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2137100</v>
+        <v>1813500</v>
       </c>
       <c r="E59" s="3">
-        <v>2137700</v>
+        <v>2018900</v>
       </c>
       <c r="F59" s="3">
-        <v>1861300</v>
+        <v>2037600</v>
       </c>
       <c r="G59" s="3">
-        <v>1410200</v>
+        <v>1774200</v>
       </c>
       <c r="H59" s="3">
-        <v>1205800</v>
+        <v>1344100</v>
       </c>
       <c r="I59" s="3">
-        <v>1242800</v>
+        <v>1149400</v>
       </c>
       <c r="J59" s="3">
+        <v>1184600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1295300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>942800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>946200</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>4461700</v>
+        <v>3233300</v>
       </c>
       <c r="E60" s="3">
-        <v>3266800</v>
+        <v>4252700</v>
       </c>
       <c r="F60" s="3">
-        <v>2800200</v>
+        <v>3113900</v>
       </c>
       <c r="G60" s="3">
-        <v>2370700</v>
+        <v>2669000</v>
       </c>
       <c r="H60" s="3">
-        <v>1987200</v>
+        <v>2259700</v>
       </c>
       <c r="I60" s="3">
-        <v>2550300</v>
+        <v>1894100</v>
       </c>
       <c r="J60" s="3">
+        <v>2430900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2400400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1692500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1461000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>991400</v>
+        <v>2735700</v>
       </c>
       <c r="E61" s="3">
-        <v>1102600</v>
+        <v>1388100</v>
       </c>
       <c r="F61" s="3">
-        <v>1248800</v>
+        <v>1051000</v>
       </c>
       <c r="G61" s="3">
-        <v>999700</v>
+        <v>1190400</v>
       </c>
       <c r="H61" s="3">
-        <v>649800</v>
+        <v>952800</v>
       </c>
       <c r="I61" s="3">
-        <v>300600</v>
+        <v>619400</v>
       </c>
       <c r="J61" s="3">
+        <v>286500</v>
+      </c>
+      <c r="K61" s="3">
         <v>882800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1313300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1555900</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1283000</v>
+        <v>421300</v>
       </c>
       <c r="E62" s="3">
-        <v>1356200</v>
+        <v>779700</v>
       </c>
       <c r="F62" s="3">
-        <v>790200</v>
+        <v>1292700</v>
       </c>
       <c r="G62" s="3">
-        <v>1633800</v>
+        <v>753200</v>
       </c>
       <c r="H62" s="3">
-        <v>1161000</v>
+        <v>1557300</v>
       </c>
       <c r="I62" s="3">
-        <v>1130200</v>
+        <v>1106600</v>
       </c>
       <c r="J62" s="3">
+        <v>1077300</v>
+      </c>
+      <c r="K62" s="3">
         <v>970500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>722700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>681700</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6929700</v>
+        <v>6581800</v>
       </c>
       <c r="E66" s="3">
-        <v>5382400</v>
+        <v>6605200</v>
       </c>
       <c r="F66" s="3">
-        <v>5046200</v>
+        <v>5130400</v>
       </c>
       <c r="G66" s="3">
-        <v>5197200</v>
+        <v>4809900</v>
       </c>
       <c r="H66" s="3">
-        <v>3997900</v>
+        <v>4953800</v>
       </c>
       <c r="I66" s="3">
-        <v>4187400</v>
+        <v>3810700</v>
       </c>
       <c r="J66" s="3">
+        <v>3991300</v>
+      </c>
+      <c r="K66" s="3">
         <v>4438300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3866200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3810000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>3581600</v>
+        <v>3125500</v>
       </c>
       <c r="E72" s="3">
-        <v>3074700</v>
+        <v>3413900</v>
       </c>
       <c r="F72" s="3">
-        <v>2619300</v>
+        <v>2930800</v>
       </c>
       <c r="G72" s="3">
-        <v>2487300</v>
+        <v>2496600</v>
       </c>
       <c r="H72" s="3">
-        <v>2256400</v>
+        <v>2370800</v>
       </c>
       <c r="I72" s="3">
-        <v>2112300</v>
+        <v>2150700</v>
       </c>
       <c r="J72" s="3">
+        <v>2013400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1964200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1738600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2001100</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>4782900</v>
+        <v>4448900</v>
       </c>
       <c r="E76" s="3">
-        <v>4320000</v>
+        <v>4558900</v>
       </c>
       <c r="F76" s="3">
-        <v>4077700</v>
+        <v>4117700</v>
       </c>
       <c r="G76" s="3">
-        <v>3784300</v>
+        <v>3886800</v>
       </c>
       <c r="H76" s="3">
-        <v>3772200</v>
+        <v>3607100</v>
       </c>
       <c r="I76" s="3">
-        <v>3727800</v>
+        <v>3595600</v>
       </c>
       <c r="J76" s="3">
+        <v>3553200</v>
+      </c>
+      <c r="K76" s="3">
         <v>3262600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2602800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2582600</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>706900</v>
+        <v>-106800</v>
       </c>
       <c r="E81" s="3">
-        <v>590100</v>
+        <v>673800</v>
       </c>
       <c r="F81" s="3">
-        <v>218600</v>
+        <v>562500</v>
       </c>
       <c r="G81" s="3">
-        <v>308500</v>
+        <v>208400</v>
       </c>
       <c r="H81" s="3">
-        <v>223000</v>
+        <v>294000</v>
       </c>
       <c r="I81" s="3">
-        <v>323500</v>
+        <v>212600</v>
       </c>
       <c r="J81" s="3">
+        <v>308400</v>
+      </c>
+      <c r="K81" s="3">
         <v>251300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-132800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>128700</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>561300</v>
+        <v>617800</v>
       </c>
       <c r="E83" s="3">
-        <v>421400</v>
+        <v>535000</v>
       </c>
       <c r="F83" s="3">
-        <v>421400</v>
+        <v>401600</v>
       </c>
       <c r="G83" s="3">
-        <v>378600</v>
+        <v>401700</v>
       </c>
       <c r="H83" s="3">
-        <v>354900</v>
+        <v>360900</v>
       </c>
       <c r="I83" s="3">
-        <v>365900</v>
+        <v>338300</v>
       </c>
       <c r="J83" s="3">
+        <v>348800</v>
+      </c>
+      <c r="K83" s="3">
         <v>367000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>339300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>321100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>725900</v>
+        <v>586600</v>
       </c>
       <c r="E89" s="3">
-        <v>889700</v>
+        <v>691900</v>
       </c>
       <c r="F89" s="3">
-        <v>916700</v>
+        <v>848000</v>
       </c>
       <c r="G89" s="3">
-        <v>568200</v>
+        <v>873800</v>
       </c>
       <c r="H89" s="3">
-        <v>581700</v>
+        <v>541600</v>
       </c>
       <c r="I89" s="3">
-        <v>314300</v>
+        <v>554400</v>
       </c>
       <c r="J89" s="3">
+        <v>299600</v>
+      </c>
+      <c r="K89" s="3">
         <v>810300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>380100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>466500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-886100</v>
+        <v>-516200</v>
       </c>
       <c r="E91" s="3">
-        <v>-774500</v>
+        <v>-844600</v>
       </c>
       <c r="F91" s="3">
-        <v>-346100</v>
+        <v>-738300</v>
       </c>
       <c r="G91" s="3">
-        <v>-301400</v>
+        <v>-329900</v>
       </c>
       <c r="H91" s="3">
-        <v>-162800</v>
+        <v>-287300</v>
       </c>
       <c r="I91" s="3">
-        <v>-150000</v>
+        <v>-155200</v>
       </c>
       <c r="J91" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-172600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-169600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-219400</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1949100</v>
+        <v>-642000</v>
       </c>
       <c r="E94" s="3">
-        <v>-990900</v>
+        <v>-1857900</v>
       </c>
       <c r="F94" s="3">
-        <v>-10200</v>
+        <v>-944500</v>
       </c>
       <c r="G94" s="3">
-        <v>-678900</v>
+        <v>-9700</v>
       </c>
       <c r="H94" s="3">
-        <v>-222300</v>
+        <v>-647100</v>
       </c>
       <c r="I94" s="3">
-        <v>110900</v>
+        <v>-211900</v>
       </c>
       <c r="J94" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-161400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-230800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-183300</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3293,41 +3525,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-211700</v>
+        <v>-182900</v>
       </c>
       <c r="E96" s="3">
+        <v>-201800</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-127700</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-82200</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-134000</v>
       </c>
-      <c r="F96" s="3">
-        <v>-86300</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-78900</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-74100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-76800</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-134000</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-179900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-176400</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3424,106 +3666,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>1092400</v>
+        <v>429400</v>
       </c>
       <c r="E100" s="3">
-        <v>-285600</v>
+        <v>1041300</v>
       </c>
       <c r="F100" s="3">
-        <v>-510500</v>
+        <v>-272300</v>
       </c>
       <c r="G100" s="3">
-        <v>215100</v>
+        <v>-486600</v>
       </c>
       <c r="H100" s="3">
-        <v>-289800</v>
+        <v>205000</v>
       </c>
       <c r="I100" s="3">
-        <v>-561400</v>
+        <v>-276200</v>
       </c>
       <c r="J100" s="3">
+        <v>-535100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-456100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-223700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-314700</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-6700</v>
+        <v>-17900</v>
       </c>
       <c r="E101" s="3">
-        <v>-46200</v>
+        <v>-6300</v>
       </c>
       <c r="F101" s="3">
-        <v>24000</v>
+        <v>-44100</v>
       </c>
       <c r="G101" s="3">
-        <v>-25700</v>
+        <v>22900</v>
       </c>
       <c r="H101" s="3">
-        <v>-30000</v>
+        <v>-24500</v>
       </c>
       <c r="I101" s="3">
-        <v>46300</v>
+        <v>-28600</v>
       </c>
       <c r="J101" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K101" s="3">
         <v>94700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>49900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-18300</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-137400</v>
+        <v>356100</v>
       </c>
       <c r="E102" s="3">
-        <v>-433100</v>
+        <v>-131000</v>
       </c>
       <c r="F102" s="3">
-        <v>420100</v>
+        <v>-412800</v>
       </c>
       <c r="G102" s="3">
-        <v>78800</v>
+        <v>400400</v>
       </c>
       <c r="H102" s="3">
-        <v>39600</v>
+        <v>75100</v>
       </c>
       <c r="I102" s="3">
-        <v>-89900</v>
+        <v>37700</v>
       </c>
       <c r="J102" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="K102" s="3">
         <v>287400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-24600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-49800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8435300</v>
+        <v>8463000</v>
       </c>
       <c r="E8" s="3">
-        <v>10365000</v>
+        <v>10398900</v>
       </c>
       <c r="F8" s="3">
-        <v>10028600</v>
+        <v>10061400</v>
       </c>
       <c r="G8" s="3">
-        <v>9206400</v>
+        <v>9236500</v>
       </c>
       <c r="H8" s="3">
-        <v>7788800</v>
+        <v>7814300</v>
       </c>
       <c r="I8" s="3">
-        <v>6989600</v>
+        <v>7012500</v>
       </c>
       <c r="J8" s="3">
-        <v>7123600</v>
+        <v>7146900</v>
       </c>
       <c r="K8" s="3">
         <v>7323300</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2183800</v>
+        <v>2190900</v>
       </c>
       <c r="E9" s="3">
-        <v>2334400</v>
+        <v>2342000</v>
       </c>
       <c r="F9" s="3">
-        <v>2124500</v>
+        <v>2131400</v>
       </c>
       <c r="G9" s="3">
-        <v>2119000</v>
+        <v>2125900</v>
       </c>
       <c r="H9" s="3">
-        <v>1901200</v>
+        <v>1907400</v>
       </c>
       <c r="I9" s="3">
-        <v>1795400</v>
+        <v>1801300</v>
       </c>
       <c r="J9" s="3">
-        <v>1799300</v>
+        <v>1805200</v>
       </c>
       <c r="K9" s="3">
         <v>1821700</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6251600</v>
+        <v>6272100</v>
       </c>
       <c r="E10" s="3">
-        <v>8030600</v>
+        <v>8056900</v>
       </c>
       <c r="F10" s="3">
-        <v>7904100</v>
+        <v>7930000</v>
       </c>
       <c r="G10" s="3">
-        <v>7087400</v>
+        <v>7110600</v>
       </c>
       <c r="H10" s="3">
-        <v>5887600</v>
+        <v>5906900</v>
       </c>
       <c r="I10" s="3">
-        <v>5194200</v>
+        <v>5211200</v>
       </c>
       <c r="J10" s="3">
-        <v>5324300</v>
+        <v>5341700</v>
       </c>
       <c r="K10" s="3">
         <v>5501600</v>
@@ -845,25 +845,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>247200</v>
+        <v>248100</v>
       </c>
       <c r="E12" s="3">
-        <v>290300</v>
+        <v>291300</v>
       </c>
       <c r="F12" s="3">
-        <v>266800</v>
+        <v>267700</v>
       </c>
       <c r="G12" s="3">
-        <v>221900</v>
+        <v>222700</v>
       </c>
       <c r="H12" s="3">
-        <v>167300</v>
+        <v>167800</v>
       </c>
       <c r="I12" s="3">
-        <v>103500</v>
+        <v>103800</v>
       </c>
       <c r="J12" s="3">
-        <v>130300</v>
+        <v>130700</v>
       </c>
       <c r="K12" s="3">
         <v>130100</v>
@@ -917,25 +917,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>169900</v>
+        <v>170400</v>
       </c>
       <c r="E14" s="3">
-        <v>33100</v>
+        <v>33200</v>
       </c>
       <c r="F14" s="3">
-        <v>83600</v>
+        <v>83800</v>
       </c>
       <c r="G14" s="3">
-        <v>722700</v>
+        <v>725100</v>
       </c>
       <c r="H14" s="3">
-        <v>43800</v>
+        <v>44000</v>
       </c>
       <c r="I14" s="3">
-        <v>22500</v>
+        <v>22600</v>
       </c>
       <c r="J14" s="3">
-        <v>54300</v>
+        <v>54500</v>
       </c>
       <c r="K14" s="3">
         <v>63400</v>
@@ -1002,25 +1002,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>8468200</v>
+        <v>8495900</v>
       </c>
       <c r="E17" s="3">
-        <v>9355400</v>
+        <v>9386100</v>
       </c>
       <c r="F17" s="3">
-        <v>9119700</v>
+        <v>9149500</v>
       </c>
       <c r="G17" s="3">
-        <v>9192300</v>
+        <v>9222400</v>
       </c>
       <c r="H17" s="3">
-        <v>7495700</v>
+        <v>7520300</v>
       </c>
       <c r="I17" s="3">
-        <v>6667200</v>
+        <v>6689000</v>
       </c>
       <c r="J17" s="3">
-        <v>6925000</v>
+        <v>6947700</v>
       </c>
       <c r="K17" s="3">
         <v>6909600</v>
@@ -1038,25 +1038,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-32800</v>
+        <v>-32900</v>
       </c>
       <c r="E18" s="3">
-        <v>1009600</v>
+        <v>1012900</v>
       </c>
       <c r="F18" s="3">
-        <v>908900</v>
+        <v>911900</v>
       </c>
       <c r="G18" s="3">
         <v>14100</v>
       </c>
       <c r="H18" s="3">
-        <v>293100</v>
+        <v>294000</v>
       </c>
       <c r="I18" s="3">
-        <v>322500</v>
+        <v>323500</v>
       </c>
       <c r="J18" s="3">
-        <v>198600</v>
+        <v>199200</v>
       </c>
       <c r="K18" s="3">
         <v>413600</v>
@@ -1090,25 +1090,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>34500</v>
+        <v>34600</v>
       </c>
       <c r="E20" s="3">
         <v>-5000</v>
       </c>
       <c r="F20" s="3">
-        <v>53600</v>
+        <v>53800</v>
       </c>
       <c r="G20" s="3">
-        <v>348200</v>
+        <v>349300</v>
       </c>
       <c r="H20" s="3">
-        <v>171200</v>
+        <v>171700</v>
       </c>
       <c r="I20" s="3">
-        <v>77900</v>
+        <v>78100</v>
       </c>
       <c r="J20" s="3">
-        <v>261600</v>
+        <v>262500</v>
       </c>
       <c r="K20" s="3">
         <v>87600</v>
@@ -1129,22 +1129,22 @@
         <v>622200</v>
       </c>
       <c r="E21" s="3">
-        <v>1541900</v>
+        <v>1545200</v>
       </c>
       <c r="F21" s="3">
-        <v>1365900</v>
+        <v>1369100</v>
       </c>
       <c r="G21" s="3">
-        <v>765700</v>
+        <v>766800</v>
       </c>
       <c r="H21" s="3">
-        <v>826700</v>
+        <v>828200</v>
       </c>
       <c r="I21" s="3">
-        <v>740100</v>
+        <v>741400</v>
       </c>
       <c r="J21" s="3">
-        <v>810600</v>
+        <v>812100</v>
       </c>
       <c r="K21" s="3">
         <v>867500</v>
@@ -1162,13 +1162,13 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>20400</v>
+        <v>20500</v>
       </c>
       <c r="E22" s="3">
-        <v>21000</v>
+        <v>21100</v>
       </c>
       <c r="F22" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="G22" s="3">
         <v>9100</v>
@@ -1201,22 +1201,22 @@
         <v>-18700</v>
       </c>
       <c r="E23" s="3">
-        <v>983600</v>
+        <v>986800</v>
       </c>
       <c r="F23" s="3">
-        <v>955500</v>
+        <v>958600</v>
       </c>
       <c r="G23" s="3">
-        <v>353200</v>
+        <v>354300</v>
       </c>
       <c r="H23" s="3">
-        <v>456800</v>
+        <v>458300</v>
       </c>
       <c r="I23" s="3">
-        <v>392900</v>
+        <v>394200</v>
       </c>
       <c r="J23" s="3">
-        <v>449200</v>
+        <v>450700</v>
       </c>
       <c r="K23" s="3">
         <v>484600</v>
@@ -1234,25 +1234,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>64800</v>
+        <v>65100</v>
       </c>
       <c r="E24" s="3">
-        <v>275500</v>
+        <v>276400</v>
       </c>
       <c r="F24" s="3">
-        <v>360900</v>
+        <v>362100</v>
       </c>
       <c r="G24" s="3">
-        <v>120900</v>
+        <v>121300</v>
       </c>
       <c r="H24" s="3">
-        <v>146000</v>
+        <v>146500</v>
       </c>
       <c r="I24" s="3">
-        <v>158400</v>
+        <v>158900</v>
       </c>
       <c r="J24" s="3">
-        <v>117300</v>
+        <v>117700</v>
       </c>
       <c r="K24" s="3">
         <v>208400</v>
@@ -1306,25 +1306,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-83500</v>
+        <v>-83800</v>
       </c>
       <c r="E26" s="3">
-        <v>708100</v>
+        <v>710400</v>
       </c>
       <c r="F26" s="3">
-        <v>594500</v>
+        <v>596500</v>
       </c>
       <c r="G26" s="3">
-        <v>232300</v>
+        <v>233000</v>
       </c>
       <c r="H26" s="3">
-        <v>310800</v>
+        <v>311800</v>
       </c>
       <c r="I26" s="3">
-        <v>234500</v>
+        <v>235300</v>
       </c>
       <c r="J26" s="3">
-        <v>331800</v>
+        <v>332900</v>
       </c>
       <c r="K26" s="3">
         <v>276200</v>
@@ -1342,25 +1342,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-106800</v>
+        <v>-107200</v>
       </c>
       <c r="E27" s="3">
-        <v>673800</v>
+        <v>676000</v>
       </c>
       <c r="F27" s="3">
-        <v>562500</v>
+        <v>564300</v>
       </c>
       <c r="G27" s="3">
-        <v>208400</v>
+        <v>209100</v>
       </c>
       <c r="H27" s="3">
-        <v>294000</v>
+        <v>295000</v>
       </c>
       <c r="I27" s="3">
-        <v>212600</v>
+        <v>213300</v>
       </c>
       <c r="J27" s="3">
-        <v>308400</v>
+        <v>309400</v>
       </c>
       <c r="K27" s="3">
         <v>251300</v>
@@ -1522,25 +1522,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-34500</v>
+        <v>-34600</v>
       </c>
       <c r="E32" s="3">
         <v>5000</v>
       </c>
       <c r="F32" s="3">
-        <v>-53600</v>
+        <v>-53800</v>
       </c>
       <c r="G32" s="3">
-        <v>-348200</v>
+        <v>-349300</v>
       </c>
       <c r="H32" s="3">
-        <v>-171200</v>
+        <v>-171700</v>
       </c>
       <c r="I32" s="3">
-        <v>-77900</v>
+        <v>-78100</v>
       </c>
       <c r="J32" s="3">
-        <v>-261600</v>
+        <v>-262500</v>
       </c>
       <c r="K32" s="3">
         <v>-87600</v>
@@ -1558,25 +1558,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-106800</v>
+        <v>-107200</v>
       </c>
       <c r="E33" s="3">
-        <v>673800</v>
+        <v>676000</v>
       </c>
       <c r="F33" s="3">
-        <v>562500</v>
+        <v>564300</v>
       </c>
       <c r="G33" s="3">
-        <v>208400</v>
+        <v>209100</v>
       </c>
       <c r="H33" s="3">
-        <v>294000</v>
+        <v>295000</v>
       </c>
       <c r="I33" s="3">
-        <v>212600</v>
+        <v>213300</v>
       </c>
       <c r="J33" s="3">
-        <v>308400</v>
+        <v>309400</v>
       </c>
       <c r="K33" s="3">
         <v>251300</v>
@@ -1630,25 +1630,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-106800</v>
+        <v>-107200</v>
       </c>
       <c r="E35" s="3">
-        <v>673800</v>
+        <v>676000</v>
       </c>
       <c r="F35" s="3">
-        <v>562500</v>
+        <v>564300</v>
       </c>
       <c r="G35" s="3">
-        <v>208400</v>
+        <v>209100</v>
       </c>
       <c r="H35" s="3">
-        <v>294000</v>
+        <v>295000</v>
       </c>
       <c r="I35" s="3">
-        <v>212600</v>
+        <v>213300</v>
       </c>
       <c r="J35" s="3">
-        <v>308400</v>
+        <v>309400</v>
       </c>
       <c r="K35" s="3">
         <v>251300</v>
@@ -1739,25 +1739,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1190900</v>
+        <v>1194800</v>
       </c>
       <c r="E41" s="3">
-        <v>1010700</v>
+        <v>1014000</v>
       </c>
       <c r="F41" s="3">
-        <v>1153200</v>
+        <v>1156900</v>
       </c>
       <c r="G41" s="3">
-        <v>1527000</v>
+        <v>1532000</v>
       </c>
       <c r="H41" s="3">
-        <v>1100400</v>
+        <v>1104000</v>
       </c>
       <c r="I41" s="3">
-        <v>1069600</v>
+        <v>1073100</v>
       </c>
       <c r="J41" s="3">
-        <v>949000</v>
+        <v>952100</v>
       </c>
       <c r="K41" s="3">
         <v>920400</v>
@@ -1775,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>192400</v>
+        <v>193000</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>91</v>
@@ -1784,16 +1784,16 @@
         <v>91</v>
       </c>
       <c r="G42" s="3">
-        <v>71300</v>
+        <v>71500</v>
       </c>
       <c r="H42" s="3">
-        <v>72400</v>
+        <v>72600</v>
       </c>
       <c r="I42" s="3">
-        <v>70400</v>
+        <v>70600</v>
       </c>
       <c r="J42" s="3">
-        <v>167300</v>
+        <v>167900</v>
       </c>
       <c r="K42" s="3">
         <v>318400</v>
@@ -1811,25 +1811,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1292300</v>
+        <v>1296600</v>
       </c>
       <c r="E43" s="3">
-        <v>1558700</v>
+        <v>1563800</v>
       </c>
       <c r="F43" s="3">
-        <v>1506800</v>
+        <v>1511800</v>
       </c>
       <c r="G43" s="3">
-        <v>1468600</v>
+        <v>1473400</v>
       </c>
       <c r="H43" s="3">
-        <v>1235100</v>
+        <v>1239100</v>
       </c>
       <c r="I43" s="3">
-        <v>1149000</v>
+        <v>1152800</v>
       </c>
       <c r="J43" s="3">
-        <v>1192800</v>
+        <v>1196700</v>
       </c>
       <c r="K43" s="3">
         <v>1314600</v>
@@ -1847,25 +1847,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1557500</v>
+        <v>1562600</v>
       </c>
       <c r="E44" s="3">
-        <v>1658900</v>
+        <v>1664300</v>
       </c>
       <c r="F44" s="3">
-        <v>1372100</v>
+        <v>1376600</v>
       </c>
       <c r="G44" s="3">
-        <v>1190400</v>
+        <v>1194300</v>
       </c>
       <c r="H44" s="3">
-        <v>2119100</v>
+        <v>2126100</v>
       </c>
       <c r="I44" s="3">
-        <v>970300</v>
+        <v>973500</v>
       </c>
       <c r="J44" s="3">
-        <v>977300</v>
+        <v>980500</v>
       </c>
       <c r="K44" s="3">
         <v>867200</v>
@@ -1883,25 +1883,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>482100</v>
+        <v>483700</v>
       </c>
       <c r="E45" s="3">
-        <v>650500</v>
+        <v>652600</v>
       </c>
       <c r="F45" s="3">
-        <v>664100</v>
+        <v>666300</v>
       </c>
       <c r="G45" s="3">
-        <v>563200</v>
+        <v>565000</v>
       </c>
       <c r="H45" s="3">
-        <v>488800</v>
+        <v>490400</v>
       </c>
       <c r="I45" s="3">
-        <v>502500</v>
+        <v>504100</v>
       </c>
       <c r="J45" s="3">
-        <v>515600</v>
+        <v>517300</v>
       </c>
       <c r="K45" s="3">
         <v>448300</v>
@@ -1919,25 +1919,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4715200</v>
+        <v>4730700</v>
       </c>
       <c r="E46" s="3">
-        <v>4878800</v>
+        <v>4894800</v>
       </c>
       <c r="F46" s="3">
-        <v>4424200</v>
+        <v>4438700</v>
       </c>
       <c r="G46" s="3">
-        <v>4820400</v>
+        <v>4836200</v>
       </c>
       <c r="H46" s="3">
-        <v>3956200</v>
+        <v>3969200</v>
       </c>
       <c r="I46" s="3">
-        <v>3761800</v>
+        <v>3774100</v>
       </c>
       <c r="J46" s="3">
-        <v>3802000</v>
+        <v>3814500</v>
       </c>
       <c r="K46" s="3">
         <v>3868900</v>
@@ -1955,25 +1955,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>122600</v>
+        <v>123000</v>
       </c>
       <c r="E47" s="3">
-        <v>127200</v>
+        <v>127600</v>
       </c>
       <c r="F47" s="3">
-        <v>421200</v>
+        <v>422600</v>
       </c>
       <c r="G47" s="3">
-        <v>239300</v>
+        <v>240100</v>
       </c>
       <c r="H47" s="3">
-        <v>458000</v>
+        <v>459500</v>
       </c>
       <c r="I47" s="3">
-        <v>254500</v>
+        <v>255300</v>
       </c>
       <c r="J47" s="3">
-        <v>267200</v>
+        <v>268100</v>
       </c>
       <c r="K47" s="3">
         <v>257900</v>
@@ -1991,25 +1991,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>3124000</v>
+        <v>3134200</v>
       </c>
       <c r="E48" s="3">
-        <v>2883200</v>
+        <v>2892600</v>
       </c>
       <c r="F48" s="3">
-        <v>2154300</v>
+        <v>2161400</v>
       </c>
       <c r="G48" s="3">
-        <v>1453500</v>
+        <v>1458300</v>
       </c>
       <c r="H48" s="3">
-        <v>1430700</v>
+        <v>1435400</v>
       </c>
       <c r="I48" s="3">
-        <v>1230000</v>
+        <v>1234000</v>
       </c>
       <c r="J48" s="3">
-        <v>1254800</v>
+        <v>1258900</v>
       </c>
       <c r="K48" s="3">
         <v>1296200</v>
@@ -2027,25 +2027,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2211200</v>
+        <v>2218400</v>
       </c>
       <c r="E49" s="3">
-        <v>2282800</v>
+        <v>2290200</v>
       </c>
       <c r="F49" s="3">
-        <v>1515100</v>
+        <v>1520100</v>
       </c>
       <c r="G49" s="3">
-        <v>1544200</v>
+        <v>1549300</v>
       </c>
       <c r="H49" s="3">
-        <v>2256400</v>
+        <v>2263800</v>
       </c>
       <c r="I49" s="3">
-        <v>1478500</v>
+        <v>1483300</v>
       </c>
       <c r="J49" s="3">
-        <v>1530800</v>
+        <v>1535800</v>
       </c>
       <c r="K49" s="3">
         <v>1602300</v>
@@ -2135,25 +2135,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>857800</v>
+        <v>860600</v>
       </c>
       <c r="E52" s="3">
-        <v>992200</v>
+        <v>995500</v>
       </c>
       <c r="F52" s="3">
-        <v>944200</v>
+        <v>947300</v>
       </c>
       <c r="G52" s="3">
-        <v>639200</v>
+        <v>641300</v>
       </c>
       <c r="H52" s="3">
-        <v>687500</v>
+        <v>689800</v>
       </c>
       <c r="I52" s="3">
-        <v>681600</v>
+        <v>683800</v>
       </c>
       <c r="J52" s="3">
-        <v>689600</v>
+        <v>691900</v>
       </c>
       <c r="K52" s="3">
         <v>675700</v>
@@ -2207,25 +2207,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>11030700</v>
+        <v>11066900</v>
       </c>
       <c r="E54" s="3">
-        <v>11164200</v>
+        <v>11200700</v>
       </c>
       <c r="F54" s="3">
-        <v>9248100</v>
+        <v>9278400</v>
       </c>
       <c r="G54" s="3">
-        <v>8696700</v>
+        <v>8725200</v>
       </c>
       <c r="H54" s="3">
-        <v>8560800</v>
+        <v>8588900</v>
       </c>
       <c r="I54" s="3">
-        <v>7406300</v>
+        <v>7430500</v>
       </c>
       <c r="J54" s="3">
-        <v>7544500</v>
+        <v>7569200</v>
       </c>
       <c r="K54" s="3">
         <v>7700900</v>
@@ -2275,25 +2275,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>704700</v>
+        <v>707000</v>
       </c>
       <c r="E57" s="3">
-        <v>887900</v>
+        <v>890900</v>
       </c>
       <c r="F57" s="3">
-        <v>937000</v>
+        <v>940100</v>
       </c>
       <c r="G57" s="3">
-        <v>797200</v>
+        <v>799800</v>
       </c>
       <c r="H57" s="3">
-        <v>763900</v>
+        <v>766400</v>
       </c>
       <c r="I57" s="3">
-        <v>570800</v>
+        <v>572700</v>
       </c>
       <c r="J57" s="3">
-        <v>553600</v>
+        <v>555400</v>
       </c>
       <c r="K57" s="3">
         <v>489600</v>
@@ -2311,25 +2311,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>715200</v>
+        <v>717500</v>
       </c>
       <c r="E58" s="3">
-        <v>1345900</v>
+        <v>1350300</v>
       </c>
       <c r="F58" s="3">
-        <v>139200</v>
+        <v>139700</v>
       </c>
       <c r="G58" s="3">
-        <v>97700</v>
+        <v>98000</v>
       </c>
       <c r="H58" s="3">
-        <v>151700</v>
+        <v>152100</v>
       </c>
       <c r="I58" s="3">
-        <v>174000</v>
+        <v>174600</v>
       </c>
       <c r="J58" s="3">
-        <v>692600</v>
+        <v>694900</v>
       </c>
       <c r="K58" s="3">
         <v>615500</v>
@@ -2347,25 +2347,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1813500</v>
+        <v>1819400</v>
       </c>
       <c r="E59" s="3">
-        <v>2018900</v>
+        <v>2025500</v>
       </c>
       <c r="F59" s="3">
-        <v>2037600</v>
+        <v>2044300</v>
       </c>
       <c r="G59" s="3">
-        <v>1774200</v>
+        <v>1780000</v>
       </c>
       <c r="H59" s="3">
-        <v>1344100</v>
+        <v>1348500</v>
       </c>
       <c r="I59" s="3">
-        <v>1149400</v>
+        <v>1153100</v>
       </c>
       <c r="J59" s="3">
-        <v>1184600</v>
+        <v>1188500</v>
       </c>
       <c r="K59" s="3">
         <v>1295300</v>
@@ -2383,25 +2383,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3233300</v>
+        <v>3243900</v>
       </c>
       <c r="E60" s="3">
-        <v>4252700</v>
+        <v>4266700</v>
       </c>
       <c r="F60" s="3">
-        <v>3113900</v>
+        <v>3124000</v>
       </c>
       <c r="G60" s="3">
-        <v>2669000</v>
+        <v>2677800</v>
       </c>
       <c r="H60" s="3">
-        <v>2259700</v>
+        <v>2267100</v>
       </c>
       <c r="I60" s="3">
-        <v>1894100</v>
+        <v>1900300</v>
       </c>
       <c r="J60" s="3">
-        <v>2430900</v>
+        <v>2438900</v>
       </c>
       <c r="K60" s="3">
         <v>2400400</v>
@@ -2419,25 +2419,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>2735700</v>
+        <v>2744700</v>
       </c>
       <c r="E61" s="3">
-        <v>1388100</v>
+        <v>1392700</v>
       </c>
       <c r="F61" s="3">
-        <v>1051000</v>
+        <v>1054400</v>
       </c>
       <c r="G61" s="3">
-        <v>1190400</v>
+        <v>1194300</v>
       </c>
       <c r="H61" s="3">
-        <v>952800</v>
+        <v>956000</v>
       </c>
       <c r="I61" s="3">
-        <v>619400</v>
+        <v>621400</v>
       </c>
       <c r="J61" s="3">
-        <v>286500</v>
+        <v>287500</v>
       </c>
       <c r="K61" s="3">
         <v>882800</v>
@@ -2455,25 +2455,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>421300</v>
+        <v>422700</v>
       </c>
       <c r="E62" s="3">
-        <v>779700</v>
+        <v>782300</v>
       </c>
       <c r="F62" s="3">
-        <v>1292700</v>
+        <v>1296900</v>
       </c>
       <c r="G62" s="3">
-        <v>753200</v>
+        <v>755600</v>
       </c>
       <c r="H62" s="3">
-        <v>1557300</v>
+        <v>1562400</v>
       </c>
       <c r="I62" s="3">
-        <v>1106600</v>
+        <v>1110300</v>
       </c>
       <c r="J62" s="3">
-        <v>1077300</v>
+        <v>1080800</v>
       </c>
       <c r="K62" s="3">
         <v>970500</v>
@@ -2599,25 +2599,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6581800</v>
+        <v>6603400</v>
       </c>
       <c r="E66" s="3">
-        <v>6605200</v>
+        <v>6626900</v>
       </c>
       <c r="F66" s="3">
-        <v>5130400</v>
+        <v>5147200</v>
       </c>
       <c r="G66" s="3">
-        <v>4809900</v>
+        <v>4825700</v>
       </c>
       <c r="H66" s="3">
-        <v>4953800</v>
+        <v>4970000</v>
       </c>
       <c r="I66" s="3">
-        <v>3810700</v>
+        <v>3823200</v>
       </c>
       <c r="J66" s="3">
-        <v>3991300</v>
+        <v>4004400</v>
       </c>
       <c r="K66" s="3">
         <v>4438300</v>
@@ -2795,25 +2795,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>3125500</v>
+        <v>3135800</v>
       </c>
       <c r="E72" s="3">
-        <v>3413900</v>
+        <v>3425100</v>
       </c>
       <c r="F72" s="3">
-        <v>2930800</v>
+        <v>2940400</v>
       </c>
       <c r="G72" s="3">
-        <v>2496600</v>
+        <v>2504800</v>
       </c>
       <c r="H72" s="3">
-        <v>2370800</v>
+        <v>2378600</v>
       </c>
       <c r="I72" s="3">
-        <v>2150700</v>
+        <v>2157800</v>
       </c>
       <c r="J72" s="3">
-        <v>2013400</v>
+        <v>2020000</v>
       </c>
       <c r="K72" s="3">
         <v>1964200</v>
@@ -2939,25 +2939,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>4448900</v>
+        <v>4463500</v>
       </c>
       <c r="E76" s="3">
-        <v>4558900</v>
+        <v>4573900</v>
       </c>
       <c r="F76" s="3">
-        <v>4117700</v>
+        <v>4131200</v>
       </c>
       <c r="G76" s="3">
-        <v>3886800</v>
+        <v>3899500</v>
       </c>
       <c r="H76" s="3">
-        <v>3607100</v>
+        <v>3618900</v>
       </c>
       <c r="I76" s="3">
-        <v>3595600</v>
+        <v>3607300</v>
       </c>
       <c r="J76" s="3">
-        <v>3553200</v>
+        <v>3564800</v>
       </c>
       <c r="K76" s="3">
         <v>3262600</v>
@@ -3052,25 +3052,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-106800</v>
+        <v>-107200</v>
       </c>
       <c r="E81" s="3">
-        <v>673800</v>
+        <v>676000</v>
       </c>
       <c r="F81" s="3">
-        <v>562500</v>
+        <v>564300</v>
       </c>
       <c r="G81" s="3">
-        <v>208400</v>
+        <v>209100</v>
       </c>
       <c r="H81" s="3">
-        <v>294000</v>
+        <v>295000</v>
       </c>
       <c r="I81" s="3">
-        <v>212600</v>
+        <v>213300</v>
       </c>
       <c r="J81" s="3">
-        <v>308400</v>
+        <v>309400</v>
       </c>
       <c r="K81" s="3">
         <v>251300</v>
@@ -3104,25 +3104,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>617800</v>
+        <v>619800</v>
       </c>
       <c r="E83" s="3">
-        <v>535000</v>
+        <v>536800</v>
       </c>
       <c r="F83" s="3">
-        <v>401600</v>
+        <v>402900</v>
       </c>
       <c r="G83" s="3">
-        <v>401700</v>
+        <v>403000</v>
       </c>
       <c r="H83" s="3">
-        <v>360900</v>
+        <v>362000</v>
       </c>
       <c r="I83" s="3">
-        <v>338300</v>
+        <v>339400</v>
       </c>
       <c r="J83" s="3">
-        <v>348800</v>
+        <v>349900</v>
       </c>
       <c r="K83" s="3">
         <v>367000</v>
@@ -3320,25 +3320,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>586600</v>
+        <v>588600</v>
       </c>
       <c r="E89" s="3">
-        <v>691900</v>
+        <v>694200</v>
       </c>
       <c r="F89" s="3">
-        <v>848000</v>
+        <v>850800</v>
       </c>
       <c r="G89" s="3">
-        <v>873800</v>
+        <v>876600</v>
       </c>
       <c r="H89" s="3">
-        <v>541600</v>
+        <v>543400</v>
       </c>
       <c r="I89" s="3">
-        <v>554400</v>
+        <v>556300</v>
       </c>
       <c r="J89" s="3">
-        <v>299600</v>
+        <v>300600</v>
       </c>
       <c r="K89" s="3">
         <v>810300</v>
@@ -3372,25 +3372,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-516200</v>
+        <v>-517900</v>
       </c>
       <c r="E91" s="3">
-        <v>-844600</v>
+        <v>-847300</v>
       </c>
       <c r="F91" s="3">
-        <v>-738300</v>
+        <v>-740700</v>
       </c>
       <c r="G91" s="3">
-        <v>-329900</v>
+        <v>-331000</v>
       </c>
       <c r="H91" s="3">
-        <v>-287300</v>
+        <v>-288300</v>
       </c>
       <c r="I91" s="3">
-        <v>-155200</v>
+        <v>-155700</v>
       </c>
       <c r="J91" s="3">
-        <v>-143000</v>
+        <v>-143500</v>
       </c>
       <c r="K91" s="3">
         <v>-172600</v>
@@ -3480,25 +3480,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-642000</v>
+        <v>-644100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1857900</v>
+        <v>-1863900</v>
       </c>
       <c r="F94" s="3">
-        <v>-944500</v>
+        <v>-947600</v>
       </c>
       <c r="G94" s="3">
-        <v>-9700</v>
+        <v>-9800</v>
       </c>
       <c r="H94" s="3">
-        <v>-647100</v>
+        <v>-649200</v>
       </c>
       <c r="I94" s="3">
-        <v>-211900</v>
+        <v>-212600</v>
       </c>
       <c r="J94" s="3">
-        <v>105700</v>
+        <v>106000</v>
       </c>
       <c r="K94" s="3">
         <v>-161400</v>
@@ -3532,25 +3532,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-182900</v>
+        <v>-183500</v>
       </c>
       <c r="E96" s="3">
-        <v>-201800</v>
+        <v>-202400</v>
       </c>
       <c r="F96" s="3">
-        <v>-127700</v>
+        <v>-128100</v>
       </c>
       <c r="G96" s="3">
-        <v>-82200</v>
+        <v>-82500</v>
       </c>
       <c r="H96" s="3">
-        <v>-75200</v>
+        <v>-75500</v>
       </c>
       <c r="I96" s="3">
-        <v>-70600</v>
+        <v>-70900</v>
       </c>
       <c r="J96" s="3">
-        <v>-73200</v>
+        <v>-73400</v>
       </c>
       <c r="K96" s="3">
         <v>-134000</v>
@@ -3676,25 +3676,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>429400</v>
+        <v>430800</v>
       </c>
       <c r="E100" s="3">
-        <v>1041300</v>
+        <v>1044700</v>
       </c>
       <c r="F100" s="3">
-        <v>-272300</v>
+        <v>-273100</v>
       </c>
       <c r="G100" s="3">
-        <v>-486600</v>
+        <v>-488100</v>
       </c>
       <c r="H100" s="3">
-        <v>205000</v>
+        <v>205700</v>
       </c>
       <c r="I100" s="3">
-        <v>-276200</v>
+        <v>-277100</v>
       </c>
       <c r="J100" s="3">
-        <v>-535100</v>
+        <v>-536900</v>
       </c>
       <c r="K100" s="3">
         <v>-456100</v>
@@ -3712,25 +3712,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-17900</v>
+        <v>-18000</v>
       </c>
       <c r="E101" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="F101" s="3">
-        <v>-44100</v>
+        <v>-44200</v>
       </c>
       <c r="G101" s="3">
-        <v>22900</v>
+        <v>23000</v>
       </c>
       <c r="H101" s="3">
-        <v>-24500</v>
+        <v>-24600</v>
       </c>
       <c r="I101" s="3">
-        <v>-28600</v>
+        <v>-28700</v>
       </c>
       <c r="J101" s="3">
-        <v>44100</v>
+        <v>44300</v>
       </c>
       <c r="K101" s="3">
         <v>94700</v>
@@ -3748,25 +3748,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>356100</v>
+        <v>357300</v>
       </c>
       <c r="E102" s="3">
-        <v>-131000</v>
+        <v>-131400</v>
       </c>
       <c r="F102" s="3">
-        <v>-412800</v>
+        <v>-414200</v>
       </c>
       <c r="G102" s="3">
-        <v>400400</v>
+        <v>401700</v>
       </c>
       <c r="H102" s="3">
-        <v>75100</v>
+        <v>75300</v>
       </c>
       <c r="I102" s="3">
-        <v>37700</v>
+        <v>37900</v>
       </c>
       <c r="J102" s="3">
-        <v>-85700</v>
+        <v>-86000</v>
       </c>
       <c r="K102" s="3">
         <v>287400</v>

--- a/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8463000</v>
+        <v>8389300</v>
       </c>
       <c r="E8" s="3">
-        <v>10398900</v>
+        <v>10308400</v>
       </c>
       <c r="F8" s="3">
-        <v>10061400</v>
+        <v>9973900</v>
       </c>
       <c r="G8" s="3">
-        <v>9236500</v>
+        <v>9156100</v>
       </c>
       <c r="H8" s="3">
-        <v>7814300</v>
+        <v>7746300</v>
       </c>
       <c r="I8" s="3">
-        <v>7012500</v>
+        <v>6951500</v>
       </c>
       <c r="J8" s="3">
-        <v>7146900</v>
+        <v>7084700</v>
       </c>
       <c r="K8" s="3">
         <v>7323300</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2190900</v>
+        <v>2171800</v>
       </c>
       <c r="E9" s="3">
-        <v>2342000</v>
+        <v>2321600</v>
       </c>
       <c r="F9" s="3">
-        <v>2131400</v>
+        <v>2112900</v>
       </c>
       <c r="G9" s="3">
-        <v>2125900</v>
+        <v>2107400</v>
       </c>
       <c r="H9" s="3">
-        <v>1907400</v>
+        <v>1890800</v>
       </c>
       <c r="I9" s="3">
-        <v>1801300</v>
+        <v>1785600</v>
       </c>
       <c r="J9" s="3">
-        <v>1805200</v>
+        <v>1789500</v>
       </c>
       <c r="K9" s="3">
         <v>1821700</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6272100</v>
+        <v>6217500</v>
       </c>
       <c r="E10" s="3">
-        <v>8056900</v>
+        <v>7986800</v>
       </c>
       <c r="F10" s="3">
-        <v>7930000</v>
+        <v>7861000</v>
       </c>
       <c r="G10" s="3">
-        <v>7110600</v>
+        <v>7048700</v>
       </c>
       <c r="H10" s="3">
-        <v>5906900</v>
+        <v>5855500</v>
       </c>
       <c r="I10" s="3">
-        <v>5211200</v>
+        <v>5165800</v>
       </c>
       <c r="J10" s="3">
-        <v>5341700</v>
+        <v>5295200</v>
       </c>
       <c r="K10" s="3">
         <v>5501600</v>
@@ -845,25 +845,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>248100</v>
+        <v>245900</v>
       </c>
       <c r="E12" s="3">
-        <v>291300</v>
+        <v>288800</v>
       </c>
       <c r="F12" s="3">
-        <v>267700</v>
+        <v>265400</v>
       </c>
       <c r="G12" s="3">
-        <v>222700</v>
+        <v>220700</v>
       </c>
       <c r="H12" s="3">
-        <v>167800</v>
+        <v>166400</v>
       </c>
       <c r="I12" s="3">
-        <v>103800</v>
+        <v>102900</v>
       </c>
       <c r="J12" s="3">
-        <v>130700</v>
+        <v>129600</v>
       </c>
       <c r="K12" s="3">
         <v>130100</v>
@@ -917,25 +917,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>170400</v>
+        <v>169000</v>
       </c>
       <c r="E14" s="3">
-        <v>33200</v>
+        <v>33000</v>
       </c>
       <c r="F14" s="3">
-        <v>83800</v>
+        <v>83100</v>
       </c>
       <c r="G14" s="3">
-        <v>725100</v>
+        <v>718800</v>
       </c>
       <c r="H14" s="3">
-        <v>44000</v>
+        <v>43600</v>
       </c>
       <c r="I14" s="3">
-        <v>22600</v>
+        <v>22400</v>
       </c>
       <c r="J14" s="3">
-        <v>54500</v>
+        <v>54000</v>
       </c>
       <c r="K14" s="3">
         <v>63400</v>
@@ -1002,25 +1002,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>8495900</v>
+        <v>8421900</v>
       </c>
       <c r="E17" s="3">
-        <v>9386100</v>
+        <v>9304300</v>
       </c>
       <c r="F17" s="3">
-        <v>9149500</v>
+        <v>9069900</v>
       </c>
       <c r="G17" s="3">
-        <v>9222400</v>
+        <v>9142100</v>
       </c>
       <c r="H17" s="3">
-        <v>7520300</v>
+        <v>7454800</v>
       </c>
       <c r="I17" s="3">
-        <v>6689000</v>
+        <v>6630800</v>
       </c>
       <c r="J17" s="3">
-        <v>6947700</v>
+        <v>6887200</v>
       </c>
       <c r="K17" s="3">
         <v>6909600</v>
@@ -1038,25 +1038,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-32900</v>
+        <v>-32600</v>
       </c>
       <c r="E18" s="3">
-        <v>1012900</v>
+        <v>1004000</v>
       </c>
       <c r="F18" s="3">
-        <v>911900</v>
+        <v>904000</v>
       </c>
       <c r="G18" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="H18" s="3">
-        <v>294000</v>
+        <v>291500</v>
       </c>
       <c r="I18" s="3">
-        <v>323500</v>
+        <v>320700</v>
       </c>
       <c r="J18" s="3">
-        <v>199200</v>
+        <v>197500</v>
       </c>
       <c r="K18" s="3">
         <v>413600</v>
@@ -1090,25 +1090,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>34600</v>
+        <v>34300</v>
       </c>
       <c r="E20" s="3">
         <v>-5000</v>
       </c>
       <c r="F20" s="3">
-        <v>53800</v>
+        <v>53300</v>
       </c>
       <c r="G20" s="3">
-        <v>349300</v>
+        <v>346300</v>
       </c>
       <c r="H20" s="3">
-        <v>171700</v>
+        <v>170200</v>
       </c>
       <c r="I20" s="3">
-        <v>78100</v>
+        <v>77400</v>
       </c>
       <c r="J20" s="3">
-        <v>262500</v>
+        <v>260200</v>
       </c>
       <c r="K20" s="3">
         <v>87600</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>622200</v>
+        <v>616100</v>
       </c>
       <c r="E21" s="3">
-        <v>1545200</v>
+        <v>1531200</v>
       </c>
       <c r="F21" s="3">
-        <v>1369100</v>
+        <v>1356700</v>
       </c>
       <c r="G21" s="3">
-        <v>766800</v>
+        <v>759700</v>
       </c>
       <c r="H21" s="3">
-        <v>828200</v>
+        <v>820600</v>
       </c>
       <c r="I21" s="3">
-        <v>741400</v>
+        <v>734600</v>
       </c>
       <c r="J21" s="3">
-        <v>812100</v>
+        <v>804600</v>
       </c>
       <c r="K21" s="3">
         <v>867500</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>20500</v>
+        <v>20300</v>
       </c>
       <c r="E22" s="3">
-        <v>21100</v>
+        <v>20900</v>
       </c>
       <c r="F22" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="G22" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="H22" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="I22" s="3">
         <v>7400</v>
       </c>
       <c r="J22" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="K22" s="3">
         <v>16600</v>
@@ -1198,25 +1198,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-18700</v>
+        <v>-18600</v>
       </c>
       <c r="E23" s="3">
-        <v>986800</v>
+        <v>978200</v>
       </c>
       <c r="F23" s="3">
-        <v>958600</v>
+        <v>950300</v>
       </c>
       <c r="G23" s="3">
-        <v>354300</v>
+        <v>351200</v>
       </c>
       <c r="H23" s="3">
-        <v>458300</v>
+        <v>454300</v>
       </c>
       <c r="I23" s="3">
-        <v>394200</v>
+        <v>390700</v>
       </c>
       <c r="J23" s="3">
-        <v>450700</v>
+        <v>446700</v>
       </c>
       <c r="K23" s="3">
         <v>484600</v>
@@ -1234,25 +1234,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>65100</v>
+        <v>64500</v>
       </c>
       <c r="E24" s="3">
-        <v>276400</v>
+        <v>274000</v>
       </c>
       <c r="F24" s="3">
-        <v>362100</v>
+        <v>359000</v>
       </c>
       <c r="G24" s="3">
-        <v>121300</v>
+        <v>120300</v>
       </c>
       <c r="H24" s="3">
-        <v>146500</v>
+        <v>145200</v>
       </c>
       <c r="I24" s="3">
-        <v>158900</v>
+        <v>157500</v>
       </c>
       <c r="J24" s="3">
-        <v>117700</v>
+        <v>116700</v>
       </c>
       <c r="K24" s="3">
         <v>208400</v>
@@ -1306,25 +1306,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-83800</v>
+        <v>-83100</v>
       </c>
       <c r="E26" s="3">
-        <v>710400</v>
+        <v>704200</v>
       </c>
       <c r="F26" s="3">
-        <v>596500</v>
+        <v>591300</v>
       </c>
       <c r="G26" s="3">
-        <v>233000</v>
+        <v>231000</v>
       </c>
       <c r="H26" s="3">
-        <v>311800</v>
+        <v>309100</v>
       </c>
       <c r="I26" s="3">
-        <v>235300</v>
+        <v>233200</v>
       </c>
       <c r="J26" s="3">
-        <v>332900</v>
+        <v>330000</v>
       </c>
       <c r="K26" s="3">
         <v>276200</v>
@@ -1342,25 +1342,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-107200</v>
+        <v>-106200</v>
       </c>
       <c r="E27" s="3">
-        <v>676000</v>
+        <v>670100</v>
       </c>
       <c r="F27" s="3">
-        <v>564300</v>
+        <v>559400</v>
       </c>
       <c r="G27" s="3">
-        <v>209100</v>
+        <v>207200</v>
       </c>
       <c r="H27" s="3">
-        <v>295000</v>
+        <v>292400</v>
       </c>
       <c r="I27" s="3">
-        <v>213300</v>
+        <v>211400</v>
       </c>
       <c r="J27" s="3">
-        <v>309400</v>
+        <v>306700</v>
       </c>
       <c r="K27" s="3">
         <v>251300</v>
@@ -1522,25 +1522,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-34600</v>
+        <v>-34300</v>
       </c>
       <c r="E32" s="3">
         <v>5000</v>
       </c>
       <c r="F32" s="3">
-        <v>-53800</v>
+        <v>-53300</v>
       </c>
       <c r="G32" s="3">
-        <v>-349300</v>
+        <v>-346300</v>
       </c>
       <c r="H32" s="3">
-        <v>-171700</v>
+        <v>-170200</v>
       </c>
       <c r="I32" s="3">
-        <v>-78100</v>
+        <v>-77400</v>
       </c>
       <c r="J32" s="3">
-        <v>-262500</v>
+        <v>-260200</v>
       </c>
       <c r="K32" s="3">
         <v>-87600</v>
@@ -1558,25 +1558,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-107200</v>
+        <v>-106200</v>
       </c>
       <c r="E33" s="3">
-        <v>676000</v>
+        <v>670100</v>
       </c>
       <c r="F33" s="3">
-        <v>564300</v>
+        <v>559400</v>
       </c>
       <c r="G33" s="3">
-        <v>209100</v>
+        <v>207200</v>
       </c>
       <c r="H33" s="3">
-        <v>295000</v>
+        <v>292400</v>
       </c>
       <c r="I33" s="3">
-        <v>213300</v>
+        <v>211400</v>
       </c>
       <c r="J33" s="3">
-        <v>309400</v>
+        <v>306700</v>
       </c>
       <c r="K33" s="3">
         <v>251300</v>
@@ -1630,25 +1630,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-107200</v>
+        <v>-106200</v>
       </c>
       <c r="E35" s="3">
-        <v>676000</v>
+        <v>670100</v>
       </c>
       <c r="F35" s="3">
-        <v>564300</v>
+        <v>559400</v>
       </c>
       <c r="G35" s="3">
-        <v>209100</v>
+        <v>207200</v>
       </c>
       <c r="H35" s="3">
-        <v>295000</v>
+        <v>292400</v>
       </c>
       <c r="I35" s="3">
-        <v>213300</v>
+        <v>211400</v>
       </c>
       <c r="J35" s="3">
-        <v>309400</v>
+        <v>306700</v>
       </c>
       <c r="K35" s="3">
         <v>251300</v>
@@ -1739,25 +1739,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1194800</v>
+        <v>1184400</v>
       </c>
       <c r="E41" s="3">
-        <v>1014000</v>
+        <v>1005200</v>
       </c>
       <c r="F41" s="3">
-        <v>1156900</v>
+        <v>1146900</v>
       </c>
       <c r="G41" s="3">
-        <v>1532000</v>
+        <v>1518600</v>
       </c>
       <c r="H41" s="3">
-        <v>1104000</v>
+        <v>1094300</v>
       </c>
       <c r="I41" s="3">
-        <v>1073100</v>
+        <v>1063800</v>
       </c>
       <c r="J41" s="3">
-        <v>952100</v>
+        <v>943800</v>
       </c>
       <c r="K41" s="3">
         <v>920400</v>
@@ -1775,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>193000</v>
+        <v>191300</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>91</v>
@@ -1784,16 +1784,16 @@
         <v>91</v>
       </c>
       <c r="G42" s="3">
-        <v>71500</v>
+        <v>70900</v>
       </c>
       <c r="H42" s="3">
-        <v>72600</v>
+        <v>72000</v>
       </c>
       <c r="I42" s="3">
-        <v>70600</v>
+        <v>70000</v>
       </c>
       <c r="J42" s="3">
-        <v>167900</v>
+        <v>166400</v>
       </c>
       <c r="K42" s="3">
         <v>318400</v>
@@ -1811,25 +1811,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1296600</v>
+        <v>1285300</v>
       </c>
       <c r="E43" s="3">
-        <v>1563800</v>
+        <v>1550200</v>
       </c>
       <c r="F43" s="3">
-        <v>1511800</v>
+        <v>1498600</v>
       </c>
       <c r="G43" s="3">
-        <v>1473400</v>
+        <v>1460600</v>
       </c>
       <c r="H43" s="3">
-        <v>1239100</v>
+        <v>1228300</v>
       </c>
       <c r="I43" s="3">
-        <v>1152800</v>
+        <v>1142700</v>
       </c>
       <c r="J43" s="3">
-        <v>1196700</v>
+        <v>1186300</v>
       </c>
       <c r="K43" s="3">
         <v>1314600</v>
@@ -1847,25 +1847,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1562600</v>
+        <v>1549000</v>
       </c>
       <c r="E44" s="3">
-        <v>1664300</v>
+        <v>1649900</v>
       </c>
       <c r="F44" s="3">
-        <v>1376600</v>
+        <v>1364600</v>
       </c>
       <c r="G44" s="3">
-        <v>1194300</v>
+        <v>1183900</v>
       </c>
       <c r="H44" s="3">
-        <v>2126100</v>
+        <v>2107500</v>
       </c>
       <c r="I44" s="3">
-        <v>973500</v>
+        <v>965000</v>
       </c>
       <c r="J44" s="3">
-        <v>980500</v>
+        <v>972000</v>
       </c>
       <c r="K44" s="3">
         <v>867200</v>
@@ -1883,25 +1883,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>483700</v>
+        <v>479500</v>
       </c>
       <c r="E45" s="3">
-        <v>652600</v>
+        <v>646900</v>
       </c>
       <c r="F45" s="3">
-        <v>666300</v>
+        <v>660500</v>
       </c>
       <c r="G45" s="3">
-        <v>565000</v>
+        <v>560100</v>
       </c>
       <c r="H45" s="3">
-        <v>490400</v>
+        <v>486200</v>
       </c>
       <c r="I45" s="3">
-        <v>504100</v>
+        <v>499700</v>
       </c>
       <c r="J45" s="3">
-        <v>517300</v>
+        <v>512800</v>
       </c>
       <c r="K45" s="3">
         <v>448300</v>
@@ -1919,25 +1919,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4730700</v>
+        <v>4689500</v>
       </c>
       <c r="E46" s="3">
-        <v>4894800</v>
+        <v>4852200</v>
       </c>
       <c r="F46" s="3">
-        <v>4438700</v>
+        <v>4400100</v>
       </c>
       <c r="G46" s="3">
-        <v>4836200</v>
+        <v>4794100</v>
       </c>
       <c r="H46" s="3">
-        <v>3969200</v>
+        <v>3934600</v>
       </c>
       <c r="I46" s="3">
-        <v>3774100</v>
+        <v>3741200</v>
       </c>
       <c r="J46" s="3">
-        <v>3814500</v>
+        <v>3781300</v>
       </c>
       <c r="K46" s="3">
         <v>3868900</v>
@@ -1955,25 +1955,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>123000</v>
+        <v>122000</v>
       </c>
       <c r="E47" s="3">
-        <v>127600</v>
+        <v>126500</v>
       </c>
       <c r="F47" s="3">
-        <v>422600</v>
+        <v>418900</v>
       </c>
       <c r="G47" s="3">
-        <v>240100</v>
+        <v>238000</v>
       </c>
       <c r="H47" s="3">
-        <v>459500</v>
+        <v>455500</v>
       </c>
       <c r="I47" s="3">
-        <v>255300</v>
+        <v>253100</v>
       </c>
       <c r="J47" s="3">
-        <v>268100</v>
+        <v>265800</v>
       </c>
       <c r="K47" s="3">
         <v>257900</v>
@@ -1991,25 +1991,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>3134200</v>
+        <v>3106900</v>
       </c>
       <c r="E48" s="3">
-        <v>2892600</v>
+        <v>2867400</v>
       </c>
       <c r="F48" s="3">
-        <v>2161400</v>
+        <v>2142500</v>
       </c>
       <c r="G48" s="3">
-        <v>1458300</v>
+        <v>1445600</v>
       </c>
       <c r="H48" s="3">
-        <v>1435400</v>
+        <v>1422900</v>
       </c>
       <c r="I48" s="3">
-        <v>1234000</v>
+        <v>1223300</v>
       </c>
       <c r="J48" s="3">
-        <v>1258900</v>
+        <v>1247900</v>
       </c>
       <c r="K48" s="3">
         <v>1296200</v>
@@ -2027,25 +2027,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2218400</v>
+        <v>2199100</v>
       </c>
       <c r="E49" s="3">
-        <v>2290200</v>
+        <v>2270300</v>
       </c>
       <c r="F49" s="3">
-        <v>1520100</v>
+        <v>1506800</v>
       </c>
       <c r="G49" s="3">
-        <v>1549300</v>
+        <v>1535800</v>
       </c>
       <c r="H49" s="3">
-        <v>2263800</v>
+        <v>2244100</v>
       </c>
       <c r="I49" s="3">
-        <v>1483300</v>
+        <v>1470400</v>
       </c>
       <c r="J49" s="3">
-        <v>1535800</v>
+        <v>1522500</v>
       </c>
       <c r="K49" s="3">
         <v>1602300</v>
@@ -2135,25 +2135,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>860600</v>
+        <v>853100</v>
       </c>
       <c r="E52" s="3">
-        <v>995500</v>
+        <v>986800</v>
       </c>
       <c r="F52" s="3">
-        <v>947300</v>
+        <v>939000</v>
       </c>
       <c r="G52" s="3">
-        <v>641300</v>
+        <v>635700</v>
       </c>
       <c r="H52" s="3">
-        <v>689800</v>
+        <v>683800</v>
       </c>
       <c r="I52" s="3">
-        <v>683800</v>
+        <v>677800</v>
       </c>
       <c r="J52" s="3">
-        <v>691900</v>
+        <v>685900</v>
       </c>
       <c r="K52" s="3">
         <v>675700</v>
@@ -2207,25 +2207,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>11066900</v>
+        <v>10970500</v>
       </c>
       <c r="E54" s="3">
-        <v>11200700</v>
+        <v>11103200</v>
       </c>
       <c r="F54" s="3">
-        <v>9278400</v>
+        <v>9197600</v>
       </c>
       <c r="G54" s="3">
-        <v>8725200</v>
+        <v>8649300</v>
       </c>
       <c r="H54" s="3">
-        <v>8588900</v>
+        <v>8514100</v>
       </c>
       <c r="I54" s="3">
-        <v>7430500</v>
+        <v>7365900</v>
       </c>
       <c r="J54" s="3">
-        <v>7569200</v>
+        <v>7503300</v>
       </c>
       <c r="K54" s="3">
         <v>7700900</v>
@@ -2275,25 +2275,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>707000</v>
+        <v>700800</v>
       </c>
       <c r="E57" s="3">
-        <v>890900</v>
+        <v>883100</v>
       </c>
       <c r="F57" s="3">
-        <v>940100</v>
+        <v>931900</v>
       </c>
       <c r="G57" s="3">
-        <v>799800</v>
+        <v>792900</v>
       </c>
       <c r="H57" s="3">
-        <v>766400</v>
+        <v>759700</v>
       </c>
       <c r="I57" s="3">
-        <v>572700</v>
+        <v>567700</v>
       </c>
       <c r="J57" s="3">
-        <v>555400</v>
+        <v>550600</v>
       </c>
       <c r="K57" s="3">
         <v>489600</v>
@@ -2311,25 +2311,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>717500</v>
+        <v>711300</v>
       </c>
       <c r="E58" s="3">
-        <v>1350300</v>
+        <v>1338600</v>
       </c>
       <c r="F58" s="3">
-        <v>139700</v>
+        <v>138500</v>
       </c>
       <c r="G58" s="3">
-        <v>98000</v>
+        <v>97100</v>
       </c>
       <c r="H58" s="3">
-        <v>152100</v>
+        <v>150800</v>
       </c>
       <c r="I58" s="3">
-        <v>174600</v>
+        <v>173000</v>
       </c>
       <c r="J58" s="3">
-        <v>694900</v>
+        <v>688800</v>
       </c>
       <c r="K58" s="3">
         <v>615500</v>
@@ -2347,25 +2347,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1819400</v>
+        <v>1803600</v>
       </c>
       <c r="E59" s="3">
-        <v>2025500</v>
+        <v>2007900</v>
       </c>
       <c r="F59" s="3">
-        <v>2044300</v>
+        <v>2026500</v>
       </c>
       <c r="G59" s="3">
-        <v>1780000</v>
+        <v>1764500</v>
       </c>
       <c r="H59" s="3">
-        <v>1348500</v>
+        <v>1336800</v>
       </c>
       <c r="I59" s="3">
-        <v>1153100</v>
+        <v>1143100</v>
       </c>
       <c r="J59" s="3">
-        <v>1188500</v>
+        <v>1178200</v>
       </c>
       <c r="K59" s="3">
         <v>1295300</v>
@@ -2383,25 +2383,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3243900</v>
+        <v>3215600</v>
       </c>
       <c r="E60" s="3">
-        <v>4266700</v>
+        <v>4229500</v>
       </c>
       <c r="F60" s="3">
-        <v>3124000</v>
+        <v>3096900</v>
       </c>
       <c r="G60" s="3">
-        <v>2677800</v>
+        <v>2654500</v>
       </c>
       <c r="H60" s="3">
-        <v>2267100</v>
+        <v>2247300</v>
       </c>
       <c r="I60" s="3">
-        <v>1900300</v>
+        <v>1883800</v>
       </c>
       <c r="J60" s="3">
-        <v>2438900</v>
+        <v>2417600</v>
       </c>
       <c r="K60" s="3">
         <v>2400400</v>
@@ -2419,25 +2419,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>2744700</v>
+        <v>2720800</v>
       </c>
       <c r="E61" s="3">
-        <v>1392700</v>
+        <v>1380500</v>
       </c>
       <c r="F61" s="3">
-        <v>1054400</v>
+        <v>1045200</v>
       </c>
       <c r="G61" s="3">
-        <v>1194300</v>
+        <v>1183900</v>
       </c>
       <c r="H61" s="3">
-        <v>956000</v>
+        <v>947600</v>
       </c>
       <c r="I61" s="3">
-        <v>621400</v>
+        <v>616000</v>
       </c>
       <c r="J61" s="3">
-        <v>287500</v>
+        <v>285000</v>
       </c>
       <c r="K61" s="3">
         <v>882800</v>
@@ -2455,25 +2455,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>422700</v>
+        <v>419000</v>
       </c>
       <c r="E62" s="3">
-        <v>782300</v>
+        <v>775500</v>
       </c>
       <c r="F62" s="3">
-        <v>1296900</v>
+        <v>1285600</v>
       </c>
       <c r="G62" s="3">
-        <v>755600</v>
+        <v>749000</v>
       </c>
       <c r="H62" s="3">
-        <v>1562400</v>
+        <v>1548800</v>
       </c>
       <c r="I62" s="3">
-        <v>1110300</v>
+        <v>1100600</v>
       </c>
       <c r="J62" s="3">
-        <v>1080800</v>
+        <v>1071400</v>
       </c>
       <c r="K62" s="3">
         <v>970500</v>
@@ -2599,25 +2599,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6603400</v>
+        <v>6545900</v>
       </c>
       <c r="E66" s="3">
-        <v>6626900</v>
+        <v>6569200</v>
       </c>
       <c r="F66" s="3">
-        <v>5147200</v>
+        <v>5102400</v>
       </c>
       <c r="G66" s="3">
-        <v>4825700</v>
+        <v>4783700</v>
       </c>
       <c r="H66" s="3">
-        <v>4970000</v>
+        <v>4926800</v>
       </c>
       <c r="I66" s="3">
-        <v>3823200</v>
+        <v>3789900</v>
       </c>
       <c r="J66" s="3">
-        <v>4004400</v>
+        <v>3969500</v>
       </c>
       <c r="K66" s="3">
         <v>4438300</v>
@@ -2795,25 +2795,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>3135800</v>
+        <v>3108500</v>
       </c>
       <c r="E72" s="3">
-        <v>3425100</v>
+        <v>3395300</v>
       </c>
       <c r="F72" s="3">
-        <v>2940400</v>
+        <v>2914800</v>
       </c>
       <c r="G72" s="3">
-        <v>2504800</v>
+        <v>2483000</v>
       </c>
       <c r="H72" s="3">
-        <v>2378600</v>
+        <v>2357900</v>
       </c>
       <c r="I72" s="3">
-        <v>2157800</v>
+        <v>2139000</v>
       </c>
       <c r="J72" s="3">
-        <v>2020000</v>
+        <v>2002400</v>
       </c>
       <c r="K72" s="3">
         <v>1964200</v>
@@ -2939,25 +2939,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>4463500</v>
+        <v>4424600</v>
       </c>
       <c r="E76" s="3">
-        <v>4573900</v>
+        <v>4534100</v>
       </c>
       <c r="F76" s="3">
-        <v>4131200</v>
+        <v>4095200</v>
       </c>
       <c r="G76" s="3">
-        <v>3899500</v>
+        <v>3865600</v>
       </c>
       <c r="H76" s="3">
-        <v>3618900</v>
+        <v>3587400</v>
       </c>
       <c r="I76" s="3">
-        <v>3607300</v>
+        <v>3575900</v>
       </c>
       <c r="J76" s="3">
-        <v>3564800</v>
+        <v>3533800</v>
       </c>
       <c r="K76" s="3">
         <v>3262600</v>
@@ -3052,25 +3052,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-107200</v>
+        <v>-106200</v>
       </c>
       <c r="E81" s="3">
-        <v>676000</v>
+        <v>670100</v>
       </c>
       <c r="F81" s="3">
-        <v>564300</v>
+        <v>559400</v>
       </c>
       <c r="G81" s="3">
-        <v>209100</v>
+        <v>207200</v>
       </c>
       <c r="H81" s="3">
-        <v>295000</v>
+        <v>292400</v>
       </c>
       <c r="I81" s="3">
-        <v>213300</v>
+        <v>211400</v>
       </c>
       <c r="J81" s="3">
-        <v>309400</v>
+        <v>306700</v>
       </c>
       <c r="K81" s="3">
         <v>251300</v>
@@ -3104,25 +3104,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>619800</v>
+        <v>614500</v>
       </c>
       <c r="E83" s="3">
-        <v>536800</v>
+        <v>532100</v>
       </c>
       <c r="F83" s="3">
-        <v>402900</v>
+        <v>399400</v>
       </c>
       <c r="G83" s="3">
-        <v>403000</v>
+        <v>399500</v>
       </c>
       <c r="H83" s="3">
-        <v>362000</v>
+        <v>358900</v>
       </c>
       <c r="I83" s="3">
-        <v>339400</v>
+        <v>336500</v>
       </c>
       <c r="J83" s="3">
-        <v>349900</v>
+        <v>346900</v>
       </c>
       <c r="K83" s="3">
         <v>367000</v>
@@ -3320,25 +3320,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>588600</v>
+        <v>583400</v>
       </c>
       <c r="E89" s="3">
-        <v>694200</v>
+        <v>688200</v>
       </c>
       <c r="F89" s="3">
-        <v>850800</v>
+        <v>843400</v>
       </c>
       <c r="G89" s="3">
-        <v>876600</v>
+        <v>869000</v>
       </c>
       <c r="H89" s="3">
-        <v>543400</v>
+        <v>538700</v>
       </c>
       <c r="I89" s="3">
-        <v>556300</v>
+        <v>551400</v>
       </c>
       <c r="J89" s="3">
-        <v>300600</v>
+        <v>297900</v>
       </c>
       <c r="K89" s="3">
         <v>810300</v>
@@ -3372,25 +3372,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-517900</v>
+        <v>-513400</v>
       </c>
       <c r="E91" s="3">
-        <v>-847300</v>
+        <v>-840000</v>
       </c>
       <c r="F91" s="3">
-        <v>-740700</v>
+        <v>-734200</v>
       </c>
       <c r="G91" s="3">
-        <v>-331000</v>
+        <v>-328100</v>
       </c>
       <c r="H91" s="3">
-        <v>-288300</v>
+        <v>-285700</v>
       </c>
       <c r="I91" s="3">
-        <v>-155700</v>
+        <v>-154300</v>
       </c>
       <c r="J91" s="3">
-        <v>-143500</v>
+        <v>-142200</v>
       </c>
       <c r="K91" s="3">
         <v>-172600</v>
@@ -3480,25 +3480,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-644100</v>
+        <v>-638500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1863900</v>
+        <v>-1847700</v>
       </c>
       <c r="F94" s="3">
-        <v>-947600</v>
+        <v>-939400</v>
       </c>
       <c r="G94" s="3">
-        <v>-9800</v>
+        <v>-9700</v>
       </c>
       <c r="H94" s="3">
-        <v>-649200</v>
+        <v>-643500</v>
       </c>
       <c r="I94" s="3">
-        <v>-212600</v>
+        <v>-210800</v>
       </c>
       <c r="J94" s="3">
-        <v>106000</v>
+        <v>105100</v>
       </c>
       <c r="K94" s="3">
         <v>-161400</v>
@@ -3532,25 +3532,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-183500</v>
+        <v>-181900</v>
       </c>
       <c r="E96" s="3">
-        <v>-202400</v>
+        <v>-200700</v>
       </c>
       <c r="F96" s="3">
-        <v>-128100</v>
+        <v>-127000</v>
       </c>
       <c r="G96" s="3">
-        <v>-82500</v>
+        <v>-81800</v>
       </c>
       <c r="H96" s="3">
-        <v>-75500</v>
+        <v>-74800</v>
       </c>
       <c r="I96" s="3">
-        <v>-70900</v>
+        <v>-70200</v>
       </c>
       <c r="J96" s="3">
-        <v>-73400</v>
+        <v>-72800</v>
       </c>
       <c r="K96" s="3">
         <v>-134000</v>
@@ -3676,25 +3676,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>430800</v>
+        <v>427100</v>
       </c>
       <c r="E100" s="3">
-        <v>1044700</v>
+        <v>1035600</v>
       </c>
       <c r="F100" s="3">
-        <v>-273100</v>
+        <v>-270800</v>
       </c>
       <c r="G100" s="3">
-        <v>-488100</v>
+        <v>-483900</v>
       </c>
       <c r="H100" s="3">
-        <v>205700</v>
+        <v>203900</v>
       </c>
       <c r="I100" s="3">
-        <v>-277100</v>
+        <v>-274700</v>
       </c>
       <c r="J100" s="3">
-        <v>-536900</v>
+        <v>-532200</v>
       </c>
       <c r="K100" s="3">
         <v>-456100</v>
@@ -3712,25 +3712,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-18000</v>
+        <v>-17800</v>
       </c>
       <c r="E101" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="F101" s="3">
-        <v>-44200</v>
+        <v>-43800</v>
       </c>
       <c r="G101" s="3">
-        <v>23000</v>
+        <v>22800</v>
       </c>
       <c r="H101" s="3">
-        <v>-24600</v>
+        <v>-24300</v>
       </c>
       <c r="I101" s="3">
-        <v>-28700</v>
+        <v>-28400</v>
       </c>
       <c r="J101" s="3">
-        <v>44300</v>
+        <v>43900</v>
       </c>
       <c r="K101" s="3">
         <v>94700</v>
@@ -3748,25 +3748,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>357300</v>
+        <v>354200</v>
       </c>
       <c r="E102" s="3">
-        <v>-131400</v>
+        <v>-130300</v>
       </c>
       <c r="F102" s="3">
-        <v>-414200</v>
+        <v>-410600</v>
       </c>
       <c r="G102" s="3">
-        <v>401700</v>
+        <v>398200</v>
       </c>
       <c r="H102" s="3">
-        <v>75300</v>
+        <v>74700</v>
       </c>
       <c r="I102" s="3">
-        <v>37900</v>
+        <v>37500</v>
       </c>
       <c r="J102" s="3">
-        <v>-86000</v>
+        <v>-85300</v>
       </c>
       <c r="K102" s="3">
         <v>287400</v>

--- a/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8389300</v>
+        <v>8113000</v>
       </c>
       <c r="E8" s="3">
-        <v>10308400</v>
+        <v>9968900</v>
       </c>
       <c r="F8" s="3">
-        <v>9973900</v>
+        <v>9645400</v>
       </c>
       <c r="G8" s="3">
-        <v>9156100</v>
+        <v>8854600</v>
       </c>
       <c r="H8" s="3">
-        <v>7746300</v>
+        <v>7491200</v>
       </c>
       <c r="I8" s="3">
-        <v>6951500</v>
+        <v>6722500</v>
       </c>
       <c r="J8" s="3">
-        <v>7084700</v>
+        <v>6851400</v>
       </c>
       <c r="K8" s="3">
         <v>7323300</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2171800</v>
+        <v>2100300</v>
       </c>
       <c r="E9" s="3">
-        <v>2321600</v>
+        <v>2245200</v>
       </c>
       <c r="F9" s="3">
-        <v>2112900</v>
+        <v>2043300</v>
       </c>
       <c r="G9" s="3">
-        <v>2107400</v>
+        <v>2038000</v>
       </c>
       <c r="H9" s="3">
-        <v>1890800</v>
+        <v>1828500</v>
       </c>
       <c r="I9" s="3">
-        <v>1785600</v>
+        <v>1726800</v>
       </c>
       <c r="J9" s="3">
-        <v>1789500</v>
+        <v>1730600</v>
       </c>
       <c r="K9" s="3">
         <v>1821700</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6217500</v>
+        <v>6012700</v>
       </c>
       <c r="E10" s="3">
-        <v>7986800</v>
+        <v>7723800</v>
       </c>
       <c r="F10" s="3">
-        <v>7861000</v>
+        <v>7602100</v>
       </c>
       <c r="G10" s="3">
-        <v>7048700</v>
+        <v>6816600</v>
       </c>
       <c r="H10" s="3">
-        <v>5855500</v>
+        <v>5662700</v>
       </c>
       <c r="I10" s="3">
-        <v>5165800</v>
+        <v>4995700</v>
       </c>
       <c r="J10" s="3">
-        <v>5295200</v>
+        <v>5120800</v>
       </c>
       <c r="K10" s="3">
         <v>5501600</v>
@@ -845,25 +845,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>245900</v>
+        <v>237800</v>
       </c>
       <c r="E12" s="3">
-        <v>288800</v>
+        <v>279300</v>
       </c>
       <c r="F12" s="3">
-        <v>265400</v>
+        <v>256600</v>
       </c>
       <c r="G12" s="3">
-        <v>220700</v>
+        <v>213500</v>
       </c>
       <c r="H12" s="3">
-        <v>166400</v>
+        <v>160900</v>
       </c>
       <c r="I12" s="3">
-        <v>102900</v>
+        <v>99500</v>
       </c>
       <c r="J12" s="3">
-        <v>129600</v>
+        <v>125300</v>
       </c>
       <c r="K12" s="3">
         <v>130100</v>
@@ -917,25 +917,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>169000</v>
+        <v>163400</v>
       </c>
       <c r="E14" s="3">
-        <v>33000</v>
+        <v>31900</v>
       </c>
       <c r="F14" s="3">
-        <v>83100</v>
+        <v>80400</v>
       </c>
       <c r="G14" s="3">
-        <v>718800</v>
+        <v>695100</v>
       </c>
       <c r="H14" s="3">
-        <v>43600</v>
+        <v>42200</v>
       </c>
       <c r="I14" s="3">
-        <v>22400</v>
+        <v>21700</v>
       </c>
       <c r="J14" s="3">
-        <v>54000</v>
+        <v>52300</v>
       </c>
       <c r="K14" s="3">
         <v>63400</v>
@@ -1002,25 +1002,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>8421900</v>
+        <v>8144600</v>
       </c>
       <c r="E17" s="3">
-        <v>9304300</v>
+        <v>8997900</v>
       </c>
       <c r="F17" s="3">
-        <v>9069900</v>
+        <v>8771200</v>
       </c>
       <c r="G17" s="3">
-        <v>9142100</v>
+        <v>8841100</v>
       </c>
       <c r="H17" s="3">
-        <v>7454800</v>
+        <v>7209300</v>
       </c>
       <c r="I17" s="3">
-        <v>6630800</v>
+        <v>6412400</v>
       </c>
       <c r="J17" s="3">
-        <v>6887200</v>
+        <v>6660400</v>
       </c>
       <c r="K17" s="3">
         <v>6909600</v>
@@ -1038,25 +1038,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-32600</v>
+        <v>-31600</v>
       </c>
       <c r="E18" s="3">
-        <v>1004000</v>
+        <v>971000</v>
       </c>
       <c r="F18" s="3">
-        <v>904000</v>
+        <v>874200</v>
       </c>
       <c r="G18" s="3">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="H18" s="3">
-        <v>291500</v>
+        <v>281900</v>
       </c>
       <c r="I18" s="3">
-        <v>320700</v>
+        <v>310100</v>
       </c>
       <c r="J18" s="3">
-        <v>197500</v>
+        <v>191000</v>
       </c>
       <c r="K18" s="3">
         <v>413600</v>
@@ -1090,25 +1090,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>34300</v>
+        <v>33200</v>
       </c>
       <c r="E20" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="F20" s="3">
-        <v>53300</v>
+        <v>51500</v>
       </c>
       <c r="G20" s="3">
-        <v>346300</v>
+        <v>334900</v>
       </c>
       <c r="H20" s="3">
-        <v>170200</v>
+        <v>164600</v>
       </c>
       <c r="I20" s="3">
-        <v>77400</v>
+        <v>74900</v>
       </c>
       <c r="J20" s="3">
-        <v>260200</v>
+        <v>251600</v>
       </c>
       <c r="K20" s="3">
         <v>87600</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>616100</v>
+        <v>597200</v>
       </c>
       <c r="E21" s="3">
-        <v>1531200</v>
+        <v>1482000</v>
       </c>
       <c r="F21" s="3">
-        <v>1356700</v>
+        <v>1312900</v>
       </c>
       <c r="G21" s="3">
-        <v>759700</v>
+        <v>735600</v>
       </c>
       <c r="H21" s="3">
-        <v>820600</v>
+        <v>794400</v>
       </c>
       <c r="I21" s="3">
-        <v>734600</v>
+        <v>711100</v>
       </c>
       <c r="J21" s="3">
-        <v>804600</v>
+        <v>778900</v>
       </c>
       <c r="K21" s="3">
         <v>867500</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>20300</v>
+        <v>19600</v>
       </c>
       <c r="E22" s="3">
-        <v>20900</v>
+        <v>20200</v>
       </c>
       <c r="F22" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="G22" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="H22" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="I22" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="J22" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="K22" s="3">
         <v>16600</v>
@@ -1198,25 +1198,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-18600</v>
+        <v>-18000</v>
       </c>
       <c r="E23" s="3">
-        <v>978200</v>
+        <v>946000</v>
       </c>
       <c r="F23" s="3">
-        <v>950300</v>
+        <v>919000</v>
       </c>
       <c r="G23" s="3">
-        <v>351200</v>
+        <v>339700</v>
       </c>
       <c r="H23" s="3">
-        <v>454300</v>
+        <v>439300</v>
       </c>
       <c r="I23" s="3">
-        <v>390700</v>
+        <v>377900</v>
       </c>
       <c r="J23" s="3">
-        <v>446700</v>
+        <v>432000</v>
       </c>
       <c r="K23" s="3">
         <v>484600</v>
@@ -1234,25 +1234,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>64500</v>
+        <v>62400</v>
       </c>
       <c r="E24" s="3">
-        <v>274000</v>
+        <v>265000</v>
       </c>
       <c r="F24" s="3">
-        <v>359000</v>
+        <v>347200</v>
       </c>
       <c r="G24" s="3">
-        <v>120300</v>
+        <v>116300</v>
       </c>
       <c r="H24" s="3">
-        <v>145200</v>
+        <v>140400</v>
       </c>
       <c r="I24" s="3">
-        <v>157500</v>
+        <v>152300</v>
       </c>
       <c r="J24" s="3">
-        <v>116700</v>
+        <v>112900</v>
       </c>
       <c r="K24" s="3">
         <v>208400</v>
@@ -1306,25 +1306,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-83100</v>
+        <v>-80300</v>
       </c>
       <c r="E26" s="3">
-        <v>704200</v>
+        <v>681000</v>
       </c>
       <c r="F26" s="3">
-        <v>591300</v>
+        <v>571800</v>
       </c>
       <c r="G26" s="3">
-        <v>231000</v>
+        <v>223400</v>
       </c>
       <c r="H26" s="3">
-        <v>309100</v>
+        <v>298900</v>
       </c>
       <c r="I26" s="3">
-        <v>233200</v>
+        <v>225500</v>
       </c>
       <c r="J26" s="3">
-        <v>330000</v>
+        <v>319200</v>
       </c>
       <c r="K26" s="3">
         <v>276200</v>
@@ -1342,25 +1342,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-106200</v>
+        <v>-102700</v>
       </c>
       <c r="E27" s="3">
-        <v>670100</v>
+        <v>648100</v>
       </c>
       <c r="F27" s="3">
-        <v>559400</v>
+        <v>541000</v>
       </c>
       <c r="G27" s="3">
-        <v>207200</v>
+        <v>200400</v>
       </c>
       <c r="H27" s="3">
-        <v>292400</v>
+        <v>282800</v>
       </c>
       <c r="I27" s="3">
-        <v>211400</v>
+        <v>204500</v>
       </c>
       <c r="J27" s="3">
-        <v>306700</v>
+        <v>296600</v>
       </c>
       <c r="K27" s="3">
         <v>251300</v>
@@ -1522,25 +1522,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-34300</v>
+        <v>-33200</v>
       </c>
       <c r="E32" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="F32" s="3">
-        <v>-53300</v>
+        <v>-51500</v>
       </c>
       <c r="G32" s="3">
-        <v>-346300</v>
+        <v>-334900</v>
       </c>
       <c r="H32" s="3">
-        <v>-170200</v>
+        <v>-164600</v>
       </c>
       <c r="I32" s="3">
-        <v>-77400</v>
+        <v>-74900</v>
       </c>
       <c r="J32" s="3">
-        <v>-260200</v>
+        <v>-251600</v>
       </c>
       <c r="K32" s="3">
         <v>-87600</v>
@@ -1558,25 +1558,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-106200</v>
+        <v>-102700</v>
       </c>
       <c r="E33" s="3">
-        <v>670100</v>
+        <v>648100</v>
       </c>
       <c r="F33" s="3">
-        <v>559400</v>
+        <v>541000</v>
       </c>
       <c r="G33" s="3">
-        <v>207200</v>
+        <v>200400</v>
       </c>
       <c r="H33" s="3">
-        <v>292400</v>
+        <v>282800</v>
       </c>
       <c r="I33" s="3">
-        <v>211400</v>
+        <v>204500</v>
       </c>
       <c r="J33" s="3">
-        <v>306700</v>
+        <v>296600</v>
       </c>
       <c r="K33" s="3">
         <v>251300</v>
@@ -1630,25 +1630,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-106200</v>
+        <v>-102700</v>
       </c>
       <c r="E35" s="3">
-        <v>670100</v>
+        <v>648100</v>
       </c>
       <c r="F35" s="3">
-        <v>559400</v>
+        <v>541000</v>
       </c>
       <c r="G35" s="3">
-        <v>207200</v>
+        <v>200400</v>
       </c>
       <c r="H35" s="3">
-        <v>292400</v>
+        <v>282800</v>
       </c>
       <c r="I35" s="3">
-        <v>211400</v>
+        <v>204500</v>
       </c>
       <c r="J35" s="3">
-        <v>306700</v>
+        <v>296600</v>
       </c>
       <c r="K35" s="3">
         <v>251300</v>
@@ -1739,25 +1739,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1184400</v>
+        <v>1145400</v>
       </c>
       <c r="E41" s="3">
-        <v>1005200</v>
+        <v>972100</v>
       </c>
       <c r="F41" s="3">
-        <v>1146900</v>
+        <v>1109100</v>
       </c>
       <c r="G41" s="3">
-        <v>1518600</v>
+        <v>1468600</v>
       </c>
       <c r="H41" s="3">
-        <v>1094300</v>
+        <v>1058300</v>
       </c>
       <c r="I41" s="3">
-        <v>1063800</v>
+        <v>1028800</v>
       </c>
       <c r="J41" s="3">
-        <v>943800</v>
+        <v>912700</v>
       </c>
       <c r="K41" s="3">
         <v>920400</v>
@@ -1775,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>191300</v>
+        <v>185000</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>91</v>
@@ -1784,16 +1784,16 @@
         <v>91</v>
       </c>
       <c r="G42" s="3">
-        <v>70900</v>
+        <v>68600</v>
       </c>
       <c r="H42" s="3">
-        <v>72000</v>
+        <v>69600</v>
       </c>
       <c r="I42" s="3">
-        <v>70000</v>
+        <v>67700</v>
       </c>
       <c r="J42" s="3">
-        <v>166400</v>
+        <v>160900</v>
       </c>
       <c r="K42" s="3">
         <v>318400</v>
@@ -1811,25 +1811,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1285300</v>
+        <v>1243000</v>
       </c>
       <c r="E43" s="3">
-        <v>1550200</v>
+        <v>1499100</v>
       </c>
       <c r="F43" s="3">
-        <v>1498600</v>
+        <v>1449300</v>
       </c>
       <c r="G43" s="3">
-        <v>1460600</v>
+        <v>1412500</v>
       </c>
       <c r="H43" s="3">
-        <v>1228300</v>
+        <v>1187900</v>
       </c>
       <c r="I43" s="3">
-        <v>1142700</v>
+        <v>1105100</v>
       </c>
       <c r="J43" s="3">
-        <v>1186300</v>
+        <v>1147200</v>
       </c>
       <c r="K43" s="3">
         <v>1314600</v>
@@ -1847,25 +1847,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1549000</v>
+        <v>1498000</v>
       </c>
       <c r="E44" s="3">
-        <v>1649900</v>
+        <v>1595500</v>
       </c>
       <c r="F44" s="3">
-        <v>1364600</v>
+        <v>1319600</v>
       </c>
       <c r="G44" s="3">
-        <v>1183900</v>
+        <v>1144900</v>
       </c>
       <c r="H44" s="3">
-        <v>2107500</v>
+        <v>2038100</v>
       </c>
       <c r="I44" s="3">
-        <v>965000</v>
+        <v>933200</v>
       </c>
       <c r="J44" s="3">
-        <v>972000</v>
+        <v>940000</v>
       </c>
       <c r="K44" s="3">
         <v>867200</v>
@@ -1883,25 +1883,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>479500</v>
+        <v>463700</v>
       </c>
       <c r="E45" s="3">
-        <v>646900</v>
+        <v>625600</v>
       </c>
       <c r="F45" s="3">
-        <v>660500</v>
+        <v>638800</v>
       </c>
       <c r="G45" s="3">
-        <v>560100</v>
+        <v>541600</v>
       </c>
       <c r="H45" s="3">
-        <v>486200</v>
+        <v>470100</v>
       </c>
       <c r="I45" s="3">
-        <v>499700</v>
+        <v>483300</v>
       </c>
       <c r="J45" s="3">
-        <v>512800</v>
+        <v>495900</v>
       </c>
       <c r="K45" s="3">
         <v>448300</v>
@@ -1919,25 +1919,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4689500</v>
+        <v>4535100</v>
       </c>
       <c r="E46" s="3">
-        <v>4852200</v>
+        <v>4692400</v>
       </c>
       <c r="F46" s="3">
-        <v>4400100</v>
+        <v>4255200</v>
       </c>
       <c r="G46" s="3">
-        <v>4794100</v>
+        <v>4636200</v>
       </c>
       <c r="H46" s="3">
-        <v>3934600</v>
+        <v>3805100</v>
       </c>
       <c r="I46" s="3">
-        <v>3741200</v>
+        <v>3618000</v>
       </c>
       <c r="J46" s="3">
-        <v>3781300</v>
+        <v>3656800</v>
       </c>
       <c r="K46" s="3">
         <v>3868900</v>
@@ -1955,25 +1955,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>122000</v>
+        <v>117900</v>
       </c>
       <c r="E47" s="3">
-        <v>126500</v>
+        <v>122300</v>
       </c>
       <c r="F47" s="3">
-        <v>418900</v>
+        <v>405100</v>
       </c>
       <c r="G47" s="3">
-        <v>238000</v>
+        <v>230200</v>
       </c>
       <c r="H47" s="3">
-        <v>455500</v>
+        <v>440500</v>
       </c>
       <c r="I47" s="3">
-        <v>253100</v>
+        <v>244800</v>
       </c>
       <c r="J47" s="3">
-        <v>265800</v>
+        <v>257000</v>
       </c>
       <c r="K47" s="3">
         <v>257900</v>
@@ -1991,25 +1991,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>3106900</v>
+        <v>3004600</v>
       </c>
       <c r="E48" s="3">
-        <v>2867400</v>
+        <v>2773000</v>
       </c>
       <c r="F48" s="3">
-        <v>2142500</v>
+        <v>2072000</v>
       </c>
       <c r="G48" s="3">
-        <v>1445600</v>
+        <v>1398000</v>
       </c>
       <c r="H48" s="3">
-        <v>1422900</v>
+        <v>1376100</v>
       </c>
       <c r="I48" s="3">
-        <v>1223300</v>
+        <v>1183000</v>
       </c>
       <c r="J48" s="3">
-        <v>1247900</v>
+        <v>1206800</v>
       </c>
       <c r="K48" s="3">
         <v>1296200</v>
@@ -2027,25 +2027,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2199100</v>
+        <v>2126700</v>
       </c>
       <c r="E49" s="3">
-        <v>2270300</v>
+        <v>2195500</v>
       </c>
       <c r="F49" s="3">
-        <v>1506800</v>
+        <v>1457200</v>
       </c>
       <c r="G49" s="3">
-        <v>1535800</v>
+        <v>1485200</v>
       </c>
       <c r="H49" s="3">
-        <v>2244100</v>
+        <v>2170200</v>
       </c>
       <c r="I49" s="3">
-        <v>1470400</v>
+        <v>1422000</v>
       </c>
       <c r="J49" s="3">
-        <v>1522500</v>
+        <v>1472300</v>
       </c>
       <c r="K49" s="3">
         <v>1602300</v>
@@ -2135,25 +2135,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>853100</v>
+        <v>825000</v>
       </c>
       <c r="E52" s="3">
-        <v>986800</v>
+        <v>954300</v>
       </c>
       <c r="F52" s="3">
-        <v>939000</v>
+        <v>908100</v>
       </c>
       <c r="G52" s="3">
-        <v>635700</v>
+        <v>614800</v>
       </c>
       <c r="H52" s="3">
-        <v>683800</v>
+        <v>661300</v>
       </c>
       <c r="I52" s="3">
-        <v>677800</v>
+        <v>655500</v>
       </c>
       <c r="J52" s="3">
-        <v>685900</v>
+        <v>663300</v>
       </c>
       <c r="K52" s="3">
         <v>675700</v>
@@ -2207,25 +2207,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>10970500</v>
+        <v>10609300</v>
       </c>
       <c r="E54" s="3">
-        <v>11103200</v>
+        <v>10737600</v>
       </c>
       <c r="F54" s="3">
-        <v>9197600</v>
+        <v>8894700</v>
       </c>
       <c r="G54" s="3">
-        <v>8649300</v>
+        <v>8364400</v>
       </c>
       <c r="H54" s="3">
-        <v>8514100</v>
+        <v>8233700</v>
       </c>
       <c r="I54" s="3">
-        <v>7365900</v>
+        <v>7123300</v>
       </c>
       <c r="J54" s="3">
-        <v>7503300</v>
+        <v>7256200</v>
       </c>
       <c r="K54" s="3">
         <v>7700900</v>
@@ -2275,25 +2275,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>700800</v>
+        <v>677700</v>
       </c>
       <c r="E57" s="3">
-        <v>883100</v>
+        <v>854000</v>
       </c>
       <c r="F57" s="3">
-        <v>931900</v>
+        <v>901200</v>
       </c>
       <c r="G57" s="3">
-        <v>792900</v>
+        <v>766800</v>
       </c>
       <c r="H57" s="3">
-        <v>759700</v>
+        <v>734700</v>
       </c>
       <c r="I57" s="3">
-        <v>567700</v>
+        <v>549000</v>
       </c>
       <c r="J57" s="3">
-        <v>550600</v>
+        <v>532500</v>
       </c>
       <c r="K57" s="3">
         <v>489600</v>
@@ -2311,25 +2311,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>711300</v>
+        <v>687800</v>
       </c>
       <c r="E58" s="3">
-        <v>1338600</v>
+        <v>1294500</v>
       </c>
       <c r="F58" s="3">
-        <v>138500</v>
+        <v>133900</v>
       </c>
       <c r="G58" s="3">
-        <v>97100</v>
+        <v>93900</v>
       </c>
       <c r="H58" s="3">
-        <v>150800</v>
+        <v>145900</v>
       </c>
       <c r="I58" s="3">
-        <v>173000</v>
+        <v>167300</v>
       </c>
       <c r="J58" s="3">
-        <v>688800</v>
+        <v>666200</v>
       </c>
       <c r="K58" s="3">
         <v>615500</v>
@@ -2347,25 +2347,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1803600</v>
+        <v>1744200</v>
       </c>
       <c r="E59" s="3">
-        <v>2007900</v>
+        <v>1941800</v>
       </c>
       <c r="F59" s="3">
-        <v>2026500</v>
+        <v>1959800</v>
       </c>
       <c r="G59" s="3">
-        <v>1764500</v>
+        <v>1706400</v>
       </c>
       <c r="H59" s="3">
-        <v>1336800</v>
+        <v>1292800</v>
       </c>
       <c r="I59" s="3">
-        <v>1143100</v>
+        <v>1105400</v>
       </c>
       <c r="J59" s="3">
-        <v>1178200</v>
+        <v>1139400</v>
       </c>
       <c r="K59" s="3">
         <v>1295300</v>
@@ -2383,25 +2383,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3215600</v>
+        <v>3109700</v>
       </c>
       <c r="E60" s="3">
-        <v>4229500</v>
+        <v>4090200</v>
       </c>
       <c r="F60" s="3">
-        <v>3096900</v>
+        <v>2994900</v>
       </c>
       <c r="G60" s="3">
-        <v>2654500</v>
+        <v>2567000</v>
       </c>
       <c r="H60" s="3">
-        <v>2247300</v>
+        <v>2173300</v>
       </c>
       <c r="I60" s="3">
-        <v>1883800</v>
+        <v>1821800</v>
       </c>
       <c r="J60" s="3">
-        <v>2417600</v>
+        <v>2338000</v>
       </c>
       <c r="K60" s="3">
         <v>2400400</v>
@@ -2419,25 +2419,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>2720800</v>
+        <v>2631200</v>
       </c>
       <c r="E61" s="3">
-        <v>1380500</v>
+        <v>1335100</v>
       </c>
       <c r="F61" s="3">
-        <v>1045200</v>
+        <v>1010800</v>
       </c>
       <c r="G61" s="3">
-        <v>1183900</v>
+        <v>1144900</v>
       </c>
       <c r="H61" s="3">
-        <v>947600</v>
+        <v>916400</v>
       </c>
       <c r="I61" s="3">
-        <v>616000</v>
+        <v>595700</v>
       </c>
       <c r="J61" s="3">
-        <v>285000</v>
+        <v>275600</v>
       </c>
       <c r="K61" s="3">
         <v>882800</v>
@@ -2455,25 +2455,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>419000</v>
+        <v>405200</v>
       </c>
       <c r="E62" s="3">
-        <v>775500</v>
+        <v>749900</v>
       </c>
       <c r="F62" s="3">
-        <v>1285600</v>
+        <v>1243300</v>
       </c>
       <c r="G62" s="3">
-        <v>749000</v>
+        <v>724400</v>
       </c>
       <c r="H62" s="3">
-        <v>1548800</v>
+        <v>1497800</v>
       </c>
       <c r="I62" s="3">
-        <v>1100600</v>
+        <v>1064400</v>
       </c>
       <c r="J62" s="3">
-        <v>1071400</v>
+        <v>1036100</v>
       </c>
       <c r="K62" s="3">
         <v>970500</v>
@@ -2599,25 +2599,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6545900</v>
+        <v>6330300</v>
       </c>
       <c r="E66" s="3">
-        <v>6569200</v>
+        <v>6352800</v>
       </c>
       <c r="F66" s="3">
-        <v>5102400</v>
+        <v>4934300</v>
       </c>
       <c r="G66" s="3">
-        <v>4783700</v>
+        <v>4626200</v>
       </c>
       <c r="H66" s="3">
-        <v>4926800</v>
+        <v>4764500</v>
       </c>
       <c r="I66" s="3">
-        <v>3789900</v>
+        <v>3665100</v>
       </c>
       <c r="J66" s="3">
-        <v>3969500</v>
+        <v>3838800</v>
       </c>
       <c r="K66" s="3">
         <v>4438300</v>
@@ -2795,25 +2795,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>3108500</v>
+        <v>3006100</v>
       </c>
       <c r="E72" s="3">
-        <v>3395300</v>
+        <v>3283500</v>
       </c>
       <c r="F72" s="3">
-        <v>2914800</v>
+        <v>2818800</v>
       </c>
       <c r="G72" s="3">
-        <v>2483000</v>
+        <v>2401200</v>
       </c>
       <c r="H72" s="3">
-        <v>2357900</v>
+        <v>2280200</v>
       </c>
       <c r="I72" s="3">
-        <v>2139000</v>
+        <v>2068600</v>
       </c>
       <c r="J72" s="3">
-        <v>2002400</v>
+        <v>1936400</v>
       </c>
       <c r="K72" s="3">
         <v>1964200</v>
@@ -2939,25 +2939,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>4424600</v>
+        <v>4278900</v>
       </c>
       <c r="E76" s="3">
-        <v>4534100</v>
+        <v>4384700</v>
       </c>
       <c r="F76" s="3">
-        <v>4095200</v>
+        <v>3960400</v>
       </c>
       <c r="G76" s="3">
-        <v>3865600</v>
+        <v>3738300</v>
       </c>
       <c r="H76" s="3">
-        <v>3587400</v>
+        <v>3469200</v>
       </c>
       <c r="I76" s="3">
-        <v>3575900</v>
+        <v>3458200</v>
       </c>
       <c r="J76" s="3">
-        <v>3533800</v>
+        <v>3417400</v>
       </c>
       <c r="K76" s="3">
         <v>3262600</v>
@@ -3052,25 +3052,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-106200</v>
+        <v>-102700</v>
       </c>
       <c r="E81" s="3">
-        <v>670100</v>
+        <v>648100</v>
       </c>
       <c r="F81" s="3">
-        <v>559400</v>
+        <v>541000</v>
       </c>
       <c r="G81" s="3">
-        <v>207200</v>
+        <v>200400</v>
       </c>
       <c r="H81" s="3">
-        <v>292400</v>
+        <v>282800</v>
       </c>
       <c r="I81" s="3">
-        <v>211400</v>
+        <v>204500</v>
       </c>
       <c r="J81" s="3">
-        <v>306700</v>
+        <v>296600</v>
       </c>
       <c r="K81" s="3">
         <v>251300</v>
@@ -3104,25 +3104,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>614500</v>
+        <v>594200</v>
       </c>
       <c r="E83" s="3">
-        <v>532100</v>
+        <v>514600</v>
       </c>
       <c r="F83" s="3">
-        <v>399400</v>
+        <v>386300</v>
       </c>
       <c r="G83" s="3">
-        <v>399500</v>
+        <v>386300</v>
       </c>
       <c r="H83" s="3">
-        <v>358900</v>
+        <v>347100</v>
       </c>
       <c r="I83" s="3">
-        <v>336500</v>
+        <v>325400</v>
       </c>
       <c r="J83" s="3">
-        <v>346900</v>
+        <v>335500</v>
       </c>
       <c r="K83" s="3">
         <v>367000</v>
@@ -3320,25 +3320,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>583400</v>
+        <v>564200</v>
       </c>
       <c r="E89" s="3">
-        <v>688200</v>
+        <v>665500</v>
       </c>
       <c r="F89" s="3">
-        <v>843400</v>
+        <v>815600</v>
       </c>
       <c r="G89" s="3">
-        <v>869000</v>
+        <v>840400</v>
       </c>
       <c r="H89" s="3">
-        <v>538700</v>
+        <v>520900</v>
       </c>
       <c r="I89" s="3">
-        <v>551400</v>
+        <v>533300</v>
       </c>
       <c r="J89" s="3">
-        <v>297900</v>
+        <v>288100</v>
       </c>
       <c r="K89" s="3">
         <v>810300</v>
@@ -3372,25 +3372,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-513400</v>
+        <v>-496500</v>
       </c>
       <c r="E91" s="3">
-        <v>-840000</v>
+        <v>-812300</v>
       </c>
       <c r="F91" s="3">
-        <v>-734200</v>
+        <v>-710100</v>
       </c>
       <c r="G91" s="3">
-        <v>-328100</v>
+        <v>-317300</v>
       </c>
       <c r="H91" s="3">
-        <v>-285700</v>
+        <v>-276300</v>
       </c>
       <c r="I91" s="3">
-        <v>-154300</v>
+        <v>-149300</v>
       </c>
       <c r="J91" s="3">
-        <v>-142200</v>
+        <v>-137500</v>
       </c>
       <c r="K91" s="3">
         <v>-172600</v>
@@ -3480,25 +3480,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-638500</v>
+        <v>-617400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1847700</v>
+        <v>-1786900</v>
       </c>
       <c r="F94" s="3">
-        <v>-939400</v>
+        <v>-908400</v>
       </c>
       <c r="G94" s="3">
-        <v>-9700</v>
+        <v>-9300</v>
       </c>
       <c r="H94" s="3">
-        <v>-643500</v>
+        <v>-622300</v>
       </c>
       <c r="I94" s="3">
-        <v>-210800</v>
+        <v>-203800</v>
       </c>
       <c r="J94" s="3">
-        <v>105100</v>
+        <v>101600</v>
       </c>
       <c r="K94" s="3">
         <v>-161400</v>
@@ -3532,25 +3532,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-181900</v>
+        <v>-175900</v>
       </c>
       <c r="E96" s="3">
-        <v>-200700</v>
+        <v>-194100</v>
       </c>
       <c r="F96" s="3">
-        <v>-127000</v>
+        <v>-122800</v>
       </c>
       <c r="G96" s="3">
-        <v>-81800</v>
+        <v>-79100</v>
       </c>
       <c r="H96" s="3">
-        <v>-74800</v>
+        <v>-72400</v>
       </c>
       <c r="I96" s="3">
-        <v>-70200</v>
+        <v>-67900</v>
       </c>
       <c r="J96" s="3">
-        <v>-72800</v>
+        <v>-70400</v>
       </c>
       <c r="K96" s="3">
         <v>-134000</v>
@@ -3676,25 +3676,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>427100</v>
+        <v>413000</v>
       </c>
       <c r="E100" s="3">
-        <v>1035600</v>
+        <v>1001500</v>
       </c>
       <c r="F100" s="3">
-        <v>-270800</v>
+        <v>-261900</v>
       </c>
       <c r="G100" s="3">
-        <v>-483900</v>
+        <v>-468000</v>
       </c>
       <c r="H100" s="3">
-        <v>203900</v>
+        <v>197200</v>
       </c>
       <c r="I100" s="3">
-        <v>-274700</v>
+        <v>-265600</v>
       </c>
       <c r="J100" s="3">
-        <v>-532200</v>
+        <v>-514700</v>
       </c>
       <c r="K100" s="3">
         <v>-456100</v>
@@ -3712,25 +3712,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-17800</v>
+        <v>-17300</v>
       </c>
       <c r="E101" s="3">
-        <v>-6300</v>
+        <v>-6100</v>
       </c>
       <c r="F101" s="3">
-        <v>-43800</v>
+        <v>-42400</v>
       </c>
       <c r="G101" s="3">
-        <v>22800</v>
+        <v>22000</v>
       </c>
       <c r="H101" s="3">
-        <v>-24300</v>
+        <v>-23500</v>
       </c>
       <c r="I101" s="3">
-        <v>-28400</v>
+        <v>-27500</v>
       </c>
       <c r="J101" s="3">
-        <v>43900</v>
+        <v>42400</v>
       </c>
       <c r="K101" s="3">
         <v>94700</v>
@@ -3748,25 +3748,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>354200</v>
+        <v>342500</v>
       </c>
       <c r="E102" s="3">
-        <v>-130300</v>
+        <v>-126000</v>
       </c>
       <c r="F102" s="3">
-        <v>-410600</v>
+        <v>-397000</v>
       </c>
       <c r="G102" s="3">
-        <v>398200</v>
+        <v>385100</v>
       </c>
       <c r="H102" s="3">
-        <v>74700</v>
+        <v>72200</v>
       </c>
       <c r="I102" s="3">
-        <v>37500</v>
+        <v>36300</v>
       </c>
       <c r="J102" s="3">
-        <v>-85300</v>
+        <v>-82400</v>
       </c>
       <c r="K102" s="3">
         <v>287400</v>

--- a/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>SSDOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8113000</v>
+        <v>8830000</v>
       </c>
       <c r="E8" s="3">
-        <v>9968900</v>
+        <v>7855200</v>
       </c>
       <c r="F8" s="3">
-        <v>9645400</v>
+        <v>9652100</v>
       </c>
       <c r="G8" s="3">
-        <v>8854600</v>
+        <v>9338900</v>
       </c>
       <c r="H8" s="3">
-        <v>7491200</v>
+        <v>8573200</v>
       </c>
       <c r="I8" s="3">
-        <v>6722500</v>
+        <v>7253100</v>
       </c>
       <c r="J8" s="3">
+        <v>6508900</v>
+      </c>
+      <c r="K8" s="3">
         <v>6851400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7323300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6126700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6052800</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2100300</v>
+        <v>2243000</v>
       </c>
       <c r="E9" s="3">
-        <v>2245200</v>
+        <v>2033600</v>
       </c>
       <c r="F9" s="3">
-        <v>2043300</v>
+        <v>2173800</v>
       </c>
       <c r="G9" s="3">
-        <v>2038000</v>
+        <v>1978300</v>
       </c>
       <c r="H9" s="3">
-        <v>1828500</v>
+        <v>1973200</v>
       </c>
       <c r="I9" s="3">
-        <v>1726800</v>
+        <v>1770400</v>
       </c>
       <c r="J9" s="3">
+        <v>1672000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1730600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1821700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1507700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1445700</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6012700</v>
+        <v>6586900</v>
       </c>
       <c r="E10" s="3">
-        <v>7723800</v>
+        <v>5821600</v>
       </c>
       <c r="F10" s="3">
-        <v>7602100</v>
+        <v>7478300</v>
       </c>
       <c r="G10" s="3">
-        <v>6816600</v>
+        <v>7360500</v>
       </c>
       <c r="H10" s="3">
-        <v>5662700</v>
+        <v>6600000</v>
       </c>
       <c r="I10" s="3">
-        <v>4995700</v>
+        <v>5482700</v>
       </c>
       <c r="J10" s="3">
+        <v>4836900</v>
+      </c>
+      <c r="K10" s="3">
         <v>5120800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5501600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4618900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4607000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,44 +851,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>237800</v>
+      <c r="D12" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E12" s="3">
-        <v>279300</v>
+        <v>230200</v>
       </c>
       <c r="F12" s="3">
-        <v>256600</v>
+        <v>270400</v>
       </c>
       <c r="G12" s="3">
-        <v>213500</v>
+        <v>248500</v>
       </c>
       <c r="H12" s="3">
-        <v>160900</v>
+        <v>206700</v>
       </c>
       <c r="I12" s="3">
-        <v>99500</v>
+        <v>155800</v>
       </c>
       <c r="J12" s="3">
+        <v>96400</v>
+      </c>
+      <c r="K12" s="3">
         <v>125300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>130100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>123500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>130100</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,45 +926,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>163400</v>
+        <v>394700</v>
       </c>
       <c r="E14" s="3">
-        <v>31900</v>
+        <v>158200</v>
       </c>
       <c r="F14" s="3">
-        <v>80400</v>
+        <v>30900</v>
       </c>
       <c r="G14" s="3">
-        <v>695100</v>
+        <v>77800</v>
       </c>
       <c r="H14" s="3">
-        <v>42200</v>
+        <v>673000</v>
       </c>
       <c r="I14" s="3">
-        <v>21700</v>
+        <v>40800</v>
       </c>
       <c r="J14" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K14" s="3">
         <v>52300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>63400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>315400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1500</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>8144600</v>
+        <v>8869900</v>
       </c>
       <c r="E17" s="3">
-        <v>8997900</v>
+        <v>7885700</v>
       </c>
       <c r="F17" s="3">
-        <v>8771200</v>
+        <v>8712000</v>
       </c>
       <c r="G17" s="3">
-        <v>8841100</v>
+        <v>8492400</v>
       </c>
       <c r="H17" s="3">
-        <v>7209300</v>
+        <v>8560100</v>
       </c>
       <c r="I17" s="3">
-        <v>6412400</v>
+        <v>6980200</v>
       </c>
       <c r="J17" s="3">
+        <v>6208600</v>
+      </c>
+      <c r="K17" s="3">
         <v>6660400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6909600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6206600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5707100</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-31600</v>
+        <v>-39900</v>
       </c>
       <c r="E18" s="3">
-        <v>971000</v>
+        <v>-30600</v>
       </c>
       <c r="F18" s="3">
-        <v>874200</v>
+        <v>940100</v>
       </c>
       <c r="G18" s="3">
-        <v>13500</v>
+        <v>846400</v>
       </c>
       <c r="H18" s="3">
-        <v>281900</v>
+        <v>13100</v>
       </c>
       <c r="I18" s="3">
-        <v>310100</v>
+        <v>272900</v>
       </c>
       <c r="J18" s="3">
+        <v>300300</v>
+      </c>
+      <c r="K18" s="3">
         <v>191000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>413600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-79900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>345600</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1084,188 +1116,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>33200</v>
+        <v>680900</v>
       </c>
       <c r="E20" s="3">
-        <v>-4800</v>
+        <v>32100</v>
       </c>
       <c r="F20" s="3">
-        <v>51500</v>
+        <v>-4600</v>
       </c>
       <c r="G20" s="3">
-        <v>334900</v>
+        <v>49900</v>
       </c>
       <c r="H20" s="3">
-        <v>164600</v>
+        <v>324200</v>
       </c>
       <c r="I20" s="3">
-        <v>74900</v>
+        <v>159400</v>
       </c>
       <c r="J20" s="3">
+        <v>72500</v>
+      </c>
+      <c r="K20" s="3">
         <v>251600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>87600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>37800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>597200</v>
+        <v>1243700</v>
       </c>
       <c r="E21" s="3">
-        <v>1482000</v>
+        <v>583700</v>
       </c>
       <c r="F21" s="3">
-        <v>1312900</v>
+        <v>1439600</v>
       </c>
       <c r="G21" s="3">
-        <v>735600</v>
+        <v>1274700</v>
       </c>
       <c r="H21" s="3">
-        <v>794400</v>
+        <v>715700</v>
       </c>
       <c r="I21" s="3">
-        <v>711100</v>
+        <v>772300</v>
       </c>
       <c r="J21" s="3">
+        <v>691500</v>
+      </c>
+      <c r="K21" s="3">
         <v>778900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>867500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>297600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>682800</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F22" s="3">
         <v>19600</v>
       </c>
-      <c r="E22" s="3">
-        <v>20200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6800</v>
-      </c>
       <c r="G22" s="3">
-        <v>8700</v>
+        <v>6600</v>
       </c>
       <c r="H22" s="3">
-        <v>7200</v>
+        <v>8500</v>
       </c>
       <c r="I22" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="J22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K22" s="3">
         <v>10600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16200</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-18000</v>
+        <v>624900</v>
       </c>
       <c r="E23" s="3">
-        <v>946000</v>
+        <v>-17400</v>
       </c>
       <c r="F23" s="3">
-        <v>919000</v>
+        <v>915900</v>
       </c>
       <c r="G23" s="3">
-        <v>339700</v>
+        <v>889800</v>
       </c>
       <c r="H23" s="3">
-        <v>439300</v>
+        <v>328900</v>
       </c>
       <c r="I23" s="3">
-        <v>377900</v>
+        <v>425400</v>
       </c>
       <c r="J23" s="3">
+        <v>365900</v>
+      </c>
+      <c r="K23" s="3">
         <v>432000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>484600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-58200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>345500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>62400</v>
+        <v>241800</v>
       </c>
       <c r="E24" s="3">
-        <v>265000</v>
+        <v>60400</v>
       </c>
       <c r="F24" s="3">
-        <v>347200</v>
+        <v>256500</v>
       </c>
       <c r="G24" s="3">
-        <v>116300</v>
+        <v>336100</v>
       </c>
       <c r="H24" s="3">
-        <v>140400</v>
+        <v>112600</v>
       </c>
       <c r="I24" s="3">
-        <v>152300</v>
+        <v>136000</v>
       </c>
       <c r="J24" s="3">
+        <v>147500</v>
+      </c>
+      <c r="K24" s="3">
         <v>112900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>208400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>56700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>194100</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-80300</v>
+        <v>383100</v>
       </c>
       <c r="E26" s="3">
-        <v>681000</v>
+        <v>-77800</v>
       </c>
       <c r="F26" s="3">
-        <v>571800</v>
+        <v>659400</v>
       </c>
       <c r="G26" s="3">
-        <v>223400</v>
+        <v>553600</v>
       </c>
       <c r="H26" s="3">
-        <v>298900</v>
+        <v>216300</v>
       </c>
       <c r="I26" s="3">
-        <v>225500</v>
+        <v>289400</v>
       </c>
       <c r="J26" s="3">
+        <v>218400</v>
+      </c>
+      <c r="K26" s="3">
         <v>319200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>276200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-114900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>151300</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-102700</v>
+        <v>362000</v>
       </c>
       <c r="E27" s="3">
-        <v>648100</v>
+        <v>-99500</v>
       </c>
       <c r="F27" s="3">
-        <v>541000</v>
+        <v>627500</v>
       </c>
       <c r="G27" s="3">
-        <v>200400</v>
+        <v>523800</v>
       </c>
       <c r="H27" s="3">
-        <v>282800</v>
+        <v>194000</v>
       </c>
       <c r="I27" s="3">
-        <v>204500</v>
+        <v>273800</v>
       </c>
       <c r="J27" s="3">
+        <v>198000</v>
+      </c>
+      <c r="K27" s="3">
         <v>296600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>251300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-132800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>128700</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-33200</v>
+        <v>-680900</v>
       </c>
       <c r="E32" s="3">
-        <v>4800</v>
+        <v>-32100</v>
       </c>
       <c r="F32" s="3">
-        <v>-51500</v>
+        <v>4600</v>
       </c>
       <c r="G32" s="3">
-        <v>-334900</v>
+        <v>-49900</v>
       </c>
       <c r="H32" s="3">
-        <v>-164600</v>
+        <v>-324200</v>
       </c>
       <c r="I32" s="3">
-        <v>-74900</v>
+        <v>-159400</v>
       </c>
       <c r="J32" s="3">
+        <v>-72500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-251600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-87600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-37800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-102700</v>
+        <v>362000</v>
       </c>
       <c r="E33" s="3">
-        <v>648100</v>
+        <v>-99500</v>
       </c>
       <c r="F33" s="3">
-        <v>541000</v>
+        <v>627500</v>
       </c>
       <c r="G33" s="3">
-        <v>200400</v>
+        <v>523800</v>
       </c>
       <c r="H33" s="3">
-        <v>282800</v>
+        <v>194000</v>
       </c>
       <c r="I33" s="3">
-        <v>204500</v>
+        <v>273800</v>
       </c>
       <c r="J33" s="3">
+        <v>198000</v>
+      </c>
+      <c r="K33" s="3">
         <v>296600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>251300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-132800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>128700</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-102700</v>
+        <v>362000</v>
       </c>
       <c r="E35" s="3">
-        <v>648100</v>
+        <v>-99500</v>
       </c>
       <c r="F35" s="3">
-        <v>541000</v>
+        <v>627500</v>
       </c>
       <c r="G35" s="3">
-        <v>200400</v>
+        <v>523800</v>
       </c>
       <c r="H35" s="3">
-        <v>282800</v>
+        <v>194000</v>
       </c>
       <c r="I35" s="3">
-        <v>204500</v>
+        <v>273800</v>
       </c>
       <c r="J35" s="3">
+        <v>198000</v>
+      </c>
+      <c r="K35" s="3">
         <v>296600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>251300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-132800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>128700</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1733,332 +1818,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1145400</v>
+        <v>1467600</v>
       </c>
       <c r="E41" s="3">
-        <v>972100</v>
+        <v>1109000</v>
       </c>
       <c r="F41" s="3">
-        <v>1109100</v>
+        <v>941200</v>
       </c>
       <c r="G41" s="3">
-        <v>1468600</v>
+        <v>1073900</v>
       </c>
       <c r="H41" s="3">
-        <v>1058300</v>
+        <v>1421900</v>
       </c>
       <c r="I41" s="3">
-        <v>1028800</v>
+        <v>1024700</v>
       </c>
       <c r="J41" s="3">
+        <v>996100</v>
+      </c>
+      <c r="K41" s="3">
         <v>912700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>920400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>536300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>595400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="3">
-        <v>185000</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="E42" s="3">
+        <v>179100</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="3">
-        <v>68600</v>
+      <c r="G42" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H42" s="3">
-        <v>69600</v>
+        <v>66400</v>
       </c>
       <c r="I42" s="3">
-        <v>67700</v>
+        <v>67400</v>
       </c>
       <c r="J42" s="3">
+        <v>65600</v>
+      </c>
+      <c r="K42" s="3">
         <v>160900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>318400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>288700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>237000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1243000</v>
+        <v>1254600</v>
       </c>
       <c r="E43" s="3">
-        <v>1499100</v>
+        <v>1203400</v>
       </c>
       <c r="F43" s="3">
-        <v>1449300</v>
+        <v>1451500</v>
       </c>
       <c r="G43" s="3">
-        <v>1412500</v>
+        <v>1403200</v>
       </c>
       <c r="H43" s="3">
-        <v>1187900</v>
+        <v>1367600</v>
       </c>
       <c r="I43" s="3">
-        <v>1105100</v>
+        <v>1150100</v>
       </c>
       <c r="J43" s="3">
+        <v>1070000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1147200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1314600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1059600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>992900</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1498000</v>
+        <v>1226300</v>
       </c>
       <c r="E44" s="3">
-        <v>1595500</v>
+        <v>1450400</v>
       </c>
       <c r="F44" s="3">
-        <v>1319600</v>
+        <v>1544800</v>
       </c>
       <c r="G44" s="3">
-        <v>1144900</v>
+        <v>1277700</v>
       </c>
       <c r="H44" s="3">
-        <v>2038100</v>
+        <v>1108500</v>
       </c>
       <c r="I44" s="3">
-        <v>933200</v>
+        <v>1973400</v>
       </c>
       <c r="J44" s="3">
+        <v>903600</v>
+      </c>
+      <c r="K44" s="3">
         <v>940000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>867200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1528700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>637800</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>463700</v>
+        <v>500200</v>
       </c>
       <c r="E45" s="3">
-        <v>625600</v>
+        <v>449000</v>
       </c>
       <c r="F45" s="3">
-        <v>638800</v>
+        <v>605700</v>
       </c>
       <c r="G45" s="3">
-        <v>541600</v>
+        <v>618500</v>
       </c>
       <c r="H45" s="3">
-        <v>470100</v>
+        <v>524400</v>
       </c>
       <c r="I45" s="3">
-        <v>483300</v>
+        <v>455200</v>
       </c>
       <c r="J45" s="3">
+        <v>467900</v>
+      </c>
+      <c r="K45" s="3">
         <v>495900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>448300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>358500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>333100</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4535100</v>
+        <v>4448700</v>
       </c>
       <c r="E46" s="3">
-        <v>4692400</v>
+        <v>4390900</v>
       </c>
       <c r="F46" s="3">
-        <v>4255200</v>
+        <v>4543300</v>
       </c>
       <c r="G46" s="3">
-        <v>4636200</v>
+        <v>4119900</v>
       </c>
       <c r="H46" s="3">
-        <v>3805100</v>
+        <v>4488900</v>
       </c>
       <c r="I46" s="3">
-        <v>3618000</v>
+        <v>3684100</v>
       </c>
       <c r="J46" s="3">
+        <v>3503000</v>
+      </c>
+      <c r="K46" s="3">
         <v>3656800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3868900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3007400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2796000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>117900</v>
+        <v>348000</v>
       </c>
       <c r="E47" s="3">
-        <v>122300</v>
+        <v>114200</v>
       </c>
       <c r="F47" s="3">
-        <v>405100</v>
+        <v>118400</v>
       </c>
       <c r="G47" s="3">
-        <v>230200</v>
+        <v>392300</v>
       </c>
       <c r="H47" s="3">
-        <v>440500</v>
+        <v>222900</v>
       </c>
       <c r="I47" s="3">
-        <v>244800</v>
+        <v>426500</v>
       </c>
       <c r="J47" s="3">
+        <v>237000</v>
+      </c>
+      <c r="K47" s="3">
         <v>257000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>257900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>551200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>243000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>3004600</v>
+        <v>3048700</v>
       </c>
       <c r="E48" s="3">
-        <v>2773000</v>
+        <v>2909100</v>
       </c>
       <c r="F48" s="3">
-        <v>2072000</v>
+        <v>2684900</v>
       </c>
       <c r="G48" s="3">
-        <v>1398000</v>
+        <v>2006100</v>
       </c>
       <c r="H48" s="3">
-        <v>1376100</v>
+        <v>1353500</v>
       </c>
       <c r="I48" s="3">
-        <v>1183000</v>
+        <v>1332300</v>
       </c>
       <c r="J48" s="3">
+        <v>1145400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1206800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1296200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1155400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1151300</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2126700</v>
+        <v>1249600</v>
       </c>
       <c r="E49" s="3">
-        <v>2195500</v>
+        <v>2059100</v>
       </c>
       <c r="F49" s="3">
-        <v>1457200</v>
+        <v>2125800</v>
       </c>
       <c r="G49" s="3">
-        <v>1485200</v>
+        <v>1410900</v>
       </c>
       <c r="H49" s="3">
-        <v>2170200</v>
+        <v>1438000</v>
       </c>
       <c r="I49" s="3">
-        <v>1422000</v>
+        <v>2101200</v>
       </c>
       <c r="J49" s="3">
+        <v>1376800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1472300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1602300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1362300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1540200</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2128,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>825000</v>
+        <v>965000</v>
       </c>
       <c r="E52" s="3">
-        <v>954300</v>
+        <v>798800</v>
       </c>
       <c r="F52" s="3">
-        <v>908100</v>
+        <v>924000</v>
       </c>
       <c r="G52" s="3">
-        <v>614800</v>
+        <v>879200</v>
       </c>
       <c r="H52" s="3">
-        <v>661300</v>
+        <v>595300</v>
       </c>
       <c r="I52" s="3">
-        <v>655500</v>
+        <v>640200</v>
       </c>
       <c r="J52" s="3">
+        <v>634700</v>
+      </c>
+      <c r="K52" s="3">
         <v>663300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>675700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>668600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>662000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>10609300</v>
+        <v>10059900</v>
       </c>
       <c r="E54" s="3">
-        <v>10737600</v>
+        <v>10272100</v>
       </c>
       <c r="F54" s="3">
-        <v>8894700</v>
+        <v>10396300</v>
       </c>
       <c r="G54" s="3">
-        <v>8364400</v>
+        <v>8612000</v>
       </c>
       <c r="H54" s="3">
-        <v>8233700</v>
+        <v>8098600</v>
       </c>
       <c r="I54" s="3">
-        <v>7123300</v>
+        <v>7972100</v>
       </c>
       <c r="J54" s="3">
+        <v>6896900</v>
+      </c>
+      <c r="K54" s="3">
         <v>7256200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7700900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6469000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6392600</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2269,224 +2398,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>677700</v>
+        <v>585200</v>
       </c>
       <c r="E57" s="3">
-        <v>854000</v>
+        <v>656200</v>
       </c>
       <c r="F57" s="3">
-        <v>901200</v>
+        <v>826900</v>
       </c>
       <c r="G57" s="3">
-        <v>766800</v>
+        <v>872600</v>
       </c>
       <c r="H57" s="3">
-        <v>734700</v>
+        <v>742400</v>
       </c>
       <c r="I57" s="3">
-        <v>549000</v>
+        <v>711300</v>
       </c>
       <c r="J57" s="3">
+        <v>531500</v>
+      </c>
+      <c r="K57" s="3">
         <v>532500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>489600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>393600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>428500</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>687800</v>
+        <v>216600</v>
       </c>
       <c r="E58" s="3">
-        <v>1294500</v>
+        <v>666000</v>
       </c>
       <c r="F58" s="3">
-        <v>133900</v>
+        <v>1253300</v>
       </c>
       <c r="G58" s="3">
-        <v>93900</v>
+        <v>129700</v>
       </c>
       <c r="H58" s="3">
-        <v>145900</v>
+        <v>90900</v>
       </c>
       <c r="I58" s="3">
-        <v>167300</v>
+        <v>141200</v>
       </c>
       <c r="J58" s="3">
+        <v>162000</v>
+      </c>
+      <c r="K58" s="3">
         <v>666200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>615500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>356100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>86300</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1744200</v>
+        <v>2474000</v>
       </c>
       <c r="E59" s="3">
-        <v>1941800</v>
+        <v>1688700</v>
       </c>
       <c r="F59" s="3">
-        <v>1959800</v>
+        <v>1880000</v>
       </c>
       <c r="G59" s="3">
-        <v>1706400</v>
+        <v>1897500</v>
       </c>
       <c r="H59" s="3">
-        <v>1292800</v>
+        <v>1652100</v>
       </c>
       <c r="I59" s="3">
-        <v>1105400</v>
+        <v>1251700</v>
       </c>
       <c r="J59" s="3">
+        <v>1070300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1139400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1295300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>942800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>946200</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3109700</v>
+        <v>3275800</v>
       </c>
       <c r="E60" s="3">
-        <v>4090200</v>
+        <v>3010900</v>
       </c>
       <c r="F60" s="3">
-        <v>2994900</v>
+        <v>3960200</v>
       </c>
       <c r="G60" s="3">
-        <v>2567000</v>
+        <v>2899700</v>
       </c>
       <c r="H60" s="3">
-        <v>2173300</v>
+        <v>2485500</v>
       </c>
       <c r="I60" s="3">
-        <v>1821800</v>
+        <v>2104200</v>
       </c>
       <c r="J60" s="3">
+        <v>1763900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2338000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1692500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1461000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>2631200</v>
+        <v>1412500</v>
       </c>
       <c r="E61" s="3">
-        <v>1335100</v>
+        <v>2547600</v>
       </c>
       <c r="F61" s="3">
-        <v>1010800</v>
+        <v>1292600</v>
       </c>
       <c r="G61" s="3">
-        <v>1144900</v>
+        <v>978700</v>
       </c>
       <c r="H61" s="3">
-        <v>916400</v>
+        <v>1108500</v>
       </c>
       <c r="I61" s="3">
-        <v>595700</v>
+        <v>887300</v>
       </c>
       <c r="J61" s="3">
+        <v>576800</v>
+      </c>
+      <c r="K61" s="3">
         <v>275600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>882800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1313300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1555900</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>405200</v>
+        <v>531500</v>
       </c>
       <c r="E62" s="3">
-        <v>749900</v>
+        <v>392400</v>
       </c>
       <c r="F62" s="3">
-        <v>1243300</v>
+        <v>726100</v>
       </c>
       <c r="G62" s="3">
-        <v>724400</v>
+        <v>1203700</v>
       </c>
       <c r="H62" s="3">
-        <v>1497800</v>
+        <v>701400</v>
       </c>
       <c r="I62" s="3">
-        <v>1064400</v>
+        <v>1450200</v>
       </c>
       <c r="J62" s="3">
+        <v>1030500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1036100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>970500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>722700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>681700</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6330300</v>
+        <v>5401800</v>
       </c>
       <c r="E66" s="3">
-        <v>6352800</v>
+        <v>6129200</v>
       </c>
       <c r="F66" s="3">
-        <v>4934300</v>
+        <v>6150900</v>
       </c>
       <c r="G66" s="3">
-        <v>4626200</v>
+        <v>4777500</v>
       </c>
       <c r="H66" s="3">
-        <v>4764500</v>
+        <v>4479100</v>
       </c>
       <c r="I66" s="3">
-        <v>3665100</v>
+        <v>4613100</v>
       </c>
       <c r="J66" s="3">
+        <v>3548600</v>
+      </c>
+      <c r="K66" s="3">
         <v>3838800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4438300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3866200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3810000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>3006100</v>
+        <v>3133700</v>
       </c>
       <c r="E72" s="3">
-        <v>3283500</v>
+        <v>2910600</v>
       </c>
       <c r="F72" s="3">
-        <v>2818800</v>
+        <v>3179100</v>
       </c>
       <c r="G72" s="3">
-        <v>2401200</v>
+        <v>2729200</v>
       </c>
       <c r="H72" s="3">
-        <v>2280200</v>
+        <v>2324900</v>
       </c>
       <c r="I72" s="3">
-        <v>2068600</v>
+        <v>2207800</v>
       </c>
       <c r="J72" s="3">
+        <v>2002800</v>
+      </c>
+      <c r="K72" s="3">
         <v>1936400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1964200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1738600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2001100</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>4278900</v>
+        <v>4658100</v>
       </c>
       <c r="E76" s="3">
-        <v>4384700</v>
+        <v>4142900</v>
       </c>
       <c r="F76" s="3">
-        <v>3960400</v>
+        <v>4245400</v>
       </c>
       <c r="G76" s="3">
-        <v>3738300</v>
+        <v>3834500</v>
       </c>
       <c r="H76" s="3">
-        <v>3469200</v>
+        <v>3619500</v>
       </c>
       <c r="I76" s="3">
-        <v>3458200</v>
+        <v>3359000</v>
       </c>
       <c r="J76" s="3">
+        <v>3348300</v>
+      </c>
+      <c r="K76" s="3">
         <v>3417400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3262600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2602800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2582600</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-102700</v>
+        <v>362000</v>
       </c>
       <c r="E81" s="3">
-        <v>648100</v>
+        <v>-99500</v>
       </c>
       <c r="F81" s="3">
-        <v>541000</v>
+        <v>627500</v>
       </c>
       <c r="G81" s="3">
-        <v>200400</v>
+        <v>523800</v>
       </c>
       <c r="H81" s="3">
-        <v>282800</v>
+        <v>194000</v>
       </c>
       <c r="I81" s="3">
-        <v>204500</v>
+        <v>273800</v>
       </c>
       <c r="J81" s="3">
+        <v>198000</v>
+      </c>
+      <c r="K81" s="3">
         <v>296600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>251300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-132800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>128700</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>594200</v>
+        <v>595800</v>
       </c>
       <c r="E83" s="3">
-        <v>514600</v>
+        <v>575300</v>
       </c>
       <c r="F83" s="3">
-        <v>386300</v>
+        <v>498200</v>
       </c>
       <c r="G83" s="3">
-        <v>386300</v>
+        <v>374000</v>
       </c>
       <c r="H83" s="3">
-        <v>347100</v>
+        <v>374000</v>
       </c>
       <c r="I83" s="3">
-        <v>325400</v>
+        <v>336000</v>
       </c>
       <c r="J83" s="3">
+        <v>315000</v>
+      </c>
+      <c r="K83" s="3">
         <v>335500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>367000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>339300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>321100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>564200</v>
+        <v>1048200</v>
       </c>
       <c r="E89" s="3">
-        <v>665500</v>
+        <v>546300</v>
       </c>
       <c r="F89" s="3">
-        <v>815600</v>
+        <v>644300</v>
       </c>
       <c r="G89" s="3">
-        <v>840400</v>
+        <v>789700</v>
       </c>
       <c r="H89" s="3">
-        <v>520900</v>
+        <v>813700</v>
       </c>
       <c r="I89" s="3">
-        <v>533300</v>
+        <v>504400</v>
       </c>
       <c r="J89" s="3">
+        <v>516300</v>
+      </c>
+      <c r="K89" s="3">
         <v>288100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>810300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>380100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>466500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-496500</v>
+        <v>-618600</v>
       </c>
       <c r="E91" s="3">
-        <v>-812300</v>
+        <v>-480700</v>
       </c>
       <c r="F91" s="3">
-        <v>-710100</v>
+        <v>-786500</v>
       </c>
       <c r="G91" s="3">
-        <v>-317300</v>
+        <v>-687500</v>
       </c>
       <c r="H91" s="3">
-        <v>-276300</v>
+        <v>-307200</v>
       </c>
       <c r="I91" s="3">
-        <v>-149300</v>
+        <v>-267600</v>
       </c>
       <c r="J91" s="3">
+        <v>-144500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-137500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-172600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-169600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-219400</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-617400</v>
+        <v>543700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1786900</v>
+        <v>-597800</v>
       </c>
       <c r="F94" s="3">
-        <v>-908400</v>
+        <v>-1730100</v>
       </c>
       <c r="G94" s="3">
-        <v>-9300</v>
+        <v>-879500</v>
       </c>
       <c r="H94" s="3">
-        <v>-622300</v>
+        <v>-9100</v>
       </c>
       <c r="I94" s="3">
-        <v>-203800</v>
+        <v>-602600</v>
       </c>
       <c r="J94" s="3">
+        <v>-197400</v>
+      </c>
+      <c r="K94" s="3">
         <v>101600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-161400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-230800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-183300</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3526,44 +3758,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-175900</v>
+        <v>-136400</v>
       </c>
       <c r="E96" s="3">
-        <v>-194100</v>
+        <v>-170300</v>
       </c>
       <c r="F96" s="3">
-        <v>-122800</v>
+        <v>-187900</v>
       </c>
       <c r="G96" s="3">
-        <v>-79100</v>
+        <v>-118900</v>
       </c>
       <c r="H96" s="3">
-        <v>-72400</v>
+        <v>-76600</v>
       </c>
       <c r="I96" s="3">
-        <v>-67900</v>
+        <v>-70100</v>
       </c>
       <c r="J96" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-70400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-134000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-179900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-176400</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3669,115 +3911,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>413000</v>
+        <v>-1503200</v>
       </c>
       <c r="E100" s="3">
-        <v>1001500</v>
+        <v>399900</v>
       </c>
       <c r="F100" s="3">
-        <v>-261900</v>
+        <v>969700</v>
       </c>
       <c r="G100" s="3">
-        <v>-468000</v>
+        <v>-253500</v>
       </c>
       <c r="H100" s="3">
-        <v>197200</v>
+        <v>-453100</v>
       </c>
       <c r="I100" s="3">
-        <v>-265600</v>
+        <v>190900</v>
       </c>
       <c r="J100" s="3">
+        <v>-257200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-514700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-456100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-223700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-314700</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-17300</v>
+        <v>83200</v>
       </c>
       <c r="E101" s="3">
-        <v>-6100</v>
+        <v>-16700</v>
       </c>
       <c r="F101" s="3">
-        <v>-42400</v>
+        <v>-5900</v>
       </c>
       <c r="G101" s="3">
-        <v>22000</v>
+        <v>-41000</v>
       </c>
       <c r="H101" s="3">
-        <v>-23500</v>
+        <v>21300</v>
       </c>
       <c r="I101" s="3">
-        <v>-27500</v>
+        <v>-22800</v>
       </c>
       <c r="J101" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="K101" s="3">
         <v>42400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>94700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>49900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-18300</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>342500</v>
+        <v>171900</v>
       </c>
       <c r="E102" s="3">
-        <v>-126000</v>
+        <v>331700</v>
       </c>
       <c r="F102" s="3">
-        <v>-397000</v>
+        <v>-122000</v>
       </c>
       <c r="G102" s="3">
-        <v>385100</v>
+        <v>-384400</v>
       </c>
       <c r="H102" s="3">
-        <v>72200</v>
+        <v>372900</v>
       </c>
       <c r="I102" s="3">
-        <v>36300</v>
+        <v>69900</v>
       </c>
       <c r="J102" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-82400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>287400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-24600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-49800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>SSDOY</t>
   </si>
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8830000</v>
+        <v>8063900</v>
       </c>
       <c r="E8" s="3">
-        <v>7855200</v>
+        <v>7173700</v>
       </c>
       <c r="F8" s="3">
-        <v>9652100</v>
+        <v>8814800</v>
       </c>
       <c r="G8" s="3">
-        <v>9338900</v>
+        <v>8528700</v>
       </c>
       <c r="H8" s="3">
-        <v>8573200</v>
+        <v>7829400</v>
       </c>
       <c r="I8" s="3">
-        <v>7253100</v>
+        <v>6623900</v>
       </c>
       <c r="J8" s="3">
-        <v>6508900</v>
+        <v>5944200</v>
       </c>
       <c r="K8" s="3">
         <v>6851400</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2243000</v>
+        <v>2048500</v>
       </c>
       <c r="E9" s="3">
-        <v>2033600</v>
+        <v>1857100</v>
       </c>
       <c r="F9" s="3">
-        <v>2173800</v>
+        <v>1985200</v>
       </c>
       <c r="G9" s="3">
-        <v>1978300</v>
+        <v>1806700</v>
       </c>
       <c r="H9" s="3">
-        <v>1973200</v>
+        <v>1802000</v>
       </c>
       <c r="I9" s="3">
-        <v>1770400</v>
+        <v>1616800</v>
       </c>
       <c r="J9" s="3">
-        <v>1672000</v>
+        <v>1526900</v>
       </c>
       <c r="K9" s="3">
         <v>1730600</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6586900</v>
+        <v>6015500</v>
       </c>
       <c r="E10" s="3">
-        <v>5821600</v>
+        <v>5316600</v>
       </c>
       <c r="F10" s="3">
-        <v>7478300</v>
+        <v>6829500</v>
       </c>
       <c r="G10" s="3">
-        <v>7360500</v>
+        <v>6722000</v>
       </c>
       <c r="H10" s="3">
-        <v>6600000</v>
+        <v>6027400</v>
       </c>
       <c r="I10" s="3">
-        <v>5482700</v>
+        <v>5007000</v>
       </c>
       <c r="J10" s="3">
-        <v>4836900</v>
+        <v>4417300</v>
       </c>
       <c r="K10" s="3">
         <v>5120800</v>
@@ -857,26 +857,26 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>91</v>
+      <c r="D12" s="3">
+        <v>199600</v>
       </c>
       <c r="E12" s="3">
-        <v>230200</v>
+        <v>210300</v>
       </c>
       <c r="F12" s="3">
-        <v>270400</v>
+        <v>246900</v>
       </c>
       <c r="G12" s="3">
-        <v>248500</v>
+        <v>226900</v>
       </c>
       <c r="H12" s="3">
-        <v>206700</v>
+        <v>188800</v>
       </c>
       <c r="I12" s="3">
-        <v>155800</v>
+        <v>142300</v>
       </c>
       <c r="J12" s="3">
-        <v>96400</v>
+        <v>88000</v>
       </c>
       <c r="K12" s="3">
         <v>125300</v>
@@ -936,25 +936,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>394700</v>
+        <v>360400</v>
       </c>
       <c r="E14" s="3">
-        <v>158200</v>
+        <v>144500</v>
       </c>
       <c r="F14" s="3">
-        <v>30900</v>
+        <v>28200</v>
       </c>
       <c r="G14" s="3">
-        <v>77800</v>
+        <v>71100</v>
       </c>
       <c r="H14" s="3">
-        <v>673000</v>
+        <v>614600</v>
       </c>
       <c r="I14" s="3">
-        <v>40800</v>
+        <v>37300</v>
       </c>
       <c r="J14" s="3">
-        <v>21000</v>
+        <v>19100</v>
       </c>
       <c r="K14" s="3">
         <v>52300</v>
@@ -1028,25 +1028,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>8869900</v>
+        <v>8100400</v>
       </c>
       <c r="E17" s="3">
-        <v>7885700</v>
+        <v>7201600</v>
       </c>
       <c r="F17" s="3">
-        <v>8712000</v>
+        <v>7956200</v>
       </c>
       <c r="G17" s="3">
-        <v>8492400</v>
+        <v>7755700</v>
       </c>
       <c r="H17" s="3">
-        <v>8560100</v>
+        <v>7817500</v>
       </c>
       <c r="I17" s="3">
-        <v>6980200</v>
+        <v>6374600</v>
       </c>
       <c r="J17" s="3">
-        <v>6208600</v>
+        <v>5670000</v>
       </c>
       <c r="K17" s="3">
         <v>6660400</v>
@@ -1067,25 +1067,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-39900</v>
+        <v>-36500</v>
       </c>
       <c r="E18" s="3">
-        <v>-30600</v>
+        <v>-27900</v>
       </c>
       <c r="F18" s="3">
-        <v>940100</v>
+        <v>858600</v>
       </c>
       <c r="G18" s="3">
-        <v>846400</v>
+        <v>773000</v>
       </c>
       <c r="H18" s="3">
-        <v>13100</v>
+        <v>12000</v>
       </c>
       <c r="I18" s="3">
-        <v>272900</v>
+        <v>249200</v>
       </c>
       <c r="J18" s="3">
-        <v>300300</v>
+        <v>274200</v>
       </c>
       <c r="K18" s="3">
         <v>191000</v>
@@ -1123,25 +1123,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>680900</v>
+        <v>621800</v>
       </c>
       <c r="E20" s="3">
-        <v>32100</v>
+        <v>29400</v>
       </c>
       <c r="F20" s="3">
-        <v>-4600</v>
+        <v>-4200</v>
       </c>
       <c r="G20" s="3">
-        <v>49900</v>
+        <v>45600</v>
       </c>
       <c r="H20" s="3">
-        <v>324200</v>
+        <v>296100</v>
       </c>
       <c r="I20" s="3">
-        <v>159400</v>
+        <v>145600</v>
       </c>
       <c r="J20" s="3">
-        <v>72500</v>
+        <v>66200</v>
       </c>
       <c r="K20" s="3">
         <v>251600</v>
@@ -1162,25 +1162,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1243700</v>
+        <v>1122400</v>
       </c>
       <c r="E21" s="3">
-        <v>583700</v>
+        <v>520100</v>
       </c>
       <c r="F21" s="3">
-        <v>1439600</v>
+        <v>1303500</v>
       </c>
       <c r="G21" s="3">
-        <v>1274700</v>
+        <v>1155700</v>
       </c>
       <c r="H21" s="3">
-        <v>715700</v>
+        <v>645300</v>
       </c>
       <c r="I21" s="3">
-        <v>772300</v>
+        <v>697800</v>
       </c>
       <c r="J21" s="3">
-        <v>691500</v>
+        <v>624400</v>
       </c>
       <c r="K21" s="3">
         <v>778900</v>
@@ -1201,25 +1201,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>16000</v>
+        <v>14700</v>
       </c>
       <c r="E22" s="3">
-        <v>19000</v>
+        <v>17300</v>
       </c>
       <c r="F22" s="3">
-        <v>19600</v>
+        <v>17900</v>
       </c>
       <c r="G22" s="3">
-        <v>6600</v>
+        <v>6000</v>
       </c>
       <c r="H22" s="3">
-        <v>8500</v>
+        <v>7700</v>
       </c>
       <c r="I22" s="3">
-        <v>6900</v>
+        <v>6300</v>
       </c>
       <c r="J22" s="3">
-        <v>6900</v>
+        <v>6300</v>
       </c>
       <c r="K22" s="3">
         <v>10600</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>624900</v>
+        <v>570700</v>
       </c>
       <c r="E23" s="3">
-        <v>-17400</v>
+        <v>-15900</v>
       </c>
       <c r="F23" s="3">
-        <v>915900</v>
+        <v>836500</v>
       </c>
       <c r="G23" s="3">
-        <v>889800</v>
+        <v>812600</v>
       </c>
       <c r="H23" s="3">
-        <v>328900</v>
+        <v>300300</v>
       </c>
       <c r="I23" s="3">
-        <v>425400</v>
+        <v>388500</v>
       </c>
       <c r="J23" s="3">
-        <v>365900</v>
+        <v>334100</v>
       </c>
       <c r="K23" s="3">
         <v>432000</v>
@@ -1279,25 +1279,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>241800</v>
+        <v>220800</v>
       </c>
       <c r="E24" s="3">
-        <v>60400</v>
+        <v>55100</v>
       </c>
       <c r="F24" s="3">
-        <v>256500</v>
+        <v>234300</v>
       </c>
       <c r="G24" s="3">
-        <v>336100</v>
+        <v>307000</v>
       </c>
       <c r="H24" s="3">
-        <v>112600</v>
+        <v>102800</v>
       </c>
       <c r="I24" s="3">
-        <v>136000</v>
+        <v>124200</v>
       </c>
       <c r="J24" s="3">
-        <v>147500</v>
+        <v>134700</v>
       </c>
       <c r="K24" s="3">
         <v>112900</v>
@@ -1357,25 +1357,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>383100</v>
+        <v>349900</v>
       </c>
       <c r="E26" s="3">
-        <v>-77800</v>
+        <v>-71000</v>
       </c>
       <c r="F26" s="3">
-        <v>659400</v>
+        <v>602200</v>
       </c>
       <c r="G26" s="3">
-        <v>553600</v>
+        <v>505600</v>
       </c>
       <c r="H26" s="3">
-        <v>216300</v>
+        <v>197500</v>
       </c>
       <c r="I26" s="3">
-        <v>289400</v>
+        <v>264300</v>
       </c>
       <c r="J26" s="3">
-        <v>218400</v>
+        <v>199400</v>
       </c>
       <c r="K26" s="3">
         <v>319200</v>
@@ -1396,25 +1396,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>362000</v>
+        <v>330600</v>
       </c>
       <c r="E27" s="3">
-        <v>-99500</v>
+        <v>-90800</v>
       </c>
       <c r="F27" s="3">
-        <v>627500</v>
+        <v>573000</v>
       </c>
       <c r="G27" s="3">
-        <v>523800</v>
+        <v>478300</v>
       </c>
       <c r="H27" s="3">
-        <v>194000</v>
+        <v>177200</v>
       </c>
       <c r="I27" s="3">
-        <v>273800</v>
+        <v>250100</v>
       </c>
       <c r="J27" s="3">
-        <v>198000</v>
+        <v>180800</v>
       </c>
       <c r="K27" s="3">
         <v>296600</v>
@@ -1591,25 +1591,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-680900</v>
+        <v>-621800</v>
       </c>
       <c r="E32" s="3">
-        <v>-32100</v>
+        <v>-29400</v>
       </c>
       <c r="F32" s="3">
-        <v>4600</v>
+        <v>4200</v>
       </c>
       <c r="G32" s="3">
-        <v>-49900</v>
+        <v>-45600</v>
       </c>
       <c r="H32" s="3">
-        <v>-324200</v>
+        <v>-296100</v>
       </c>
       <c r="I32" s="3">
-        <v>-159400</v>
+        <v>-145600</v>
       </c>
       <c r="J32" s="3">
-        <v>-72500</v>
+        <v>-66200</v>
       </c>
       <c r="K32" s="3">
         <v>-251600</v>
@@ -1630,25 +1630,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>362000</v>
+        <v>330600</v>
       </c>
       <c r="E33" s="3">
-        <v>-99500</v>
+        <v>-90800</v>
       </c>
       <c r="F33" s="3">
-        <v>627500</v>
+        <v>573000</v>
       </c>
       <c r="G33" s="3">
-        <v>523800</v>
+        <v>478300</v>
       </c>
       <c r="H33" s="3">
-        <v>194000</v>
+        <v>177200</v>
       </c>
       <c r="I33" s="3">
-        <v>273800</v>
+        <v>250100</v>
       </c>
       <c r="J33" s="3">
-        <v>198000</v>
+        <v>180800</v>
       </c>
       <c r="K33" s="3">
         <v>296600</v>
@@ -1708,25 +1708,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>362000</v>
+        <v>330600</v>
       </c>
       <c r="E35" s="3">
-        <v>-99500</v>
+        <v>-90800</v>
       </c>
       <c r="F35" s="3">
-        <v>627500</v>
+        <v>573000</v>
       </c>
       <c r="G35" s="3">
-        <v>523800</v>
+        <v>478300</v>
       </c>
       <c r="H35" s="3">
-        <v>194000</v>
+        <v>177200</v>
       </c>
       <c r="I35" s="3">
-        <v>273800</v>
+        <v>250100</v>
       </c>
       <c r="J35" s="3">
-        <v>198000</v>
+        <v>180800</v>
       </c>
       <c r="K35" s="3">
         <v>296600</v>
@@ -1825,25 +1825,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1467600</v>
+        <v>1340300</v>
       </c>
       <c r="E41" s="3">
-        <v>1109000</v>
+        <v>1012800</v>
       </c>
       <c r="F41" s="3">
-        <v>941200</v>
+        <v>859600</v>
       </c>
       <c r="G41" s="3">
-        <v>1073900</v>
+        <v>980700</v>
       </c>
       <c r="H41" s="3">
-        <v>1421900</v>
+        <v>1298600</v>
       </c>
       <c r="I41" s="3">
-        <v>1024700</v>
+        <v>935800</v>
       </c>
       <c r="J41" s="3">
-        <v>996100</v>
+        <v>909600</v>
       </c>
       <c r="K41" s="3">
         <v>912700</v>
@@ -1867,7 +1867,7 @@
         <v>91</v>
       </c>
       <c r="E42" s="3">
-        <v>179100</v>
+        <v>163600</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>91</v>
@@ -1876,13 +1876,13 @@
         <v>91</v>
       </c>
       <c r="H42" s="3">
-        <v>66400</v>
+        <v>60600</v>
       </c>
       <c r="I42" s="3">
-        <v>67400</v>
+        <v>61600</v>
       </c>
       <c r="J42" s="3">
-        <v>65600</v>
+        <v>59900</v>
       </c>
       <c r="K42" s="3">
         <v>160900</v>
@@ -1903,25 +1903,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1254600</v>
+        <v>1145800</v>
       </c>
       <c r="E43" s="3">
-        <v>1203400</v>
+        <v>1099000</v>
       </c>
       <c r="F43" s="3">
-        <v>1451500</v>
+        <v>1325600</v>
       </c>
       <c r="G43" s="3">
-        <v>1403200</v>
+        <v>1281500</v>
       </c>
       <c r="H43" s="3">
-        <v>1367600</v>
+        <v>1249000</v>
       </c>
       <c r="I43" s="3">
-        <v>1150100</v>
+        <v>1050400</v>
       </c>
       <c r="J43" s="3">
-        <v>1070000</v>
+        <v>977100</v>
       </c>
       <c r="K43" s="3">
         <v>1147200</v>
@@ -1942,25 +1942,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1226300</v>
+        <v>1119900</v>
       </c>
       <c r="E44" s="3">
-        <v>1450400</v>
+        <v>1324500</v>
       </c>
       <c r="F44" s="3">
-        <v>1544800</v>
+        <v>1410800</v>
       </c>
       <c r="G44" s="3">
-        <v>1277700</v>
+        <v>1166800</v>
       </c>
       <c r="H44" s="3">
-        <v>1108500</v>
+        <v>1012300</v>
       </c>
       <c r="I44" s="3">
-        <v>1973400</v>
+        <v>1802200</v>
       </c>
       <c r="J44" s="3">
-        <v>903600</v>
+        <v>825200</v>
       </c>
       <c r="K44" s="3">
         <v>940000</v>
@@ -1981,25 +1981,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>500200</v>
+        <v>456800</v>
       </c>
       <c r="E45" s="3">
-        <v>449000</v>
+        <v>410000</v>
       </c>
       <c r="F45" s="3">
-        <v>605700</v>
+        <v>553200</v>
       </c>
       <c r="G45" s="3">
-        <v>618500</v>
+        <v>564800</v>
       </c>
       <c r="H45" s="3">
-        <v>524400</v>
+        <v>478900</v>
       </c>
       <c r="I45" s="3">
-        <v>455200</v>
+        <v>415700</v>
       </c>
       <c r="J45" s="3">
-        <v>467900</v>
+        <v>427300</v>
       </c>
       <c r="K45" s="3">
         <v>495900</v>
@@ -2020,25 +2020,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4448700</v>
+        <v>4062700</v>
       </c>
       <c r="E46" s="3">
-        <v>4390900</v>
+        <v>4010000</v>
       </c>
       <c r="F46" s="3">
-        <v>4543300</v>
+        <v>4149100</v>
       </c>
       <c r="G46" s="3">
-        <v>4119900</v>
+        <v>3762500</v>
       </c>
       <c r="H46" s="3">
-        <v>4488900</v>
+        <v>4099400</v>
       </c>
       <c r="I46" s="3">
-        <v>3684100</v>
+        <v>3364500</v>
       </c>
       <c r="J46" s="3">
-        <v>3503000</v>
+        <v>3199100</v>
       </c>
       <c r="K46" s="3">
         <v>3656800</v>
@@ -2059,25 +2059,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>348000</v>
+        <v>317900</v>
       </c>
       <c r="E47" s="3">
-        <v>114200</v>
+        <v>104300</v>
       </c>
       <c r="F47" s="3">
-        <v>118400</v>
+        <v>108200</v>
       </c>
       <c r="G47" s="3">
-        <v>392300</v>
+        <v>358200</v>
       </c>
       <c r="H47" s="3">
-        <v>222900</v>
+        <v>203500</v>
       </c>
       <c r="I47" s="3">
-        <v>426500</v>
+        <v>389500</v>
       </c>
       <c r="J47" s="3">
-        <v>237000</v>
+        <v>216400</v>
       </c>
       <c r="K47" s="3">
         <v>257000</v>
@@ -2098,25 +2098,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>3048700</v>
+        <v>2784200</v>
       </c>
       <c r="E48" s="3">
-        <v>2909100</v>
+        <v>2656700</v>
       </c>
       <c r="F48" s="3">
-        <v>2684900</v>
+        <v>2452000</v>
       </c>
       <c r="G48" s="3">
-        <v>2006100</v>
+        <v>1832100</v>
       </c>
       <c r="H48" s="3">
-        <v>1353500</v>
+        <v>1236100</v>
       </c>
       <c r="I48" s="3">
-        <v>1332300</v>
+        <v>1216800</v>
       </c>
       <c r="J48" s="3">
-        <v>1145400</v>
+        <v>1046000</v>
       </c>
       <c r="K48" s="3">
         <v>1206800</v>
@@ -2137,25 +2137,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1249600</v>
+        <v>1141100</v>
       </c>
       <c r="E49" s="3">
-        <v>2059100</v>
+        <v>1880400</v>
       </c>
       <c r="F49" s="3">
-        <v>2125800</v>
+        <v>1941300</v>
       </c>
       <c r="G49" s="3">
-        <v>1410900</v>
+        <v>1288500</v>
       </c>
       <c r="H49" s="3">
-        <v>1438000</v>
+        <v>1313300</v>
       </c>
       <c r="I49" s="3">
-        <v>2101200</v>
+        <v>1918900</v>
       </c>
       <c r="J49" s="3">
-        <v>1376800</v>
+        <v>1257300</v>
       </c>
       <c r="K49" s="3">
         <v>1472300</v>
@@ -2254,25 +2254,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>965000</v>
+        <v>881300</v>
       </c>
       <c r="E52" s="3">
-        <v>798800</v>
+        <v>729500</v>
       </c>
       <c r="F52" s="3">
-        <v>924000</v>
+        <v>843800</v>
       </c>
       <c r="G52" s="3">
-        <v>879200</v>
+        <v>803000</v>
       </c>
       <c r="H52" s="3">
-        <v>595300</v>
+        <v>543600</v>
       </c>
       <c r="I52" s="3">
-        <v>640200</v>
+        <v>584700</v>
       </c>
       <c r="J52" s="3">
-        <v>634700</v>
+        <v>579600</v>
       </c>
       <c r="K52" s="3">
         <v>663300</v>
@@ -2332,25 +2332,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>10059900</v>
+        <v>9187200</v>
       </c>
       <c r="E54" s="3">
-        <v>10272100</v>
+        <v>9380900</v>
       </c>
       <c r="F54" s="3">
-        <v>10396300</v>
+        <v>9494400</v>
       </c>
       <c r="G54" s="3">
-        <v>8612000</v>
+        <v>7864900</v>
       </c>
       <c r="H54" s="3">
-        <v>8098600</v>
+        <v>7396000</v>
       </c>
       <c r="I54" s="3">
-        <v>7972100</v>
+        <v>7280500</v>
       </c>
       <c r="J54" s="3">
-        <v>6896900</v>
+        <v>6298600</v>
       </c>
       <c r="K54" s="3">
         <v>7256200</v>
@@ -2405,25 +2405,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>585200</v>
+        <v>534400</v>
       </c>
       <c r="E57" s="3">
-        <v>656200</v>
+        <v>599300</v>
       </c>
       <c r="F57" s="3">
-        <v>826900</v>
+        <v>755100</v>
       </c>
       <c r="G57" s="3">
-        <v>872600</v>
+        <v>796900</v>
       </c>
       <c r="H57" s="3">
-        <v>742400</v>
+        <v>678000</v>
       </c>
       <c r="I57" s="3">
-        <v>711300</v>
+        <v>649600</v>
       </c>
       <c r="J57" s="3">
-        <v>531500</v>
+        <v>485400</v>
       </c>
       <c r="K57" s="3">
         <v>532500</v>
@@ -2444,25 +2444,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>216600</v>
+        <v>200000</v>
       </c>
       <c r="E58" s="3">
-        <v>666000</v>
+        <v>608200</v>
       </c>
       <c r="F58" s="3">
-        <v>1253300</v>
+        <v>1144600</v>
       </c>
       <c r="G58" s="3">
-        <v>129700</v>
+        <v>118400</v>
       </c>
       <c r="H58" s="3">
-        <v>90900</v>
+        <v>83100</v>
       </c>
       <c r="I58" s="3">
-        <v>141200</v>
+        <v>129000</v>
       </c>
       <c r="J58" s="3">
-        <v>162000</v>
+        <v>148000</v>
       </c>
       <c r="K58" s="3">
         <v>666200</v>
@@ -2483,25 +2483,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2474000</v>
+        <v>2257200</v>
       </c>
       <c r="E59" s="3">
-        <v>1688700</v>
+        <v>1542200</v>
       </c>
       <c r="F59" s="3">
-        <v>1880000</v>
+        <v>1716900</v>
       </c>
       <c r="G59" s="3">
-        <v>1897500</v>
+        <v>1732900</v>
       </c>
       <c r="H59" s="3">
-        <v>1652100</v>
+        <v>1508800</v>
       </c>
       <c r="I59" s="3">
-        <v>1251700</v>
+        <v>1143100</v>
       </c>
       <c r="J59" s="3">
-        <v>1070300</v>
+        <v>977500</v>
       </c>
       <c r="K59" s="3">
         <v>1139400</v>
@@ -2522,25 +2522,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3275800</v>
+        <v>2991600</v>
       </c>
       <c r="E60" s="3">
-        <v>3010900</v>
+        <v>2749700</v>
       </c>
       <c r="F60" s="3">
-        <v>3960200</v>
+        <v>3616700</v>
       </c>
       <c r="G60" s="3">
-        <v>2899700</v>
+        <v>2648100</v>
       </c>
       <c r="H60" s="3">
-        <v>2485500</v>
+        <v>2269800</v>
       </c>
       <c r="I60" s="3">
-        <v>2104200</v>
+        <v>1921700</v>
       </c>
       <c r="J60" s="3">
-        <v>1763900</v>
+        <v>1610800</v>
       </c>
       <c r="K60" s="3">
         <v>2338000</v>
@@ -2561,25 +2561,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1412500</v>
+        <v>1306200</v>
       </c>
       <c r="E61" s="3">
-        <v>2547600</v>
+        <v>2326600</v>
       </c>
       <c r="F61" s="3">
-        <v>1292600</v>
+        <v>1180500</v>
       </c>
       <c r="G61" s="3">
-        <v>978700</v>
+        <v>893800</v>
       </c>
       <c r="H61" s="3">
-        <v>1108500</v>
+        <v>1012300</v>
       </c>
       <c r="I61" s="3">
-        <v>887300</v>
+        <v>810300</v>
       </c>
       <c r="J61" s="3">
-        <v>576800</v>
+        <v>526700</v>
       </c>
       <c r="K61" s="3">
         <v>275600</v>
@@ -2600,25 +2600,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>531500</v>
+        <v>469100</v>
       </c>
       <c r="E62" s="3">
-        <v>392400</v>
+        <v>358300</v>
       </c>
       <c r="F62" s="3">
-        <v>726100</v>
+        <v>663100</v>
       </c>
       <c r="G62" s="3">
-        <v>1203700</v>
+        <v>673700</v>
       </c>
       <c r="H62" s="3">
-        <v>701400</v>
+        <v>640500</v>
       </c>
       <c r="I62" s="3">
-        <v>1450200</v>
+        <v>1324400</v>
       </c>
       <c r="J62" s="3">
-        <v>1030500</v>
+        <v>941100</v>
       </c>
       <c r="K62" s="3">
         <v>1036100</v>
@@ -2756,25 +2756,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>5401800</v>
+        <v>4933200</v>
       </c>
       <c r="E66" s="3">
-        <v>6129200</v>
+        <v>5597400</v>
       </c>
       <c r="F66" s="3">
-        <v>6150900</v>
+        <v>5617300</v>
       </c>
       <c r="G66" s="3">
-        <v>4777500</v>
+        <v>4363100</v>
       </c>
       <c r="H66" s="3">
-        <v>4479100</v>
+        <v>4090600</v>
       </c>
       <c r="I66" s="3">
-        <v>4613100</v>
+        <v>4212900</v>
       </c>
       <c r="J66" s="3">
-        <v>3548600</v>
+        <v>3240800</v>
       </c>
       <c r="K66" s="3">
         <v>3838800</v>
@@ -2968,25 +2968,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>3133700</v>
+        <v>2861800</v>
       </c>
       <c r="E72" s="3">
-        <v>2910600</v>
+        <v>2658100</v>
       </c>
       <c r="F72" s="3">
-        <v>3179100</v>
+        <v>2903300</v>
       </c>
       <c r="G72" s="3">
-        <v>2729200</v>
+        <v>2492400</v>
       </c>
       <c r="H72" s="3">
-        <v>2324900</v>
+        <v>2123200</v>
       </c>
       <c r="I72" s="3">
-        <v>2207800</v>
+        <v>2016200</v>
       </c>
       <c r="J72" s="3">
-        <v>2002800</v>
+        <v>1829100</v>
       </c>
       <c r="K72" s="3">
         <v>1936400</v>
@@ -3124,25 +3124,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>4658100</v>
+        <v>4254000</v>
       </c>
       <c r="E76" s="3">
-        <v>4142900</v>
+        <v>3783500</v>
       </c>
       <c r="F76" s="3">
-        <v>4245400</v>
+        <v>3877100</v>
       </c>
       <c r="G76" s="3">
-        <v>3834500</v>
+        <v>3501900</v>
       </c>
       <c r="H76" s="3">
-        <v>3619500</v>
+        <v>3305500</v>
       </c>
       <c r="I76" s="3">
-        <v>3359000</v>
+        <v>3067600</v>
       </c>
       <c r="J76" s="3">
-        <v>3348300</v>
+        <v>3057800</v>
       </c>
       <c r="K76" s="3">
         <v>3417400</v>
@@ -3246,25 +3246,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>362000</v>
+        <v>330600</v>
       </c>
       <c r="E81" s="3">
-        <v>-99500</v>
+        <v>-90800</v>
       </c>
       <c r="F81" s="3">
-        <v>627500</v>
+        <v>573000</v>
       </c>
       <c r="G81" s="3">
-        <v>523800</v>
+        <v>478300</v>
       </c>
       <c r="H81" s="3">
-        <v>194000</v>
+        <v>177200</v>
       </c>
       <c r="I81" s="3">
-        <v>273800</v>
+        <v>250100</v>
       </c>
       <c r="J81" s="3">
-        <v>198000</v>
+        <v>180800</v>
       </c>
       <c r="K81" s="3">
         <v>296600</v>
@@ -3302,25 +3302,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>595800</v>
+        <v>544100</v>
       </c>
       <c r="E83" s="3">
-        <v>575300</v>
+        <v>525400</v>
       </c>
       <c r="F83" s="3">
-        <v>498200</v>
+        <v>455000</v>
       </c>
       <c r="G83" s="3">
-        <v>374000</v>
+        <v>341600</v>
       </c>
       <c r="H83" s="3">
-        <v>374000</v>
+        <v>341600</v>
       </c>
       <c r="I83" s="3">
-        <v>336000</v>
+        <v>306900</v>
       </c>
       <c r="J83" s="3">
-        <v>315000</v>
+        <v>287700</v>
       </c>
       <c r="K83" s="3">
         <v>335500</v>
@@ -3536,25 +3536,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1048200</v>
+        <v>957300</v>
       </c>
       <c r="E89" s="3">
-        <v>546300</v>
+        <v>498900</v>
       </c>
       <c r="F89" s="3">
-        <v>644300</v>
+        <v>588400</v>
       </c>
       <c r="G89" s="3">
-        <v>789700</v>
+        <v>721200</v>
       </c>
       <c r="H89" s="3">
-        <v>813700</v>
+        <v>743100</v>
       </c>
       <c r="I89" s="3">
-        <v>504400</v>
+        <v>460600</v>
       </c>
       <c r="J89" s="3">
-        <v>516300</v>
+        <v>471500</v>
       </c>
       <c r="K89" s="3">
         <v>288100</v>
@@ -3592,25 +3592,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-618600</v>
+        <v>-565000</v>
       </c>
       <c r="E91" s="3">
-        <v>-480700</v>
+        <v>-439000</v>
       </c>
       <c r="F91" s="3">
-        <v>-786500</v>
+        <v>-718300</v>
       </c>
       <c r="G91" s="3">
-        <v>-687500</v>
+        <v>-627800</v>
       </c>
       <c r="H91" s="3">
-        <v>-307200</v>
+        <v>-280600</v>
       </c>
       <c r="I91" s="3">
-        <v>-267600</v>
+        <v>-244300</v>
       </c>
       <c r="J91" s="3">
-        <v>-144500</v>
+        <v>-132000</v>
       </c>
       <c r="K91" s="3">
         <v>-137500</v>
@@ -3709,25 +3709,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>543700</v>
+        <v>496500</v>
       </c>
       <c r="E94" s="3">
-        <v>-597800</v>
+        <v>-546000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1730100</v>
+        <v>-1580000</v>
       </c>
       <c r="G94" s="3">
-        <v>-879500</v>
+        <v>-803200</v>
       </c>
       <c r="H94" s="3">
-        <v>-9100</v>
+        <v>-8300</v>
       </c>
       <c r="I94" s="3">
-        <v>-602600</v>
+        <v>-550300</v>
       </c>
       <c r="J94" s="3">
-        <v>-197400</v>
+        <v>-180200</v>
       </c>
       <c r="K94" s="3">
         <v>101600</v>
@@ -3765,25 +3765,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-136400</v>
+        <v>-124500</v>
       </c>
       <c r="E96" s="3">
-        <v>-170300</v>
+        <v>-155500</v>
       </c>
       <c r="F96" s="3">
-        <v>-187900</v>
+        <v>-171600</v>
       </c>
       <c r="G96" s="3">
-        <v>-118900</v>
+        <v>-108600</v>
       </c>
       <c r="H96" s="3">
-        <v>-76600</v>
+        <v>-69900</v>
       </c>
       <c r="I96" s="3">
-        <v>-70100</v>
+        <v>-64000</v>
       </c>
       <c r="J96" s="3">
-        <v>-65800</v>
+        <v>-60100</v>
       </c>
       <c r="K96" s="3">
         <v>-70400</v>
@@ -3921,25 +3921,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1503200</v>
+        <v>-1372800</v>
       </c>
       <c r="E100" s="3">
-        <v>399900</v>
+        <v>365200</v>
       </c>
       <c r="F100" s="3">
-        <v>969700</v>
+        <v>885600</v>
       </c>
       <c r="G100" s="3">
-        <v>-253500</v>
+        <v>-231500</v>
       </c>
       <c r="H100" s="3">
-        <v>-453100</v>
+        <v>-413800</v>
       </c>
       <c r="I100" s="3">
-        <v>190900</v>
+        <v>174300</v>
       </c>
       <c r="J100" s="3">
-        <v>-257200</v>
+        <v>-234900</v>
       </c>
       <c r="K100" s="3">
         <v>-514700</v>
@@ -3960,25 +3960,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>83200</v>
+        <v>76000</v>
       </c>
       <c r="E101" s="3">
-        <v>-16700</v>
+        <v>-15300</v>
       </c>
       <c r="F101" s="3">
-        <v>-5900</v>
+        <v>-5400</v>
       </c>
       <c r="G101" s="3">
-        <v>-41000</v>
+        <v>-37500</v>
       </c>
       <c r="H101" s="3">
-        <v>21300</v>
+        <v>19500</v>
       </c>
       <c r="I101" s="3">
-        <v>-22800</v>
+        <v>-20800</v>
       </c>
       <c r="J101" s="3">
-        <v>-26600</v>
+        <v>-24300</v>
       </c>
       <c r="K101" s="3">
         <v>42400</v>
@@ -3999,25 +3999,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>171900</v>
+        <v>157000</v>
       </c>
       <c r="E102" s="3">
-        <v>331700</v>
+        <v>302900</v>
       </c>
       <c r="F102" s="3">
-        <v>-122000</v>
+        <v>-111400</v>
       </c>
       <c r="G102" s="3">
-        <v>-384400</v>
+        <v>-351100</v>
       </c>
       <c r="H102" s="3">
-        <v>372900</v>
+        <v>340500</v>
       </c>
       <c r="I102" s="3">
-        <v>69900</v>
+        <v>63800</v>
       </c>
       <c r="J102" s="3">
-        <v>35100</v>
+        <v>32100</v>
       </c>
       <c r="K102" s="3">
         <v>-82400</v>

--- a/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>SSDOY</t>
   </si>
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8063900</v>
+        <v>7587800</v>
       </c>
       <c r="E8" s="3">
-        <v>7173700</v>
+        <v>6750100</v>
       </c>
       <c r="F8" s="3">
-        <v>8814800</v>
+        <v>8294200</v>
       </c>
       <c r="G8" s="3">
-        <v>8528700</v>
+        <v>8025100</v>
       </c>
       <c r="H8" s="3">
-        <v>7829400</v>
+        <v>7367100</v>
       </c>
       <c r="I8" s="3">
-        <v>6623900</v>
+        <v>6232700</v>
       </c>
       <c r="J8" s="3">
-        <v>5944200</v>
+        <v>5593200</v>
       </c>
       <c r="K8" s="3">
         <v>6851400</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2048500</v>
+        <v>1927500</v>
       </c>
       <c r="E9" s="3">
-        <v>1857100</v>
+        <v>1747500</v>
       </c>
       <c r="F9" s="3">
-        <v>1985200</v>
+        <v>1868000</v>
       </c>
       <c r="G9" s="3">
-        <v>1806700</v>
+        <v>1700000</v>
       </c>
       <c r="H9" s="3">
-        <v>1802000</v>
+        <v>1695600</v>
       </c>
       <c r="I9" s="3">
-        <v>1616800</v>
+        <v>1521400</v>
       </c>
       <c r="J9" s="3">
-        <v>1526900</v>
+        <v>1436700</v>
       </c>
       <c r="K9" s="3">
         <v>1730600</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6015500</v>
+        <v>5660300</v>
       </c>
       <c r="E10" s="3">
-        <v>5316600</v>
+        <v>5002600</v>
       </c>
       <c r="F10" s="3">
-        <v>6829500</v>
+        <v>6426200</v>
       </c>
       <c r="G10" s="3">
-        <v>6722000</v>
+        <v>6325000</v>
       </c>
       <c r="H10" s="3">
-        <v>6027400</v>
+        <v>5671500</v>
       </c>
       <c r="I10" s="3">
-        <v>5007000</v>
+        <v>4711400</v>
       </c>
       <c r="J10" s="3">
-        <v>4417300</v>
+        <v>4156500</v>
       </c>
       <c r="K10" s="3">
         <v>5120800</v>
@@ -858,25 +858,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>199600</v>
+        <v>187800</v>
       </c>
       <c r="E12" s="3">
-        <v>210300</v>
+        <v>197900</v>
       </c>
       <c r="F12" s="3">
-        <v>246900</v>
+        <v>232300</v>
       </c>
       <c r="G12" s="3">
-        <v>226900</v>
+        <v>213500</v>
       </c>
       <c r="H12" s="3">
-        <v>188800</v>
+        <v>177600</v>
       </c>
       <c r="I12" s="3">
-        <v>142300</v>
+        <v>133900</v>
       </c>
       <c r="J12" s="3">
-        <v>88000</v>
+        <v>82800</v>
       </c>
       <c r="K12" s="3">
         <v>125300</v>
@@ -936,25 +936,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>360400</v>
+        <v>339100</v>
       </c>
       <c r="E14" s="3">
-        <v>144500</v>
+        <v>135900</v>
       </c>
       <c r="F14" s="3">
-        <v>28200</v>
+        <v>26500</v>
       </c>
       <c r="G14" s="3">
-        <v>71100</v>
+        <v>66900</v>
       </c>
       <c r="H14" s="3">
-        <v>614600</v>
+        <v>578400</v>
       </c>
       <c r="I14" s="3">
-        <v>37300</v>
+        <v>35100</v>
       </c>
       <c r="J14" s="3">
-        <v>19100</v>
+        <v>18000</v>
       </c>
       <c r="K14" s="3">
         <v>52300</v>
@@ -1028,25 +1028,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>8100400</v>
+        <v>7622100</v>
       </c>
       <c r="E17" s="3">
-        <v>7201600</v>
+        <v>6776400</v>
       </c>
       <c r="F17" s="3">
-        <v>7956200</v>
+        <v>7486400</v>
       </c>
       <c r="G17" s="3">
-        <v>7755700</v>
+        <v>7297700</v>
       </c>
       <c r="H17" s="3">
-        <v>7817500</v>
+        <v>7355900</v>
       </c>
       <c r="I17" s="3">
-        <v>6374600</v>
+        <v>5998200</v>
       </c>
       <c r="J17" s="3">
-        <v>5670000</v>
+        <v>5335200</v>
       </c>
       <c r="K17" s="3">
         <v>6660400</v>
@@ -1067,25 +1067,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-36500</v>
+        <v>-34300</v>
       </c>
       <c r="E18" s="3">
-        <v>-27900</v>
+        <v>-26300</v>
       </c>
       <c r="F18" s="3">
-        <v>858600</v>
+        <v>807900</v>
       </c>
       <c r="G18" s="3">
-        <v>773000</v>
+        <v>727300</v>
       </c>
       <c r="H18" s="3">
-        <v>12000</v>
+        <v>11300</v>
       </c>
       <c r="I18" s="3">
-        <v>249200</v>
+        <v>234500</v>
       </c>
       <c r="J18" s="3">
-        <v>274200</v>
+        <v>258000</v>
       </c>
       <c r="K18" s="3">
         <v>191000</v>
@@ -1123,25 +1123,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>621800</v>
+        <v>585100</v>
       </c>
       <c r="E20" s="3">
-        <v>29400</v>
+        <v>27600</v>
       </c>
       <c r="F20" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="G20" s="3">
-        <v>45600</v>
+        <v>42900</v>
       </c>
       <c r="H20" s="3">
-        <v>296100</v>
+        <v>278600</v>
       </c>
       <c r="I20" s="3">
-        <v>145600</v>
+        <v>137000</v>
       </c>
       <c r="J20" s="3">
-        <v>66200</v>
+        <v>62300</v>
       </c>
       <c r="K20" s="3">
         <v>251600</v>
@@ -1162,25 +1162,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1122400</v>
+        <v>1059900</v>
       </c>
       <c r="E21" s="3">
-        <v>520100</v>
+        <v>493100</v>
       </c>
       <c r="F21" s="3">
-        <v>1303500</v>
+        <v>1229700</v>
       </c>
       <c r="G21" s="3">
-        <v>1155700</v>
+        <v>1089900</v>
       </c>
       <c r="H21" s="3">
-        <v>645300</v>
+        <v>609500</v>
       </c>
       <c r="I21" s="3">
-        <v>697800</v>
+        <v>658700</v>
       </c>
       <c r="J21" s="3">
-        <v>624400</v>
+        <v>589600</v>
       </c>
       <c r="K21" s="3">
         <v>778900</v>
@@ -1201,25 +1201,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>14700</v>
+        <v>13800</v>
       </c>
       <c r="E22" s="3">
-        <v>17300</v>
+        <v>16300</v>
       </c>
       <c r="F22" s="3">
-        <v>17900</v>
+        <v>16800</v>
       </c>
       <c r="G22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I22" s="3">
         <v>6000</v>
       </c>
-      <c r="H22" s="3">
-        <v>7700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>6300</v>
-      </c>
       <c r="J22" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="K22" s="3">
         <v>10600</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>570700</v>
+        <v>537000</v>
       </c>
       <c r="E23" s="3">
-        <v>-15900</v>
+        <v>-15000</v>
       </c>
       <c r="F23" s="3">
-        <v>836500</v>
+        <v>787100</v>
       </c>
       <c r="G23" s="3">
-        <v>812600</v>
+        <v>764600</v>
       </c>
       <c r="H23" s="3">
-        <v>300300</v>
+        <v>282600</v>
       </c>
       <c r="I23" s="3">
-        <v>388500</v>
+        <v>365500</v>
       </c>
       <c r="J23" s="3">
-        <v>334100</v>
+        <v>314400</v>
       </c>
       <c r="K23" s="3">
         <v>432000</v>
@@ -1279,25 +1279,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>220800</v>
+        <v>207800</v>
       </c>
       <c r="E24" s="3">
-        <v>55100</v>
+        <v>51900</v>
       </c>
       <c r="F24" s="3">
-        <v>234300</v>
+        <v>220500</v>
       </c>
       <c r="G24" s="3">
-        <v>307000</v>
+        <v>288800</v>
       </c>
       <c r="H24" s="3">
-        <v>102800</v>
+        <v>96800</v>
       </c>
       <c r="I24" s="3">
-        <v>124200</v>
+        <v>116800</v>
       </c>
       <c r="J24" s="3">
-        <v>134700</v>
+        <v>126800</v>
       </c>
       <c r="K24" s="3">
         <v>112900</v>
@@ -1357,25 +1357,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>349900</v>
+        <v>329200</v>
       </c>
       <c r="E26" s="3">
-        <v>-71000</v>
+        <v>-66800</v>
       </c>
       <c r="F26" s="3">
-        <v>602200</v>
+        <v>566600</v>
       </c>
       <c r="G26" s="3">
-        <v>505600</v>
+        <v>475800</v>
       </c>
       <c r="H26" s="3">
-        <v>197500</v>
+        <v>185900</v>
       </c>
       <c r="I26" s="3">
-        <v>264300</v>
+        <v>248700</v>
       </c>
       <c r="J26" s="3">
-        <v>199400</v>
+        <v>187600</v>
       </c>
       <c r="K26" s="3">
         <v>319200</v>
@@ -1396,25 +1396,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>330600</v>
+        <v>311100</v>
       </c>
       <c r="E27" s="3">
-        <v>-90800</v>
+        <v>-85500</v>
       </c>
       <c r="F27" s="3">
-        <v>573000</v>
+        <v>539200</v>
       </c>
       <c r="G27" s="3">
-        <v>478300</v>
+        <v>450100</v>
       </c>
       <c r="H27" s="3">
-        <v>177200</v>
+        <v>166800</v>
       </c>
       <c r="I27" s="3">
-        <v>250100</v>
+        <v>235300</v>
       </c>
       <c r="J27" s="3">
-        <v>180800</v>
+        <v>170100</v>
       </c>
       <c r="K27" s="3">
         <v>296600</v>
@@ -1591,25 +1591,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-621800</v>
+        <v>-585100</v>
       </c>
       <c r="E32" s="3">
-        <v>-29400</v>
+        <v>-27600</v>
       </c>
       <c r="F32" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="G32" s="3">
-        <v>-45600</v>
+        <v>-42900</v>
       </c>
       <c r="H32" s="3">
-        <v>-296100</v>
+        <v>-278600</v>
       </c>
       <c r="I32" s="3">
-        <v>-145600</v>
+        <v>-137000</v>
       </c>
       <c r="J32" s="3">
-        <v>-66200</v>
+        <v>-62300</v>
       </c>
       <c r="K32" s="3">
         <v>-251600</v>
@@ -1630,25 +1630,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>330600</v>
+        <v>311100</v>
       </c>
       <c r="E33" s="3">
-        <v>-90800</v>
+        <v>-85500</v>
       </c>
       <c r="F33" s="3">
-        <v>573000</v>
+        <v>539200</v>
       </c>
       <c r="G33" s="3">
-        <v>478300</v>
+        <v>450100</v>
       </c>
       <c r="H33" s="3">
-        <v>177200</v>
+        <v>166800</v>
       </c>
       <c r="I33" s="3">
-        <v>250100</v>
+        <v>235300</v>
       </c>
       <c r="J33" s="3">
-        <v>180800</v>
+        <v>170100</v>
       </c>
       <c r="K33" s="3">
         <v>296600</v>
@@ -1708,25 +1708,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>330600</v>
+        <v>311100</v>
       </c>
       <c r="E35" s="3">
-        <v>-90800</v>
+        <v>-85500</v>
       </c>
       <c r="F35" s="3">
-        <v>573000</v>
+        <v>539200</v>
       </c>
       <c r="G35" s="3">
-        <v>478300</v>
+        <v>450100</v>
       </c>
       <c r="H35" s="3">
-        <v>177200</v>
+        <v>166800</v>
       </c>
       <c r="I35" s="3">
-        <v>250100</v>
+        <v>235300</v>
       </c>
       <c r="J35" s="3">
-        <v>180800</v>
+        <v>170100</v>
       </c>
       <c r="K35" s="3">
         <v>296600</v>
@@ -1825,25 +1825,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1340300</v>
+        <v>2408300</v>
       </c>
       <c r="E41" s="3">
-        <v>1012800</v>
+        <v>953000</v>
       </c>
       <c r="F41" s="3">
-        <v>859600</v>
+        <v>808800</v>
       </c>
       <c r="G41" s="3">
-        <v>980700</v>
+        <v>922800</v>
       </c>
       <c r="H41" s="3">
-        <v>1298600</v>
+        <v>1221900</v>
       </c>
       <c r="I41" s="3">
-        <v>935800</v>
+        <v>880500</v>
       </c>
       <c r="J41" s="3">
-        <v>909600</v>
+        <v>855900</v>
       </c>
       <c r="K41" s="3">
         <v>912700</v>
@@ -1863,11 +1863,11 @@
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>91</v>
+      <c r="D42" s="3">
+        <v>120400</v>
       </c>
       <c r="E42" s="3">
-        <v>163600</v>
+        <v>153900</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>91</v>
@@ -1876,13 +1876,13 @@
         <v>91</v>
       </c>
       <c r="H42" s="3">
-        <v>60600</v>
+        <v>57000</v>
       </c>
       <c r="I42" s="3">
-        <v>61600</v>
+        <v>57900</v>
       </c>
       <c r="J42" s="3">
-        <v>59900</v>
+        <v>56300</v>
       </c>
       <c r="K42" s="3">
         <v>160900</v>
@@ -1903,25 +1903,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1145800</v>
+        <v>2242100</v>
       </c>
       <c r="E43" s="3">
-        <v>1099000</v>
+        <v>1034100</v>
       </c>
       <c r="F43" s="3">
-        <v>1325600</v>
+        <v>1247300</v>
       </c>
       <c r="G43" s="3">
-        <v>1281500</v>
+        <v>1205800</v>
       </c>
       <c r="H43" s="3">
-        <v>1249000</v>
+        <v>1175200</v>
       </c>
       <c r="I43" s="3">
-        <v>1050400</v>
+        <v>988300</v>
       </c>
       <c r="J43" s="3">
-        <v>977100</v>
+        <v>919400</v>
       </c>
       <c r="K43" s="3">
         <v>1147200</v>
@@ -1942,25 +1942,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1119900</v>
+        <v>2037000</v>
       </c>
       <c r="E44" s="3">
-        <v>1324500</v>
+        <v>1246300</v>
       </c>
       <c r="F44" s="3">
-        <v>1410800</v>
+        <v>1327500</v>
       </c>
       <c r="G44" s="3">
-        <v>1166800</v>
+        <v>1097900</v>
       </c>
       <c r="H44" s="3">
-        <v>1012300</v>
+        <v>952600</v>
       </c>
       <c r="I44" s="3">
-        <v>1802200</v>
+        <v>1695800</v>
       </c>
       <c r="J44" s="3">
-        <v>825200</v>
+        <v>776500</v>
       </c>
       <c r="K44" s="3">
         <v>940000</v>
@@ -1981,25 +1981,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>456800</v>
+        <v>344900</v>
       </c>
       <c r="E45" s="3">
-        <v>410000</v>
+        <v>385800</v>
       </c>
       <c r="F45" s="3">
-        <v>553200</v>
+        <v>520500</v>
       </c>
       <c r="G45" s="3">
-        <v>564800</v>
+        <v>531400</v>
       </c>
       <c r="H45" s="3">
-        <v>478900</v>
+        <v>450700</v>
       </c>
       <c r="I45" s="3">
-        <v>415700</v>
+        <v>391200</v>
       </c>
       <c r="J45" s="3">
-        <v>427300</v>
+        <v>402100</v>
       </c>
       <c r="K45" s="3">
         <v>495900</v>
@@ -2020,25 +2020,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4062700</v>
+        <v>3759700</v>
       </c>
       <c r="E46" s="3">
-        <v>4010000</v>
+        <v>3773200</v>
       </c>
       <c r="F46" s="3">
-        <v>4149100</v>
+        <v>3904100</v>
       </c>
       <c r="G46" s="3">
-        <v>3762500</v>
+        <v>3540300</v>
       </c>
       <c r="H46" s="3">
-        <v>4099400</v>
+        <v>3857400</v>
       </c>
       <c r="I46" s="3">
-        <v>3364500</v>
+        <v>3165800</v>
       </c>
       <c r="J46" s="3">
-        <v>3199100</v>
+        <v>3010200</v>
       </c>
       <c r="K46" s="3">
         <v>3656800</v>
@@ -2059,25 +2059,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>317900</v>
+        <v>998900</v>
       </c>
       <c r="E47" s="3">
-        <v>104300</v>
+        <v>98100</v>
       </c>
       <c r="F47" s="3">
-        <v>108200</v>
+        <v>101800</v>
       </c>
       <c r="G47" s="3">
-        <v>358200</v>
+        <v>337100</v>
       </c>
       <c r="H47" s="3">
-        <v>203500</v>
+        <v>191500</v>
       </c>
       <c r="I47" s="3">
-        <v>389500</v>
+        <v>366500</v>
       </c>
       <c r="J47" s="3">
-        <v>216400</v>
+        <v>203700</v>
       </c>
       <c r="K47" s="3">
         <v>257000</v>
@@ -2098,25 +2098,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2784200</v>
+        <v>6049300</v>
       </c>
       <c r="E48" s="3">
-        <v>2656700</v>
+        <v>2499900</v>
       </c>
       <c r="F48" s="3">
-        <v>2452000</v>
+        <v>2307200</v>
       </c>
       <c r="G48" s="3">
-        <v>1832100</v>
+        <v>1723900</v>
       </c>
       <c r="H48" s="3">
-        <v>1236100</v>
+        <v>1163100</v>
       </c>
       <c r="I48" s="3">
-        <v>1216800</v>
+        <v>1144900</v>
       </c>
       <c r="J48" s="3">
-        <v>1046000</v>
+        <v>984300</v>
       </c>
       <c r="K48" s="3">
         <v>1206800</v>
@@ -2137,25 +2137,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1141100</v>
+        <v>1866000</v>
       </c>
       <c r="E49" s="3">
-        <v>1880400</v>
+        <v>1769400</v>
       </c>
       <c r="F49" s="3">
-        <v>1941300</v>
+        <v>1826700</v>
       </c>
       <c r="G49" s="3">
-        <v>1288500</v>
+        <v>1212400</v>
       </c>
       <c r="H49" s="3">
-        <v>1313300</v>
+        <v>1235700</v>
       </c>
       <c r="I49" s="3">
-        <v>1918900</v>
+        <v>1805600</v>
       </c>
       <c r="J49" s="3">
-        <v>1257300</v>
+        <v>1183100</v>
       </c>
       <c r="K49" s="3">
         <v>1472300</v>
@@ -2254,25 +2254,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>881300</v>
+        <v>825600</v>
       </c>
       <c r="E52" s="3">
-        <v>729500</v>
+        <v>686400</v>
       </c>
       <c r="F52" s="3">
-        <v>843800</v>
+        <v>794000</v>
       </c>
       <c r="G52" s="3">
-        <v>803000</v>
+        <v>755500</v>
       </c>
       <c r="H52" s="3">
-        <v>543600</v>
+        <v>511500</v>
       </c>
       <c r="I52" s="3">
-        <v>584700</v>
+        <v>550200</v>
       </c>
       <c r="J52" s="3">
-        <v>579600</v>
+        <v>545400</v>
       </c>
       <c r="K52" s="3">
         <v>663300</v>
@@ -2332,25 +2332,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>9187200</v>
+        <v>9536200</v>
       </c>
       <c r="E54" s="3">
-        <v>9380900</v>
+        <v>8827000</v>
       </c>
       <c r="F54" s="3">
-        <v>9494400</v>
+        <v>8933800</v>
       </c>
       <c r="G54" s="3">
-        <v>7864900</v>
+        <v>7400500</v>
       </c>
       <c r="H54" s="3">
-        <v>7396000</v>
+        <v>6959300</v>
       </c>
       <c r="I54" s="3">
-        <v>7280500</v>
+        <v>6850500</v>
       </c>
       <c r="J54" s="3">
-        <v>6298600</v>
+        <v>5926600</v>
       </c>
       <c r="K54" s="3">
         <v>7256200</v>
@@ -2405,25 +2405,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>534400</v>
+        <v>1996100</v>
       </c>
       <c r="E57" s="3">
-        <v>599300</v>
+        <v>563900</v>
       </c>
       <c r="F57" s="3">
-        <v>755100</v>
+        <v>710500</v>
       </c>
       <c r="G57" s="3">
-        <v>796900</v>
+        <v>749800</v>
       </c>
       <c r="H57" s="3">
-        <v>678000</v>
+        <v>637900</v>
       </c>
       <c r="I57" s="3">
-        <v>649600</v>
+        <v>611300</v>
       </c>
       <c r="J57" s="3">
-        <v>485400</v>
+        <v>456800</v>
       </c>
       <c r="K57" s="3">
         <v>532500</v>
@@ -2444,25 +2444,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>200000</v>
+        <v>488800</v>
       </c>
       <c r="E58" s="3">
-        <v>608200</v>
+        <v>572300</v>
       </c>
       <c r="F58" s="3">
-        <v>1144600</v>
+        <v>1077000</v>
       </c>
       <c r="G58" s="3">
-        <v>118400</v>
+        <v>111400</v>
       </c>
       <c r="H58" s="3">
-        <v>83100</v>
+        <v>78200</v>
       </c>
       <c r="I58" s="3">
-        <v>129000</v>
+        <v>121400</v>
       </c>
       <c r="J58" s="3">
-        <v>148000</v>
+        <v>139200</v>
       </c>
       <c r="K58" s="3">
         <v>666200</v>
@@ -2483,25 +2483,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2257200</v>
+        <v>2350700</v>
       </c>
       <c r="E59" s="3">
-        <v>1542200</v>
+        <v>1451200</v>
       </c>
       <c r="F59" s="3">
-        <v>1716900</v>
+        <v>1615600</v>
       </c>
       <c r="G59" s="3">
-        <v>1732900</v>
+        <v>1630500</v>
       </c>
       <c r="H59" s="3">
-        <v>1508800</v>
+        <v>1419700</v>
       </c>
       <c r="I59" s="3">
-        <v>1143100</v>
+        <v>1075600</v>
       </c>
       <c r="J59" s="3">
-        <v>977500</v>
+        <v>919700</v>
       </c>
       <c r="K59" s="3">
         <v>1139400</v>
@@ -2522,25 +2522,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2991600</v>
+        <v>3031400</v>
       </c>
       <c r="E60" s="3">
-        <v>2749700</v>
+        <v>2587300</v>
       </c>
       <c r="F60" s="3">
-        <v>3616700</v>
+        <v>3403100</v>
       </c>
       <c r="G60" s="3">
-        <v>2648100</v>
+        <v>2491800</v>
       </c>
       <c r="H60" s="3">
-        <v>2269800</v>
+        <v>2135800</v>
       </c>
       <c r="I60" s="3">
-        <v>1921700</v>
+        <v>1808200</v>
       </c>
       <c r="J60" s="3">
-        <v>1610800</v>
+        <v>1515700</v>
       </c>
       <c r="K60" s="3">
         <v>2338000</v>
@@ -2561,25 +2561,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1306200</v>
+        <v>1941200</v>
       </c>
       <c r="E61" s="3">
-        <v>2326600</v>
+        <v>2189200</v>
       </c>
       <c r="F61" s="3">
-        <v>1180500</v>
+        <v>1110800</v>
       </c>
       <c r="G61" s="3">
-        <v>893800</v>
+        <v>841000</v>
       </c>
       <c r="H61" s="3">
-        <v>1012300</v>
+        <v>952500</v>
       </c>
       <c r="I61" s="3">
-        <v>810300</v>
+        <v>762500</v>
       </c>
       <c r="J61" s="3">
-        <v>526700</v>
+        <v>495600</v>
       </c>
       <c r="K61" s="3">
         <v>275600</v>
@@ -2600,25 +2600,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>469100</v>
+        <v>740400</v>
       </c>
       <c r="E62" s="3">
-        <v>358300</v>
+        <v>337200</v>
       </c>
       <c r="F62" s="3">
-        <v>663100</v>
+        <v>624000</v>
       </c>
       <c r="G62" s="3">
-        <v>673700</v>
+        <v>633900</v>
       </c>
       <c r="H62" s="3">
-        <v>640500</v>
+        <v>602700</v>
       </c>
       <c r="I62" s="3">
-        <v>1324400</v>
+        <v>1246200</v>
       </c>
       <c r="J62" s="3">
-        <v>941100</v>
+        <v>885600</v>
       </c>
       <c r="K62" s="3">
         <v>1036100</v>
@@ -2756,25 +2756,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>4933200</v>
+        <v>5572900</v>
       </c>
       <c r="E66" s="3">
-        <v>5597400</v>
+        <v>5266900</v>
       </c>
       <c r="F66" s="3">
-        <v>5617300</v>
+        <v>5285600</v>
       </c>
       <c r="G66" s="3">
-        <v>4363100</v>
+        <v>4105400</v>
       </c>
       <c r="H66" s="3">
-        <v>4090600</v>
+        <v>3849000</v>
       </c>
       <c r="I66" s="3">
-        <v>4212900</v>
+        <v>3964100</v>
       </c>
       <c r="J66" s="3">
-        <v>3240800</v>
+        <v>3049400</v>
       </c>
       <c r="K66" s="3">
         <v>3838800</v>
@@ -2968,25 +2968,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2861800</v>
+        <v>5421100</v>
       </c>
       <c r="E72" s="3">
-        <v>2658100</v>
+        <v>2501100</v>
       </c>
       <c r="F72" s="3">
-        <v>2903300</v>
+        <v>2731900</v>
       </c>
       <c r="G72" s="3">
-        <v>2492400</v>
+        <v>2345300</v>
       </c>
       <c r="H72" s="3">
-        <v>2123200</v>
+        <v>1997800</v>
       </c>
       <c r="I72" s="3">
-        <v>2016200</v>
+        <v>1897200</v>
       </c>
       <c r="J72" s="3">
-        <v>1829100</v>
+        <v>1721100</v>
       </c>
       <c r="K72" s="3">
         <v>1936400</v>
@@ -3124,25 +3124,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>4254000</v>
+        <v>3963300</v>
       </c>
       <c r="E76" s="3">
-        <v>3783500</v>
+        <v>3560100</v>
       </c>
       <c r="F76" s="3">
-        <v>3877100</v>
+        <v>3648100</v>
       </c>
       <c r="G76" s="3">
-        <v>3501900</v>
+        <v>3295100</v>
       </c>
       <c r="H76" s="3">
-        <v>3305500</v>
+        <v>3110300</v>
       </c>
       <c r="I76" s="3">
-        <v>3067600</v>
+        <v>2886400</v>
       </c>
       <c r="J76" s="3">
-        <v>3057800</v>
+        <v>2877200</v>
       </c>
       <c r="K76" s="3">
         <v>3417400</v>
@@ -3246,25 +3246,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>330600</v>
+        <v>311100</v>
       </c>
       <c r="E81" s="3">
-        <v>-90800</v>
+        <v>-85500</v>
       </c>
       <c r="F81" s="3">
-        <v>573000</v>
+        <v>539200</v>
       </c>
       <c r="G81" s="3">
-        <v>478300</v>
+        <v>450100</v>
       </c>
       <c r="H81" s="3">
-        <v>177200</v>
+        <v>166800</v>
       </c>
       <c r="I81" s="3">
-        <v>250100</v>
+        <v>235300</v>
       </c>
       <c r="J81" s="3">
-        <v>180800</v>
+        <v>170100</v>
       </c>
       <c r="K81" s="3">
         <v>296600</v>
@@ -3302,25 +3302,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>544100</v>
+        <v>512000</v>
       </c>
       <c r="E83" s="3">
-        <v>525400</v>
+        <v>494400</v>
       </c>
       <c r="F83" s="3">
-        <v>455000</v>
+        <v>428100</v>
       </c>
       <c r="G83" s="3">
-        <v>341600</v>
+        <v>321400</v>
       </c>
       <c r="H83" s="3">
-        <v>341600</v>
+        <v>321400</v>
       </c>
       <c r="I83" s="3">
-        <v>306900</v>
+        <v>288800</v>
       </c>
       <c r="J83" s="3">
-        <v>287700</v>
+        <v>270700</v>
       </c>
       <c r="K83" s="3">
         <v>335500</v>
@@ -3536,25 +3536,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>957300</v>
+        <v>900800</v>
       </c>
       <c r="E89" s="3">
-        <v>498900</v>
+        <v>469400</v>
       </c>
       <c r="F89" s="3">
-        <v>588400</v>
+        <v>553700</v>
       </c>
       <c r="G89" s="3">
-        <v>721200</v>
+        <v>678600</v>
       </c>
       <c r="H89" s="3">
-        <v>743100</v>
+        <v>699200</v>
       </c>
       <c r="I89" s="3">
-        <v>460600</v>
+        <v>433400</v>
       </c>
       <c r="J89" s="3">
-        <v>471500</v>
+        <v>443700</v>
       </c>
       <c r="K89" s="3">
         <v>288100</v>
@@ -3592,25 +3592,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-565000</v>
+        <v>-531600</v>
       </c>
       <c r="E91" s="3">
-        <v>-439000</v>
+        <v>-413100</v>
       </c>
       <c r="F91" s="3">
-        <v>-718300</v>
+        <v>-675800</v>
       </c>
       <c r="G91" s="3">
-        <v>-627800</v>
+        <v>-590800</v>
       </c>
       <c r="H91" s="3">
-        <v>-280600</v>
+        <v>-264000</v>
       </c>
       <c r="I91" s="3">
-        <v>-244300</v>
+        <v>-229900</v>
       </c>
       <c r="J91" s="3">
-        <v>-132000</v>
+        <v>-124200</v>
       </c>
       <c r="K91" s="3">
         <v>-137500</v>
@@ -3709,25 +3709,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>496500</v>
+        <v>467200</v>
       </c>
       <c r="E94" s="3">
-        <v>-546000</v>
+        <v>-513700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1580000</v>
+        <v>-1486700</v>
       </c>
       <c r="G94" s="3">
-        <v>-803200</v>
+        <v>-755800</v>
       </c>
       <c r="H94" s="3">
-        <v>-8300</v>
+        <v>-7800</v>
       </c>
       <c r="I94" s="3">
-        <v>-550300</v>
+        <v>-517800</v>
       </c>
       <c r="J94" s="3">
-        <v>-180200</v>
+        <v>-169600</v>
       </c>
       <c r="K94" s="3">
         <v>101600</v>
@@ -3765,25 +3765,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-124500</v>
+        <v>-117200</v>
       </c>
       <c r="E96" s="3">
-        <v>-155500</v>
+        <v>-146400</v>
       </c>
       <c r="F96" s="3">
-        <v>-171600</v>
+        <v>-161500</v>
       </c>
       <c r="G96" s="3">
-        <v>-108600</v>
+        <v>-102200</v>
       </c>
       <c r="H96" s="3">
-        <v>-69900</v>
+        <v>-65800</v>
       </c>
       <c r="I96" s="3">
-        <v>-64000</v>
+        <v>-60200</v>
       </c>
       <c r="J96" s="3">
-        <v>-60100</v>
+        <v>-56500</v>
       </c>
       <c r="K96" s="3">
         <v>-70400</v>
@@ -3921,25 +3921,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1372800</v>
+        <v>-1291700</v>
       </c>
       <c r="E100" s="3">
-        <v>365200</v>
+        <v>343600</v>
       </c>
       <c r="F100" s="3">
-        <v>885600</v>
+        <v>833300</v>
       </c>
       <c r="G100" s="3">
-        <v>-231500</v>
+        <v>-217900</v>
       </c>
       <c r="H100" s="3">
-        <v>-413800</v>
+        <v>-389300</v>
       </c>
       <c r="I100" s="3">
-        <v>174300</v>
+        <v>164000</v>
       </c>
       <c r="J100" s="3">
-        <v>-234900</v>
+        <v>-221000</v>
       </c>
       <c r="K100" s="3">
         <v>-514700</v>
@@ -3960,25 +3960,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>76000</v>
+        <v>71500</v>
       </c>
       <c r="E101" s="3">
-        <v>-15300</v>
+        <v>-14400</v>
       </c>
       <c r="F101" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="G101" s="3">
-        <v>-37500</v>
+        <v>-35200</v>
       </c>
       <c r="H101" s="3">
-        <v>19500</v>
+        <v>18300</v>
       </c>
       <c r="I101" s="3">
-        <v>-20800</v>
+        <v>-19600</v>
       </c>
       <c r="J101" s="3">
-        <v>-24300</v>
+        <v>-22900</v>
       </c>
       <c r="K101" s="3">
         <v>42400</v>
@@ -3999,25 +3999,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>157000</v>
+        <v>147700</v>
       </c>
       <c r="E102" s="3">
-        <v>302900</v>
+        <v>285000</v>
       </c>
       <c r="F102" s="3">
-        <v>-111400</v>
+        <v>-104800</v>
       </c>
       <c r="G102" s="3">
-        <v>-351100</v>
+        <v>-330300</v>
       </c>
       <c r="H102" s="3">
-        <v>340500</v>
+        <v>320400</v>
       </c>
       <c r="I102" s="3">
-        <v>63800</v>
+        <v>60100</v>
       </c>
       <c r="J102" s="3">
-        <v>32100</v>
+        <v>30200</v>
       </c>
       <c r="K102" s="3">
         <v>-82400</v>

--- a/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7587800</v>
+        <v>7339300</v>
       </c>
       <c r="E8" s="3">
-        <v>6750100</v>
+        <v>6529100</v>
       </c>
       <c r="F8" s="3">
-        <v>8294200</v>
+        <v>8022700</v>
       </c>
       <c r="G8" s="3">
-        <v>8025100</v>
+        <v>7762300</v>
       </c>
       <c r="H8" s="3">
-        <v>7367100</v>
+        <v>7125900</v>
       </c>
       <c r="I8" s="3">
-        <v>6232700</v>
+        <v>6028700</v>
       </c>
       <c r="J8" s="3">
-        <v>5593200</v>
+        <v>5410100</v>
       </c>
       <c r="K8" s="3">
         <v>6851400</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1927500</v>
+        <v>1864400</v>
       </c>
       <c r="E9" s="3">
-        <v>1747500</v>
+        <v>1690300</v>
       </c>
       <c r="F9" s="3">
-        <v>1868000</v>
+        <v>1806800</v>
       </c>
       <c r="G9" s="3">
-        <v>1700000</v>
+        <v>1644400</v>
       </c>
       <c r="H9" s="3">
-        <v>1695600</v>
+        <v>1640100</v>
       </c>
       <c r="I9" s="3">
-        <v>1521400</v>
+        <v>1471600</v>
       </c>
       <c r="J9" s="3">
-        <v>1436700</v>
+        <v>1389700</v>
       </c>
       <c r="K9" s="3">
         <v>1730600</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5660300</v>
+        <v>5474900</v>
       </c>
       <c r="E10" s="3">
-        <v>5002600</v>
+        <v>4838800</v>
       </c>
       <c r="F10" s="3">
-        <v>6426200</v>
+        <v>6215800</v>
       </c>
       <c r="G10" s="3">
-        <v>6325000</v>
+        <v>6117900</v>
       </c>
       <c r="H10" s="3">
-        <v>5671500</v>
+        <v>5485800</v>
       </c>
       <c r="I10" s="3">
-        <v>4711400</v>
+        <v>4557100</v>
       </c>
       <c r="J10" s="3">
-        <v>4156500</v>
+        <v>4020400</v>
       </c>
       <c r="K10" s="3">
         <v>5120800</v>
@@ -858,25 +858,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>187800</v>
+        <v>181600</v>
       </c>
       <c r="E12" s="3">
-        <v>197900</v>
+        <v>191400</v>
       </c>
       <c r="F12" s="3">
-        <v>232300</v>
+        <v>224700</v>
       </c>
       <c r="G12" s="3">
-        <v>213500</v>
+        <v>206500</v>
       </c>
       <c r="H12" s="3">
-        <v>177600</v>
+        <v>171800</v>
       </c>
       <c r="I12" s="3">
-        <v>133900</v>
+        <v>129500</v>
       </c>
       <c r="J12" s="3">
-        <v>82800</v>
+        <v>80100</v>
       </c>
       <c r="K12" s="3">
         <v>125300</v>
@@ -936,25 +936,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>339100</v>
+        <v>328000</v>
       </c>
       <c r="E14" s="3">
-        <v>135900</v>
+        <v>131500</v>
       </c>
       <c r="F14" s="3">
-        <v>26500</v>
+        <v>25600</v>
       </c>
       <c r="G14" s="3">
-        <v>66900</v>
+        <v>64700</v>
       </c>
       <c r="H14" s="3">
-        <v>578400</v>
+        <v>559400</v>
       </c>
       <c r="I14" s="3">
-        <v>35100</v>
+        <v>33900</v>
       </c>
       <c r="J14" s="3">
-        <v>18000</v>
+        <v>17400</v>
       </c>
       <c r="K14" s="3">
         <v>52300</v>
@@ -1028,25 +1028,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>7622100</v>
+        <v>7372500</v>
       </c>
       <c r="E17" s="3">
-        <v>6776400</v>
+        <v>6554500</v>
       </c>
       <c r="F17" s="3">
-        <v>7486400</v>
+        <v>7241300</v>
       </c>
       <c r="G17" s="3">
-        <v>7297700</v>
+        <v>7058800</v>
       </c>
       <c r="H17" s="3">
-        <v>7355900</v>
+        <v>7115000</v>
       </c>
       <c r="I17" s="3">
-        <v>5998200</v>
+        <v>5801800</v>
       </c>
       <c r="J17" s="3">
-        <v>5335200</v>
+        <v>5160500</v>
       </c>
       <c r="K17" s="3">
         <v>6660400</v>
@@ -1067,25 +1067,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-34300</v>
+        <v>-33200</v>
       </c>
       <c r="E18" s="3">
-        <v>-26300</v>
+        <v>-25400</v>
       </c>
       <c r="F18" s="3">
-        <v>807900</v>
+        <v>781400</v>
       </c>
       <c r="G18" s="3">
-        <v>727300</v>
+        <v>703500</v>
       </c>
       <c r="H18" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="I18" s="3">
-        <v>234500</v>
+        <v>226800</v>
       </c>
       <c r="J18" s="3">
-        <v>258000</v>
+        <v>249600</v>
       </c>
       <c r="K18" s="3">
         <v>191000</v>
@@ -1123,25 +1123,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>585100</v>
+        <v>565900</v>
       </c>
       <c r="E20" s="3">
-        <v>27600</v>
+        <v>26700</v>
       </c>
       <c r="F20" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="G20" s="3">
-        <v>42900</v>
+        <v>41500</v>
       </c>
       <c r="H20" s="3">
-        <v>278600</v>
+        <v>269500</v>
       </c>
       <c r="I20" s="3">
-        <v>137000</v>
+        <v>132500</v>
       </c>
       <c r="J20" s="3">
-        <v>62300</v>
+        <v>60300</v>
       </c>
       <c r="K20" s="3">
         <v>251600</v>
@@ -1162,25 +1162,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1059900</v>
+        <v>1009800</v>
       </c>
       <c r="E21" s="3">
-        <v>493100</v>
+        <v>462000</v>
       </c>
       <c r="F21" s="3">
-        <v>1229700</v>
+        <v>1176500</v>
       </c>
       <c r="G21" s="3">
-        <v>1089900</v>
+        <v>1044500</v>
       </c>
       <c r="H21" s="3">
-        <v>609500</v>
+        <v>579900</v>
       </c>
       <c r="I21" s="3">
-        <v>658700</v>
+        <v>628400</v>
       </c>
       <c r="J21" s="3">
-        <v>589600</v>
+        <v>562100</v>
       </c>
       <c r="K21" s="3">
         <v>778900</v>
@@ -1201,25 +1201,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>13800</v>
+        <v>13300</v>
       </c>
       <c r="E22" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F22" s="3">
         <v>16300</v>
       </c>
-      <c r="F22" s="3">
-        <v>16800</v>
-      </c>
       <c r="G22" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="H22" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="I22" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="J22" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="K22" s="3">
         <v>10600</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>537000</v>
+        <v>519400</v>
       </c>
       <c r="E23" s="3">
-        <v>-15000</v>
+        <v>-14500</v>
       </c>
       <c r="F23" s="3">
-        <v>787100</v>
+        <v>761300</v>
       </c>
       <c r="G23" s="3">
-        <v>764600</v>
+        <v>739600</v>
       </c>
       <c r="H23" s="3">
-        <v>282600</v>
+        <v>273400</v>
       </c>
       <c r="I23" s="3">
-        <v>365500</v>
+        <v>353500</v>
       </c>
       <c r="J23" s="3">
-        <v>314400</v>
+        <v>304100</v>
       </c>
       <c r="K23" s="3">
         <v>432000</v>
@@ -1279,25 +1279,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>207800</v>
+        <v>201000</v>
       </c>
       <c r="E24" s="3">
-        <v>51900</v>
+        <v>50200</v>
       </c>
       <c r="F24" s="3">
-        <v>220500</v>
+        <v>213200</v>
       </c>
       <c r="G24" s="3">
-        <v>288800</v>
+        <v>279400</v>
       </c>
       <c r="H24" s="3">
-        <v>96800</v>
+        <v>93600</v>
       </c>
       <c r="I24" s="3">
-        <v>116800</v>
+        <v>113000</v>
       </c>
       <c r="J24" s="3">
-        <v>126800</v>
+        <v>122600</v>
       </c>
       <c r="K24" s="3">
         <v>112900</v>
@@ -1357,25 +1357,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>329200</v>
+        <v>318400</v>
       </c>
       <c r="E26" s="3">
-        <v>-66800</v>
+        <v>-64700</v>
       </c>
       <c r="F26" s="3">
-        <v>566600</v>
+        <v>548100</v>
       </c>
       <c r="G26" s="3">
-        <v>475800</v>
+        <v>460200</v>
       </c>
       <c r="H26" s="3">
-        <v>185900</v>
+        <v>179800</v>
       </c>
       <c r="I26" s="3">
-        <v>248700</v>
+        <v>240500</v>
       </c>
       <c r="J26" s="3">
-        <v>187600</v>
+        <v>181500</v>
       </c>
       <c r="K26" s="3">
         <v>319200</v>
@@ -1396,25 +1396,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>311100</v>
+        <v>300900</v>
       </c>
       <c r="E27" s="3">
-        <v>-85500</v>
+        <v>-82700</v>
       </c>
       <c r="F27" s="3">
-        <v>539200</v>
+        <v>521600</v>
       </c>
       <c r="G27" s="3">
-        <v>450100</v>
+        <v>435300</v>
       </c>
       <c r="H27" s="3">
-        <v>166800</v>
+        <v>161300</v>
       </c>
       <c r="I27" s="3">
-        <v>235300</v>
+        <v>227600</v>
       </c>
       <c r="J27" s="3">
-        <v>170100</v>
+        <v>164600</v>
       </c>
       <c r="K27" s="3">
         <v>296600</v>
@@ -1591,25 +1591,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-585100</v>
+        <v>-565900</v>
       </c>
       <c r="E32" s="3">
-        <v>-27600</v>
+        <v>-26700</v>
       </c>
       <c r="F32" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="G32" s="3">
-        <v>-42900</v>
+        <v>-41500</v>
       </c>
       <c r="H32" s="3">
-        <v>-278600</v>
+        <v>-269500</v>
       </c>
       <c r="I32" s="3">
-        <v>-137000</v>
+        <v>-132500</v>
       </c>
       <c r="J32" s="3">
-        <v>-62300</v>
+        <v>-60300</v>
       </c>
       <c r="K32" s="3">
         <v>-251600</v>
@@ -1630,25 +1630,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>311100</v>
+        <v>300900</v>
       </c>
       <c r="E33" s="3">
-        <v>-85500</v>
+        <v>-82700</v>
       </c>
       <c r="F33" s="3">
-        <v>539200</v>
+        <v>521600</v>
       </c>
       <c r="G33" s="3">
-        <v>450100</v>
+        <v>435300</v>
       </c>
       <c r="H33" s="3">
-        <v>166800</v>
+        <v>161300</v>
       </c>
       <c r="I33" s="3">
-        <v>235300</v>
+        <v>227600</v>
       </c>
       <c r="J33" s="3">
-        <v>170100</v>
+        <v>164600</v>
       </c>
       <c r="K33" s="3">
         <v>296600</v>
@@ -1708,25 +1708,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>311100</v>
+        <v>300900</v>
       </c>
       <c r="E35" s="3">
-        <v>-85500</v>
+        <v>-82700</v>
       </c>
       <c r="F35" s="3">
-        <v>539200</v>
+        <v>521600</v>
       </c>
       <c r="G35" s="3">
-        <v>450100</v>
+        <v>435300</v>
       </c>
       <c r="H35" s="3">
-        <v>166800</v>
+        <v>161300</v>
       </c>
       <c r="I35" s="3">
-        <v>235300</v>
+        <v>227600</v>
       </c>
       <c r="J35" s="3">
-        <v>170100</v>
+        <v>164600</v>
       </c>
       <c r="K35" s="3">
         <v>296600</v>
@@ -1825,25 +1825,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2408300</v>
+        <v>2329500</v>
       </c>
       <c r="E41" s="3">
-        <v>953000</v>
+        <v>921800</v>
       </c>
       <c r="F41" s="3">
-        <v>808800</v>
+        <v>782300</v>
       </c>
       <c r="G41" s="3">
-        <v>922800</v>
+        <v>892600</v>
       </c>
       <c r="H41" s="3">
-        <v>1221900</v>
+        <v>1181900</v>
       </c>
       <c r="I41" s="3">
-        <v>880500</v>
+        <v>851700</v>
       </c>
       <c r="J41" s="3">
-        <v>855900</v>
+        <v>827900</v>
       </c>
       <c r="K41" s="3">
         <v>912700</v>
@@ -1864,10 +1864,10 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>120400</v>
+        <v>116500</v>
       </c>
       <c r="E42" s="3">
-        <v>153900</v>
+        <v>148900</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>91</v>
@@ -1876,13 +1876,13 @@
         <v>91</v>
       </c>
       <c r="H42" s="3">
-        <v>57000</v>
+        <v>55200</v>
       </c>
       <c r="I42" s="3">
-        <v>57900</v>
+        <v>56000</v>
       </c>
       <c r="J42" s="3">
-        <v>56300</v>
+        <v>54500</v>
       </c>
       <c r="K42" s="3">
         <v>160900</v>
@@ -1903,25 +1903,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2242100</v>
+        <v>2168600</v>
       </c>
       <c r="E43" s="3">
-        <v>1034100</v>
+        <v>1000300</v>
       </c>
       <c r="F43" s="3">
-        <v>1247300</v>
+        <v>1206500</v>
       </c>
       <c r="G43" s="3">
-        <v>1205800</v>
+        <v>1166300</v>
       </c>
       <c r="H43" s="3">
-        <v>1175200</v>
+        <v>1136700</v>
       </c>
       <c r="I43" s="3">
-        <v>988300</v>
+        <v>956000</v>
       </c>
       <c r="J43" s="3">
-        <v>919400</v>
+        <v>889300</v>
       </c>
       <c r="K43" s="3">
         <v>1147200</v>
@@ -1942,25 +1942,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2037000</v>
+        <v>1970300</v>
       </c>
       <c r="E44" s="3">
-        <v>1246300</v>
+        <v>1205500</v>
       </c>
       <c r="F44" s="3">
-        <v>1327500</v>
+        <v>1284000</v>
       </c>
       <c r="G44" s="3">
-        <v>1097900</v>
+        <v>1062000</v>
       </c>
       <c r="H44" s="3">
-        <v>952600</v>
+        <v>921400</v>
       </c>
       <c r="I44" s="3">
-        <v>1695800</v>
+        <v>1640200</v>
       </c>
       <c r="J44" s="3">
-        <v>776500</v>
+        <v>751000</v>
       </c>
       <c r="K44" s="3">
         <v>940000</v>
@@ -1981,25 +1981,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>344900</v>
+        <v>333600</v>
       </c>
       <c r="E45" s="3">
-        <v>385800</v>
+        <v>373200</v>
       </c>
       <c r="F45" s="3">
-        <v>520500</v>
+        <v>503500</v>
       </c>
       <c r="G45" s="3">
-        <v>531400</v>
+        <v>514000</v>
       </c>
       <c r="H45" s="3">
-        <v>450700</v>
+        <v>435900</v>
       </c>
       <c r="I45" s="3">
-        <v>391200</v>
+        <v>378400</v>
       </c>
       <c r="J45" s="3">
-        <v>402100</v>
+        <v>388900</v>
       </c>
       <c r="K45" s="3">
         <v>495900</v>
@@ -2020,25 +2020,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>3759700</v>
+        <v>3636600</v>
       </c>
       <c r="E46" s="3">
-        <v>3773200</v>
+        <v>3649700</v>
       </c>
       <c r="F46" s="3">
-        <v>3904100</v>
+        <v>3776300</v>
       </c>
       <c r="G46" s="3">
-        <v>3540300</v>
+        <v>3424400</v>
       </c>
       <c r="H46" s="3">
-        <v>3857400</v>
+        <v>3731100</v>
       </c>
       <c r="I46" s="3">
-        <v>3165800</v>
+        <v>3062200</v>
       </c>
       <c r="J46" s="3">
-        <v>3010200</v>
+        <v>2911700</v>
       </c>
       <c r="K46" s="3">
         <v>3656800</v>
@@ -2059,25 +2059,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>998900</v>
+        <v>966200</v>
       </c>
       <c r="E47" s="3">
-        <v>98100</v>
+        <v>94900</v>
       </c>
       <c r="F47" s="3">
-        <v>101800</v>
+        <v>98400</v>
       </c>
       <c r="G47" s="3">
-        <v>337100</v>
+        <v>326000</v>
       </c>
       <c r="H47" s="3">
-        <v>191500</v>
+        <v>185300</v>
       </c>
       <c r="I47" s="3">
-        <v>366500</v>
+        <v>354500</v>
       </c>
       <c r="J47" s="3">
-        <v>203700</v>
+        <v>197000</v>
       </c>
       <c r="K47" s="3">
         <v>257000</v>
@@ -2098,25 +2098,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>6049300</v>
+        <v>5851200</v>
       </c>
       <c r="E48" s="3">
-        <v>2499900</v>
+        <v>2418000</v>
       </c>
       <c r="F48" s="3">
-        <v>2307200</v>
+        <v>2231600</v>
       </c>
       <c r="G48" s="3">
-        <v>1723900</v>
+        <v>1667500</v>
       </c>
       <c r="H48" s="3">
-        <v>1163100</v>
+        <v>1125000</v>
       </c>
       <c r="I48" s="3">
-        <v>1144900</v>
+        <v>1107400</v>
       </c>
       <c r="J48" s="3">
-        <v>984300</v>
+        <v>952100</v>
       </c>
       <c r="K48" s="3">
         <v>1206800</v>
@@ -2137,25 +2137,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1866000</v>
+        <v>1804900</v>
       </c>
       <c r="E49" s="3">
-        <v>1769400</v>
+        <v>1711500</v>
       </c>
       <c r="F49" s="3">
-        <v>1826700</v>
+        <v>1766900</v>
       </c>
       <c r="G49" s="3">
-        <v>1212400</v>
+        <v>1172700</v>
       </c>
       <c r="H49" s="3">
-        <v>1235700</v>
+        <v>1195300</v>
       </c>
       <c r="I49" s="3">
-        <v>1805600</v>
+        <v>1746500</v>
       </c>
       <c r="J49" s="3">
-        <v>1183100</v>
+        <v>1144300</v>
       </c>
       <c r="K49" s="3">
         <v>1472300</v>
@@ -2254,25 +2254,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>825600</v>
+        <v>798600</v>
       </c>
       <c r="E52" s="3">
-        <v>686400</v>
+        <v>663900</v>
       </c>
       <c r="F52" s="3">
-        <v>794000</v>
+        <v>768000</v>
       </c>
       <c r="G52" s="3">
-        <v>755500</v>
+        <v>730800</v>
       </c>
       <c r="H52" s="3">
-        <v>511500</v>
+        <v>494800</v>
       </c>
       <c r="I52" s="3">
-        <v>550200</v>
+        <v>532200</v>
       </c>
       <c r="J52" s="3">
-        <v>545400</v>
+        <v>527500</v>
       </c>
       <c r="K52" s="3">
         <v>663300</v>
@@ -2332,25 +2332,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>9536200</v>
+        <v>9223900</v>
       </c>
       <c r="E54" s="3">
-        <v>8827000</v>
+        <v>8538000</v>
       </c>
       <c r="F54" s="3">
-        <v>8933800</v>
+        <v>8641300</v>
       </c>
       <c r="G54" s="3">
-        <v>7400500</v>
+        <v>7158200</v>
       </c>
       <c r="H54" s="3">
-        <v>6959300</v>
+        <v>6731400</v>
       </c>
       <c r="I54" s="3">
-        <v>6850500</v>
+        <v>6626200</v>
       </c>
       <c r="J54" s="3">
-        <v>5926600</v>
+        <v>5732600</v>
       </c>
       <c r="K54" s="3">
         <v>7256200</v>
@@ -2405,25 +2405,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1996100</v>
+        <v>1930800</v>
       </c>
       <c r="E57" s="3">
-        <v>563900</v>
+        <v>545400</v>
       </c>
       <c r="F57" s="3">
-        <v>710500</v>
+        <v>687300</v>
       </c>
       <c r="G57" s="3">
-        <v>749800</v>
+        <v>725300</v>
       </c>
       <c r="H57" s="3">
-        <v>637900</v>
+        <v>617100</v>
       </c>
       <c r="I57" s="3">
-        <v>611300</v>
+        <v>591200</v>
       </c>
       <c r="J57" s="3">
-        <v>456800</v>
+        <v>441800</v>
       </c>
       <c r="K57" s="3">
         <v>532500</v>
@@ -2444,25 +2444,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>488800</v>
+        <v>472800</v>
       </c>
       <c r="E58" s="3">
-        <v>572300</v>
+        <v>553500</v>
       </c>
       <c r="F58" s="3">
-        <v>1077000</v>
+        <v>1041800</v>
       </c>
       <c r="G58" s="3">
-        <v>111400</v>
+        <v>107800</v>
       </c>
       <c r="H58" s="3">
-        <v>78200</v>
+        <v>75600</v>
       </c>
       <c r="I58" s="3">
-        <v>121400</v>
+        <v>117400</v>
       </c>
       <c r="J58" s="3">
-        <v>139200</v>
+        <v>134700</v>
       </c>
       <c r="K58" s="3">
         <v>666200</v>
@@ -2483,25 +2483,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2350700</v>
+        <v>2273700</v>
       </c>
       <c r="E59" s="3">
-        <v>1451200</v>
+        <v>1403600</v>
       </c>
       <c r="F59" s="3">
-        <v>1615600</v>
+        <v>1562700</v>
       </c>
       <c r="G59" s="3">
-        <v>1630500</v>
+        <v>1577100</v>
       </c>
       <c r="H59" s="3">
-        <v>1419700</v>
+        <v>1373200</v>
       </c>
       <c r="I59" s="3">
-        <v>1075600</v>
+        <v>1040400</v>
       </c>
       <c r="J59" s="3">
-        <v>919700</v>
+        <v>889600</v>
       </c>
       <c r="K59" s="3">
         <v>1139400</v>
@@ -2522,25 +2522,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3031400</v>
+        <v>2932100</v>
       </c>
       <c r="E60" s="3">
-        <v>2587300</v>
+        <v>2502600</v>
       </c>
       <c r="F60" s="3">
-        <v>3403100</v>
+        <v>3291700</v>
       </c>
       <c r="G60" s="3">
-        <v>2491800</v>
+        <v>2410200</v>
       </c>
       <c r="H60" s="3">
-        <v>2135800</v>
+        <v>2065900</v>
       </c>
       <c r="I60" s="3">
-        <v>1808200</v>
+        <v>1749000</v>
       </c>
       <c r="J60" s="3">
-        <v>1515700</v>
+        <v>1466100</v>
       </c>
       <c r="K60" s="3">
         <v>2338000</v>
@@ -2561,25 +2561,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1941200</v>
+        <v>1877600</v>
       </c>
       <c r="E61" s="3">
-        <v>2189200</v>
+        <v>2117500</v>
       </c>
       <c r="F61" s="3">
-        <v>1110800</v>
+        <v>1074400</v>
       </c>
       <c r="G61" s="3">
-        <v>841000</v>
+        <v>813500</v>
       </c>
       <c r="H61" s="3">
-        <v>952500</v>
+        <v>921400</v>
       </c>
       <c r="I61" s="3">
-        <v>762500</v>
+        <v>737500</v>
       </c>
       <c r="J61" s="3">
-        <v>495600</v>
+        <v>479400</v>
       </c>
       <c r="K61" s="3">
         <v>275600</v>
@@ -2600,25 +2600,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>740400</v>
+        <v>716100</v>
       </c>
       <c r="E62" s="3">
-        <v>337200</v>
+        <v>326100</v>
       </c>
       <c r="F62" s="3">
-        <v>624000</v>
+        <v>603500</v>
       </c>
       <c r="G62" s="3">
-        <v>633900</v>
+        <v>613100</v>
       </c>
       <c r="H62" s="3">
-        <v>602700</v>
+        <v>583000</v>
       </c>
       <c r="I62" s="3">
-        <v>1246200</v>
+        <v>1205400</v>
       </c>
       <c r="J62" s="3">
-        <v>885600</v>
+        <v>856600</v>
       </c>
       <c r="K62" s="3">
         <v>1036100</v>
@@ -2756,25 +2756,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>5572900</v>
+        <v>5390400</v>
       </c>
       <c r="E66" s="3">
-        <v>5266900</v>
+        <v>5094500</v>
       </c>
       <c r="F66" s="3">
-        <v>5285600</v>
+        <v>5112600</v>
       </c>
       <c r="G66" s="3">
-        <v>4105400</v>
+        <v>3971000</v>
       </c>
       <c r="H66" s="3">
-        <v>3849000</v>
+        <v>3723000</v>
       </c>
       <c r="I66" s="3">
-        <v>3964100</v>
+        <v>3834300</v>
       </c>
       <c r="J66" s="3">
-        <v>3049400</v>
+        <v>2949600</v>
       </c>
       <c r="K66" s="3">
         <v>3838800</v>
@@ -2968,25 +2968,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>5421100</v>
+        <v>5243600</v>
       </c>
       <c r="E72" s="3">
-        <v>2501100</v>
+        <v>2419200</v>
       </c>
       <c r="F72" s="3">
-        <v>2731900</v>
+        <v>2642400</v>
       </c>
       <c r="G72" s="3">
-        <v>2345300</v>
+        <v>2268500</v>
       </c>
       <c r="H72" s="3">
-        <v>1997800</v>
+        <v>1932400</v>
       </c>
       <c r="I72" s="3">
-        <v>1897200</v>
+        <v>1835100</v>
       </c>
       <c r="J72" s="3">
-        <v>1721100</v>
+        <v>1664700</v>
       </c>
       <c r="K72" s="3">
         <v>1936400</v>
@@ -3124,25 +3124,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>3963300</v>
+        <v>3833500</v>
       </c>
       <c r="E76" s="3">
-        <v>3560100</v>
+        <v>3443500</v>
       </c>
       <c r="F76" s="3">
-        <v>3648100</v>
+        <v>3528700</v>
       </c>
       <c r="G76" s="3">
-        <v>3295100</v>
+        <v>3187200</v>
       </c>
       <c r="H76" s="3">
-        <v>3110300</v>
+        <v>3008400</v>
       </c>
       <c r="I76" s="3">
-        <v>2886400</v>
+        <v>2791900</v>
       </c>
       <c r="J76" s="3">
-        <v>2877200</v>
+        <v>2783000</v>
       </c>
       <c r="K76" s="3">
         <v>3417400</v>
@@ -3246,25 +3246,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>311100</v>
+        <v>300900</v>
       </c>
       <c r="E81" s="3">
-        <v>-85500</v>
+        <v>-82700</v>
       </c>
       <c r="F81" s="3">
-        <v>539200</v>
+        <v>521600</v>
       </c>
       <c r="G81" s="3">
-        <v>450100</v>
+        <v>435300</v>
       </c>
       <c r="H81" s="3">
-        <v>166800</v>
+        <v>161300</v>
       </c>
       <c r="I81" s="3">
-        <v>235300</v>
+        <v>227600</v>
       </c>
       <c r="J81" s="3">
-        <v>170100</v>
+        <v>164600</v>
       </c>
       <c r="K81" s="3">
         <v>296600</v>
@@ -3302,25 +3302,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>512000</v>
+        <v>495200</v>
       </c>
       <c r="E83" s="3">
-        <v>494400</v>
+        <v>478200</v>
       </c>
       <c r="F83" s="3">
-        <v>428100</v>
+        <v>414100</v>
       </c>
       <c r="G83" s="3">
-        <v>321400</v>
+        <v>310900</v>
       </c>
       <c r="H83" s="3">
-        <v>321400</v>
+        <v>310900</v>
       </c>
       <c r="I83" s="3">
-        <v>288800</v>
+        <v>279300</v>
       </c>
       <c r="J83" s="3">
-        <v>270700</v>
+        <v>261900</v>
       </c>
       <c r="K83" s="3">
         <v>335500</v>
@@ -3536,25 +3536,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>900800</v>
+        <v>871300</v>
       </c>
       <c r="E89" s="3">
-        <v>469400</v>
+        <v>454100</v>
       </c>
       <c r="F89" s="3">
-        <v>553700</v>
+        <v>535600</v>
       </c>
       <c r="G89" s="3">
-        <v>678600</v>
+        <v>656400</v>
       </c>
       <c r="H89" s="3">
-        <v>699200</v>
+        <v>676300</v>
       </c>
       <c r="I89" s="3">
-        <v>433400</v>
+        <v>419200</v>
       </c>
       <c r="J89" s="3">
-        <v>443700</v>
+        <v>429200</v>
       </c>
       <c r="K89" s="3">
         <v>288100</v>
@@ -3592,25 +3592,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-531600</v>
+        <v>-514200</v>
       </c>
       <c r="E91" s="3">
-        <v>-413100</v>
+        <v>-399600</v>
       </c>
       <c r="F91" s="3">
-        <v>-675800</v>
+        <v>-653700</v>
       </c>
       <c r="G91" s="3">
-        <v>-590800</v>
+        <v>-571400</v>
       </c>
       <c r="H91" s="3">
-        <v>-264000</v>
+        <v>-255300</v>
       </c>
       <c r="I91" s="3">
-        <v>-229900</v>
+        <v>-222400</v>
       </c>
       <c r="J91" s="3">
-        <v>-124200</v>
+        <v>-120100</v>
       </c>
       <c r="K91" s="3">
         <v>-137500</v>
@@ -3709,25 +3709,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>467200</v>
+        <v>451900</v>
       </c>
       <c r="E94" s="3">
-        <v>-513700</v>
+        <v>-496900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1486700</v>
+        <v>-1438000</v>
       </c>
       <c r="G94" s="3">
-        <v>-755800</v>
+        <v>-731100</v>
       </c>
       <c r="H94" s="3">
-        <v>-7800</v>
+        <v>-7500</v>
       </c>
       <c r="I94" s="3">
-        <v>-517800</v>
+        <v>-500800</v>
       </c>
       <c r="J94" s="3">
-        <v>-169600</v>
+        <v>-164000</v>
       </c>
       <c r="K94" s="3">
         <v>101600</v>
@@ -3765,25 +3765,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-117200</v>
+        <v>-113300</v>
       </c>
       <c r="E96" s="3">
-        <v>-146400</v>
+        <v>-141600</v>
       </c>
       <c r="F96" s="3">
-        <v>-161500</v>
+        <v>-156200</v>
       </c>
       <c r="G96" s="3">
-        <v>-102200</v>
+        <v>-98800</v>
       </c>
       <c r="H96" s="3">
-        <v>-65800</v>
+        <v>-63600</v>
       </c>
       <c r="I96" s="3">
-        <v>-60200</v>
+        <v>-58200</v>
       </c>
       <c r="J96" s="3">
-        <v>-56500</v>
+        <v>-54700</v>
       </c>
       <c r="K96" s="3">
         <v>-70400</v>
@@ -3921,25 +3921,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1291700</v>
+        <v>-1249400</v>
       </c>
       <c r="E100" s="3">
-        <v>343600</v>
+        <v>332400</v>
       </c>
       <c r="F100" s="3">
-        <v>833300</v>
+        <v>806000</v>
       </c>
       <c r="G100" s="3">
-        <v>-217900</v>
+        <v>-210700</v>
       </c>
       <c r="H100" s="3">
-        <v>-389300</v>
+        <v>-376600</v>
       </c>
       <c r="I100" s="3">
-        <v>164000</v>
+        <v>158700</v>
       </c>
       <c r="J100" s="3">
-        <v>-221000</v>
+        <v>-213800</v>
       </c>
       <c r="K100" s="3">
         <v>-514700</v>
@@ -3960,25 +3960,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>71500</v>
+        <v>69100</v>
       </c>
       <c r="E101" s="3">
-        <v>-14400</v>
+        <v>-13900</v>
       </c>
       <c r="F101" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="G101" s="3">
-        <v>-35200</v>
+        <v>-34100</v>
       </c>
       <c r="H101" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="I101" s="3">
-        <v>-19600</v>
+        <v>-18900</v>
       </c>
       <c r="J101" s="3">
-        <v>-22900</v>
+        <v>-22100</v>
       </c>
       <c r="K101" s="3">
         <v>42400</v>
@@ -3999,25 +3999,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>147700</v>
+        <v>142900</v>
       </c>
       <c r="E102" s="3">
-        <v>285000</v>
+        <v>275700</v>
       </c>
       <c r="F102" s="3">
-        <v>-104800</v>
+        <v>-101400</v>
       </c>
       <c r="G102" s="3">
-        <v>-330300</v>
+        <v>-319500</v>
       </c>
       <c r="H102" s="3">
-        <v>320400</v>
+        <v>309900</v>
       </c>
       <c r="I102" s="3">
-        <v>60100</v>
+        <v>58100</v>
       </c>
       <c r="J102" s="3">
-        <v>30200</v>
+        <v>29200</v>
       </c>
       <c r="K102" s="3">
         <v>-82400</v>

--- a/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>SSDOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,190 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7339300</v>
+        <v>7845100</v>
       </c>
       <c r="E8" s="3">
-        <v>6529100</v>
+        <v>7423300</v>
       </c>
       <c r="F8" s="3">
-        <v>8022700</v>
+        <v>6768500</v>
       </c>
       <c r="G8" s="3">
-        <v>7762300</v>
+        <v>8316900</v>
       </c>
       <c r="H8" s="3">
-        <v>7125900</v>
+        <v>8047000</v>
       </c>
       <c r="I8" s="3">
-        <v>6028700</v>
+        <v>7387200</v>
       </c>
       <c r="J8" s="3">
+        <v>6249700</v>
+      </c>
+      <c r="K8" s="3">
         <v>5410100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6851400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7323300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6126700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6052800</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1864400</v>
+        <v>2375500</v>
       </c>
       <c r="E9" s="3">
-        <v>1690300</v>
+        <v>1997800</v>
       </c>
       <c r="F9" s="3">
-        <v>1806800</v>
+        <v>1752200</v>
       </c>
       <c r="G9" s="3">
-        <v>1644400</v>
+        <v>1873100</v>
       </c>
       <c r="H9" s="3">
-        <v>1640100</v>
+        <v>1704700</v>
       </c>
       <c r="I9" s="3">
-        <v>1471600</v>
+        <v>1700300</v>
       </c>
       <c r="J9" s="3">
+        <v>1525500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1389700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1730600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1821700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1507700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1445700</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5474900</v>
+        <v>5469600</v>
       </c>
       <c r="E10" s="3">
-        <v>4838800</v>
+        <v>5425500</v>
       </c>
       <c r="F10" s="3">
-        <v>6215800</v>
+        <v>5016300</v>
       </c>
       <c r="G10" s="3">
-        <v>6117900</v>
+        <v>6443800</v>
       </c>
       <c r="H10" s="3">
-        <v>5485800</v>
+        <v>6342300</v>
       </c>
       <c r="I10" s="3">
-        <v>4557100</v>
+        <v>5687000</v>
       </c>
       <c r="J10" s="3">
+        <v>4724200</v>
+      </c>
+      <c r="K10" s="3">
         <v>4020400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5120800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5501600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4618900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4607000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,47 +864,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>181600</v>
+      <c r="D12" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E12" s="3">
-        <v>191400</v>
+        <v>188300</v>
       </c>
       <c r="F12" s="3">
-        <v>224700</v>
+        <v>198400</v>
       </c>
       <c r="G12" s="3">
-        <v>206500</v>
+        <v>233000</v>
       </c>
       <c r="H12" s="3">
-        <v>171800</v>
+        <v>214100</v>
       </c>
       <c r="I12" s="3">
-        <v>129500</v>
+        <v>178100</v>
       </c>
       <c r="J12" s="3">
+        <v>134200</v>
+      </c>
+      <c r="K12" s="3">
         <v>80100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>125300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>130100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>123500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>130100</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,48 +945,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>328000</v>
+      <c r="D14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E14" s="3">
-        <v>131500</v>
+        <v>340100</v>
       </c>
       <c r="F14" s="3">
-        <v>25600</v>
+        <v>136300</v>
       </c>
       <c r="G14" s="3">
-        <v>64700</v>
+        <v>26600</v>
       </c>
       <c r="H14" s="3">
-        <v>559400</v>
+        <v>67000</v>
       </c>
       <c r="I14" s="3">
-        <v>33900</v>
+        <v>579900</v>
       </c>
       <c r="J14" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K14" s="3">
         <v>17400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>52300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>63400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>315400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1500</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1007,9 +1029,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>7372500</v>
+        <v>7502800</v>
       </c>
       <c r="E17" s="3">
-        <v>6554500</v>
+        <v>6684100</v>
       </c>
       <c r="F17" s="3">
-        <v>7241300</v>
+        <v>6794900</v>
       </c>
       <c r="G17" s="3">
-        <v>7058800</v>
+        <v>7506800</v>
       </c>
       <c r="H17" s="3">
-        <v>7115000</v>
+        <v>7317600</v>
       </c>
       <c r="I17" s="3">
-        <v>5801800</v>
+        <v>7375900</v>
       </c>
       <c r="J17" s="3">
+        <v>6014600</v>
+      </c>
+      <c r="K17" s="3">
         <v>5160500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6660400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6909600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6206600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5707100</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-33200</v>
+        <v>342300</v>
       </c>
       <c r="E18" s="3">
-        <v>-25400</v>
+        <v>739200</v>
       </c>
       <c r="F18" s="3">
-        <v>781400</v>
+        <v>-26300</v>
       </c>
       <c r="G18" s="3">
-        <v>703500</v>
+        <v>810100</v>
       </c>
       <c r="H18" s="3">
-        <v>10900</v>
+        <v>729300</v>
       </c>
       <c r="I18" s="3">
-        <v>226800</v>
+        <v>11300</v>
       </c>
       <c r="J18" s="3">
+        <v>235200</v>
+      </c>
+      <c r="K18" s="3">
         <v>249600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>191000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>413600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-79900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>345600</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1117,203 +1149,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>565900</v>
+        <v>28300</v>
       </c>
       <c r="E20" s="3">
-        <v>26700</v>
+        <v>3100</v>
       </c>
       <c r="F20" s="3">
-        <v>-3900</v>
+        <v>27700</v>
       </c>
       <c r="G20" s="3">
-        <v>41500</v>
+        <v>-4000</v>
       </c>
       <c r="H20" s="3">
-        <v>269500</v>
+        <v>43000</v>
       </c>
       <c r="I20" s="3">
-        <v>132500</v>
+        <v>279400</v>
       </c>
       <c r="J20" s="3">
+        <v>137300</v>
+      </c>
+      <c r="K20" s="3">
         <v>60300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>251600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>87600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>37800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>16000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1009800</v>
+        <v>921900</v>
       </c>
       <c r="E21" s="3">
-        <v>462000</v>
+        <v>1345900</v>
       </c>
       <c r="F21" s="3">
-        <v>1176500</v>
+        <v>492400</v>
       </c>
       <c r="G21" s="3">
-        <v>1044500</v>
+        <v>1231300</v>
       </c>
       <c r="H21" s="3">
-        <v>579900</v>
+        <v>1091500</v>
       </c>
       <c r="I21" s="3">
-        <v>628400</v>
+        <v>609900</v>
       </c>
       <c r="J21" s="3">
+        <v>659300</v>
+      </c>
+      <c r="K21" s="3">
         <v>562100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>778900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>867500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>297600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>682800</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
-        <v>13300</v>
+      <c r="D22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E22" s="3">
-        <v>15800</v>
+        <v>13800</v>
       </c>
       <c r="F22" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="G22" s="3">
-        <v>5500</v>
+        <v>16800</v>
       </c>
       <c r="H22" s="3">
-        <v>7000</v>
+        <v>5700</v>
       </c>
       <c r="I22" s="3">
-        <v>5800</v>
+        <v>7300</v>
       </c>
       <c r="J22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K22" s="3">
         <v>5700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16200</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>519400</v>
+        <v>370600</v>
       </c>
       <c r="E23" s="3">
-        <v>-14500</v>
+        <v>728500</v>
       </c>
       <c r="F23" s="3">
-        <v>761300</v>
+        <v>-15000</v>
       </c>
       <c r="G23" s="3">
-        <v>739600</v>
+        <v>789200</v>
       </c>
       <c r="H23" s="3">
-        <v>273400</v>
+        <v>766700</v>
       </c>
       <c r="I23" s="3">
-        <v>353500</v>
+        <v>283400</v>
       </c>
       <c r="J23" s="3">
+        <v>366500</v>
+      </c>
+      <c r="K23" s="3">
         <v>304100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>432000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>484600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-58200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>345500</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>201000</v>
+        <v>94400</v>
       </c>
       <c r="E24" s="3">
-        <v>50200</v>
+        <v>365000</v>
       </c>
       <c r="F24" s="3">
-        <v>213200</v>
+        <v>52000</v>
       </c>
       <c r="G24" s="3">
-        <v>279400</v>
+        <v>221100</v>
       </c>
       <c r="H24" s="3">
-        <v>93600</v>
+        <v>289600</v>
       </c>
       <c r="I24" s="3">
-        <v>113000</v>
+        <v>97000</v>
       </c>
       <c r="J24" s="3">
+        <v>117200</v>
+      </c>
+      <c r="K24" s="3">
         <v>122600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>112900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>208400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>56700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>194100</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>318400</v>
+        <v>276200</v>
       </c>
       <c r="E26" s="3">
-        <v>-64700</v>
+        <v>363500</v>
       </c>
       <c r="F26" s="3">
-        <v>548100</v>
+        <v>-67000</v>
       </c>
       <c r="G26" s="3">
-        <v>460200</v>
+        <v>568200</v>
       </c>
       <c r="H26" s="3">
-        <v>179800</v>
+        <v>477100</v>
       </c>
       <c r="I26" s="3">
-        <v>240500</v>
+        <v>186400</v>
       </c>
       <c r="J26" s="3">
+        <v>249300</v>
+      </c>
+      <c r="K26" s="3">
         <v>181500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>319200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>276200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-114900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>151300</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>300900</v>
+        <v>251400</v>
       </c>
       <c r="E27" s="3">
-        <v>-82700</v>
+        <v>326600</v>
       </c>
       <c r="F27" s="3">
-        <v>521600</v>
+        <v>-85700</v>
       </c>
       <c r="G27" s="3">
-        <v>435300</v>
+        <v>540700</v>
       </c>
       <c r="H27" s="3">
-        <v>161300</v>
+        <v>451300</v>
       </c>
       <c r="I27" s="3">
-        <v>227600</v>
+        <v>167200</v>
       </c>
       <c r="J27" s="3">
+        <v>235900</v>
+      </c>
+      <c r="K27" s="3">
         <v>164600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>296600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>251300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-132800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>128700</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1584,87 +1650,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-565900</v>
+        <v>-28300</v>
       </c>
       <c r="E32" s="3">
-        <v>-26700</v>
+        <v>-3100</v>
       </c>
       <c r="F32" s="3">
-        <v>3900</v>
+        <v>-27700</v>
       </c>
       <c r="G32" s="3">
-        <v>-41500</v>
+        <v>4000</v>
       </c>
       <c r="H32" s="3">
-        <v>-269500</v>
+        <v>-43000</v>
       </c>
       <c r="I32" s="3">
-        <v>-132500</v>
+        <v>-279400</v>
       </c>
       <c r="J32" s="3">
+        <v>-137300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-60300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-251600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-87600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-37800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-16000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>300900</v>
+        <v>251400</v>
       </c>
       <c r="E33" s="3">
-        <v>-82700</v>
+        <v>326600</v>
       </c>
       <c r="F33" s="3">
-        <v>521600</v>
+        <v>-85700</v>
       </c>
       <c r="G33" s="3">
-        <v>435300</v>
+        <v>540700</v>
       </c>
       <c r="H33" s="3">
-        <v>161300</v>
+        <v>451300</v>
       </c>
       <c r="I33" s="3">
-        <v>227600</v>
+        <v>167200</v>
       </c>
       <c r="J33" s="3">
+        <v>235900</v>
+      </c>
+      <c r="K33" s="3">
         <v>164600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>296600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>251300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-132800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>128700</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>300900</v>
+        <v>251400</v>
       </c>
       <c r="E35" s="3">
-        <v>-82700</v>
+        <v>326600</v>
       </c>
       <c r="F35" s="3">
-        <v>521600</v>
+        <v>-85700</v>
       </c>
       <c r="G35" s="3">
-        <v>435300</v>
+        <v>540700</v>
       </c>
       <c r="H35" s="3">
-        <v>161300</v>
+        <v>451300</v>
       </c>
       <c r="I35" s="3">
-        <v>227600</v>
+        <v>167200</v>
       </c>
       <c r="J35" s="3">
+        <v>235900</v>
+      </c>
+      <c r="K35" s="3">
         <v>164600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>296600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>251300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-132800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>128700</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1819,359 +1904,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2329500</v>
+        <v>874900</v>
       </c>
       <c r="E41" s="3">
-        <v>921800</v>
+        <v>2414900</v>
       </c>
       <c r="F41" s="3">
-        <v>782300</v>
+        <v>955600</v>
       </c>
       <c r="G41" s="3">
-        <v>892600</v>
+        <v>811000</v>
       </c>
       <c r="H41" s="3">
-        <v>1181900</v>
+        <v>925300</v>
       </c>
       <c r="I41" s="3">
-        <v>851700</v>
+        <v>1225200</v>
       </c>
       <c r="J41" s="3">
+        <v>882900</v>
+      </c>
+      <c r="K41" s="3">
         <v>827900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>912700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>920400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>536300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>595400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>116500</v>
+        <v>136000</v>
       </c>
       <c r="E42" s="3">
-        <v>148900</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>91</v>
+        <v>120800</v>
+      </c>
+      <c r="F42" s="3">
+        <v>154300</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H42" s="3">
-        <v>55200</v>
+      <c r="H42" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="I42" s="3">
-        <v>56000</v>
+        <v>57200</v>
       </c>
       <c r="J42" s="3">
+        <v>58100</v>
+      </c>
+      <c r="K42" s="3">
         <v>54500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>160900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>318400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>288700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>237000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2168600</v>
+        <v>1338200</v>
       </c>
       <c r="E43" s="3">
-        <v>1000300</v>
+        <v>2248200</v>
       </c>
       <c r="F43" s="3">
-        <v>1206500</v>
+        <v>1037000</v>
       </c>
       <c r="G43" s="3">
-        <v>1166300</v>
+        <v>1250700</v>
       </c>
       <c r="H43" s="3">
-        <v>1136700</v>
+        <v>1209100</v>
       </c>
       <c r="I43" s="3">
-        <v>956000</v>
+        <v>1178400</v>
       </c>
       <c r="J43" s="3">
+        <v>991000</v>
+      </c>
+      <c r="K43" s="3">
         <v>889300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1147200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1314600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1059600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>992900</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1970300</v>
+        <v>962400</v>
       </c>
       <c r="E44" s="3">
-        <v>1205500</v>
+        <v>2042600</v>
       </c>
       <c r="F44" s="3">
-        <v>1284000</v>
+        <v>1249700</v>
       </c>
       <c r="G44" s="3">
-        <v>1062000</v>
+        <v>1331100</v>
       </c>
       <c r="H44" s="3">
-        <v>921400</v>
+        <v>1100900</v>
       </c>
       <c r="I44" s="3">
-        <v>1640200</v>
+        <v>955200</v>
       </c>
       <c r="J44" s="3">
+        <v>1700400</v>
+      </c>
+      <c r="K44" s="3">
         <v>751000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>940000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>867200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1528700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>637800</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>333600</v>
+        <v>541600</v>
       </c>
       <c r="E45" s="3">
-        <v>373200</v>
+        <v>345800</v>
       </c>
       <c r="F45" s="3">
-        <v>503500</v>
+        <v>386900</v>
       </c>
       <c r="G45" s="3">
-        <v>514000</v>
+        <v>521900</v>
       </c>
       <c r="H45" s="3">
-        <v>435900</v>
+        <v>532900</v>
       </c>
       <c r="I45" s="3">
-        <v>378400</v>
+        <v>451900</v>
       </c>
       <c r="J45" s="3">
+        <v>392200</v>
+      </c>
+      <c r="K45" s="3">
         <v>388900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>495900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>448300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>358500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>333100</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>3636600</v>
+        <v>3853100</v>
       </c>
       <c r="E46" s="3">
-        <v>3649700</v>
+        <v>3770000</v>
       </c>
       <c r="F46" s="3">
-        <v>3776300</v>
+        <v>3783500</v>
       </c>
       <c r="G46" s="3">
-        <v>3424400</v>
+        <v>3914800</v>
       </c>
       <c r="H46" s="3">
-        <v>3731100</v>
+        <v>3550000</v>
       </c>
       <c r="I46" s="3">
-        <v>3062200</v>
+        <v>3867900</v>
       </c>
       <c r="J46" s="3">
+        <v>3174500</v>
+      </c>
+      <c r="K46" s="3">
         <v>2911700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3656800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3868900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3007400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2796000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>966200</v>
+        <v>736700</v>
       </c>
       <c r="E47" s="3">
-        <v>94900</v>
+        <v>1001600</v>
       </c>
       <c r="F47" s="3">
         <v>98400</v>
       </c>
       <c r="G47" s="3">
-        <v>326000</v>
+        <v>102000</v>
       </c>
       <c r="H47" s="3">
-        <v>185300</v>
+        <v>338000</v>
       </c>
       <c r="I47" s="3">
-        <v>354500</v>
+        <v>192000</v>
       </c>
       <c r="J47" s="3">
+        <v>367500</v>
+      </c>
+      <c r="K47" s="3">
         <v>197000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>257000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>257900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>551200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>243000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>5851200</v>
+        <v>3179700</v>
       </c>
       <c r="E48" s="3">
-        <v>2418000</v>
+        <v>6065800</v>
       </c>
       <c r="F48" s="3">
-        <v>2231600</v>
+        <v>2506700</v>
       </c>
       <c r="G48" s="3">
-        <v>1667500</v>
+        <v>2313500</v>
       </c>
       <c r="H48" s="3">
-        <v>1125000</v>
+        <v>1728600</v>
       </c>
       <c r="I48" s="3">
-        <v>1107400</v>
+        <v>1166300</v>
       </c>
       <c r="J48" s="3">
+        <v>1148000</v>
+      </c>
+      <c r="K48" s="3">
         <v>952100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1206800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1296200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1155400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1151300</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1804900</v>
+        <v>1331100</v>
       </c>
       <c r="E49" s="3">
-        <v>1711500</v>
+        <v>1871100</v>
       </c>
       <c r="F49" s="3">
-        <v>1766900</v>
+        <v>1774200</v>
       </c>
       <c r="G49" s="3">
-        <v>1172700</v>
+        <v>1831700</v>
       </c>
       <c r="H49" s="3">
-        <v>1195300</v>
+        <v>1215700</v>
       </c>
       <c r="I49" s="3">
-        <v>1746500</v>
+        <v>1239100</v>
       </c>
       <c r="J49" s="3">
+        <v>1810500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1144300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1472300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1602300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1362300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1540200</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2247,48 +2363,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>798600</v>
+        <v>510700</v>
       </c>
       <c r="E52" s="3">
-        <v>663900</v>
+        <v>827900</v>
       </c>
       <c r="F52" s="3">
-        <v>768000</v>
+        <v>688300</v>
       </c>
       <c r="G52" s="3">
-        <v>730800</v>
+        <v>796200</v>
       </c>
       <c r="H52" s="3">
-        <v>494800</v>
+        <v>757600</v>
       </c>
       <c r="I52" s="3">
-        <v>532200</v>
+        <v>512900</v>
       </c>
       <c r="J52" s="3">
+        <v>551700</v>
+      </c>
+      <c r="K52" s="3">
         <v>527500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>663300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>675700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>668600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>662000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>9223900</v>
+        <v>9611300</v>
       </c>
       <c r="E54" s="3">
-        <v>8538000</v>
+        <v>9562200</v>
       </c>
       <c r="F54" s="3">
-        <v>8641300</v>
+        <v>8851100</v>
       </c>
       <c r="G54" s="3">
-        <v>7158200</v>
+        <v>8958100</v>
       </c>
       <c r="H54" s="3">
-        <v>6731400</v>
+        <v>7420700</v>
       </c>
       <c r="I54" s="3">
-        <v>6626200</v>
+        <v>6978300</v>
       </c>
       <c r="J54" s="3">
+        <v>6869200</v>
+      </c>
+      <c r="K54" s="3">
         <v>5732600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7256200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7700900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6469000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6392600</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2399,242 +2528,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1930800</v>
+        <v>1497700</v>
       </c>
       <c r="E57" s="3">
-        <v>545400</v>
+        <v>2001600</v>
       </c>
       <c r="F57" s="3">
-        <v>687300</v>
+        <v>565400</v>
       </c>
       <c r="G57" s="3">
-        <v>725300</v>
+        <v>712500</v>
       </c>
       <c r="H57" s="3">
-        <v>617100</v>
+        <v>751800</v>
       </c>
       <c r="I57" s="3">
-        <v>591200</v>
+        <v>639700</v>
       </c>
       <c r="J57" s="3">
+        <v>612900</v>
+      </c>
+      <c r="K57" s="3">
         <v>441800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>532500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>489600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>393600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>428500</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>472800</v>
+        <v>365600</v>
       </c>
       <c r="E58" s="3">
-        <v>553500</v>
+        <v>490100</v>
       </c>
       <c r="F58" s="3">
-        <v>1041800</v>
+        <v>573800</v>
       </c>
       <c r="G58" s="3">
-        <v>107800</v>
+        <v>1080000</v>
       </c>
       <c r="H58" s="3">
-        <v>75600</v>
+        <v>111700</v>
       </c>
       <c r="I58" s="3">
-        <v>117400</v>
+        <v>78400</v>
       </c>
       <c r="J58" s="3">
+        <v>121700</v>
+      </c>
+      <c r="K58" s="3">
         <v>134700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>666200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>615500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>356100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>86300</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2273700</v>
+        <v>999900</v>
       </c>
       <c r="E59" s="3">
-        <v>1403600</v>
+        <v>2357100</v>
       </c>
       <c r="F59" s="3">
-        <v>1562700</v>
+        <v>1455100</v>
       </c>
       <c r="G59" s="3">
-        <v>1577100</v>
+        <v>1620000</v>
       </c>
       <c r="H59" s="3">
-        <v>1373200</v>
+        <v>1635000</v>
       </c>
       <c r="I59" s="3">
-        <v>1040400</v>
+        <v>1423600</v>
       </c>
       <c r="J59" s="3">
+        <v>1078500</v>
+      </c>
+      <c r="K59" s="3">
         <v>889600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1139400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1295300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>942800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>946200</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2932100</v>
+        <v>2863300</v>
       </c>
       <c r="E60" s="3">
-        <v>2502600</v>
+        <v>3039700</v>
       </c>
       <c r="F60" s="3">
-        <v>3291700</v>
+        <v>2594400</v>
       </c>
       <c r="G60" s="3">
-        <v>2410200</v>
+        <v>3412400</v>
       </c>
       <c r="H60" s="3">
-        <v>2065900</v>
+        <v>2498600</v>
       </c>
       <c r="I60" s="3">
-        <v>1749000</v>
+        <v>2141600</v>
       </c>
       <c r="J60" s="3">
+        <v>1813100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1466100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2338000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2400400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1692500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1461000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1877600</v>
+        <v>1818700</v>
       </c>
       <c r="E61" s="3">
-        <v>2117500</v>
+        <v>1946500</v>
       </c>
       <c r="F61" s="3">
-        <v>1074400</v>
+        <v>2195200</v>
       </c>
       <c r="G61" s="3">
-        <v>813500</v>
+        <v>1113800</v>
       </c>
       <c r="H61" s="3">
-        <v>921400</v>
+        <v>843300</v>
       </c>
       <c r="I61" s="3">
-        <v>737500</v>
+        <v>955100</v>
       </c>
       <c r="J61" s="3">
+        <v>764600</v>
+      </c>
+      <c r="K61" s="3">
         <v>479400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>275600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>882800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1313300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1555900</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>716100</v>
+        <v>330000</v>
       </c>
       <c r="E62" s="3">
-        <v>326100</v>
+        <v>742400</v>
       </c>
       <c r="F62" s="3">
-        <v>603500</v>
+        <v>338100</v>
       </c>
       <c r="G62" s="3">
-        <v>613100</v>
+        <v>625700</v>
       </c>
       <c r="H62" s="3">
-        <v>583000</v>
+        <v>635600</v>
       </c>
       <c r="I62" s="3">
-        <v>1205400</v>
+        <v>604300</v>
       </c>
       <c r="J62" s="3">
+        <v>1249600</v>
+      </c>
+      <c r="K62" s="3">
         <v>856600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1036100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>970500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>722700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>681700</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>5390400</v>
+        <v>5170000</v>
       </c>
       <c r="E66" s="3">
-        <v>5094500</v>
+        <v>5588100</v>
       </c>
       <c r="F66" s="3">
-        <v>5112600</v>
+        <v>5281300</v>
       </c>
       <c r="G66" s="3">
-        <v>3971000</v>
+        <v>5300000</v>
       </c>
       <c r="H66" s="3">
-        <v>3723000</v>
+        <v>4116600</v>
       </c>
       <c r="I66" s="3">
-        <v>3834300</v>
+        <v>3859500</v>
       </c>
       <c r="J66" s="3">
+        <v>3974900</v>
+      </c>
+      <c r="K66" s="3">
         <v>2949600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3838800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4438300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3866200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3810000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>5243600</v>
+        <v>2902300</v>
       </c>
       <c r="E72" s="3">
-        <v>2419200</v>
+        <v>5435900</v>
       </c>
       <c r="F72" s="3">
-        <v>2642400</v>
+        <v>2507900</v>
       </c>
       <c r="G72" s="3">
-        <v>2268500</v>
+        <v>2739300</v>
       </c>
       <c r="H72" s="3">
-        <v>1932400</v>
+        <v>2351700</v>
       </c>
       <c r="I72" s="3">
-        <v>1835100</v>
+        <v>2003300</v>
       </c>
       <c r="J72" s="3">
+        <v>1902300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1664700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1936400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1964200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1738600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2001100</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>3833500</v>
+        <v>4441300</v>
       </c>
       <c r="E76" s="3">
-        <v>3443500</v>
+        <v>3974100</v>
       </c>
       <c r="F76" s="3">
-        <v>3528700</v>
+        <v>3569800</v>
       </c>
       <c r="G76" s="3">
-        <v>3187200</v>
+        <v>3658100</v>
       </c>
       <c r="H76" s="3">
-        <v>3008400</v>
+        <v>3304100</v>
       </c>
       <c r="I76" s="3">
-        <v>2791900</v>
+        <v>3118800</v>
       </c>
       <c r="J76" s="3">
+        <v>2894300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2783000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3417400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3262600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2602800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2582600</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>300900</v>
+        <v>251400</v>
       </c>
       <c r="E81" s="3">
-        <v>-82700</v>
+        <v>326600</v>
       </c>
       <c r="F81" s="3">
-        <v>521600</v>
+        <v>-85700</v>
       </c>
       <c r="G81" s="3">
-        <v>435300</v>
+        <v>540700</v>
       </c>
       <c r="H81" s="3">
-        <v>161300</v>
+        <v>451300</v>
       </c>
       <c r="I81" s="3">
-        <v>227600</v>
+        <v>167200</v>
       </c>
       <c r="J81" s="3">
+        <v>235900</v>
+      </c>
+      <c r="K81" s="3">
         <v>164600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>296600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>251300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-132800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>128700</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3296,47 +3493,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>495200</v>
+        <v>556500</v>
       </c>
       <c r="E83" s="3">
-        <v>478200</v>
+        <v>609500</v>
       </c>
       <c r="F83" s="3">
-        <v>414100</v>
+        <v>495700</v>
       </c>
       <c r="G83" s="3">
-        <v>310900</v>
+        <v>429300</v>
       </c>
       <c r="H83" s="3">
-        <v>310900</v>
+        <v>322300</v>
       </c>
       <c r="I83" s="3">
-        <v>279300</v>
+        <v>322300</v>
       </c>
       <c r="J83" s="3">
+        <v>289600</v>
+      </c>
+      <c r="K83" s="3">
         <v>261900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>335500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>367000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>339300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>321100</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3529,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>871300</v>
+        <v>339800</v>
       </c>
       <c r="E89" s="3">
-        <v>454100</v>
+        <v>986700</v>
       </c>
       <c r="F89" s="3">
-        <v>535600</v>
+        <v>470700</v>
       </c>
       <c r="G89" s="3">
-        <v>656400</v>
+        <v>555200</v>
       </c>
       <c r="H89" s="3">
-        <v>676300</v>
+        <v>680400</v>
       </c>
       <c r="I89" s="3">
-        <v>419200</v>
+        <v>701100</v>
       </c>
       <c r="J89" s="3">
+        <v>434600</v>
+      </c>
+      <c r="K89" s="3">
         <v>429200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>288100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>810300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>380100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>466500</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3586,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-514200</v>
+        <v>-266700</v>
       </c>
       <c r="E91" s="3">
-        <v>-399600</v>
+        <v>-553400</v>
       </c>
       <c r="F91" s="3">
-        <v>-653700</v>
+        <v>-414200</v>
       </c>
       <c r="G91" s="3">
-        <v>-571400</v>
+        <v>-677700</v>
       </c>
       <c r="H91" s="3">
-        <v>-255300</v>
+        <v>-592400</v>
       </c>
       <c r="I91" s="3">
-        <v>-222400</v>
+        <v>-264700</v>
       </c>
       <c r="J91" s="3">
+        <v>-230500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-120100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-137500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-172600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-169600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-219400</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3702,48 +3928,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>451900</v>
+        <v>-303600</v>
       </c>
       <c r="E94" s="3">
-        <v>-496900</v>
+        <v>490500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1438000</v>
+        <v>-515100</v>
       </c>
       <c r="G94" s="3">
-        <v>-731100</v>
+        <v>-1490700</v>
       </c>
       <c r="H94" s="3">
-        <v>-7500</v>
+        <v>-757900</v>
       </c>
       <c r="I94" s="3">
-        <v>-500800</v>
+        <v>-7800</v>
       </c>
       <c r="J94" s="3">
+        <v>-519200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-164000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>101600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-161400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-230800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-183300</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3759,47 +3991,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-113300</v>
+        <v>-161500</v>
       </c>
       <c r="E96" s="3">
-        <v>-141600</v>
+        <v>-117500</v>
       </c>
       <c r="F96" s="3">
-        <v>-156200</v>
+        <v>-146800</v>
       </c>
       <c r="G96" s="3">
-        <v>-98800</v>
+        <v>-161900</v>
       </c>
       <c r="H96" s="3">
-        <v>-63600</v>
+        <v>-102500</v>
       </c>
       <c r="I96" s="3">
-        <v>-58200</v>
+        <v>-66000</v>
       </c>
       <c r="J96" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-54700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-70400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-134000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-179900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-176400</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3914,124 +4156,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1249400</v>
+        <v>-385300</v>
       </c>
       <c r="E100" s="3">
-        <v>332400</v>
+        <v>-1400700</v>
       </c>
       <c r="F100" s="3">
-        <v>806000</v>
+        <v>344600</v>
       </c>
       <c r="G100" s="3">
-        <v>-210700</v>
+        <v>835500</v>
       </c>
       <c r="H100" s="3">
-        <v>-376600</v>
+        <v>-218500</v>
       </c>
       <c r="I100" s="3">
-        <v>158700</v>
+        <v>-390400</v>
       </c>
       <c r="J100" s="3">
+        <v>164500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-213800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-514700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-456100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-223700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-314700</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>69100</v>
+        <v>73700</v>
       </c>
       <c r="E101" s="3">
-        <v>-13900</v>
+        <v>71600</v>
       </c>
       <c r="F101" s="3">
-        <v>-4900</v>
+        <v>-14400</v>
       </c>
       <c r="G101" s="3">
-        <v>-34100</v>
+        <v>-5100</v>
       </c>
       <c r="H101" s="3">
-        <v>17700</v>
+        <v>-35300</v>
       </c>
       <c r="I101" s="3">
-        <v>-18900</v>
+        <v>18400</v>
       </c>
       <c r="J101" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-22100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>42400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>94700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>49900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-18300</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>142900</v>
+        <v>-275400</v>
       </c>
       <c r="E102" s="3">
-        <v>275700</v>
+        <v>148100</v>
       </c>
       <c r="F102" s="3">
-        <v>-101400</v>
+        <v>285800</v>
       </c>
       <c r="G102" s="3">
-        <v>-319500</v>
+        <v>-105100</v>
       </c>
       <c r="H102" s="3">
-        <v>309900</v>
+        <v>-331200</v>
       </c>
       <c r="I102" s="3">
-        <v>58100</v>
+        <v>321300</v>
       </c>
       <c r="J102" s="3">
+        <v>60200</v>
+      </c>
+      <c r="K102" s="3">
         <v>29200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-82400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>287400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-24600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-49800</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>SSDOY</t>
   </si>
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7845100</v>
+        <v>7695600</v>
       </c>
       <c r="E8" s="3">
-        <v>7423300</v>
+        <v>7281900</v>
       </c>
       <c r="F8" s="3">
-        <v>6768500</v>
+        <v>6639600</v>
       </c>
       <c r="G8" s="3">
-        <v>8316900</v>
+        <v>8158500</v>
       </c>
       <c r="H8" s="3">
-        <v>8047000</v>
+        <v>7893700</v>
       </c>
       <c r="I8" s="3">
-        <v>7387200</v>
+        <v>7246500</v>
       </c>
       <c r="J8" s="3">
-        <v>6249700</v>
+        <v>6130700</v>
       </c>
       <c r="K8" s="3">
         <v>5410100</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2375500</v>
+        <v>2330200</v>
       </c>
       <c r="E9" s="3">
-        <v>1997800</v>
+        <v>1959700</v>
       </c>
       <c r="F9" s="3">
-        <v>1752200</v>
+        <v>1718900</v>
       </c>
       <c r="G9" s="3">
-        <v>1873100</v>
+        <v>1837400</v>
       </c>
       <c r="H9" s="3">
-        <v>1704700</v>
+        <v>1672200</v>
       </c>
       <c r="I9" s="3">
-        <v>1700300</v>
+        <v>1667900</v>
       </c>
       <c r="J9" s="3">
-        <v>1525500</v>
+        <v>1496500</v>
       </c>
       <c r="K9" s="3">
         <v>1389700</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5469600</v>
+        <v>5365400</v>
       </c>
       <c r="E10" s="3">
-        <v>5425500</v>
+        <v>5322100</v>
       </c>
       <c r="F10" s="3">
-        <v>5016300</v>
+        <v>4920700</v>
       </c>
       <c r="G10" s="3">
-        <v>6443800</v>
+        <v>6321000</v>
       </c>
       <c r="H10" s="3">
-        <v>6342300</v>
+        <v>6221500</v>
       </c>
       <c r="I10" s="3">
-        <v>5687000</v>
+        <v>5578600</v>
       </c>
       <c r="J10" s="3">
-        <v>4724200</v>
+        <v>4634200</v>
       </c>
       <c r="K10" s="3">
         <v>4020400</v>
@@ -874,22 +874,22 @@
         <v>91</v>
       </c>
       <c r="E12" s="3">
-        <v>188300</v>
+        <v>184700</v>
       </c>
       <c r="F12" s="3">
-        <v>198400</v>
+        <v>194600</v>
       </c>
       <c r="G12" s="3">
-        <v>233000</v>
+        <v>228500</v>
       </c>
       <c r="H12" s="3">
-        <v>214100</v>
+        <v>210000</v>
       </c>
       <c r="I12" s="3">
-        <v>178100</v>
+        <v>174700</v>
       </c>
       <c r="J12" s="3">
-        <v>134200</v>
+        <v>131700</v>
       </c>
       <c r="K12" s="3">
         <v>80100</v>
@@ -954,26 +954,26 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>91</v>
+      <c r="D14" s="3">
+        <v>-122500</v>
       </c>
       <c r="E14" s="3">
-        <v>340100</v>
+        <v>-570600</v>
       </c>
       <c r="F14" s="3">
-        <v>136300</v>
+        <v>133700</v>
       </c>
       <c r="G14" s="3">
-        <v>26600</v>
+        <v>26100</v>
       </c>
       <c r="H14" s="3">
-        <v>67000</v>
+        <v>65800</v>
       </c>
       <c r="I14" s="3">
-        <v>579900</v>
+        <v>568900</v>
       </c>
       <c r="J14" s="3">
-        <v>35200</v>
+        <v>34500</v>
       </c>
       <c r="K14" s="3">
         <v>17400</v>
@@ -1054,25 +1054,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>7502800</v>
+        <v>7361800</v>
       </c>
       <c r="E17" s="3">
-        <v>6684100</v>
+        <v>6558900</v>
       </c>
       <c r="F17" s="3">
-        <v>6794900</v>
+        <v>6665400</v>
       </c>
       <c r="G17" s="3">
-        <v>7506800</v>
+        <v>7363800</v>
       </c>
       <c r="H17" s="3">
-        <v>7317600</v>
+        <v>7178300</v>
       </c>
       <c r="I17" s="3">
-        <v>7375900</v>
+        <v>7235400</v>
       </c>
       <c r="J17" s="3">
-        <v>6014600</v>
+        <v>5900000</v>
       </c>
       <c r="K17" s="3">
         <v>5160500</v>
@@ -1096,25 +1096,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>342300</v>
+        <v>333800</v>
       </c>
       <c r="E18" s="3">
-        <v>739200</v>
+        <v>723000</v>
       </c>
       <c r="F18" s="3">
-        <v>-26300</v>
+        <v>-25800</v>
       </c>
       <c r="G18" s="3">
-        <v>810100</v>
+        <v>794600</v>
       </c>
       <c r="H18" s="3">
-        <v>729300</v>
+        <v>715400</v>
       </c>
       <c r="I18" s="3">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="J18" s="3">
-        <v>235200</v>
+        <v>230700</v>
       </c>
       <c r="K18" s="3">
         <v>249600</v>
@@ -1156,25 +1156,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>28300</v>
+        <v>46600</v>
       </c>
       <c r="E20" s="3">
-        <v>3100</v>
+        <v>28800</v>
       </c>
       <c r="F20" s="3">
-        <v>27700</v>
+        <v>27200</v>
       </c>
       <c r="G20" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="H20" s="3">
-        <v>43000</v>
+        <v>42200</v>
       </c>
       <c r="I20" s="3">
-        <v>279400</v>
+        <v>274100</v>
       </c>
       <c r="J20" s="3">
-        <v>137300</v>
+        <v>134700</v>
       </c>
       <c r="K20" s="3">
         <v>60300</v>
@@ -1198,25 +1198,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>921900</v>
+        <v>930100</v>
       </c>
       <c r="E21" s="3">
-        <v>1345900</v>
+        <v>1353800</v>
       </c>
       <c r="F21" s="3">
-        <v>492400</v>
+        <v>491000</v>
       </c>
       <c r="G21" s="3">
-        <v>1231300</v>
+        <v>1214800</v>
       </c>
       <c r="H21" s="3">
-        <v>1091500</v>
+        <v>1075900</v>
       </c>
       <c r="I21" s="3">
-        <v>609900</v>
+        <v>603500</v>
       </c>
       <c r="J21" s="3">
-        <v>659300</v>
+        <v>651400</v>
       </c>
       <c r="K21" s="3">
         <v>562100</v>
@@ -1239,26 +1239,26 @@
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>91</v>
+      <c r="D22" s="3">
+        <v>16800</v>
       </c>
       <c r="E22" s="3">
-        <v>13800</v>
+        <v>37200</v>
       </c>
       <c r="F22" s="3">
-        <v>16400</v>
+        <v>16000</v>
       </c>
       <c r="G22" s="3">
-        <v>16800</v>
+        <v>16500</v>
       </c>
       <c r="H22" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="I22" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="J22" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="K22" s="3">
         <v>5700</v>
@@ -1282,25 +1282,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>370600</v>
+        <v>363600</v>
       </c>
       <c r="E23" s="3">
-        <v>728500</v>
+        <v>714600</v>
       </c>
       <c r="F23" s="3">
-        <v>-15000</v>
+        <v>-14700</v>
       </c>
       <c r="G23" s="3">
-        <v>789200</v>
+        <v>774200</v>
       </c>
       <c r="H23" s="3">
-        <v>766700</v>
+        <v>752100</v>
       </c>
       <c r="I23" s="3">
-        <v>283400</v>
+        <v>278000</v>
       </c>
       <c r="J23" s="3">
-        <v>366500</v>
+        <v>359500</v>
       </c>
       <c r="K23" s="3">
         <v>304100</v>
@@ -1324,25 +1324,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>94400</v>
+        <v>92600</v>
       </c>
       <c r="E24" s="3">
-        <v>365000</v>
+        <v>358100</v>
       </c>
       <c r="F24" s="3">
-        <v>52000</v>
+        <v>51000</v>
       </c>
       <c r="G24" s="3">
-        <v>221100</v>
+        <v>216800</v>
       </c>
       <c r="H24" s="3">
-        <v>289600</v>
+        <v>284100</v>
       </c>
       <c r="I24" s="3">
-        <v>97000</v>
+        <v>95200</v>
       </c>
       <c r="J24" s="3">
-        <v>117200</v>
+        <v>114900</v>
       </c>
       <c r="K24" s="3">
         <v>122600</v>
@@ -1408,25 +1408,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>276200</v>
+        <v>271000</v>
       </c>
       <c r="E26" s="3">
-        <v>363500</v>
+        <v>356500</v>
       </c>
       <c r="F26" s="3">
-        <v>-67000</v>
+        <v>-65700</v>
       </c>
       <c r="G26" s="3">
-        <v>568200</v>
+        <v>557300</v>
       </c>
       <c r="H26" s="3">
-        <v>477100</v>
+        <v>468000</v>
       </c>
       <c r="I26" s="3">
-        <v>186400</v>
+        <v>182800</v>
       </c>
       <c r="J26" s="3">
-        <v>249300</v>
+        <v>244600</v>
       </c>
       <c r="K26" s="3">
         <v>181500</v>
@@ -1450,25 +1450,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>251400</v>
+        <v>246600</v>
       </c>
       <c r="E27" s="3">
-        <v>326600</v>
+        <v>320400</v>
       </c>
       <c r="F27" s="3">
-        <v>-85700</v>
+        <v>-84100</v>
       </c>
       <c r="G27" s="3">
-        <v>540700</v>
+        <v>530400</v>
       </c>
       <c r="H27" s="3">
-        <v>451300</v>
+        <v>442700</v>
       </c>
       <c r="I27" s="3">
-        <v>167200</v>
+        <v>164000</v>
       </c>
       <c r="J27" s="3">
-        <v>235900</v>
+        <v>231400</v>
       </c>
       <c r="K27" s="3">
         <v>164600</v>
@@ -1660,25 +1660,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-28300</v>
+        <v>-46600</v>
       </c>
       <c r="E32" s="3">
-        <v>-3100</v>
+        <v>-28800</v>
       </c>
       <c r="F32" s="3">
-        <v>-27700</v>
+        <v>-27200</v>
       </c>
       <c r="G32" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="H32" s="3">
-        <v>-43000</v>
+        <v>-42200</v>
       </c>
       <c r="I32" s="3">
-        <v>-279400</v>
+        <v>-274100</v>
       </c>
       <c r="J32" s="3">
-        <v>-137300</v>
+        <v>-134700</v>
       </c>
       <c r="K32" s="3">
         <v>-60300</v>
@@ -1702,25 +1702,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>251400</v>
+        <v>246600</v>
       </c>
       <c r="E33" s="3">
-        <v>326600</v>
+        <v>320400</v>
       </c>
       <c r="F33" s="3">
-        <v>-85700</v>
+        <v>-84100</v>
       </c>
       <c r="G33" s="3">
-        <v>540700</v>
+        <v>530400</v>
       </c>
       <c r="H33" s="3">
-        <v>451300</v>
+        <v>442700</v>
       </c>
       <c r="I33" s="3">
-        <v>167200</v>
+        <v>164000</v>
       </c>
       <c r="J33" s="3">
-        <v>235900</v>
+        <v>231400</v>
       </c>
       <c r="K33" s="3">
         <v>164600</v>
@@ -1786,25 +1786,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>251400</v>
+        <v>246600</v>
       </c>
       <c r="E35" s="3">
-        <v>326600</v>
+        <v>320400</v>
       </c>
       <c r="F35" s="3">
-        <v>-85700</v>
+        <v>-84100</v>
       </c>
       <c r="G35" s="3">
-        <v>540700</v>
+        <v>530400</v>
       </c>
       <c r="H35" s="3">
-        <v>451300</v>
+        <v>442700</v>
       </c>
       <c r="I35" s="3">
-        <v>167200</v>
+        <v>164000</v>
       </c>
       <c r="J35" s="3">
-        <v>235900</v>
+        <v>231400</v>
       </c>
       <c r="K35" s="3">
         <v>164600</v>
@@ -1911,25 +1911,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>874900</v>
+        <v>858200</v>
       </c>
       <c r="E41" s="3">
-        <v>2414900</v>
+        <v>3497300</v>
       </c>
       <c r="F41" s="3">
-        <v>955600</v>
+        <v>937400</v>
       </c>
       <c r="G41" s="3">
-        <v>811000</v>
+        <v>795600</v>
       </c>
       <c r="H41" s="3">
-        <v>925300</v>
+        <v>907700</v>
       </c>
       <c r="I41" s="3">
-        <v>1225200</v>
+        <v>1201900</v>
       </c>
       <c r="J41" s="3">
-        <v>882900</v>
+        <v>866100</v>
       </c>
       <c r="K41" s="3">
         <v>827900</v>
@@ -1953,13 +1953,13 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>136000</v>
+        <v>133400</v>
       </c>
       <c r="E42" s="3">
-        <v>120800</v>
+        <v>118500</v>
       </c>
       <c r="F42" s="3">
-        <v>154300</v>
+        <v>151400</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>91</v>
@@ -1968,10 +1968,10 @@
         <v>91</v>
       </c>
       <c r="I42" s="3">
-        <v>57200</v>
+        <v>56100</v>
       </c>
       <c r="J42" s="3">
-        <v>58100</v>
+        <v>57000</v>
       </c>
       <c r="K42" s="3">
         <v>54500</v>
@@ -1995,25 +1995,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1338200</v>
+        <v>1312700</v>
       </c>
       <c r="E43" s="3">
-        <v>2248200</v>
+        <v>3350200</v>
       </c>
       <c r="F43" s="3">
-        <v>1037000</v>
+        <v>1017200</v>
       </c>
       <c r="G43" s="3">
-        <v>1250700</v>
+        <v>1226900</v>
       </c>
       <c r="H43" s="3">
-        <v>1209100</v>
+        <v>1186100</v>
       </c>
       <c r="I43" s="3">
-        <v>1178400</v>
+        <v>1156000</v>
       </c>
       <c r="J43" s="3">
-        <v>991000</v>
+        <v>972200</v>
       </c>
       <c r="K43" s="3">
         <v>889300</v>
@@ -2037,25 +2037,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>962400</v>
+        <v>944100</v>
       </c>
       <c r="E44" s="3">
-        <v>2042600</v>
+        <v>2970900</v>
       </c>
       <c r="F44" s="3">
-        <v>1249700</v>
+        <v>1225900</v>
       </c>
       <c r="G44" s="3">
-        <v>1331100</v>
+        <v>1305800</v>
       </c>
       <c r="H44" s="3">
-        <v>1100900</v>
+        <v>1080000</v>
       </c>
       <c r="I44" s="3">
-        <v>955200</v>
+        <v>937000</v>
       </c>
       <c r="J44" s="3">
-        <v>1700400</v>
+        <v>1668000</v>
       </c>
       <c r="K44" s="3">
         <v>751000</v>
@@ -2079,25 +2079,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>541600</v>
+        <v>531300</v>
       </c>
       <c r="E45" s="3">
-        <v>345800</v>
+        <v>339200</v>
       </c>
       <c r="F45" s="3">
-        <v>386900</v>
+        <v>379500</v>
       </c>
       <c r="G45" s="3">
-        <v>521900</v>
+        <v>512000</v>
       </c>
       <c r="H45" s="3">
-        <v>532900</v>
+        <v>522700</v>
       </c>
       <c r="I45" s="3">
-        <v>451900</v>
+        <v>443300</v>
       </c>
       <c r="J45" s="3">
-        <v>392200</v>
+        <v>384800</v>
       </c>
       <c r="K45" s="3">
         <v>388900</v>
@@ -2121,25 +2121,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>3853100</v>
+        <v>3779700</v>
       </c>
       <c r="E46" s="3">
-        <v>3770000</v>
+        <v>3698200</v>
       </c>
       <c r="F46" s="3">
-        <v>3783500</v>
+        <v>3711400</v>
       </c>
       <c r="G46" s="3">
-        <v>3914800</v>
+        <v>3840200</v>
       </c>
       <c r="H46" s="3">
-        <v>3550000</v>
+        <v>3482400</v>
       </c>
       <c r="I46" s="3">
-        <v>3867900</v>
+        <v>3794200</v>
       </c>
       <c r="J46" s="3">
-        <v>3174500</v>
+        <v>3114000</v>
       </c>
       <c r="K46" s="3">
         <v>2911700</v>
@@ -2163,25 +2163,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>736700</v>
+        <v>722700</v>
       </c>
       <c r="E47" s="3">
-        <v>1001600</v>
+        <v>982500</v>
       </c>
       <c r="F47" s="3">
-        <v>98400</v>
+        <v>96500</v>
       </c>
       <c r="G47" s="3">
-        <v>102000</v>
+        <v>100100</v>
       </c>
       <c r="H47" s="3">
-        <v>338000</v>
+        <v>331600</v>
       </c>
       <c r="I47" s="3">
-        <v>192000</v>
+        <v>188400</v>
       </c>
       <c r="J47" s="3">
-        <v>367500</v>
+        <v>360500</v>
       </c>
       <c r="K47" s="3">
         <v>197000</v>
@@ -2205,25 +2205,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>3179700</v>
+        <v>3119200</v>
       </c>
       <c r="E48" s="3">
-        <v>6065800</v>
+        <v>9323500</v>
       </c>
       <c r="F48" s="3">
-        <v>2506700</v>
+        <v>2458900</v>
       </c>
       <c r="G48" s="3">
-        <v>2313500</v>
+        <v>2269400</v>
       </c>
       <c r="H48" s="3">
-        <v>1728600</v>
+        <v>1695700</v>
       </c>
       <c r="I48" s="3">
-        <v>1166300</v>
+        <v>1144100</v>
       </c>
       <c r="J48" s="3">
-        <v>1148000</v>
+        <v>1126200</v>
       </c>
       <c r="K48" s="3">
         <v>952100</v>
@@ -2247,25 +2247,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1331100</v>
+        <v>1305700</v>
       </c>
       <c r="E49" s="3">
-        <v>1871100</v>
+        <v>2933100</v>
       </c>
       <c r="F49" s="3">
-        <v>1774200</v>
+        <v>1740400</v>
       </c>
       <c r="G49" s="3">
-        <v>1831700</v>
+        <v>1796800</v>
       </c>
       <c r="H49" s="3">
-        <v>1215700</v>
+        <v>1192600</v>
       </c>
       <c r="I49" s="3">
-        <v>1239100</v>
+        <v>1215500</v>
       </c>
       <c r="J49" s="3">
-        <v>1810500</v>
+        <v>1776100</v>
       </c>
       <c r="K49" s="3">
         <v>1144300</v>
@@ -2373,25 +2373,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>510700</v>
+        <v>501000</v>
       </c>
       <c r="E52" s="3">
-        <v>827900</v>
+        <v>812100</v>
       </c>
       <c r="F52" s="3">
-        <v>688300</v>
+        <v>675200</v>
       </c>
       <c r="G52" s="3">
-        <v>796200</v>
+        <v>781000</v>
       </c>
       <c r="H52" s="3">
-        <v>757600</v>
+        <v>743200</v>
       </c>
       <c r="I52" s="3">
-        <v>512900</v>
+        <v>503100</v>
       </c>
       <c r="J52" s="3">
-        <v>551700</v>
+        <v>541200</v>
       </c>
       <c r="K52" s="3">
         <v>527500</v>
@@ -2457,25 +2457,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>9611300</v>
+        <v>9428200</v>
       </c>
       <c r="E54" s="3">
-        <v>9562200</v>
+        <v>9380100</v>
       </c>
       <c r="F54" s="3">
-        <v>8851100</v>
+        <v>8682500</v>
       </c>
       <c r="G54" s="3">
-        <v>8958100</v>
+        <v>8787500</v>
       </c>
       <c r="H54" s="3">
-        <v>7420700</v>
+        <v>7279300</v>
       </c>
       <c r="I54" s="3">
-        <v>6978300</v>
+        <v>6845400</v>
       </c>
       <c r="J54" s="3">
-        <v>6869200</v>
+        <v>6738400</v>
       </c>
       <c r="K54" s="3">
         <v>5732600</v>
@@ -2535,25 +2535,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1497700</v>
+        <v>770300</v>
       </c>
       <c r="E57" s="3">
-        <v>2001600</v>
+        <v>2710200</v>
       </c>
       <c r="F57" s="3">
-        <v>565400</v>
+        <v>554600</v>
       </c>
       <c r="G57" s="3">
-        <v>712500</v>
+        <v>698900</v>
       </c>
       <c r="H57" s="3">
-        <v>751800</v>
+        <v>737500</v>
       </c>
       <c r="I57" s="3">
-        <v>639700</v>
+        <v>627500</v>
       </c>
       <c r="J57" s="3">
-        <v>612900</v>
+        <v>601300</v>
       </c>
       <c r="K57" s="3">
         <v>441800</v>
@@ -2577,25 +2577,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>365600</v>
+        <v>358700</v>
       </c>
       <c r="E58" s="3">
-        <v>490100</v>
+        <v>594200</v>
       </c>
       <c r="F58" s="3">
-        <v>573800</v>
+        <v>562900</v>
       </c>
       <c r="G58" s="3">
-        <v>1080000</v>
+        <v>1059400</v>
       </c>
       <c r="H58" s="3">
-        <v>111700</v>
+        <v>109600</v>
       </c>
       <c r="I58" s="3">
-        <v>78400</v>
+        <v>76900</v>
       </c>
       <c r="J58" s="3">
-        <v>121700</v>
+        <v>119400</v>
       </c>
       <c r="K58" s="3">
         <v>134700</v>
@@ -2619,25 +2619,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>999900</v>
+        <v>1679800</v>
       </c>
       <c r="E59" s="3">
-        <v>2357100</v>
+        <v>3034200</v>
       </c>
       <c r="F59" s="3">
-        <v>1455100</v>
+        <v>1427400</v>
       </c>
       <c r="G59" s="3">
-        <v>1620000</v>
+        <v>1589100</v>
       </c>
       <c r="H59" s="3">
-        <v>1635000</v>
+        <v>1603800</v>
       </c>
       <c r="I59" s="3">
-        <v>1423600</v>
+        <v>1396500</v>
       </c>
       <c r="J59" s="3">
-        <v>1078500</v>
+        <v>1058000</v>
       </c>
       <c r="K59" s="3">
         <v>889600</v>
@@ -2661,25 +2661,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2863300</v>
+        <v>2808700</v>
       </c>
       <c r="E60" s="3">
-        <v>3039700</v>
+        <v>2981800</v>
       </c>
       <c r="F60" s="3">
-        <v>2594400</v>
+        <v>2545000</v>
       </c>
       <c r="G60" s="3">
-        <v>3412400</v>
+        <v>3347400</v>
       </c>
       <c r="H60" s="3">
-        <v>2498600</v>
+        <v>2451000</v>
       </c>
       <c r="I60" s="3">
-        <v>2141600</v>
+        <v>2100800</v>
       </c>
       <c r="J60" s="3">
-        <v>1813100</v>
+        <v>1778600</v>
       </c>
       <c r="K60" s="3">
         <v>1466100</v>
@@ -2703,25 +2703,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1818700</v>
+        <v>1784000</v>
       </c>
       <c r="E61" s="3">
-        <v>1946500</v>
+        <v>1909400</v>
       </c>
       <c r="F61" s="3">
-        <v>2195200</v>
+        <v>2153300</v>
       </c>
       <c r="G61" s="3">
-        <v>1113800</v>
+        <v>1092600</v>
       </c>
       <c r="H61" s="3">
-        <v>843300</v>
+        <v>827200</v>
       </c>
       <c r="I61" s="3">
-        <v>955100</v>
+        <v>937000</v>
       </c>
       <c r="J61" s="3">
-        <v>764600</v>
+        <v>750000</v>
       </c>
       <c r="K61" s="3">
         <v>479400</v>
@@ -2745,25 +2745,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>330000</v>
+        <v>323800</v>
       </c>
       <c r="E62" s="3">
-        <v>742400</v>
+        <v>728200</v>
       </c>
       <c r="F62" s="3">
-        <v>338100</v>
+        <v>331600</v>
       </c>
       <c r="G62" s="3">
-        <v>625700</v>
+        <v>613700</v>
       </c>
       <c r="H62" s="3">
-        <v>635600</v>
+        <v>623500</v>
       </c>
       <c r="I62" s="3">
-        <v>604300</v>
+        <v>592800</v>
       </c>
       <c r="J62" s="3">
-        <v>1249600</v>
+        <v>1225800</v>
       </c>
       <c r="K62" s="3">
         <v>856600</v>
@@ -2913,25 +2913,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>5170000</v>
+        <v>5071500</v>
       </c>
       <c r="E66" s="3">
-        <v>5588100</v>
+        <v>5481600</v>
       </c>
       <c r="F66" s="3">
-        <v>5281300</v>
+        <v>5180700</v>
       </c>
       <c r="G66" s="3">
-        <v>5300000</v>
+        <v>5199100</v>
       </c>
       <c r="H66" s="3">
-        <v>4116600</v>
+        <v>4038200</v>
       </c>
       <c r="I66" s="3">
-        <v>3859500</v>
+        <v>3786000</v>
       </c>
       <c r="J66" s="3">
-        <v>3974900</v>
+        <v>3899200</v>
       </c>
       <c r="K66" s="3">
         <v>2949600</v>
@@ -3141,25 +3141,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2902300</v>
+        <v>2847100</v>
       </c>
       <c r="E72" s="3">
-        <v>5435900</v>
+        <v>5332300</v>
       </c>
       <c r="F72" s="3">
-        <v>2507900</v>
+        <v>2460200</v>
       </c>
       <c r="G72" s="3">
-        <v>2739300</v>
+        <v>2687200</v>
       </c>
       <c r="H72" s="3">
-        <v>2351700</v>
+        <v>2306900</v>
       </c>
       <c r="I72" s="3">
-        <v>2003300</v>
+        <v>1965100</v>
       </c>
       <c r="J72" s="3">
-        <v>1902300</v>
+        <v>1866100</v>
       </c>
       <c r="K72" s="3">
         <v>1664700</v>
@@ -3309,25 +3309,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>4441300</v>
+        <v>4356700</v>
       </c>
       <c r="E76" s="3">
-        <v>3974100</v>
+        <v>3898400</v>
       </c>
       <c r="F76" s="3">
-        <v>3569800</v>
+        <v>3501800</v>
       </c>
       <c r="G76" s="3">
-        <v>3658100</v>
+        <v>3588400</v>
       </c>
       <c r="H76" s="3">
-        <v>3304100</v>
+        <v>3241100</v>
       </c>
       <c r="I76" s="3">
-        <v>3118800</v>
+        <v>3059400</v>
       </c>
       <c r="J76" s="3">
-        <v>2894300</v>
+        <v>2839200</v>
       </c>
       <c r="K76" s="3">
         <v>2783000</v>
@@ -3440,25 +3440,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>251400</v>
+        <v>246600</v>
       </c>
       <c r="E81" s="3">
-        <v>326600</v>
+        <v>320400</v>
       </c>
       <c r="F81" s="3">
-        <v>-85700</v>
+        <v>-84100</v>
       </c>
       <c r="G81" s="3">
-        <v>540700</v>
+        <v>530400</v>
       </c>
       <c r="H81" s="3">
-        <v>451300</v>
+        <v>442700</v>
       </c>
       <c r="I81" s="3">
-        <v>167200</v>
+        <v>164000</v>
       </c>
       <c r="J81" s="3">
-        <v>235900</v>
+        <v>231400</v>
       </c>
       <c r="K81" s="3">
         <v>164600</v>
@@ -3500,25 +3500,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>556500</v>
+        <v>545900</v>
       </c>
       <c r="E83" s="3">
-        <v>609500</v>
+        <v>597800</v>
       </c>
       <c r="F83" s="3">
-        <v>495700</v>
+        <v>486300</v>
       </c>
       <c r="G83" s="3">
-        <v>429300</v>
+        <v>421100</v>
       </c>
       <c r="H83" s="3">
-        <v>322300</v>
+        <v>316100</v>
       </c>
       <c r="I83" s="3">
-        <v>322300</v>
+        <v>316200</v>
       </c>
       <c r="J83" s="3">
-        <v>289600</v>
+        <v>284000</v>
       </c>
       <c r="K83" s="3">
         <v>261900</v>
@@ -3752,25 +3752,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>339800</v>
+        <v>333400</v>
       </c>
       <c r="E89" s="3">
-        <v>986700</v>
+        <v>967900</v>
       </c>
       <c r="F89" s="3">
-        <v>470700</v>
+        <v>461800</v>
       </c>
       <c r="G89" s="3">
-        <v>555200</v>
+        <v>544600</v>
       </c>
       <c r="H89" s="3">
-        <v>680400</v>
+        <v>667500</v>
       </c>
       <c r="I89" s="3">
-        <v>701100</v>
+        <v>687800</v>
       </c>
       <c r="J89" s="3">
-        <v>434600</v>
+        <v>426300</v>
       </c>
       <c r="K89" s="3">
         <v>429200</v>
@@ -3812,25 +3812,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-266700</v>
+        <v>-261600</v>
       </c>
       <c r="E91" s="3">
-        <v>-553400</v>
+        <v>-542800</v>
       </c>
       <c r="F91" s="3">
-        <v>-414200</v>
+        <v>-406300</v>
       </c>
       <c r="G91" s="3">
-        <v>-677700</v>
+        <v>-664800</v>
       </c>
       <c r="H91" s="3">
-        <v>-592400</v>
+        <v>-581100</v>
       </c>
       <c r="I91" s="3">
-        <v>-264700</v>
+        <v>-259700</v>
       </c>
       <c r="J91" s="3">
-        <v>-230500</v>
+        <v>-226100</v>
       </c>
       <c r="K91" s="3">
         <v>-120100</v>
@@ -3938,25 +3938,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-303600</v>
+        <v>-297800</v>
       </c>
       <c r="E94" s="3">
-        <v>490500</v>
+        <v>481100</v>
       </c>
       <c r="F94" s="3">
-        <v>-515100</v>
+        <v>-505300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1490700</v>
+        <v>-1462400</v>
       </c>
       <c r="H94" s="3">
-        <v>-757900</v>
+        <v>-743400</v>
       </c>
       <c r="I94" s="3">
-        <v>-7800</v>
+        <v>-7600</v>
       </c>
       <c r="J94" s="3">
-        <v>-519200</v>
+        <v>-509300</v>
       </c>
       <c r="K94" s="3">
         <v>-164000</v>
@@ -3998,25 +3998,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-161500</v>
+        <v>-158400</v>
       </c>
       <c r="E96" s="3">
-        <v>-117500</v>
+        <v>-115300</v>
       </c>
       <c r="F96" s="3">
-        <v>-146800</v>
+        <v>-144000</v>
       </c>
       <c r="G96" s="3">
-        <v>-161900</v>
+        <v>-158800</v>
       </c>
       <c r="H96" s="3">
-        <v>-102500</v>
+        <v>-100500</v>
       </c>
       <c r="I96" s="3">
-        <v>-66000</v>
+        <v>-64700</v>
       </c>
       <c r="J96" s="3">
-        <v>-60400</v>
+        <v>-59200</v>
       </c>
       <c r="K96" s="3">
         <v>-54700</v>
@@ -4166,25 +4166,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-385300</v>
+        <v>-377900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1400700</v>
+        <v>-1374000</v>
       </c>
       <c r="F100" s="3">
-        <v>344600</v>
+        <v>338000</v>
       </c>
       <c r="G100" s="3">
-        <v>835500</v>
+        <v>819600</v>
       </c>
       <c r="H100" s="3">
-        <v>-218500</v>
+        <v>-214300</v>
       </c>
       <c r="I100" s="3">
-        <v>-390400</v>
+        <v>-383000</v>
       </c>
       <c r="J100" s="3">
-        <v>164500</v>
+        <v>161300</v>
       </c>
       <c r="K100" s="3">
         <v>-213800</v>
@@ -4208,25 +4208,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>73700</v>
+        <v>72300</v>
       </c>
       <c r="E101" s="3">
-        <v>71600</v>
+        <v>70300</v>
       </c>
       <c r="F101" s="3">
-        <v>-14400</v>
+        <v>-14100</v>
       </c>
       <c r="G101" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="H101" s="3">
-        <v>-35300</v>
+        <v>-34700</v>
       </c>
       <c r="I101" s="3">
-        <v>18400</v>
+        <v>18000</v>
       </c>
       <c r="J101" s="3">
-        <v>-19600</v>
+        <v>-19300</v>
       </c>
       <c r="K101" s="3">
         <v>-22100</v>
@@ -4250,25 +4250,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-275400</v>
+        <v>-270100</v>
       </c>
       <c r="E102" s="3">
-        <v>148100</v>
+        <v>145300</v>
       </c>
       <c r="F102" s="3">
-        <v>285800</v>
+        <v>280300</v>
       </c>
       <c r="G102" s="3">
-        <v>-105100</v>
+        <v>-103100</v>
       </c>
       <c r="H102" s="3">
-        <v>-331200</v>
+        <v>-324900</v>
       </c>
       <c r="I102" s="3">
-        <v>321300</v>
+        <v>315200</v>
       </c>
       <c r="J102" s="3">
-        <v>60200</v>
+        <v>59100</v>
       </c>
       <c r="K102" s="3">
         <v>29200</v>

--- a/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7695600</v>
+        <v>7332700</v>
       </c>
       <c r="E8" s="3">
-        <v>7281900</v>
+        <v>6938500</v>
       </c>
       <c r="F8" s="3">
-        <v>6639600</v>
+        <v>6326500</v>
       </c>
       <c r="G8" s="3">
-        <v>8158500</v>
+        <v>7773700</v>
       </c>
       <c r="H8" s="3">
-        <v>7893700</v>
+        <v>7521400</v>
       </c>
       <c r="I8" s="3">
-        <v>7246500</v>
+        <v>6904800</v>
       </c>
       <c r="J8" s="3">
-        <v>6130700</v>
+        <v>5841600</v>
       </c>
       <c r="K8" s="3">
         <v>5410100</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2330200</v>
+        <v>2220300</v>
       </c>
       <c r="E9" s="3">
-        <v>1959700</v>
+        <v>1867300</v>
       </c>
       <c r="F9" s="3">
-        <v>1718900</v>
+        <v>1637800</v>
       </c>
       <c r="G9" s="3">
-        <v>1837400</v>
+        <v>1750800</v>
       </c>
       <c r="H9" s="3">
-        <v>1672200</v>
+        <v>1593300</v>
       </c>
       <c r="I9" s="3">
-        <v>1667900</v>
+        <v>1589200</v>
       </c>
       <c r="J9" s="3">
-        <v>1496500</v>
+        <v>1425900</v>
       </c>
       <c r="K9" s="3">
         <v>1389700</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5365400</v>
+        <v>5112400</v>
       </c>
       <c r="E10" s="3">
-        <v>5322100</v>
+        <v>5071100</v>
       </c>
       <c r="F10" s="3">
-        <v>4920700</v>
+        <v>4688700</v>
       </c>
       <c r="G10" s="3">
-        <v>6321000</v>
+        <v>6022900</v>
       </c>
       <c r="H10" s="3">
-        <v>6221500</v>
+        <v>5928100</v>
       </c>
       <c r="I10" s="3">
-        <v>5578600</v>
+        <v>5315600</v>
       </c>
       <c r="J10" s="3">
-        <v>4634200</v>
+        <v>4415700</v>
       </c>
       <c r="K10" s="3">
         <v>4020400</v>
@@ -874,22 +874,22 @@
         <v>91</v>
       </c>
       <c r="E12" s="3">
-        <v>184700</v>
+        <v>176000</v>
       </c>
       <c r="F12" s="3">
-        <v>194600</v>
+        <v>185400</v>
       </c>
       <c r="G12" s="3">
-        <v>228500</v>
+        <v>217800</v>
       </c>
       <c r="H12" s="3">
-        <v>210000</v>
+        <v>200100</v>
       </c>
       <c r="I12" s="3">
-        <v>174700</v>
+        <v>166500</v>
       </c>
       <c r="J12" s="3">
-        <v>131700</v>
+        <v>125500</v>
       </c>
       <c r="K12" s="3">
         <v>80100</v>
@@ -955,25 +955,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-122500</v>
+        <v>-118600</v>
       </c>
       <c r="E14" s="3">
-        <v>-570600</v>
+        <v>-545700</v>
       </c>
       <c r="F14" s="3">
-        <v>133700</v>
+        <v>127400</v>
       </c>
       <c r="G14" s="3">
-        <v>26100</v>
+        <v>24800</v>
       </c>
       <c r="H14" s="3">
-        <v>65800</v>
+        <v>62700</v>
       </c>
       <c r="I14" s="3">
-        <v>568900</v>
+        <v>542100</v>
       </c>
       <c r="J14" s="3">
-        <v>34500</v>
+        <v>32900</v>
       </c>
       <c r="K14" s="3">
         <v>17400</v>
@@ -1054,25 +1054,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>7361800</v>
+        <v>7012800</v>
       </c>
       <c r="E17" s="3">
-        <v>6558900</v>
+        <v>6247500</v>
       </c>
       <c r="F17" s="3">
-        <v>6665400</v>
+        <v>6351100</v>
       </c>
       <c r="G17" s="3">
-        <v>7363800</v>
+        <v>7016600</v>
       </c>
       <c r="H17" s="3">
-        <v>7178300</v>
+        <v>6839800</v>
       </c>
       <c r="I17" s="3">
-        <v>7235400</v>
+        <v>6894200</v>
       </c>
       <c r="J17" s="3">
-        <v>5900000</v>
+        <v>5621800</v>
       </c>
       <c r="K17" s="3">
         <v>5160500</v>
@@ -1096,25 +1096,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>333800</v>
+        <v>319900</v>
       </c>
       <c r="E18" s="3">
-        <v>723000</v>
+        <v>690900</v>
       </c>
       <c r="F18" s="3">
-        <v>-25800</v>
+        <v>-24600</v>
       </c>
       <c r="G18" s="3">
-        <v>794600</v>
+        <v>757200</v>
       </c>
       <c r="H18" s="3">
-        <v>715400</v>
+        <v>681700</v>
       </c>
       <c r="I18" s="3">
-        <v>11100</v>
+        <v>10500</v>
       </c>
       <c r="J18" s="3">
-        <v>230700</v>
+        <v>219800</v>
       </c>
       <c r="K18" s="3">
         <v>249600</v>
@@ -1156,25 +1156,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>46600</v>
+        <v>42500</v>
       </c>
       <c r="E20" s="3">
-        <v>28800</v>
+        <v>25400</v>
       </c>
       <c r="F20" s="3">
-        <v>27200</v>
+        <v>25900</v>
       </c>
       <c r="G20" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="H20" s="3">
-        <v>42200</v>
+        <v>40200</v>
       </c>
       <c r="I20" s="3">
-        <v>274100</v>
+        <v>261100</v>
       </c>
       <c r="J20" s="3">
-        <v>134700</v>
+        <v>128400</v>
       </c>
       <c r="K20" s="3">
         <v>60300</v>
@@ -1198,25 +1198,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>930100</v>
+        <v>882600</v>
       </c>
       <c r="E21" s="3">
-        <v>1353800</v>
+        <v>1286000</v>
       </c>
       <c r="F21" s="3">
-        <v>491000</v>
+        <v>464600</v>
       </c>
       <c r="G21" s="3">
-        <v>1214800</v>
+        <v>1154700</v>
       </c>
       <c r="H21" s="3">
-        <v>1075900</v>
+        <v>1023100</v>
       </c>
       <c r="I21" s="3">
-        <v>603500</v>
+        <v>572900</v>
       </c>
       <c r="J21" s="3">
-        <v>651400</v>
+        <v>618800</v>
       </c>
       <c r="K21" s="3">
         <v>562100</v>
@@ -1240,25 +1240,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="E22" s="3">
-        <v>37200</v>
+        <v>35500</v>
       </c>
       <c r="F22" s="3">
-        <v>16000</v>
+        <v>15300</v>
       </c>
       <c r="G22" s="3">
-        <v>16500</v>
+        <v>15700</v>
       </c>
       <c r="H22" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="I22" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="J22" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="K22" s="3">
         <v>5700</v>
@@ -1282,25 +1282,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>363600</v>
+        <v>346400</v>
       </c>
       <c r="E23" s="3">
-        <v>714600</v>
+        <v>680900</v>
       </c>
       <c r="F23" s="3">
-        <v>-14700</v>
+        <v>-14000</v>
       </c>
       <c r="G23" s="3">
-        <v>774200</v>
+        <v>737700</v>
       </c>
       <c r="H23" s="3">
-        <v>752100</v>
+        <v>716600</v>
       </c>
       <c r="I23" s="3">
-        <v>278000</v>
+        <v>264900</v>
       </c>
       <c r="J23" s="3">
-        <v>359500</v>
+        <v>342600</v>
       </c>
       <c r="K23" s="3">
         <v>304100</v>
@@ -1324,25 +1324,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>92600</v>
+        <v>88200</v>
       </c>
       <c r="E24" s="3">
-        <v>358100</v>
+        <v>341200</v>
       </c>
       <c r="F24" s="3">
-        <v>51000</v>
+        <v>48600</v>
       </c>
       <c r="G24" s="3">
-        <v>216800</v>
+        <v>206600</v>
       </c>
       <c r="H24" s="3">
-        <v>284100</v>
+        <v>270700</v>
       </c>
       <c r="I24" s="3">
-        <v>95200</v>
+        <v>90700</v>
       </c>
       <c r="J24" s="3">
-        <v>114900</v>
+        <v>109500</v>
       </c>
       <c r="K24" s="3">
         <v>122600</v>
@@ -1408,25 +1408,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>271000</v>
+        <v>258200</v>
       </c>
       <c r="E26" s="3">
-        <v>356500</v>
+        <v>339700</v>
       </c>
       <c r="F26" s="3">
-        <v>-65700</v>
+        <v>-62600</v>
       </c>
       <c r="G26" s="3">
-        <v>557300</v>
+        <v>531100</v>
       </c>
       <c r="H26" s="3">
-        <v>468000</v>
+        <v>445900</v>
       </c>
       <c r="I26" s="3">
-        <v>182800</v>
+        <v>174200</v>
       </c>
       <c r="J26" s="3">
-        <v>244600</v>
+        <v>233100</v>
       </c>
       <c r="K26" s="3">
         <v>181500</v>
@@ -1450,25 +1450,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>246600</v>
+        <v>235000</v>
       </c>
       <c r="E27" s="3">
-        <v>320400</v>
+        <v>305300</v>
       </c>
       <c r="F27" s="3">
-        <v>-84100</v>
+        <v>-80100</v>
       </c>
       <c r="G27" s="3">
-        <v>530400</v>
+        <v>505400</v>
       </c>
       <c r="H27" s="3">
-        <v>442700</v>
+        <v>421800</v>
       </c>
       <c r="I27" s="3">
-        <v>164000</v>
+        <v>156300</v>
       </c>
       <c r="J27" s="3">
-        <v>231400</v>
+        <v>220500</v>
       </c>
       <c r="K27" s="3">
         <v>164600</v>
@@ -1660,25 +1660,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-46600</v>
+        <v>-42500</v>
       </c>
       <c r="E32" s="3">
-        <v>-28800</v>
+        <v>-25400</v>
       </c>
       <c r="F32" s="3">
-        <v>-27200</v>
+        <v>-25900</v>
       </c>
       <c r="G32" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="H32" s="3">
-        <v>-42200</v>
+        <v>-40200</v>
       </c>
       <c r="I32" s="3">
-        <v>-274100</v>
+        <v>-261100</v>
       </c>
       <c r="J32" s="3">
-        <v>-134700</v>
+        <v>-128400</v>
       </c>
       <c r="K32" s="3">
         <v>-60300</v>
@@ -1702,25 +1702,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>246600</v>
+        <v>235000</v>
       </c>
       <c r="E33" s="3">
-        <v>320400</v>
+        <v>305300</v>
       </c>
       <c r="F33" s="3">
-        <v>-84100</v>
+        <v>-80100</v>
       </c>
       <c r="G33" s="3">
-        <v>530400</v>
+        <v>505400</v>
       </c>
       <c r="H33" s="3">
-        <v>442700</v>
+        <v>421800</v>
       </c>
       <c r="I33" s="3">
-        <v>164000</v>
+        <v>156300</v>
       </c>
       <c r="J33" s="3">
-        <v>231400</v>
+        <v>220500</v>
       </c>
       <c r="K33" s="3">
         <v>164600</v>
@@ -1786,25 +1786,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>246600</v>
+        <v>235000</v>
       </c>
       <c r="E35" s="3">
-        <v>320400</v>
+        <v>305300</v>
       </c>
       <c r="F35" s="3">
-        <v>-84100</v>
+        <v>-80100</v>
       </c>
       <c r="G35" s="3">
-        <v>530400</v>
+        <v>505400</v>
       </c>
       <c r="H35" s="3">
-        <v>442700</v>
+        <v>421800</v>
       </c>
       <c r="I35" s="3">
-        <v>164000</v>
+        <v>156300</v>
       </c>
       <c r="J35" s="3">
-        <v>231400</v>
+        <v>220500</v>
       </c>
       <c r="K35" s="3">
         <v>164600</v>
@@ -1911,25 +1911,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>858200</v>
+        <v>817800</v>
       </c>
       <c r="E41" s="3">
-        <v>3497300</v>
+        <v>3332400</v>
       </c>
       <c r="F41" s="3">
-        <v>937400</v>
+        <v>893200</v>
       </c>
       <c r="G41" s="3">
-        <v>795600</v>
+        <v>758000</v>
       </c>
       <c r="H41" s="3">
-        <v>907700</v>
+        <v>864900</v>
       </c>
       <c r="I41" s="3">
-        <v>1201900</v>
+        <v>1145200</v>
       </c>
       <c r="J41" s="3">
-        <v>866100</v>
+        <v>825300</v>
       </c>
       <c r="K41" s="3">
         <v>827900</v>
@@ -1953,13 +1953,13 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>133400</v>
+        <v>127100</v>
       </c>
       <c r="E42" s="3">
-        <v>118500</v>
+        <v>112900</v>
       </c>
       <c r="F42" s="3">
-        <v>151400</v>
+        <v>144300</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>91</v>
@@ -1968,10 +1968,10 @@
         <v>91</v>
       </c>
       <c r="I42" s="3">
-        <v>56100</v>
+        <v>53500</v>
       </c>
       <c r="J42" s="3">
-        <v>57000</v>
+        <v>54300</v>
       </c>
       <c r="K42" s="3">
         <v>54500</v>
@@ -1995,25 +1995,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1312700</v>
+        <v>1250800</v>
       </c>
       <c r="E43" s="3">
-        <v>3350200</v>
+        <v>3192200</v>
       </c>
       <c r="F43" s="3">
-        <v>1017200</v>
+        <v>969200</v>
       </c>
       <c r="G43" s="3">
-        <v>1226900</v>
+        <v>1169000</v>
       </c>
       <c r="H43" s="3">
-        <v>1186100</v>
+        <v>1130100</v>
       </c>
       <c r="I43" s="3">
-        <v>1156000</v>
+        <v>1101500</v>
       </c>
       <c r="J43" s="3">
-        <v>972200</v>
+        <v>926300</v>
       </c>
       <c r="K43" s="3">
         <v>889300</v>
@@ -2037,25 +2037,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>944100</v>
+        <v>899600</v>
       </c>
       <c r="E44" s="3">
-        <v>2970900</v>
+        <v>2830800</v>
       </c>
       <c r="F44" s="3">
-        <v>1225900</v>
+        <v>1168100</v>
       </c>
       <c r="G44" s="3">
-        <v>1305800</v>
+        <v>1244200</v>
       </c>
       <c r="H44" s="3">
-        <v>1080000</v>
+        <v>1029000</v>
       </c>
       <c r="I44" s="3">
-        <v>937000</v>
+        <v>892800</v>
       </c>
       <c r="J44" s="3">
-        <v>1668000</v>
+        <v>1589300</v>
       </c>
       <c r="K44" s="3">
         <v>751000</v>
@@ -2079,25 +2079,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>531300</v>
+        <v>506200</v>
       </c>
       <c r="E45" s="3">
-        <v>339200</v>
+        <v>323200</v>
       </c>
       <c r="F45" s="3">
-        <v>379500</v>
+        <v>361600</v>
       </c>
       <c r="G45" s="3">
-        <v>512000</v>
+        <v>487900</v>
       </c>
       <c r="H45" s="3">
-        <v>522700</v>
+        <v>498100</v>
       </c>
       <c r="I45" s="3">
-        <v>443300</v>
+        <v>422400</v>
       </c>
       <c r="J45" s="3">
-        <v>384800</v>
+        <v>366600</v>
       </c>
       <c r="K45" s="3">
         <v>388900</v>
@@ -2121,25 +2121,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>3779700</v>
+        <v>3601500</v>
       </c>
       <c r="E46" s="3">
-        <v>3698200</v>
+        <v>3523800</v>
       </c>
       <c r="F46" s="3">
-        <v>3711400</v>
+        <v>3536400</v>
       </c>
       <c r="G46" s="3">
-        <v>3840200</v>
+        <v>3659100</v>
       </c>
       <c r="H46" s="3">
-        <v>3482400</v>
+        <v>3318200</v>
       </c>
       <c r="I46" s="3">
-        <v>3794200</v>
+        <v>3615300</v>
       </c>
       <c r="J46" s="3">
-        <v>3114000</v>
+        <v>2967200</v>
       </c>
       <c r="K46" s="3">
         <v>2911700</v>
@@ -2163,25 +2163,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>722700</v>
+        <v>688600</v>
       </c>
       <c r="E47" s="3">
-        <v>982500</v>
+        <v>936200</v>
       </c>
       <c r="F47" s="3">
-        <v>96500</v>
+        <v>92000</v>
       </c>
       <c r="G47" s="3">
-        <v>100100</v>
+        <v>95400</v>
       </c>
       <c r="H47" s="3">
-        <v>331600</v>
+        <v>315900</v>
       </c>
       <c r="I47" s="3">
-        <v>188400</v>
+        <v>179500</v>
       </c>
       <c r="J47" s="3">
-        <v>360500</v>
+        <v>343500</v>
       </c>
       <c r="K47" s="3">
         <v>197000</v>
@@ -2205,25 +2205,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>3119200</v>
+        <v>2972100</v>
       </c>
       <c r="E48" s="3">
-        <v>9323500</v>
+        <v>8883900</v>
       </c>
       <c r="F48" s="3">
-        <v>2458900</v>
+        <v>2343000</v>
       </c>
       <c r="G48" s="3">
-        <v>2269400</v>
+        <v>2162400</v>
       </c>
       <c r="H48" s="3">
-        <v>1695700</v>
+        <v>1615700</v>
       </c>
       <c r="I48" s="3">
-        <v>1144100</v>
+        <v>1090100</v>
       </c>
       <c r="J48" s="3">
-        <v>1126200</v>
+        <v>1073100</v>
       </c>
       <c r="K48" s="3">
         <v>952100</v>
@@ -2247,25 +2247,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1305700</v>
+        <v>1244100</v>
       </c>
       <c r="E49" s="3">
-        <v>2933100</v>
+        <v>2794800</v>
       </c>
       <c r="F49" s="3">
-        <v>1740400</v>
+        <v>1658400</v>
       </c>
       <c r="G49" s="3">
-        <v>1796800</v>
+        <v>1712100</v>
       </c>
       <c r="H49" s="3">
-        <v>1192600</v>
+        <v>1136300</v>
       </c>
       <c r="I49" s="3">
-        <v>1215500</v>
+        <v>1158200</v>
       </c>
       <c r="J49" s="3">
-        <v>1776100</v>
+        <v>1692300</v>
       </c>
       <c r="K49" s="3">
         <v>1144300</v>
@@ -2373,25 +2373,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>501000</v>
+        <v>477400</v>
       </c>
       <c r="E52" s="3">
-        <v>812100</v>
+        <v>773800</v>
       </c>
       <c r="F52" s="3">
-        <v>675200</v>
+        <v>643300</v>
       </c>
       <c r="G52" s="3">
-        <v>781000</v>
+        <v>744200</v>
       </c>
       <c r="H52" s="3">
-        <v>743200</v>
+        <v>708100</v>
       </c>
       <c r="I52" s="3">
-        <v>503100</v>
+        <v>479400</v>
       </c>
       <c r="J52" s="3">
-        <v>541200</v>
+        <v>515600</v>
       </c>
       <c r="K52" s="3">
         <v>527500</v>
@@ -2457,25 +2457,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>9428200</v>
+        <v>8983600</v>
       </c>
       <c r="E54" s="3">
-        <v>9380100</v>
+        <v>8937700</v>
       </c>
       <c r="F54" s="3">
-        <v>8682500</v>
+        <v>8273100</v>
       </c>
       <c r="G54" s="3">
-        <v>8787500</v>
+        <v>8373100</v>
       </c>
       <c r="H54" s="3">
-        <v>7279300</v>
+        <v>6936100</v>
       </c>
       <c r="I54" s="3">
-        <v>6845400</v>
+        <v>6522500</v>
       </c>
       <c r="J54" s="3">
-        <v>6738400</v>
+        <v>6420600</v>
       </c>
       <c r="K54" s="3">
         <v>5732600</v>
@@ -2535,25 +2535,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>770300</v>
+        <v>733900</v>
       </c>
       <c r="E57" s="3">
-        <v>2710200</v>
+        <v>2582400</v>
       </c>
       <c r="F57" s="3">
-        <v>554600</v>
+        <v>528500</v>
       </c>
       <c r="G57" s="3">
-        <v>698900</v>
+        <v>666000</v>
       </c>
       <c r="H57" s="3">
-        <v>737500</v>
+        <v>702700</v>
       </c>
       <c r="I57" s="3">
-        <v>627500</v>
+        <v>597900</v>
       </c>
       <c r="J57" s="3">
-        <v>601300</v>
+        <v>572900</v>
       </c>
       <c r="K57" s="3">
         <v>441800</v>
@@ -2577,25 +2577,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>358700</v>
+        <v>341800</v>
       </c>
       <c r="E58" s="3">
-        <v>594200</v>
+        <v>566200</v>
       </c>
       <c r="F58" s="3">
-        <v>562900</v>
+        <v>536400</v>
       </c>
       <c r="G58" s="3">
-        <v>1059400</v>
+        <v>1009400</v>
       </c>
       <c r="H58" s="3">
-        <v>109600</v>
+        <v>104400</v>
       </c>
       <c r="I58" s="3">
-        <v>76900</v>
+        <v>73200</v>
       </c>
       <c r="J58" s="3">
-        <v>119400</v>
+        <v>113700</v>
       </c>
       <c r="K58" s="3">
         <v>134700</v>
@@ -2619,25 +2619,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1679800</v>
+        <v>1600600</v>
       </c>
       <c r="E59" s="3">
-        <v>3034200</v>
+        <v>2891200</v>
       </c>
       <c r="F59" s="3">
-        <v>1427400</v>
+        <v>1360100</v>
       </c>
       <c r="G59" s="3">
-        <v>1589100</v>
+        <v>1514200</v>
       </c>
       <c r="H59" s="3">
-        <v>1603800</v>
+        <v>1528200</v>
       </c>
       <c r="I59" s="3">
-        <v>1396500</v>
+        <v>1330600</v>
       </c>
       <c r="J59" s="3">
-        <v>1058000</v>
+        <v>1008100</v>
       </c>
       <c r="K59" s="3">
         <v>889600</v>
@@ -2661,25 +2661,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2808700</v>
+        <v>2676300</v>
       </c>
       <c r="E60" s="3">
-        <v>2981800</v>
+        <v>2841200</v>
       </c>
       <c r="F60" s="3">
-        <v>2545000</v>
+        <v>2425000</v>
       </c>
       <c r="G60" s="3">
-        <v>3347400</v>
+        <v>3189600</v>
       </c>
       <c r="H60" s="3">
-        <v>2451000</v>
+        <v>2335400</v>
       </c>
       <c r="I60" s="3">
-        <v>2100800</v>
+        <v>2001800</v>
       </c>
       <c r="J60" s="3">
-        <v>1778600</v>
+        <v>1694700</v>
       </c>
       <c r="K60" s="3">
         <v>1466100</v>
@@ -2703,25 +2703,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1784000</v>
+        <v>1699900</v>
       </c>
       <c r="E61" s="3">
-        <v>1909400</v>
+        <v>1819300</v>
       </c>
       <c r="F61" s="3">
-        <v>2153300</v>
+        <v>2051800</v>
       </c>
       <c r="G61" s="3">
-        <v>1092600</v>
+        <v>1041100</v>
       </c>
       <c r="H61" s="3">
-        <v>827200</v>
+        <v>788200</v>
       </c>
       <c r="I61" s="3">
-        <v>937000</v>
+        <v>892800</v>
       </c>
       <c r="J61" s="3">
-        <v>750000</v>
+        <v>714600</v>
       </c>
       <c r="K61" s="3">
         <v>479400</v>
@@ -2745,25 +2745,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>323800</v>
+        <v>308500</v>
       </c>
       <c r="E62" s="3">
-        <v>728200</v>
+        <v>693900</v>
       </c>
       <c r="F62" s="3">
-        <v>331600</v>
+        <v>316000</v>
       </c>
       <c r="G62" s="3">
-        <v>613700</v>
+        <v>584800</v>
       </c>
       <c r="H62" s="3">
-        <v>623500</v>
+        <v>594100</v>
       </c>
       <c r="I62" s="3">
-        <v>592800</v>
+        <v>564900</v>
       </c>
       <c r="J62" s="3">
-        <v>1225800</v>
+        <v>1168000</v>
       </c>
       <c r="K62" s="3">
         <v>856600</v>
@@ -2913,25 +2913,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>5071500</v>
+        <v>4832400</v>
       </c>
       <c r="E66" s="3">
-        <v>5481600</v>
+        <v>5223200</v>
       </c>
       <c r="F66" s="3">
-        <v>5180700</v>
+        <v>4936400</v>
       </c>
       <c r="G66" s="3">
-        <v>5199100</v>
+        <v>4953900</v>
       </c>
       <c r="H66" s="3">
-        <v>4038200</v>
+        <v>3847800</v>
       </c>
       <c r="I66" s="3">
-        <v>3786000</v>
+        <v>3607500</v>
       </c>
       <c r="J66" s="3">
-        <v>3899200</v>
+        <v>3715300</v>
       </c>
       <c r="K66" s="3">
         <v>2949600</v>
@@ -3141,25 +3141,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2847100</v>
+        <v>2712800</v>
       </c>
       <c r="E72" s="3">
-        <v>5332300</v>
+        <v>5080900</v>
       </c>
       <c r="F72" s="3">
-        <v>2460200</v>
+        <v>2344200</v>
       </c>
       <c r="G72" s="3">
-        <v>2687200</v>
+        <v>2560400</v>
       </c>
       <c r="H72" s="3">
-        <v>2306900</v>
+        <v>2198100</v>
       </c>
       <c r="I72" s="3">
-        <v>1965100</v>
+        <v>1872500</v>
       </c>
       <c r="J72" s="3">
-        <v>1866100</v>
+        <v>1778100</v>
       </c>
       <c r="K72" s="3">
         <v>1664700</v>
@@ -3309,25 +3309,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>4356700</v>
+        <v>4151300</v>
       </c>
       <c r="E76" s="3">
-        <v>3898400</v>
+        <v>3714600</v>
       </c>
       <c r="F76" s="3">
-        <v>3501800</v>
+        <v>3336700</v>
       </c>
       <c r="G76" s="3">
-        <v>3588400</v>
+        <v>3419200</v>
       </c>
       <c r="H76" s="3">
-        <v>3241100</v>
+        <v>3088300</v>
       </c>
       <c r="I76" s="3">
-        <v>3059400</v>
+        <v>2915100</v>
       </c>
       <c r="J76" s="3">
-        <v>2839200</v>
+        <v>2705300</v>
       </c>
       <c r="K76" s="3">
         <v>2783000</v>
@@ -3440,25 +3440,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>246600</v>
+        <v>235000</v>
       </c>
       <c r="E81" s="3">
-        <v>320400</v>
+        <v>305300</v>
       </c>
       <c r="F81" s="3">
-        <v>-84100</v>
+        <v>-80100</v>
       </c>
       <c r="G81" s="3">
-        <v>530400</v>
+        <v>505400</v>
       </c>
       <c r="H81" s="3">
-        <v>442700</v>
+        <v>421800</v>
       </c>
       <c r="I81" s="3">
-        <v>164000</v>
+        <v>156300</v>
       </c>
       <c r="J81" s="3">
-        <v>231400</v>
+        <v>220500</v>
       </c>
       <c r="K81" s="3">
         <v>164600</v>
@@ -3500,25 +3500,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>545900</v>
+        <v>520200</v>
       </c>
       <c r="E83" s="3">
-        <v>597800</v>
+        <v>569700</v>
       </c>
       <c r="F83" s="3">
-        <v>486300</v>
+        <v>463400</v>
       </c>
       <c r="G83" s="3">
-        <v>421100</v>
+        <v>401300</v>
       </c>
       <c r="H83" s="3">
-        <v>316100</v>
+        <v>301200</v>
       </c>
       <c r="I83" s="3">
-        <v>316200</v>
+        <v>301200</v>
       </c>
       <c r="J83" s="3">
-        <v>284000</v>
+        <v>270700</v>
       </c>
       <c r="K83" s="3">
         <v>261900</v>
@@ -3752,25 +3752,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>333400</v>
+        <v>317600</v>
       </c>
       <c r="E89" s="3">
-        <v>967900</v>
+        <v>922300</v>
       </c>
       <c r="F89" s="3">
-        <v>461800</v>
+        <v>440000</v>
       </c>
       <c r="G89" s="3">
-        <v>544600</v>
+        <v>518900</v>
       </c>
       <c r="H89" s="3">
-        <v>667500</v>
+        <v>636000</v>
       </c>
       <c r="I89" s="3">
-        <v>687800</v>
+        <v>655300</v>
       </c>
       <c r="J89" s="3">
-        <v>426300</v>
+        <v>406200</v>
       </c>
       <c r="K89" s="3">
         <v>429200</v>
@@ -3812,25 +3812,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-261600</v>
+        <v>-249300</v>
       </c>
       <c r="E91" s="3">
-        <v>-542800</v>
+        <v>-517200</v>
       </c>
       <c r="F91" s="3">
-        <v>-406300</v>
+        <v>-387200</v>
       </c>
       <c r="G91" s="3">
-        <v>-664800</v>
+        <v>-633400</v>
       </c>
       <c r="H91" s="3">
-        <v>-581100</v>
+        <v>-553700</v>
       </c>
       <c r="I91" s="3">
-        <v>-259700</v>
+        <v>-247400</v>
       </c>
       <c r="J91" s="3">
-        <v>-226100</v>
+        <v>-215500</v>
       </c>
       <c r="K91" s="3">
         <v>-120100</v>
@@ -3938,25 +3938,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-297800</v>
+        <v>-283800</v>
       </c>
       <c r="E94" s="3">
-        <v>481100</v>
+        <v>458500</v>
       </c>
       <c r="F94" s="3">
-        <v>-505300</v>
+        <v>-481500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1462400</v>
+        <v>-1393400</v>
       </c>
       <c r="H94" s="3">
-        <v>-743400</v>
+        <v>-708400</v>
       </c>
       <c r="I94" s="3">
-        <v>-7600</v>
+        <v>-7300</v>
       </c>
       <c r="J94" s="3">
-        <v>-509300</v>
+        <v>-485300</v>
       </c>
       <c r="K94" s="3">
         <v>-164000</v>
@@ -3998,25 +3998,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-158400</v>
+        <v>-150900</v>
       </c>
       <c r="E96" s="3">
-        <v>-115300</v>
+        <v>-109800</v>
       </c>
       <c r="F96" s="3">
-        <v>-144000</v>
+        <v>-137200</v>
       </c>
       <c r="G96" s="3">
-        <v>-158800</v>
+        <v>-151300</v>
       </c>
       <c r="H96" s="3">
-        <v>-100500</v>
+        <v>-95800</v>
       </c>
       <c r="I96" s="3">
-        <v>-64700</v>
+        <v>-61700</v>
       </c>
       <c r="J96" s="3">
-        <v>-59200</v>
+        <v>-56400</v>
       </c>
       <c r="K96" s="3">
         <v>-54700</v>
@@ -4166,25 +4166,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-377900</v>
+        <v>-360100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1374000</v>
+        <v>-1309300</v>
       </c>
       <c r="F100" s="3">
-        <v>338000</v>
+        <v>322100</v>
       </c>
       <c r="G100" s="3">
-        <v>819600</v>
+        <v>781000</v>
       </c>
       <c r="H100" s="3">
-        <v>-214300</v>
+        <v>-204200</v>
       </c>
       <c r="I100" s="3">
-        <v>-383000</v>
+        <v>-364900</v>
       </c>
       <c r="J100" s="3">
-        <v>161300</v>
+        <v>153700</v>
       </c>
       <c r="K100" s="3">
         <v>-213800</v>
@@ -4208,25 +4208,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>72300</v>
+        <v>68900</v>
       </c>
       <c r="E101" s="3">
-        <v>70300</v>
+        <v>67000</v>
       </c>
       <c r="F101" s="3">
-        <v>-14100</v>
+        <v>-13500</v>
       </c>
       <c r="G101" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="H101" s="3">
-        <v>-34700</v>
+        <v>-33000</v>
       </c>
       <c r="I101" s="3">
-        <v>18000</v>
+        <v>17200</v>
       </c>
       <c r="J101" s="3">
-        <v>-19300</v>
+        <v>-18400</v>
       </c>
       <c r="K101" s="3">
         <v>-22100</v>
@@ -4250,25 +4250,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-270100</v>
+        <v>-257400</v>
       </c>
       <c r="E102" s="3">
-        <v>145300</v>
+        <v>138500</v>
       </c>
       <c r="F102" s="3">
-        <v>280300</v>
+        <v>267100</v>
       </c>
       <c r="G102" s="3">
-        <v>-103100</v>
+        <v>-98200</v>
       </c>
       <c r="H102" s="3">
-        <v>-324900</v>
+        <v>-309600</v>
       </c>
       <c r="I102" s="3">
-        <v>315200</v>
+        <v>300300</v>
       </c>
       <c r="J102" s="3">
-        <v>59100</v>
+        <v>56300</v>
       </c>
       <c r="K102" s="3">
         <v>29200</v>

--- a/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SSDOY_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7332700</v>
+        <v>7087200</v>
       </c>
       <c r="E8" s="3">
-        <v>6938500</v>
+        <v>6706200</v>
       </c>
       <c r="F8" s="3">
-        <v>6326500</v>
+        <v>6114700</v>
       </c>
       <c r="G8" s="3">
-        <v>7773700</v>
+        <v>7513500</v>
       </c>
       <c r="H8" s="3">
-        <v>7521400</v>
+        <v>7269600</v>
       </c>
       <c r="I8" s="3">
-        <v>6904800</v>
+        <v>6673600</v>
       </c>
       <c r="J8" s="3">
-        <v>5841600</v>
+        <v>5646000</v>
       </c>
       <c r="K8" s="3">
         <v>5410100</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2220300</v>
+        <v>2146000</v>
       </c>
       <c r="E9" s="3">
-        <v>1867300</v>
+        <v>1804800</v>
       </c>
       <c r="F9" s="3">
-        <v>1637800</v>
+        <v>1583000</v>
       </c>
       <c r="G9" s="3">
-        <v>1750800</v>
+        <v>1692200</v>
       </c>
       <c r="H9" s="3">
-        <v>1593300</v>
+        <v>1540000</v>
       </c>
       <c r="I9" s="3">
-        <v>1589200</v>
+        <v>1536000</v>
       </c>
       <c r="J9" s="3">
-        <v>1425900</v>
+        <v>1378200</v>
       </c>
       <c r="K9" s="3">
         <v>1389700</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5112400</v>
+        <v>4941200</v>
       </c>
       <c r="E10" s="3">
-        <v>5071100</v>
+        <v>4901400</v>
       </c>
       <c r="F10" s="3">
-        <v>4688700</v>
+        <v>4531700</v>
       </c>
       <c r="G10" s="3">
-        <v>6022900</v>
+        <v>5821300</v>
       </c>
       <c r="H10" s="3">
-        <v>5928100</v>
+        <v>5729600</v>
       </c>
       <c r="I10" s="3">
-        <v>5315600</v>
+        <v>5137600</v>
       </c>
       <c r="J10" s="3">
-        <v>4415700</v>
+        <v>4267900</v>
       </c>
       <c r="K10" s="3">
         <v>4020400</v>
@@ -874,22 +874,22 @@
         <v>91</v>
       </c>
       <c r="E12" s="3">
-        <v>176000</v>
+        <v>170100</v>
       </c>
       <c r="F12" s="3">
-        <v>185400</v>
+        <v>179200</v>
       </c>
       <c r="G12" s="3">
-        <v>217800</v>
+        <v>210500</v>
       </c>
       <c r="H12" s="3">
-        <v>200100</v>
+        <v>193400</v>
       </c>
       <c r="I12" s="3">
-        <v>166500</v>
+        <v>160900</v>
       </c>
       <c r="J12" s="3">
-        <v>125500</v>
+        <v>121300</v>
       </c>
       <c r="K12" s="3">
         <v>80100</v>
@@ -955,25 +955,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-118600</v>
+        <v>-114600</v>
       </c>
       <c r="E14" s="3">
-        <v>-545700</v>
+        <v>-527400</v>
       </c>
       <c r="F14" s="3">
-        <v>127400</v>
+        <v>123100</v>
       </c>
       <c r="G14" s="3">
-        <v>24800</v>
+        <v>24000</v>
       </c>
       <c r="H14" s="3">
-        <v>62700</v>
+        <v>60600</v>
       </c>
       <c r="I14" s="3">
-        <v>542100</v>
+        <v>523900</v>
       </c>
       <c r="J14" s="3">
-        <v>32900</v>
+        <v>31800</v>
       </c>
       <c r="K14" s="3">
         <v>17400</v>
@@ -1054,25 +1054,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>7012800</v>
+        <v>6778000</v>
       </c>
       <c r="E17" s="3">
-        <v>6247500</v>
+        <v>6038400</v>
       </c>
       <c r="F17" s="3">
-        <v>6351100</v>
+        <v>6138500</v>
       </c>
       <c r="G17" s="3">
-        <v>7016600</v>
+        <v>6781700</v>
       </c>
       <c r="H17" s="3">
-        <v>6839800</v>
+        <v>6610800</v>
       </c>
       <c r="I17" s="3">
-        <v>6894200</v>
+        <v>6663400</v>
       </c>
       <c r="J17" s="3">
-        <v>5621800</v>
+        <v>5433600</v>
       </c>
       <c r="K17" s="3">
         <v>5160500</v>
@@ -1096,25 +1096,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>319900</v>
+        <v>309200</v>
       </c>
       <c r="E18" s="3">
-        <v>690900</v>
+        <v>667800</v>
       </c>
       <c r="F18" s="3">
-        <v>-24600</v>
+        <v>-23800</v>
       </c>
       <c r="G18" s="3">
-        <v>757200</v>
+        <v>731800</v>
       </c>
       <c r="H18" s="3">
-        <v>681700</v>
+        <v>658900</v>
       </c>
       <c r="I18" s="3">
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="J18" s="3">
-        <v>219800</v>
+        <v>212400</v>
       </c>
       <c r="K18" s="3">
         <v>249600</v>
@@ -1156,25 +1156,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>42500</v>
+        <v>41100</v>
       </c>
       <c r="E20" s="3">
-        <v>25400</v>
+        <v>24600</v>
       </c>
       <c r="F20" s="3">
-        <v>25900</v>
+        <v>25000</v>
       </c>
       <c r="G20" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="H20" s="3">
-        <v>40200</v>
+        <v>38900</v>
       </c>
       <c r="I20" s="3">
-        <v>261100</v>
+        <v>252400</v>
       </c>
       <c r="J20" s="3">
-        <v>128400</v>
+        <v>124100</v>
       </c>
       <c r="K20" s="3">
         <v>60300</v>
@@ -1198,25 +1198,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>882600</v>
+        <v>850800</v>
       </c>
       <c r="E21" s="3">
-        <v>1286000</v>
+        <v>1240500</v>
       </c>
       <c r="F21" s="3">
-        <v>464600</v>
+        <v>447100</v>
       </c>
       <c r="G21" s="3">
-        <v>1154700</v>
+        <v>1114300</v>
       </c>
       <c r="H21" s="3">
-        <v>1023100</v>
+        <v>987500</v>
       </c>
       <c r="I21" s="3">
-        <v>572900</v>
+        <v>552400</v>
       </c>
       <c r="J21" s="3">
-        <v>618800</v>
+        <v>596900</v>
       </c>
       <c r="K21" s="3">
         <v>562100</v>
@@ -1240,25 +1240,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="E22" s="3">
-        <v>35500</v>
+        <v>34300</v>
       </c>
       <c r="F22" s="3">
-        <v>15300</v>
+        <v>14800</v>
       </c>
       <c r="G22" s="3">
-        <v>15700</v>
+        <v>15200</v>
       </c>
       <c r="H22" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="I22" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="J22" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="K22" s="3">
         <v>5700</v>
@@ -1282,25 +1282,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>346400</v>
+        <v>334800</v>
       </c>
       <c r="E23" s="3">
-        <v>680900</v>
+        <v>658100</v>
       </c>
       <c r="F23" s="3">
-        <v>-14000</v>
+        <v>-13500</v>
       </c>
       <c r="G23" s="3">
-        <v>737700</v>
+        <v>713000</v>
       </c>
       <c r="H23" s="3">
-        <v>716600</v>
+        <v>692600</v>
       </c>
       <c r="I23" s="3">
-        <v>264900</v>
+        <v>256000</v>
       </c>
       <c r="J23" s="3">
-        <v>342600</v>
+        <v>331100</v>
       </c>
       <c r="K23" s="3">
         <v>304100</v>
@@ -1324,25 +1324,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>88200</v>
+        <v>85300</v>
       </c>
       <c r="E24" s="3">
-        <v>341200</v>
+        <v>329700</v>
       </c>
       <c r="F24" s="3">
-        <v>48600</v>
+        <v>47000</v>
       </c>
       <c r="G24" s="3">
-        <v>206600</v>
+        <v>199700</v>
       </c>
       <c r="H24" s="3">
-        <v>270700</v>
+        <v>261600</v>
       </c>
       <c r="I24" s="3">
-        <v>90700</v>
+        <v>87600</v>
       </c>
       <c r="J24" s="3">
-        <v>109500</v>
+        <v>105800</v>
       </c>
       <c r="K24" s="3">
         <v>122600</v>
@@ -1408,25 +1408,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>258200</v>
+        <v>249600</v>
       </c>
       <c r="E26" s="3">
-        <v>339700</v>
+        <v>328300</v>
       </c>
       <c r="F26" s="3">
-        <v>-62600</v>
+        <v>-60600</v>
       </c>
       <c r="G26" s="3">
-        <v>531100</v>
+        <v>513300</v>
       </c>
       <c r="H26" s="3">
-        <v>445900</v>
+        <v>431000</v>
       </c>
       <c r="I26" s="3">
-        <v>174200</v>
+        <v>168400</v>
       </c>
       <c r="J26" s="3">
-        <v>233100</v>
+        <v>225300</v>
       </c>
       <c r="K26" s="3">
         <v>181500</v>
@@ -1450,25 +1450,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>235000</v>
+        <v>227100</v>
       </c>
       <c r="E27" s="3">
-        <v>305300</v>
+        <v>295100</v>
       </c>
       <c r="F27" s="3">
-        <v>-80100</v>
+        <v>-77400</v>
       </c>
       <c r="G27" s="3">
-        <v>505400</v>
+        <v>488500</v>
       </c>
       <c r="H27" s="3">
-        <v>421800</v>
+        <v>407700</v>
       </c>
       <c r="I27" s="3">
-        <v>156300</v>
+        <v>151100</v>
       </c>
       <c r="J27" s="3">
-        <v>220500</v>
+        <v>213200</v>
       </c>
       <c r="K27" s="3">
         <v>164600</v>
@@ -1660,25 +1660,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-42500</v>
+        <v>-41100</v>
       </c>
       <c r="E32" s="3">
-        <v>-25400</v>
+        <v>-24600</v>
       </c>
       <c r="F32" s="3">
-        <v>-25900</v>
+        <v>-25000</v>
       </c>
       <c r="G32" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H32" s="3">
-        <v>-40200</v>
+        <v>-38900</v>
       </c>
       <c r="I32" s="3">
-        <v>-261100</v>
+        <v>-252400</v>
       </c>
       <c r="J32" s="3">
-        <v>-128400</v>
+        <v>-124100</v>
       </c>
       <c r="K32" s="3">
         <v>-60300</v>
@@ -1702,25 +1702,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>235000</v>
+        <v>227100</v>
       </c>
       <c r="E33" s="3">
-        <v>305300</v>
+        <v>295100</v>
       </c>
       <c r="F33" s="3">
-        <v>-80100</v>
+        <v>-77400</v>
       </c>
       <c r="G33" s="3">
-        <v>505400</v>
+        <v>488500</v>
       </c>
       <c r="H33" s="3">
-        <v>421800</v>
+        <v>407700</v>
       </c>
       <c r="I33" s="3">
-        <v>156300</v>
+        <v>151100</v>
       </c>
       <c r="J33" s="3">
-        <v>220500</v>
+        <v>213200</v>
       </c>
       <c r="K33" s="3">
         <v>164600</v>
@@ -1786,25 +1786,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>235000</v>
+        <v>227100</v>
       </c>
       <c r="E35" s="3">
-        <v>305300</v>
+        <v>295100</v>
       </c>
       <c r="F35" s="3">
-        <v>-80100</v>
+        <v>-77400</v>
       </c>
       <c r="G35" s="3">
-        <v>505400</v>
+        <v>488500</v>
       </c>
       <c r="H35" s="3">
-        <v>421800</v>
+        <v>407700</v>
       </c>
       <c r="I35" s="3">
-        <v>156300</v>
+        <v>151100</v>
       </c>
       <c r="J35" s="3">
-        <v>220500</v>
+        <v>213200</v>
       </c>
       <c r="K35" s="3">
         <v>164600</v>
@@ -1911,25 +1911,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>817800</v>
+        <v>790400</v>
       </c>
       <c r="E41" s="3">
-        <v>3332400</v>
+        <v>3220800</v>
       </c>
       <c r="F41" s="3">
-        <v>893200</v>
+        <v>863300</v>
       </c>
       <c r="G41" s="3">
-        <v>758000</v>
+        <v>732700</v>
       </c>
       <c r="H41" s="3">
-        <v>864900</v>
+        <v>835900</v>
       </c>
       <c r="I41" s="3">
-        <v>1145200</v>
+        <v>1106900</v>
       </c>
       <c r="J41" s="3">
-        <v>825300</v>
+        <v>797600</v>
       </c>
       <c r="K41" s="3">
         <v>827900</v>
@@ -1953,13 +1953,13 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>127100</v>
+        <v>122800</v>
       </c>
       <c r="E42" s="3">
-        <v>112900</v>
+        <v>109100</v>
       </c>
       <c r="F42" s="3">
-        <v>144300</v>
+        <v>139400</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>91</v>
@@ -1968,10 +1968,10 @@
         <v>91</v>
       </c>
       <c r="I42" s="3">
-        <v>53500</v>
+        <v>51700</v>
       </c>
       <c r="J42" s="3">
-        <v>54300</v>
+        <v>52500</v>
       </c>
       <c r="K42" s="3">
         <v>54500</v>
@@ -1995,25 +1995,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1250800</v>
+        <v>1208900</v>
       </c>
       <c r="E43" s="3">
-        <v>3192200</v>
+        <v>3085400</v>
       </c>
       <c r="F43" s="3">
-        <v>969200</v>
+        <v>936800</v>
       </c>
       <c r="G43" s="3">
-        <v>1169000</v>
+        <v>1129900</v>
       </c>
       <c r="H43" s="3">
-        <v>1130100</v>
+        <v>1092300</v>
       </c>
       <c r="I43" s="3">
-        <v>1101500</v>
+        <v>1064600</v>
       </c>
       <c r="J43" s="3">
-        <v>926300</v>
+        <v>895300</v>
       </c>
       <c r="K43" s="3">
         <v>889300</v>
@@ -2037,25 +2037,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>899600</v>
+        <v>869500</v>
       </c>
       <c r="E44" s="3">
-        <v>2830800</v>
+        <v>2736000</v>
       </c>
       <c r="F44" s="3">
-        <v>1168100</v>
+        <v>1129000</v>
       </c>
       <c r="G44" s="3">
-        <v>1244200</v>
+        <v>1202500</v>
       </c>
       <c r="H44" s="3">
-        <v>1029000</v>
+        <v>994600</v>
       </c>
       <c r="I44" s="3">
-        <v>892800</v>
+        <v>862900</v>
       </c>
       <c r="J44" s="3">
-        <v>1589300</v>
+        <v>1536100</v>
       </c>
       <c r="K44" s="3">
         <v>751000</v>
@@ -2079,25 +2079,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>506200</v>
+        <v>489300</v>
       </c>
       <c r="E45" s="3">
-        <v>323200</v>
+        <v>312400</v>
       </c>
       <c r="F45" s="3">
-        <v>361600</v>
+        <v>349500</v>
       </c>
       <c r="G45" s="3">
-        <v>487900</v>
+        <v>471500</v>
       </c>
       <c r="H45" s="3">
-        <v>498100</v>
+        <v>481400</v>
       </c>
       <c r="I45" s="3">
-        <v>422400</v>
+        <v>408200</v>
       </c>
       <c r="J45" s="3">
-        <v>366600</v>
+        <v>354300</v>
       </c>
       <c r="K45" s="3">
         <v>388900</v>
@@ -2121,25 +2121,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>3601500</v>
+        <v>3480900</v>
       </c>
       <c r="E46" s="3">
-        <v>3523800</v>
+        <v>3405800</v>
       </c>
       <c r="F46" s="3">
-        <v>3536400</v>
+        <v>3418000</v>
       </c>
       <c r="G46" s="3">
-        <v>3659100</v>
+        <v>3536600</v>
       </c>
       <c r="H46" s="3">
-        <v>3318200</v>
+        <v>3207100</v>
       </c>
       <c r="I46" s="3">
-        <v>3615300</v>
+        <v>3494300</v>
       </c>
       <c r="J46" s="3">
-        <v>2967200</v>
+        <v>2867800</v>
       </c>
       <c r="K46" s="3">
         <v>2911700</v>
@@ -2163,25 +2163,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>688600</v>
+        <v>665600</v>
       </c>
       <c r="E47" s="3">
-        <v>936200</v>
+        <v>904800</v>
       </c>
       <c r="F47" s="3">
-        <v>92000</v>
+        <v>88900</v>
       </c>
       <c r="G47" s="3">
-        <v>95400</v>
+        <v>92200</v>
       </c>
       <c r="H47" s="3">
-        <v>315900</v>
+        <v>305300</v>
       </c>
       <c r="I47" s="3">
-        <v>179500</v>
+        <v>173500</v>
       </c>
       <c r="J47" s="3">
-        <v>343500</v>
+        <v>332000</v>
       </c>
       <c r="K47" s="3">
         <v>197000</v>
@@ -2205,25 +2205,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2972100</v>
+        <v>2872600</v>
       </c>
       <c r="E48" s="3">
-        <v>8883900</v>
+        <v>8586500</v>
       </c>
       <c r="F48" s="3">
-        <v>2343000</v>
+        <v>2264500</v>
       </c>
       <c r="G48" s="3">
-        <v>2162400</v>
+        <v>2090000</v>
       </c>
       <c r="H48" s="3">
-        <v>1615700</v>
+        <v>1561600</v>
       </c>
       <c r="I48" s="3">
-        <v>1090100</v>
+        <v>1053600</v>
       </c>
       <c r="J48" s="3">
-        <v>1073100</v>
+        <v>1037100</v>
       </c>
       <c r="K48" s="3">
         <v>952100</v>
@@ -2247,25 +2247,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1244100</v>
+        <v>1202500</v>
       </c>
       <c r="E49" s="3">
-        <v>2794800</v>
+        <v>2701300</v>
       </c>
       <c r="F49" s="3">
-        <v>1658400</v>
+        <v>1602800</v>
       </c>
       <c r="G49" s="3">
-        <v>1712100</v>
+        <v>1654700</v>
       </c>
       <c r="H49" s="3">
-        <v>1136300</v>
+        <v>1098300</v>
       </c>
       <c r="I49" s="3">
-        <v>1158200</v>
+        <v>1119400</v>
       </c>
       <c r="J49" s="3">
-        <v>1692300</v>
+        <v>1635700</v>
       </c>
       <c r="K49" s="3">
         <v>1144300</v>
@@ -2373,25 +2373,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>477400</v>
+        <v>461400</v>
       </c>
       <c r="E52" s="3">
-        <v>773800</v>
+        <v>747900</v>
       </c>
       <c r="F52" s="3">
-        <v>643300</v>
+        <v>621800</v>
       </c>
       <c r="G52" s="3">
-        <v>744200</v>
+        <v>719300</v>
       </c>
       <c r="H52" s="3">
-        <v>708100</v>
+        <v>684400</v>
       </c>
       <c r="I52" s="3">
-        <v>479400</v>
+        <v>463400</v>
       </c>
       <c r="J52" s="3">
-        <v>515600</v>
+        <v>498400</v>
       </c>
       <c r="K52" s="3">
         <v>527500</v>
@@ -2457,25 +2457,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>8983600</v>
+        <v>8682900</v>
       </c>
       <c r="E54" s="3">
-        <v>8937700</v>
+        <v>8638500</v>
       </c>
       <c r="F54" s="3">
-        <v>8273100</v>
+        <v>7996100</v>
       </c>
       <c r="G54" s="3">
-        <v>8373100</v>
+        <v>8092800</v>
       </c>
       <c r="H54" s="3">
-        <v>6936100</v>
+        <v>6703900</v>
       </c>
       <c r="I54" s="3">
-        <v>6522500</v>
+        <v>6304200</v>
       </c>
       <c r="J54" s="3">
-        <v>6420600</v>
+        <v>6205700</v>
       </c>
       <c r="K54" s="3">
         <v>5732600</v>
@@ -2535,25 +2535,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>733900</v>
+        <v>709400</v>
       </c>
       <c r="E57" s="3">
-        <v>2582400</v>
+        <v>2495900</v>
       </c>
       <c r="F57" s="3">
-        <v>528500</v>
+        <v>510800</v>
       </c>
       <c r="G57" s="3">
-        <v>666000</v>
+        <v>643700</v>
       </c>
       <c r="H57" s="3">
-        <v>702700</v>
+        <v>679200</v>
       </c>
       <c r="I57" s="3">
-        <v>597900</v>
+        <v>577900</v>
       </c>
       <c r="J57" s="3">
-        <v>572900</v>
+        <v>553700</v>
       </c>
       <c r="K57" s="3">
         <v>441800</v>
@@ -2577,25 +2577,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>341800</v>
+        <v>330300</v>
       </c>
       <c r="E58" s="3">
-        <v>566200</v>
+        <v>547200</v>
       </c>
       <c r="F58" s="3">
-        <v>536400</v>
+        <v>518400</v>
       </c>
       <c r="G58" s="3">
-        <v>1009400</v>
+        <v>975600</v>
       </c>
       <c r="H58" s="3">
-        <v>104400</v>
+        <v>100900</v>
       </c>
       <c r="I58" s="3">
-        <v>73200</v>
+        <v>70800</v>
       </c>
       <c r="J58" s="3">
-        <v>113700</v>
+        <v>109900</v>
       </c>
       <c r="K58" s="3">
         <v>134700</v>
@@ -2619,25 +2619,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1600600</v>
+        <v>1547000</v>
       </c>
       <c r="E59" s="3">
-        <v>2891200</v>
+        <v>2794400</v>
       </c>
       <c r="F59" s="3">
-        <v>1360100</v>
+        <v>1314600</v>
       </c>
       <c r="G59" s="3">
-        <v>1514200</v>
+        <v>1463500</v>
       </c>
       <c r="H59" s="3">
-        <v>1528200</v>
+        <v>1477000</v>
       </c>
       <c r="I59" s="3">
-        <v>1330600</v>
+        <v>1286100</v>
       </c>
       <c r="J59" s="3">
-        <v>1008100</v>
+        <v>974300</v>
       </c>
       <c r="K59" s="3">
         <v>889600</v>
@@ -2661,25 +2661,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2676300</v>
+        <v>2586700</v>
       </c>
       <c r="E60" s="3">
-        <v>2841200</v>
+        <v>2746000</v>
       </c>
       <c r="F60" s="3">
-        <v>2425000</v>
+        <v>2343800</v>
       </c>
       <c r="G60" s="3">
-        <v>3189600</v>
+        <v>3082800</v>
       </c>
       <c r="H60" s="3">
-        <v>2335400</v>
+        <v>2257200</v>
       </c>
       <c r="I60" s="3">
-        <v>2001800</v>
+        <v>1934800</v>
       </c>
       <c r="J60" s="3">
-        <v>1694700</v>
+        <v>1638000</v>
       </c>
       <c r="K60" s="3">
         <v>1466100</v>
@@ -2703,25 +2703,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1699900</v>
+        <v>1643000</v>
       </c>
       <c r="E61" s="3">
-        <v>1819300</v>
+        <v>1758400</v>
       </c>
       <c r="F61" s="3">
-        <v>2051800</v>
+        <v>1983100</v>
       </c>
       <c r="G61" s="3">
-        <v>1041100</v>
+        <v>1006200</v>
       </c>
       <c r="H61" s="3">
-        <v>788200</v>
+        <v>761800</v>
       </c>
       <c r="I61" s="3">
-        <v>892800</v>
+        <v>862900</v>
       </c>
       <c r="J61" s="3">
-        <v>714600</v>
+        <v>690700</v>
       </c>
       <c r="K61" s="3">
         <v>479400</v>
@@ -2745,25 +2745,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>308500</v>
+        <v>298200</v>
       </c>
       <c r="E62" s="3">
-        <v>693900</v>
+        <v>670700</v>
       </c>
       <c r="F62" s="3">
-        <v>316000</v>
+        <v>305400</v>
       </c>
       <c r="G62" s="3">
-        <v>584800</v>
+        <v>565200</v>
       </c>
       <c r="H62" s="3">
-        <v>594100</v>
+        <v>574200</v>
       </c>
       <c r="I62" s="3">
-        <v>564900</v>
+        <v>546000</v>
       </c>
       <c r="J62" s="3">
-        <v>1168000</v>
+        <v>1128900</v>
       </c>
       <c r="K62" s="3">
         <v>856600</v>
@@ -2913,25 +2913,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>4832400</v>
+        <v>4670600</v>
       </c>
       <c r="E66" s="3">
-        <v>5223200</v>
+        <v>5048300</v>
       </c>
       <c r="F66" s="3">
-        <v>4936400</v>
+        <v>4771100</v>
       </c>
       <c r="G66" s="3">
-        <v>4953900</v>
+        <v>4788100</v>
       </c>
       <c r="H66" s="3">
-        <v>3847800</v>
+        <v>3719000</v>
       </c>
       <c r="I66" s="3">
-        <v>3607500</v>
+        <v>3486700</v>
       </c>
       <c r="J66" s="3">
-        <v>3715300</v>
+        <v>3591000</v>
       </c>
       <c r="K66" s="3">
         <v>2949600</v>
@@ -3141,25 +3141,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2712800</v>
+        <v>2622000</v>
       </c>
       <c r="E72" s="3">
-        <v>5080900</v>
+        <v>4910800</v>
       </c>
       <c r="F72" s="3">
-        <v>2344200</v>
+        <v>2265700</v>
       </c>
       <c r="G72" s="3">
-        <v>2560400</v>
+        <v>2474700</v>
       </c>
       <c r="H72" s="3">
-        <v>2198100</v>
+        <v>2124500</v>
       </c>
       <c r="I72" s="3">
-        <v>1872500</v>
+        <v>1809800</v>
       </c>
       <c r="J72" s="3">
-        <v>1778100</v>
+        <v>1718600</v>
       </c>
       <c r="K72" s="3">
         <v>1664700</v>
@@ -3309,25 +3309,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>4151300</v>
+        <v>4012300</v>
       </c>
       <c r="E76" s="3">
-        <v>3714600</v>
+        <v>3590200</v>
       </c>
       <c r="F76" s="3">
-        <v>3336700</v>
+        <v>3225000</v>
       </c>
       <c r="G76" s="3">
-        <v>3419200</v>
+        <v>3304700</v>
       </c>
       <c r="H76" s="3">
-        <v>3088300</v>
+        <v>2984900</v>
       </c>
       <c r="I76" s="3">
-        <v>2915100</v>
+        <v>2817500</v>
       </c>
       <c r="J76" s="3">
-        <v>2705300</v>
+        <v>2614700</v>
       </c>
       <c r="K76" s="3">
         <v>2783000</v>
@@ -3440,25 +3440,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>235000</v>
+        <v>227100</v>
       </c>
       <c r="E81" s="3">
-        <v>305300</v>
+        <v>295100</v>
       </c>
       <c r="F81" s="3">
-        <v>-80100</v>
+        <v>-77400</v>
       </c>
       <c r="G81" s="3">
-        <v>505400</v>
+        <v>488500</v>
       </c>
       <c r="H81" s="3">
-        <v>421800</v>
+        <v>407700</v>
       </c>
       <c r="I81" s="3">
-        <v>156300</v>
+        <v>151100</v>
       </c>
       <c r="J81" s="3">
-        <v>220500</v>
+        <v>213200</v>
       </c>
       <c r="K81" s="3">
         <v>164600</v>
@@ -3500,25 +3500,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>520200</v>
+        <v>502800</v>
       </c>
       <c r="E83" s="3">
-        <v>569700</v>
+        <v>550600</v>
       </c>
       <c r="F83" s="3">
-        <v>463400</v>
+        <v>447900</v>
       </c>
       <c r="G83" s="3">
-        <v>401300</v>
+        <v>387800</v>
       </c>
       <c r="H83" s="3">
-        <v>301200</v>
+        <v>291100</v>
       </c>
       <c r="I83" s="3">
-        <v>301200</v>
+        <v>291200</v>
       </c>
       <c r="J83" s="3">
-        <v>270700</v>
+        <v>261600</v>
       </c>
       <c r="K83" s="3">
         <v>261900</v>
@@ -3752,25 +3752,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>317600</v>
+        <v>307000</v>
       </c>
       <c r="E89" s="3">
-        <v>922300</v>
+        <v>891400</v>
       </c>
       <c r="F89" s="3">
-        <v>440000</v>
+        <v>425300</v>
       </c>
       <c r="G89" s="3">
-        <v>518900</v>
+        <v>501600</v>
       </c>
       <c r="H89" s="3">
-        <v>636000</v>
+        <v>614700</v>
       </c>
       <c r="I89" s="3">
-        <v>655300</v>
+        <v>633400</v>
       </c>
       <c r="J89" s="3">
-        <v>406200</v>
+        <v>392600</v>
       </c>
       <c r="K89" s="3">
         <v>429200</v>
@@ -3812,25 +3812,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-249300</v>
+        <v>-241000</v>
       </c>
       <c r="E91" s="3">
-        <v>-517200</v>
+        <v>-499900</v>
       </c>
       <c r="F91" s="3">
-        <v>-387200</v>
+        <v>-374200</v>
       </c>
       <c r="G91" s="3">
-        <v>-633400</v>
+        <v>-612200</v>
       </c>
       <c r="H91" s="3">
-        <v>-553700</v>
+        <v>-535200</v>
       </c>
       <c r="I91" s="3">
-        <v>-247400</v>
+        <v>-239100</v>
       </c>
       <c r="J91" s="3">
-        <v>-215500</v>
+        <v>-208300</v>
       </c>
       <c r="K91" s="3">
         <v>-120100</v>
@@ -3938,25 +3938,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-283800</v>
+        <v>-274300</v>
       </c>
       <c r="E94" s="3">
-        <v>458500</v>
+        <v>443100</v>
       </c>
       <c r="F94" s="3">
-        <v>-481500</v>
+        <v>-465400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1393400</v>
+        <v>-1346700</v>
       </c>
       <c r="H94" s="3">
-        <v>-708400</v>
+        <v>-684700</v>
       </c>
       <c r="I94" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="J94" s="3">
-        <v>-485300</v>
+        <v>-469000</v>
       </c>
       <c r="K94" s="3">
         <v>-164000</v>
@@ -3998,25 +3998,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-150900</v>
+        <v>-145900</v>
       </c>
       <c r="E96" s="3">
-        <v>-109800</v>
+        <v>-106200</v>
       </c>
       <c r="F96" s="3">
-        <v>-137200</v>
+        <v>-132600</v>
       </c>
       <c r="G96" s="3">
-        <v>-151300</v>
+        <v>-146300</v>
       </c>
       <c r="H96" s="3">
-        <v>-95800</v>
+        <v>-92600</v>
       </c>
       <c r="I96" s="3">
-        <v>-61700</v>
+        <v>-59600</v>
       </c>
       <c r="J96" s="3">
-        <v>-56400</v>
+        <v>-54500</v>
       </c>
       <c r="K96" s="3">
         <v>-54700</v>
@@ -4166,25 +4166,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-360100</v>
+        <v>-348100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1309300</v>
+        <v>-1265400</v>
       </c>
       <c r="F100" s="3">
-        <v>322100</v>
+        <v>311300</v>
       </c>
       <c r="G100" s="3">
-        <v>781000</v>
+        <v>754800</v>
       </c>
       <c r="H100" s="3">
-        <v>-204200</v>
+        <v>-197400</v>
       </c>
       <c r="I100" s="3">
-        <v>-364900</v>
+        <v>-352700</v>
       </c>
       <c r="J100" s="3">
-        <v>153700</v>
+        <v>148600</v>
       </c>
       <c r="K100" s="3">
         <v>-213800</v>
@@ -4208,25 +4208,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>68900</v>
+        <v>66600</v>
       </c>
       <c r="E101" s="3">
-        <v>67000</v>
+        <v>64700</v>
       </c>
       <c r="F101" s="3">
-        <v>-13500</v>
+        <v>-13000</v>
       </c>
       <c r="G101" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="H101" s="3">
-        <v>-33000</v>
+        <v>-31900</v>
       </c>
       <c r="I101" s="3">
-        <v>17200</v>
+        <v>16600</v>
       </c>
       <c r="J101" s="3">
-        <v>-18400</v>
+        <v>-17700</v>
       </c>
       <c r="K101" s="3">
         <v>-22100</v>
@@ -4250,25 +4250,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-257400</v>
+        <v>-248800</v>
       </c>
       <c r="E102" s="3">
-        <v>138500</v>
+        <v>133800</v>
       </c>
       <c r="F102" s="3">
-        <v>267100</v>
+        <v>258200</v>
       </c>
       <c r="G102" s="3">
-        <v>-98200</v>
+        <v>-95000</v>
       </c>
       <c r="H102" s="3">
-        <v>-309600</v>
+        <v>-299200</v>
       </c>
       <c r="I102" s="3">
-        <v>300300</v>
+        <v>290200</v>
       </c>
       <c r="J102" s="3">
-        <v>56300</v>
+        <v>54400</v>
       </c>
       <c r="K102" s="3">
         <v>29200</v>
